--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="177">
   <si>
     <t>LDI</t>
   </si>
@@ -513,9 +513,6 @@
     <t>0x20000100</t>
   </si>
   <si>
-    <t>0x3C001100</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -562,6 +559,15 @@
   </si>
   <si>
     <t>0x20CE06C0</t>
+  </si>
+  <si>
+    <t>0x3C0C1100</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>0x60000000</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,158 +1294,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4684,25 +4702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AI107" sqref="AI107:AK107"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL121" sqref="AL121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="6" customWidth="1"/>
     <col min="2" max="24" width="2.6640625" style="19" customWidth="1"/>
     <col min="25" max="25" width="3" style="19" customWidth="1"/>
     <col min="26" max="35" width="2.6640625" style="19" customWidth="1"/>
-    <col min="36" max="36" width="9.109375" style="6" customWidth="1"/>
-    <col min="37" max="39" width="9.109375" style="6"/>
-    <col min="40" max="40" width="9.109375" style="6" customWidth="1"/>
-    <col min="41" max="54" width="9.109375" style="6"/>
-    <col min="55" max="55" width="13.44140625" style="6" customWidth="1"/>
-    <col min="56" max="16384" width="9.109375" style="6"/>
+    <col min="36" max="36" width="9.1328125" style="6" customWidth="1"/>
+    <col min="37" max="39" width="9.1328125" style="6"/>
+    <col min="40" max="40" width="9.1328125" style="6" customWidth="1"/>
+    <col min="41" max="54" width="9.1328125" style="6"/>
+    <col min="55" max="55" width="13.46484375" style="6" customWidth="1"/>
+    <col min="56" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -4874,18 +4892,18 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="94" t="s">
+      <c r="AJ2" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -4929,18 +4947,18 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="94" t="s">
+      <c r="AJ3" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="95"/>
-    </row>
-    <row r="4" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+    </row>
+    <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
@@ -4990,18 +5008,18 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="94" t="s">
+      <c r="AJ4" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -5039,18 +5057,18 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="100" t="s">
+      <c r="AJ5" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="101"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -5090,18 +5108,18 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="94" t="s">
+      <c r="AJ6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -5145,18 +5163,18 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="94" t="s">
+      <c r="AJ7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -5200,18 +5218,18 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="94" t="s">
+      <c r="AJ8" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -5251,18 +5269,18 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="94" t="s">
+      <c r="AJ9" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5302,18 +5320,18 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="94" t="s">
+      <c r="AJ10" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -5353,18 +5371,18 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="94" t="s">
+      <c r="AJ11" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="98"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -5404,18 +5422,18 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="94" t="s">
+      <c r="AJ12" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="98"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="98"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="97"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -5455,18 +5473,18 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="94" t="s">
+      <c r="AJ13" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="98"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="98"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -5506,16 +5524,16 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="98"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5557,18 +5575,18 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="94" t="s">
+      <c r="AJ15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="98"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="98"/>
-      <c r="AP15" s="98"/>
-      <c r="AQ15" s="98"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -5610,18 +5628,18 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="94" t="s">
+      <c r="AJ16" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="98"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="98"/>
-      <c r="AQ16" s="98"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -5663,18 +5681,18 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="94" t="s">
+      <c r="AJ17" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="98"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="98"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -5716,18 +5734,18 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="94" t="s">
+      <c r="AJ18" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
@@ -5767,18 +5785,18 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="94" t="s">
+      <c r="AJ19" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="98"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="98"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="97"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -5824,18 +5842,18 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="94" t="s">
+      <c r="AJ20" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -5877,18 +5895,18 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="94" t="s">
+      <c r="AJ21" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -5928,19 +5946,19 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="94" t="s">
+      <c r="AJ22" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="98"/>
-      <c r="AO22" s="98"/>
-      <c r="AP22" s="98"/>
-      <c r="AQ22" s="98"/>
-    </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:43" ht="32.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+    </row>
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>58</v>
@@ -6046,7 +6064,7 @@
       </c>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -6114,18 +6132,18 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="94" t="s">
+      <c r="AJ28" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-    </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="110"/>
+      <c r="AO28" s="110"/>
+      <c r="AP28" s="110"/>
+      <c r="AQ28" s="110"/>
+    </row>
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -6169,18 +6187,18 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="94" t="s">
+      <c r="AJ29" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-    </row>
-    <row r="30" spans="1:43" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="110"/>
+      <c r="AM29" s="110"/>
+      <c r="AN29" s="110"/>
+      <c r="AO29" s="110"/>
+      <c r="AP29" s="110"/>
+      <c r="AQ29" s="110"/>
+    </row>
+    <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
@@ -6230,18 +6248,18 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="94" t="s">
+      <c r="AJ30" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-    </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="110"/>
+      <c r="AM30" s="110"/>
+      <c r="AN30" s="110"/>
+      <c r="AO30" s="110"/>
+      <c r="AP30" s="110"/>
+      <c r="AQ30" s="110"/>
+    </row>
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -6281,18 +6299,18 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="94" t="s">
+      <c r="AJ31" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
-      <c r="AO31" s="98"/>
-      <c r="AP31" s="98"/>
-      <c r="AQ31" s="98"/>
-    </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="97"/>
+      <c r="AO31" s="97"/>
+      <c r="AP31" s="97"/>
+      <c r="AQ31" s="97"/>
+    </row>
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>77</v>
       </c>
@@ -6336,18 +6354,18 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="94" t="s">
+      <c r="AJ32" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="95"/>
-      <c r="AQ32" s="95"/>
-    </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="110"/>
+      <c r="AN32" s="110"/>
+      <c r="AO32" s="110"/>
+      <c r="AP32" s="110"/>
+      <c r="AQ32" s="110"/>
+    </row>
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -6387,18 +6405,18 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="94" t="s">
+      <c r="AJ33" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
-      <c r="AQ33" s="95"/>
-    </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AN33" s="110"/>
+      <c r="AO33" s="110"/>
+      <c r="AP33" s="110"/>
+      <c r="AQ33" s="110"/>
+    </row>
+    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>80</v>
       </c>
@@ -6438,18 +6456,18 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="94" t="s">
+      <c r="AJ34" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-    </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="110"/>
+      <c r="AM34" s="110"/>
+      <c r="AN34" s="110"/>
+      <c r="AO34" s="110"/>
+      <c r="AP34" s="110"/>
+      <c r="AQ34" s="110"/>
+    </row>
+    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>37</v>
       </c>
@@ -6489,18 +6507,18 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="94" t="s">
+      <c r="AJ35" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="95"/>
-      <c r="AO35" s="95"/>
-      <c r="AP35" s="95"/>
-      <c r="AQ35" s="95"/>
-    </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="110"/>
+      <c r="AM35" s="110"/>
+      <c r="AN35" s="110"/>
+      <c r="AO35" s="110"/>
+      <c r="AP35" s="110"/>
+      <c r="AQ35" s="110"/>
+    </row>
+    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -6540,18 +6558,18 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="96" t="s">
+      <c r="AJ36" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="97"/>
-      <c r="AN36" s="97"/>
-      <c r="AO36" s="97"/>
-      <c r="AP36" s="97"/>
-      <c r="AQ36" s="97"/>
-    </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK36" s="114"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="114"/>
+      <c r="AN36" s="114"/>
+      <c r="AO36" s="114"/>
+      <c r="AP36" s="114"/>
+      <c r="AQ36" s="114"/>
+    </row>
+    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>72</v>
       </c>
@@ -6591,16 +6609,16 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="95"/>
-      <c r="AP37" s="95"/>
-      <c r="AQ37" s="95"/>
-    </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="110"/>
+      <c r="AM37" s="110"/>
+      <c r="AN37" s="110"/>
+      <c r="AO37" s="110"/>
+      <c r="AP37" s="110"/>
+      <c r="AQ37" s="110"/>
+    </row>
+    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
         <v>38</v>
       </c>
@@ -6642,18 +6660,18 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="94" t="s">
+      <c r="AJ38" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="95"/>
-      <c r="AO38" s="95"/>
-      <c r="AP38" s="95"/>
-      <c r="AQ38" s="95"/>
-    </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="110"/>
+      <c r="AN38" s="110"/>
+      <c r="AO38" s="110"/>
+      <c r="AP38" s="110"/>
+      <c r="AQ38" s="110"/>
+    </row>
+    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
@@ -6695,18 +6713,18 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="94" t="s">
+      <c r="AJ39" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="95"/>
-      <c r="AO39" s="95"/>
-      <c r="AP39" s="95"/>
-      <c r="AQ39" s="95"/>
-    </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AN39" s="110"/>
+      <c r="AO39" s="110"/>
+      <c r="AP39" s="110"/>
+      <c r="AQ39" s="110"/>
+    </row>
+    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
@@ -6748,18 +6766,18 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="94" t="s">
+      <c r="AJ40" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="95"/>
-      <c r="AQ40" s="95"/>
-    </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="110"/>
+      <c r="AN40" s="110"/>
+      <c r="AO40" s="110"/>
+      <c r="AP40" s="110"/>
+      <c r="AQ40" s="110"/>
+    </row>
+    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
@@ -6799,18 +6817,18 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="96" t="s">
+      <c r="AJ41" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97"/>
-      <c r="AP41" s="97"/>
-      <c r="AQ41" s="97"/>
-    </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK41" s="114"/>
+      <c r="AL41" s="114"/>
+      <c r="AM41" s="114"/>
+      <c r="AN41" s="114"/>
+      <c r="AO41" s="114"/>
+      <c r="AP41" s="114"/>
+      <c r="AQ41" s="114"/>
+    </row>
+    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>69</v>
       </c>
@@ -6856,18 +6874,18 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="94" t="s">
+      <c r="AJ42" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="95"/>
-      <c r="AP42" s="95"/>
-      <c r="AQ42" s="95"/>
-    </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK42" s="110"/>
+      <c r="AL42" s="110"/>
+      <c r="AM42" s="110"/>
+      <c r="AN42" s="110"/>
+      <c r="AO42" s="110"/>
+      <c r="AP42" s="110"/>
+      <c r="AQ42" s="110"/>
+    </row>
+    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>70</v>
       </c>
@@ -6909,18 +6927,18 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="94" t="s">
+      <c r="AJ43" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="95"/>
-      <c r="AO43" s="95"/>
-      <c r="AP43" s="95"/>
-      <c r="AQ43" s="95"/>
-    </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AK43" s="110"/>
+      <c r="AL43" s="110"/>
+      <c r="AM43" s="110"/>
+      <c r="AN43" s="110"/>
+      <c r="AO43" s="110"/>
+      <c r="AP43" s="110"/>
+      <c r="AQ43" s="110"/>
+    </row>
+    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>90</v>
       </c>
@@ -6960,71 +6978,71 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="94" t="s">
+      <c r="AJ44" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="110"/>
+      <c r="AM44" s="110"/>
+      <c r="AN44" s="110"/>
+      <c r="AO44" s="110"/>
+      <c r="AP44" s="110"/>
+      <c r="AQ44" s="110"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB45" s="70"/>
       <c r="BC45" s="70"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB46" s="70"/>
       <c r="BC46" s="70"/>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A47" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
-      <c r="AA47" s="78"/>
-      <c r="AB47" s="78"/>
-      <c r="AC47" s="78"/>
-      <c r="AD47" s="78"/>
-      <c r="AE47" s="78"/>
-      <c r="AF47" s="78"/>
-      <c r="AG47" s="78"/>
-      <c r="AH47" s="78"/>
-      <c r="AI47" s="78"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="119"/>
+      <c r="T47" s="119"/>
+      <c r="U47" s="119"/>
+      <c r="V47" s="119"/>
+      <c r="W47" s="119"/>
+      <c r="X47" s="119"/>
+      <c r="Y47" s="119"/>
+      <c r="Z47" s="119"/>
+      <c r="AA47" s="119"/>
+      <c r="AB47" s="119"/>
+      <c r="AC47" s="119"/>
+      <c r="AD47" s="119"/>
+      <c r="AE47" s="119"/>
+      <c r="AF47" s="119"/>
+      <c r="AG47" s="119"/>
+      <c r="AH47" s="119"/>
+      <c r="AI47" s="119"/>
       <c r="BB47" s="70"/>
       <c r="BC47" s="70"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB48" s="70"/>
       <c r="BC48" s="70"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B49" s="18">
         <v>31</v>
       </c>
@@ -7124,61 +7142,61 @@
       <c r="BB49" s="70"/>
       <c r="BC49" s="70"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="80"/>
-      <c r="AD50" s="80"/>
-      <c r="AE50" s="80"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="81"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="107"/>
+      <c r="Q50" s="107"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="107"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
+      <c r="V50" s="107"/>
+      <c r="W50" s="107"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="107"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="107"/>
+      <c r="AD50" s="107"/>
+      <c r="AE50" s="107"/>
+      <c r="AF50" s="107"/>
+      <c r="AG50" s="108"/>
       <c r="BB50" s="70"/>
       <c r="BC50" s="70"/>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="75" t="s">
+      <c r="H51" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="118" t="s">
         <v>160</v>
-      </c>
-      <c r="I51" s="75" t="s">
-        <v>161</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -7205,35 +7223,35 @@
       <c r="BB51" s="70"/>
       <c r="BC51" s="70"/>
     </row>
-    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="77" t="s">
+    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="77" t="s">
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77" t="s">
+      <c r="K52" s="91"/>
+      <c r="L52" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77" t="s">
+      <c r="M52" s="91"/>
+      <c r="N52" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77" t="s">
+      <c r="O52" s="91"/>
+      <c r="P52" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="77"/>
+      <c r="Q52" s="91"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7253,23 +7271,23 @@
       <c r="BB52" s="70"/>
       <c r="BC52" s="70"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="91"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7289,23 +7307,23 @@
       <c r="BB53" s="70"/>
       <c r="BC53" s="70"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="92"/>
+      <c r="Q54" s="92"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7325,7 +7343,7 @@
       <c r="BB54" s="70"/>
       <c r="BC54" s="70"/>
     </row>
-    <row r="55" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
@@ -7351,43 +7369,43 @@
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="79" t="s">
+      <c r="R55" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="80"/>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="80"/>
-      <c r="AD55" s="80"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="81"/>
-      <c r="AJ55" s="95"/>
-      <c r="AK55" s="95"/>
-      <c r="AL55" s="95"/>
-      <c r="AM55" s="95"/>
-      <c r="AN55" s="95"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
+      <c r="U55" s="107"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="107"/>
+      <c r="Y55" s="107"/>
+      <c r="Z55" s="107"/>
+      <c r="AA55" s="107"/>
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="107"/>
+      <c r="AD55" s="107"/>
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="107"/>
+      <c r="AG55" s="108"/>
+      <c r="AJ55" s="110"/>
+      <c r="AK55" s="110"/>
+      <c r="AL55" s="110"/>
+      <c r="AM55" s="110"/>
+      <c r="AN55" s="110"/>
       <c r="AR55" s="51"/>
       <c r="AS55" s="51"/>
       <c r="BB55" s="70"/>
       <c r="BC55" s="70"/>
     </row>
-    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="H56" s="75" t="s">
+      <c r="H56" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="118" t="s">
         <v>160</v>
-      </c>
-      <c r="I56" s="75" t="s">
-        <v>161</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -7413,141 +7431,141 @@
       <c r="BB56" s="70"/>
       <c r="BC56" s="70"/>
     </row>
-    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="77" t="s">
+    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="77" t="s">
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77" t="s">
+      <c r="K57" s="91"/>
+      <c r="L57" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77" t="s">
+      <c r="M57" s="91"/>
+      <c r="N57" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77" t="s">
+      <c r="O57" s="91"/>
+      <c r="P57" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="77" t="s">
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="77"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77" t="s">
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="X57" s="77"/>
-      <c r="Y57" s="77" t="s">
+      <c r="X57" s="91"/>
+      <c r="Y57" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="Z57" s="77"/>
-      <c r="AA57" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB57" s="77"/>
-      <c r="AC57" s="77" t="s">
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="AD57" s="77"/>
-      <c r="AE57" s="77"/>
-      <c r="AF57" s="77"/>
-      <c r="AG57" s="77"/>
+      <c r="AD57" s="91"/>
+      <c r="AE57" s="91"/>
+      <c r="AF57" s="91"/>
+      <c r="AG57" s="91"/>
       <c r="AR57" s="51"/>
       <c r="AS57" s="51"/>
       <c r="BB57" s="70"/>
       <c r="BC57" s="70"/>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="77"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="77"/>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
-      <c r="AC58" s="77"/>
-      <c r="AD58" s="77"/>
-      <c r="AE58" s="77"/>
-      <c r="AF58" s="77"/>
-      <c r="AG58" s="77"/>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
+      <c r="T58" s="91"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
+      <c r="X58" s="91"/>
+      <c r="Y58" s="91"/>
+      <c r="Z58" s="91"/>
+      <c r="AA58" s="91"/>
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91"/>
+      <c r="AD58" s="91"/>
+      <c r="AE58" s="91"/>
+      <c r="AF58" s="91"/>
+      <c r="AG58" s="91"/>
       <c r="AR58" s="51"/>
       <c r="AS58" s="51"/>
       <c r="BB58" s="70"/>
       <c r="BC58" s="70"/>
     </row>
-    <row r="59" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="76"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="76"/>
-      <c r="AD59" s="76"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="76"/>
-      <c r="AG59" s="76"/>
+    <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="92"/>
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="92"/>
+      <c r="T59" s="92"/>
+      <c r="U59" s="92"/>
+      <c r="V59" s="92"/>
+      <c r="W59" s="92"/>
+      <c r="X59" s="92"/>
+      <c r="Y59" s="92"/>
+      <c r="Z59" s="92"/>
+      <c r="AA59" s="92"/>
+      <c r="AB59" s="92"/>
+      <c r="AC59" s="92"/>
+      <c r="AD59" s="92"/>
+      <c r="AE59" s="92"/>
+      <c r="AF59" s="92"/>
+      <c r="AG59" s="92"/>
       <c r="BB59" s="70"/>
       <c r="BC59" s="70"/>
     </row>
-    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>86</v>
       </c>
@@ -7589,80 +7607,80 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="104" t="s">
+      <c r="AN60" s="77" t="s">
         <v>115</v>
       </c>
       <c r="AX60" s="34"/>
-      <c r="AY60" s="104" t="s">
+      <c r="AY60" s="77" t="s">
         <v>115</v>
       </c>
       <c r="AZ60" s="34"/>
       <c r="BB60" s="70"/>
       <c r="BC60" s="70"/>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.45">
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="AM61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AN61" s="105"/>
+      <c r="AN61" s="78"/>
       <c r="AO61" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AQ61" s="109" t="s">
+      <c r="AQ61" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="AR61" s="110"/>
+      <c r="AR61" s="86"/>
       <c r="AU61" s="34"/>
       <c r="AX61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AY61" s="105"/>
+      <c r="AY61" s="78"/>
       <c r="AZ61" s="52" t="s">
         <v>117</v>
       </c>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B62" s="84" t="s">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B62" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="121"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="M62" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="N62" s="99"/>
+      <c r="O62" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="J62" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="M62" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="N62" s="86"/>
-      <c r="O62" s="82" t="s">
+      <c r="P62" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="P62" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q62" s="118" t="s">
+      <c r="Q62" s="105" t="s">
         <v>105</v>
       </c>
       <c r="T62" s="21">
@@ -7683,40 +7701,40 @@
       <c r="Y62" s="19">
         <v>0</v>
       </c>
-      <c r="Z62" s="71" t="s">
+      <c r="Z62" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
+      <c r="AA62" s="94"/>
+      <c r="AB62" s="94"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
-      <c r="AN62" s="105"/>
-      <c r="AQ62" s="111"/>
-      <c r="AR62" s="112"/>
+      <c r="AN62" s="78"/>
+      <c r="AQ62" s="87"/>
+      <c r="AR62" s="88"/>
       <c r="AX62" s="34"/>
-      <c r="AY62" s="105"/>
+      <c r="AY62" s="78"/>
       <c r="AZ62" s="34"/>
       <c r="BB62" s="70"/>
       <c r="BC62" s="70"/>
     </row>
-    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="82"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="89"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="82"/>
-      <c r="Q63" s="118"/>
+    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="100"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="95"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="95"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="105"/>
       <c r="T63" s="21">
         <v>0</v>
       </c>
@@ -7735,11 +7753,11 @@
       <c r="Y63" s="19">
         <v>1</v>
       </c>
-      <c r="Z63" s="71" t="s">
+      <c r="Z63" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
+      <c r="AA63" s="94"/>
+      <c r="AB63" s="94"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
       <c r="AE63" s="6"/>
@@ -7747,31 +7765,31 @@
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="105"/>
-      <c r="AQ63" s="111"/>
-      <c r="AR63" s="112"/>
+      <c r="AN63" s="78"/>
+      <c r="AQ63" s="87"/>
+      <c r="AR63" s="88"/>
       <c r="AX63" s="34"/>
-      <c r="AY63" s="105"/>
+      <c r="AY63" s="78"/>
       <c r="AZ63" s="34"/>
       <c r="BB63" s="70"/>
       <c r="BC63" s="70"/>
     </row>
-    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="82"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="118"/>
+    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="100"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="95"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="95"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="105"/>
       <c r="T64" s="21">
         <v>0</v>
       </c>
@@ -7790,11 +7808,11 @@
       <c r="Y64" s="19">
         <v>2</v>
       </c>
-      <c r="Z64" s="83" t="s">
+      <c r="Z64" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AA64" s="83"/>
-      <c r="AB64" s="83"/>
+      <c r="AA64" s="76"/>
+      <c r="AB64" s="76"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -7802,31 +7820,31 @@
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="105"/>
-      <c r="AQ64" s="113"/>
-      <c r="AR64" s="114"/>
+      <c r="AN64" s="78"/>
+      <c r="AQ64" s="89"/>
+      <c r="AR64" s="90"/>
       <c r="AX64" s="34"/>
-      <c r="AY64" s="105"/>
+      <c r="AY64" s="78"/>
       <c r="AZ64" s="34"/>
       <c r="BB64" s="70"/>
       <c r="BC64" s="70"/>
     </row>
-    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="82"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="118"/>
+    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="102"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="95"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="105"/>
       <c r="T65" s="21">
         <v>0</v>
       </c>
@@ -7845,11 +7863,11 @@
       <c r="Y65" s="19">
         <v>3</v>
       </c>
-      <c r="Z65" s="83" t="s">
+      <c r="Z65" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AA65" s="83"/>
-      <c r="AB65" s="83"/>
+      <c r="AA65" s="76"/>
+      <c r="AB65" s="76"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
@@ -7857,14 +7875,14 @@
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="105"/>
+      <c r="AN65" s="78"/>
       <c r="AX65" s="34"/>
-      <c r="AY65" s="105"/>
+      <c r="AY65" s="78"/>
       <c r="AZ65" s="34"/>
       <c r="BB65" s="70"/>
       <c r="BC65" s="70"/>
     </row>
-    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="20">
         <v>0</v>
       </c>
@@ -7908,11 +7926,11 @@
       <c r="Y66" s="19">
         <v>4</v>
       </c>
-      <c r="Z66" s="83" t="s">
+      <c r="Z66" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AA66" s="83"/>
-      <c r="AB66" s="83"/>
+      <c r="AA66" s="76"/>
+      <c r="AB66" s="76"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
@@ -7920,16 +7938,16 @@
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-      <c r="AN66" s="105"/>
+      <c r="AN66" s="78"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AX66" s="34"/>
-      <c r="AY66" s="105"/>
+      <c r="AY66" s="78"/>
       <c r="AZ66" s="34"/>
       <c r="BB66" s="70"/>
       <c r="BC66" s="70"/>
     </row>
-    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="20">
         <v>0</v>
       </c>
@@ -7977,11 +7995,11 @@
       <c r="Y67" s="19">
         <v>5</v>
       </c>
-      <c r="Z67" s="83" t="s">
+      <c r="Z67" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AA67" s="83"/>
-      <c r="AB67" s="83"/>
+      <c r="AA67" s="76"/>
+      <c r="AB67" s="76"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
@@ -7989,14 +8007,14 @@
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-      <c r="AN67" s="105"/>
+      <c r="AN67" s="78"/>
       <c r="AX67" s="34"/>
-      <c r="AY67" s="105"/>
+      <c r="AY67" s="78"/>
       <c r="AZ67" s="34"/>
       <c r="BB67" s="70"/>
       <c r="BC67" s="70"/>
     </row>
-    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="66" t="s">
         <v>108</v>
       </c>
@@ -8049,11 +8067,11 @@
       <c r="Y68" s="19">
         <v>6</v>
       </c>
-      <c r="Z68" s="83" t="s">
+      <c r="Z68" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AA68" s="83"/>
-      <c r="AB68" s="83"/>
+      <c r="AA68" s="76"/>
+      <c r="AB68" s="76"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
@@ -8061,14 +8079,14 @@
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AN68" s="105"/>
+      <c r="AN68" s="78"/>
       <c r="AX68" s="34"/>
-      <c r="AY68" s="105"/>
+      <c r="AY68" s="78"/>
       <c r="AZ68" s="34"/>
       <c r="BB68" s="70"/>
       <c r="BC68" s="70"/>
     </row>
-    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="20">
         <v>0</v>
       </c>
@@ -8095,10 +8113,10 @@
       <c r="N69" s="24">
         <v>1</v>
       </c>
-      <c r="O69" s="119" t="s">
+      <c r="O69" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="P69" s="120" t="s">
+      <c r="P69" s="74" t="s">
         <v>59</v>
       </c>
       <c r="Q69" s="24"/>
@@ -8120,11 +8138,11 @@
       <c r="Y69" s="19">
         <v>7</v>
       </c>
-      <c r="Z69" s="83" t="s">
+      <c r="Z69" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AA69" s="83"/>
-      <c r="AB69" s="83"/>
+      <c r="AA69" s="76"/>
+      <c r="AB69" s="76"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
@@ -8132,16 +8150,16 @@
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AN69" s="105"/>
+      <c r="AN69" s="78"/>
       <c r="AX69" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AY69" s="105"/>
+      <c r="AY69" s="78"/>
       <c r="AZ69" s="34"/>
       <c r="BB69" s="70"/>
       <c r="BC69" s="70"/>
     </row>
-    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="20">
         <v>1</v>
       </c>
@@ -8180,11 +8198,11 @@
       <c r="Y70" s="19">
         <v>8</v>
       </c>
-      <c r="Z70" s="83" t="s">
+      <c r="Z70" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AA70" s="83"/>
-      <c r="AB70" s="83"/>
+      <c r="AA70" s="76"/>
+      <c r="AB70" s="76"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
@@ -8192,14 +8210,14 @@
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AN70" s="105"/>
+      <c r="AN70" s="78"/>
       <c r="AX70" s="34"/>
-      <c r="AY70" s="105"/>
+      <c r="AY70" s="78"/>
       <c r="AZ70" s="34"/>
       <c r="BB70" s="70"/>
       <c r="BC70" s="70"/>
     </row>
-    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="66" t="s">
         <v>108</v>
       </c>
@@ -8219,10 +8237,10 @@
       <c r="K71" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="M71" s="84" t="s">
+      <c r="M71" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="N71" s="86"/>
+      <c r="N71" s="99"/>
       <c r="O71" s="93" t="s">
         <v>144</v>
       </c>
@@ -8230,7 +8248,7 @@
         <v>98</v>
       </c>
       <c r="Q71" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R71" s="6"/>
       <c r="T71" s="21">
@@ -8251,11 +8269,11 @@
       <c r="Y71" s="19">
         <v>9</v>
       </c>
-      <c r="Z71" s="83" t="s">
+      <c r="Z71" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AA71" s="83"/>
-      <c r="AB71" s="83"/>
+      <c r="AA71" s="76"/>
+      <c r="AB71" s="76"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
@@ -8266,29 +8284,29 @@
       <c r="AM71" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AN71" s="105"/>
+      <c r="AN71" s="78"/>
       <c r="AO71" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="AQ71" s="115" t="s">
+      <c r="AQ71" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AR71" s="116"/>
-      <c r="AU71" s="115" t="s">
+      <c r="AR71" s="81"/>
+      <c r="AU71" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="AV71" s="116"/>
+      <c r="AV71" s="81"/>
       <c r="AX71" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AY71" s="105"/>
+      <c r="AY71" s="78"/>
       <c r="AZ71" s="52" t="s">
         <v>120</v>
       </c>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
     </row>
-    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="20">
         <v>1</v>
       </c>
@@ -8307,8 +8325,8 @@
       </c>
       <c r="J72" s="61"/>
       <c r="K72" s="62"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="89"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="101"/>
       <c r="O72" s="93"/>
       <c r="P72" s="93"/>
       <c r="Q72" s="93"/>
@@ -8331,11 +8349,11 @@
       <c r="Y72" s="19">
         <v>10</v>
       </c>
-      <c r="Z72" s="83" t="s">
+      <c r="Z72" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AA72" s="83"/>
-      <c r="AB72" s="83"/>
+      <c r="AA72" s="76"/>
+      <c r="AB72" s="76"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
@@ -8343,14 +8361,14 @@
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-      <c r="AN72" s="106"/>
+      <c r="AN72" s="79"/>
       <c r="AX72" s="34"/>
-      <c r="AY72" s="106"/>
+      <c r="AY72" s="79"/>
       <c r="AZ72" s="34"/>
       <c r="BB72" s="70"/>
       <c r="BC72" s="70"/>
     </row>
-    <row r="73" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="20">
         <v>1</v>
       </c>
@@ -8369,8 +8387,8 @@
         <v>59</v>
       </c>
       <c r="K73" s="62"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="89"/>
+      <c r="M73" s="100"/>
+      <c r="N73" s="101"/>
       <c r="O73" s="93"/>
       <c r="P73" s="93"/>
       <c r="Q73" s="93"/>
@@ -8393,11 +8411,11 @@
       <c r="Y73" s="19">
         <v>11</v>
       </c>
-      <c r="Z73" s="83" t="s">
+      <c r="Z73" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="83"/>
-      <c r="AB73" s="83"/>
+      <c r="AA73" s="76"/>
+      <c r="AB73" s="76"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
@@ -8411,13 +8429,13 @@
       <c r="BB73" s="70"/>
       <c r="BC73" s="70"/>
     </row>
-    <row r="74" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="89"/>
+      <c r="M74" s="100"/>
+      <c r="N74" s="101"/>
       <c r="O74" s="93"/>
       <c r="P74" s="93"/>
       <c r="Q74" s="93"/>
@@ -8440,11 +8458,11 @@
       <c r="Y74" s="19">
         <v>12</v>
       </c>
-      <c r="Z74" s="83" t="s">
+      <c r="Z74" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AA74" s="83"/>
-      <c r="AB74" s="83"/>
+      <c r="AA74" s="76"/>
+      <c r="AB74" s="76"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
@@ -8463,7 +8481,7 @@
       <c r="BB74" s="70"/>
       <c r="BC74" s="70"/>
     </row>
-    <row r="75" spans="1:55" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:55" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -8471,8 +8489,8 @@
       <c r="F75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="89"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="101"/>
       <c r="O75" s="93"/>
       <c r="P75" s="93"/>
       <c r="Q75" s="93"/>
@@ -8495,11 +8513,11 @@
       <c r="Y75" s="19">
         <v>13</v>
       </c>
-      <c r="Z75" s="83" t="s">
+      <c r="Z75" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AA75" s="83"/>
-      <c r="AB75" s="83"/>
+      <c r="AA75" s="76"/>
+      <c r="AB75" s="76"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
       <c r="AE75" s="6"/>
@@ -8518,7 +8536,7 @@
       <c r="BB75" s="70"/>
       <c r="BC75" s="70"/>
     </row>
-    <row r="76" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -8526,8 +8544,8 @@
       <c r="F76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="M76" s="90"/>
-      <c r="N76" s="92"/>
+      <c r="M76" s="102"/>
+      <c r="N76" s="103"/>
       <c r="O76" s="93"/>
       <c r="P76" s="93"/>
       <c r="Q76" s="93"/>
@@ -8550,11 +8568,11 @@
       <c r="Y76" s="19">
         <v>14</v>
       </c>
-      <c r="Z76" s="83" t="s">
+      <c r="Z76" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AA76" s="83"/>
-      <c r="AB76" s="83"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="76"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
@@ -8576,18 +8594,18 @@
       <c r="BB76" s="70"/>
       <c r="BC76" s="70"/>
     </row>
-    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="84" t="s">
+    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77" s="118" t="s">
+      <c r="C77" s="99"/>
+      <c r="D77" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="105" t="s">
         <v>141</v>
       </c>
       <c r="H77" s="6"/>
@@ -8620,11 +8638,11 @@
       <c r="Y77" s="19">
         <v>15</v>
       </c>
-      <c r="Z77" s="83" t="s">
+      <c r="Z77" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AA77" s="83"/>
-      <c r="AB77" s="83"/>
+      <c r="AA77" s="76"/>
+      <c r="AB77" s="76"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AE77" s="6"/>
@@ -8637,12 +8655,12 @@
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
     </row>
-    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="87"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="118"/>
+    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B78" s="100"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="105"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="M78" s="20">
@@ -8675,41 +8693,41 @@
       <c r="Y78" s="19">
         <v>16</v>
       </c>
-      <c r="Z78" s="83" t="s">
+      <c r="Z78" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AA78" s="83"/>
-      <c r="AB78" s="83"/>
+      <c r="AA78" s="76"/>
+      <c r="AB78" s="76"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AN78" s="107" t="s">
+      <c r="AN78" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="AO78" s="108"/>
-      <c r="AQ78" s="109" t="s">
+      <c r="AO78" s="83"/>
+      <c r="AQ78" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="110"/>
+      <c r="AR78" s="86"/>
       <c r="AT78" s="34"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="107" t="s">
+      <c r="AX78" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="AY78" s="108"/>
+      <c r="AY78" s="83"/>
       <c r="AZ78" s="34"/>
       <c r="BB78" s="70"/>
       <c r="BC78" s="70"/>
     </row>
-    <row r="79" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="90"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="118"/>
+    <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="102"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="105"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="M79" s="20">
@@ -8742,11 +8760,11 @@
       <c r="Y79" s="19">
         <v>17</v>
       </c>
-      <c r="Z79" s="83" t="s">
+      <c r="Z79" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AA79" s="83"/>
-      <c r="AB79" s="83"/>
+      <c r="AA79" s="76"/>
+      <c r="AB79" s="76"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
       <c r="AE79" s="6"/>
@@ -8758,8 +8776,8 @@
       <c r="AO79" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AQ79" s="111"/>
-      <c r="AR79" s="112"/>
+      <c r="AQ79" s="87"/>
+      <c r="AR79" s="88"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="53" t="s">
@@ -8772,7 +8790,7 @@
       <c r="BB79" s="70"/>
       <c r="BC79" s="70"/>
     </row>
-    <row r="80" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="21">
         <v>0</v>
       </c>
@@ -8814,18 +8832,18 @@
       <c r="Y80" s="19">
         <v>18</v>
       </c>
-      <c r="Z80" s="83" t="s">
+      <c r="Z80" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AA80" s="83"/>
-      <c r="AB80" s="83"/>
+      <c r="AA80" s="76"/>
+      <c r="AB80" s="76"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AQ80" s="111"/>
-      <c r="AR80" s="112"/>
+      <c r="AQ80" s="87"/>
+      <c r="AR80" s="88"/>
       <c r="AV80" s="34"/>
       <c r="AX80" s="34"/>
       <c r="AY80" s="34"/>
@@ -8833,7 +8851,7 @@
       <c r="BB80" s="70"/>
       <c r="BC80" s="70"/>
     </row>
-    <row r="81" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B81" s="21">
         <v>0</v>
       </c>
@@ -8863,29 +8881,29 @@
       <c r="Y81" s="19">
         <v>19</v>
       </c>
-      <c r="Z81" s="83" t="s">
+      <c r="Z81" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AA81" s="83"/>
-      <c r="AB81" s="83"/>
+      <c r="AA81" s="76"/>
+      <c r="AB81" s="76"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AN81" s="104" t="s">
+      <c r="AN81" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="AQ81" s="113"/>
-      <c r="AR81" s="114"/>
+      <c r="AQ81" s="89"/>
+      <c r="AR81" s="90"/>
       <c r="AV81" s="34"/>
       <c r="AX81" s="34"/>
-      <c r="AY81" s="104" t="s">
+      <c r="AY81" s="77" t="s">
         <v>129</v>
       </c>
       <c r="AZ81" s="34"/>
     </row>
-    <row r="82" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B82" s="21">
         <v>1</v>
       </c>
@@ -8901,17 +8919,17 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="M82" s="84" t="s">
+      <c r="M82" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="N82" s="86"/>
-      <c r="O82" s="82" t="s">
+      <c r="N82" s="99"/>
+      <c r="O82" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="P82" s="82" t="s">
+      <c r="P82" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="Q82" s="102" t="s">
+      <c r="Q82" s="104" t="s">
         <v>101</v>
       </c>
       <c r="T82" s="21">
@@ -8932,31 +8950,31 @@
       <c r="Y82" s="19">
         <v>20</v>
       </c>
-      <c r="Z82" s="71"/>
-      <c r="AA82" s="71"/>
-      <c r="AB82" s="71"/>
+      <c r="Z82" s="94"/>
+      <c r="AA82" s="94"/>
+      <c r="AB82" s="94"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
       <c r="AE82" s="6"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="105"/>
+      <c r="AN82" s="78"/>
       <c r="AV82" s="34"/>
       <c r="AX82" s="34"/>
-      <c r="AY82" s="105"/>
+      <c r="AY82" s="78"/>
       <c r="AZ82" s="34"/>
     </row>
-    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="21">
         <v>1</v>
       </c>
       <c r="C83" s="24">
         <v>1</v>
       </c>
-      <c r="D83" s="119" t="s">
+      <c r="D83" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="120" t="s">
+      <c r="E83" s="74" t="s">
         <v>59</v>
       </c>
       <c r="F83" s="24"/>
@@ -8964,11 +8982,11 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="82"/>
-      <c r="Q83" s="102"/>
+      <c r="M83" s="100"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="95"/>
+      <c r="P83" s="95"/>
+      <c r="Q83" s="104"/>
       <c r="T83" s="21">
         <v>1</v>
       </c>
@@ -8987,20 +9005,20 @@
       <c r="Y83" s="19">
         <v>21</v>
       </c>
-      <c r="Z83" s="71"/>
-      <c r="AA83" s="71"/>
-      <c r="AB83" s="71"/>
+      <c r="Z83" s="94"/>
+      <c r="AA83" s="94"/>
+      <c r="AB83" s="94"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="105"/>
+      <c r="AN83" s="78"/>
       <c r="AX83" s="34"/>
-      <c r="AY83" s="105"/>
+      <c r="AY83" s="78"/>
       <c r="AZ83" s="34"/>
     </row>
-    <row r="84" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -9010,11 +9028,11 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="82"/>
-      <c r="P84" s="82"/>
-      <c r="Q84" s="102"/>
+      <c r="M84" s="100"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="95"/>
+      <c r="Q84" s="104"/>
       <c r="T84" s="21">
         <v>1</v>
       </c>
@@ -9033,30 +9051,30 @@
       <c r="Y84" s="19">
         <v>22</v>
       </c>
-      <c r="Z84" s="71"/>
-      <c r="AA84" s="71"/>
-      <c r="AB84" s="71"/>
+      <c r="Z84" s="94"/>
+      <c r="AA84" s="94"/>
+      <c r="AB84" s="94"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="105"/>
+      <c r="AN84" s="78"/>
       <c r="AX84" s="34"/>
-      <c r="AY84" s="105"/>
+      <c r="AY84" s="78"/>
       <c r="AZ84" s="34"/>
     </row>
-    <row r="85" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="M85" s="90"/>
-      <c r="N85" s="92"/>
-      <c r="O85" s="82"/>
-      <c r="P85" s="82"/>
-      <c r="Q85" s="102"/>
+      <c r="M85" s="102"/>
+      <c r="N85" s="103"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95"/>
+      <c r="Q85" s="104"/>
       <c r="T85" s="21">
         <v>1</v>
       </c>
@@ -9075,19 +9093,19 @@
       <c r="Y85" s="19">
         <v>23</v>
       </c>
-      <c r="Z85" s="71"/>
-      <c r="AA85" s="71"/>
-      <c r="AB85" s="71"/>
+      <c r="Z85" s="94"/>
+      <c r="AA85" s="94"/>
+      <c r="AB85" s="94"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="106"/>
+      <c r="AN85" s="79"/>
       <c r="AX85" s="34"/>
-      <c r="AY85" s="106"/>
+      <c r="AY85" s="79"/>
       <c r="AZ85" s="34"/>
     </row>
-    <row r="86" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -9124,9 +9142,9 @@
       <c r="Y86" s="19">
         <v>24</v>
       </c>
-      <c r="Z86" s="71"/>
-      <c r="AA86" s="71"/>
-      <c r="AB86" s="71"/>
+      <c r="Z86" s="94"/>
+      <c r="AA86" s="94"/>
+      <c r="AB86" s="94"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
       <c r="AE86" s="6"/>
@@ -9135,7 +9153,7 @@
       <c r="AY86" s="34"/>
       <c r="AZ86" s="34"/>
     </row>
-    <row r="87" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -9174,23 +9192,23 @@
       <c r="Y87" s="19">
         <v>25</v>
       </c>
-      <c r="Z87" s="71"/>
-      <c r="AA87" s="71"/>
-      <c r="AB87" s="71"/>
+      <c r="Z87" s="94"/>
+      <c r="AA87" s="94"/>
+      <c r="AB87" s="94"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="104" t="s">
+      <c r="AN87" s="77" t="s">
         <v>124</v>
       </c>
       <c r="AX87" s="34"/>
-      <c r="AY87" s="104" t="s">
+      <c r="AY87" s="77" t="s">
         <v>130</v>
       </c>
       <c r="AZ87" s="34"/>
     </row>
-    <row r="88" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -9229,19 +9247,19 @@
       <c r="Y88" s="19">
         <v>26</v>
       </c>
-      <c r="Z88" s="71"/>
-      <c r="AA88" s="71"/>
-      <c r="AB88" s="71"/>
+      <c r="Z88" s="94"/>
+      <c r="AA88" s="94"/>
+      <c r="AB88" s="94"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="105"/>
+      <c r="AN88" s="78"/>
       <c r="AX88" s="34"/>
-      <c r="AY88" s="105"/>
+      <c r="AY88" s="78"/>
       <c r="AZ88" s="34"/>
     </row>
-    <row r="89" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -9259,7 +9277,7 @@
       </c>
       <c r="O89" s="21"/>
       <c r="P89" s="23"/>
-      <c r="Q89" s="121" t="s">
+      <c r="Q89" s="75" t="s">
         <v>59</v>
       </c>
       <c r="S89" s="6"/>
@@ -9281,19 +9299,19 @@
       <c r="Y89" s="19">
         <v>27</v>
       </c>
-      <c r="Z89" s="71"/>
-      <c r="AA89" s="71"/>
-      <c r="AB89" s="71"/>
+      <c r="Z89" s="94"/>
+      <c r="AA89" s="94"/>
+      <c r="AB89" s="94"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="105"/>
+      <c r="AN89" s="78"/>
       <c r="AX89" s="34"/>
-      <c r="AY89" s="105"/>
+      <c r="AY89" s="78"/>
       <c r="AZ89" s="34"/>
     </row>
-    <row r="90" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -9324,19 +9342,19 @@
       <c r="Y90" s="19">
         <v>28</v>
       </c>
-      <c r="Z90" s="71"/>
-      <c r="AA90" s="71"/>
-      <c r="AB90" s="71"/>
+      <c r="Z90" s="94"/>
+      <c r="AA90" s="94"/>
+      <c r="AB90" s="94"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="105"/>
+      <c r="AN90" s="78"/>
       <c r="AX90" s="34"/>
-      <c r="AY90" s="105"/>
+      <c r="AY90" s="78"/>
       <c r="AZ90" s="34"/>
     </row>
-    <row r="91" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -9367,19 +9385,19 @@
       <c r="Y91" s="19">
         <v>29</v>
       </c>
-      <c r="Z91" s="71"/>
-      <c r="AA91" s="71"/>
-      <c r="AB91" s="71"/>
+      <c r="Z91" s="94"/>
+      <c r="AA91" s="94"/>
+      <c r="AB91" s="94"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="106"/>
+      <c r="AN91" s="79"/>
       <c r="AX91" s="34"/>
-      <c r="AY91" s="106"/>
+      <c r="AY91" s="79"/>
       <c r="AZ91" s="34"/>
     </row>
-    <row r="92" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -9410,15 +9428,15 @@
       <c r="Y92" s="19">
         <v>30</v>
       </c>
-      <c r="Z92" s="71"/>
-      <c r="AA92" s="71"/>
-      <c r="AB92" s="71"/>
+      <c r="Z92" s="94"/>
+      <c r="AA92" s="94"/>
+      <c r="AB92" s="94"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
     </row>
-    <row r="93" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -9449,25 +9467,25 @@
       <c r="Y93" s="19">
         <v>31</v>
       </c>
-      <c r="Z93" s="71" t="s">
+      <c r="Z93" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AA93" s="71"/>
-      <c r="AB93" s="71"/>
+      <c r="AA93" s="94"/>
+      <c r="AB93" s="94"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
     </row>
-    <row r="94" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:52" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="H94" s="75" t="s">
+      <c r="H94" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94" s="118" t="s">
         <v>160</v>
-      </c>
-      <c r="I94" s="75" t="s">
-        <v>161</v>
       </c>
       <c r="J94" s="28"/>
       <c r="K94" s="28"/>
@@ -9489,131 +9507,131 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B95" s="77" t="s">
+    <row r="95" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="B95" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="77" t="s">
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="118"/>
+      <c r="G95" s="118"/>
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+      <c r="J95" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77" t="s">
+      <c r="K95" s="91"/>
+      <c r="L95" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77" t="s">
+      <c r="M95" s="91"/>
+      <c r="N95" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77" t="s">
+      <c r="O95" s="91"/>
+      <c r="P95" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="Q95" s="77"/>
-      <c r="R95" s="77" t="s">
+      <c r="Q95" s="91"/>
+      <c r="R95" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="77"/>
-      <c r="T95" s="77"/>
-      <c r="U95" s="77"/>
-      <c r="V95" s="77"/>
-      <c r="W95" s="77" t="s">
+      <c r="S95" s="91"/>
+      <c r="T95" s="91"/>
+      <c r="U95" s="91"/>
+      <c r="V95" s="91"/>
+      <c r="W95" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="X95" s="77"/>
-      <c r="Y95" s="77" t="s">
+      <c r="X95" s="91"/>
+      <c r="Y95" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="Z95" s="77"/>
-      <c r="AA95" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB95" s="77"/>
-      <c r="AC95" s="77" t="s">
+      <c r="Z95" s="91"/>
+      <c r="AA95" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB95" s="91"/>
+      <c r="AC95" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="AD95" s="77"/>
-      <c r="AE95" s="77"/>
-      <c r="AF95" s="77"/>
-      <c r="AG95" s="77"/>
-    </row>
-    <row r="96" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
-      <c r="M96" s="77"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="77"/>
-      <c r="P96" s="77"/>
-      <c r="Q96" s="77"/>
-      <c r="R96" s="77"/>
-      <c r="S96" s="77"/>
-      <c r="T96" s="77"/>
-      <c r="U96" s="77"/>
-      <c r="V96" s="77"/>
-      <c r="W96" s="77"/>
-      <c r="X96" s="77"/>
-      <c r="Y96" s="77"/>
-      <c r="Z96" s="77"/>
-      <c r="AA96" s="77"/>
-      <c r="AB96" s="77"/>
-      <c r="AC96" s="77"/>
-      <c r="AD96" s="77"/>
-      <c r="AE96" s="77"/>
-      <c r="AF96" s="77"/>
-      <c r="AG96" s="77"/>
-    </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="76"/>
-      <c r="L97" s="76"/>
-      <c r="M97" s="76"/>
-      <c r="N97" s="76"/>
-      <c r="O97" s="76"/>
-      <c r="P97" s="76"/>
-      <c r="Q97" s="76"/>
-      <c r="R97" s="76"/>
-      <c r="S97" s="76"/>
-      <c r="T97" s="76"/>
-      <c r="U97" s="76"/>
-      <c r="V97" s="76"/>
-      <c r="W97" s="76"/>
-      <c r="X97" s="76"/>
-      <c r="Y97" s="76"/>
-      <c r="Z97" s="76"/>
-      <c r="AA97" s="76"/>
-      <c r="AB97" s="76"/>
-      <c r="AC97" s="76"/>
-      <c r="AD97" s="76"/>
-      <c r="AE97" s="76"/>
-      <c r="AF97" s="76"/>
-      <c r="AG97" s="76"/>
-    </row>
-    <row r="98" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD95" s="91"/>
+      <c r="AE95" s="91"/>
+      <c r="AF95" s="91"/>
+      <c r="AG95" s="91"/>
+    </row>
+    <row r="96" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="118"/>
+      <c r="I96" s="118"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="91"/>
+      <c r="M96" s="91"/>
+      <c r="N96" s="91"/>
+      <c r="O96" s="91"/>
+      <c r="P96" s="91"/>
+      <c r="Q96" s="91"/>
+      <c r="R96" s="91"/>
+      <c r="S96" s="91"/>
+      <c r="T96" s="91"/>
+      <c r="U96" s="91"/>
+      <c r="V96" s="91"/>
+      <c r="W96" s="91"/>
+      <c r="X96" s="91"/>
+      <c r="Y96" s="91"/>
+      <c r="Z96" s="91"/>
+      <c r="AA96" s="91"/>
+      <c r="AB96" s="91"/>
+      <c r="AC96" s="91"/>
+      <c r="AD96" s="91"/>
+      <c r="AE96" s="91"/>
+      <c r="AF96" s="91"/>
+      <c r="AG96" s="91"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="92"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="92"/>
+      <c r="S97" s="92"/>
+      <c r="T97" s="92"/>
+      <c r="U97" s="92"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="92"/>
+      <c r="X97" s="92"/>
+      <c r="Y97" s="92"/>
+      <c r="Z97" s="92"/>
+      <c r="AA97" s="92"/>
+      <c r="AB97" s="92"/>
+      <c r="AC97" s="92"/>
+      <c r="AD97" s="92"/>
+      <c r="AE97" s="92"/>
+      <c r="AF97" s="92"/>
+      <c r="AG97" s="92"/>
+    </row>
+    <row r="98" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B98" s="18">
         <v>31</v>
       </c>
@@ -9711,54 +9729,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="36">
         <v>1</v>
       </c>
-      <c r="C99" s="99" t="s">
+      <c r="C99" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="73"/>
-      <c r="N99" s="73"/>
-      <c r="O99" s="73"/>
-      <c r="P99" s="73"/>
-      <c r="Q99" s="73"/>
-      <c r="R99" s="73"/>
-      <c r="S99" s="73"/>
-      <c r="T99" s="73"/>
-      <c r="U99" s="73"/>
-      <c r="V99" s="73"/>
-      <c r="W99" s="73"/>
-      <c r="X99" s="73"/>
-      <c r="Y99" s="73"/>
-      <c r="Z99" s="73"/>
-      <c r="AA99" s="73"/>
-      <c r="AB99" s="73"/>
-      <c r="AC99" s="73"/>
-      <c r="AD99" s="73"/>
-      <c r="AE99" s="73"/>
-      <c r="AF99" s="73"/>
-      <c r="AG99" s="74"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="116"/>
+      <c r="Q99" s="116"/>
+      <c r="R99" s="116"/>
+      <c r="S99" s="116"/>
+      <c r="T99" s="116"/>
+      <c r="U99" s="116"/>
+      <c r="V99" s="116"/>
+      <c r="W99" s="116"/>
+      <c r="X99" s="116"/>
+      <c r="Y99" s="116"/>
+      <c r="Z99" s="116"/>
+      <c r="AA99" s="116"/>
+      <c r="AB99" s="116"/>
+      <c r="AC99" s="116"/>
+      <c r="AD99" s="116"/>
+      <c r="AE99" s="116"/>
+      <c r="AF99" s="116"/>
+      <c r="AG99" s="117"/>
       <c r="AH99" s="6"/>
-      <c r="AI99" s="83" t="s">
+      <c r="AI99" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="AJ99" s="83"/>
-      <c r="AK99" s="83"/>
-    </row>
-    <row r="100" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ99" s="76"/>
+      <c r="AK99" s="76"/>
+    </row>
+    <row r="100" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="35" t="s">
         <v>58</v>
       </c>
@@ -9807,20 +9825,20 @@
       <c r="Z100" s="37"/>
       <c r="AA100" s="42"/>
       <c r="AB100" s="37"/>
-      <c r="AC100" s="72" t="s">
+      <c r="AC100" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AD100" s="73"/>
-      <c r="AE100" s="73"/>
-      <c r="AF100" s="73"/>
-      <c r="AG100" s="74"/>
-      <c r="AI100" s="83" t="s">
+      <c r="AD100" s="116"/>
+      <c r="AE100" s="116"/>
+      <c r="AF100" s="116"/>
+      <c r="AG100" s="117"/>
+      <c r="AI100" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="AJ100" s="83"/>
-      <c r="AK100" s="83"/>
-    </row>
-    <row r="101" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ100" s="76"/>
+      <c r="AK100" s="76"/>
+    </row>
+    <row r="101" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="35" t="s">
         <v>3</v>
       </c>
@@ -9882,13 +9900,13 @@
       <c r="AE101" s="40"/>
       <c r="AF101" s="40"/>
       <c r="AG101" s="41"/>
-      <c r="AI101" s="83" t="s">
+      <c r="AI101" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="AJ101" s="83"/>
-      <c r="AK101" s="83"/>
-    </row>
-    <row r="102" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ101" s="76"/>
+      <c r="AK101" s="76"/>
+    </row>
+    <row r="102" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="35" t="s">
         <v>2</v>
       </c>
@@ -9958,13 +9976,13 @@
       <c r="AE102" s="40"/>
       <c r="AF102" s="40"/>
       <c r="AG102" s="41"/>
-      <c r="AI102" s="83" t="s">
+      <c r="AI102" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AJ102" s="83"/>
-      <c r="AK102" s="83"/>
-    </row>
-    <row r="103" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ102" s="76"/>
+      <c r="AK102" s="76"/>
+    </row>
+    <row r="103" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="35" t="s">
         <v>4</v>
       </c>
@@ -10012,13 +10030,13 @@
       <c r="AE103" s="40"/>
       <c r="AF103" s="40"/>
       <c r="AG103" s="41"/>
-      <c r="AI103" s="83" t="s">
+      <c r="AI103" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="AJ103" s="83"/>
-      <c r="AK103" s="83"/>
-    </row>
-    <row r="104" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ103" s="76"/>
+      <c r="AK103" s="76"/>
+    </row>
+    <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="35" t="s">
         <v>5</v>
       </c>
@@ -10082,13 +10100,13 @@
       <c r="AE104" s="40"/>
       <c r="AF104" s="40"/>
       <c r="AG104" s="41"/>
-      <c r="AI104" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ104" s="83"/>
-      <c r="AK104" s="83"/>
-    </row>
-    <row r="105" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI104" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ104" s="76"/>
+      <c r="AK104" s="76"/>
+    </row>
+    <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="35" t="s">
         <v>111</v>
       </c>
@@ -10120,31 +10138,31 @@
       <c r="O105" s="37"/>
       <c r="P105" s="42"/>
       <c r="Q105" s="37"/>
-      <c r="R105" s="72" t="s">
+      <c r="R105" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="S105" s="73"/>
-      <c r="T105" s="73"/>
-      <c r="U105" s="73"/>
-      <c r="V105" s="73"/>
-      <c r="W105" s="73"/>
-      <c r="X105" s="73"/>
-      <c r="Y105" s="73"/>
-      <c r="Z105" s="73"/>
-      <c r="AA105" s="73"/>
-      <c r="AB105" s="73"/>
-      <c r="AC105" s="73"/>
-      <c r="AD105" s="73"/>
-      <c r="AE105" s="73"/>
-      <c r="AF105" s="73"/>
-      <c r="AG105" s="74"/>
-      <c r="AI105" s="83" t="s">
+      <c r="S105" s="116"/>
+      <c r="T105" s="116"/>
+      <c r="U105" s="116"/>
+      <c r="V105" s="116"/>
+      <c r="W105" s="116"/>
+      <c r="X105" s="116"/>
+      <c r="Y105" s="116"/>
+      <c r="Z105" s="116"/>
+      <c r="AA105" s="116"/>
+      <c r="AB105" s="116"/>
+      <c r="AC105" s="116"/>
+      <c r="AD105" s="116"/>
+      <c r="AE105" s="116"/>
+      <c r="AF105" s="116"/>
+      <c r="AG105" s="117"/>
+      <c r="AI105" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="AJ105" s="83"/>
-      <c r="AK105" s="83"/>
-    </row>
-    <row r="106" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ105" s="76"/>
+      <c r="AK105" s="76"/>
+    </row>
+    <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="35" t="s">
         <v>6</v>
       </c>
@@ -10216,19 +10234,19 @@
       <c r="AE106" s="40"/>
       <c r="AF106" s="40"/>
       <c r="AG106" s="41"/>
-      <c r="AI106" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ106" s="83"/>
-      <c r="AK106" s="83"/>
-      <c r="AL106" s="117" t="s">
+      <c r="AI106" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ106" s="76"/>
+      <c r="AK106" s="76"/>
+      <c r="AL106" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="AM106" s="117"/>
-      <c r="AN106" s="117"/>
-      <c r="AO106" s="117"/>
-    </row>
-    <row r="107" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM106" s="84"/>
+      <c r="AN106" s="84"/>
+      <c r="AO106" s="84"/>
+    </row>
+    <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="35" t="s">
         <v>7</v>
       </c>
@@ -10294,19 +10312,19 @@
       <c r="AE107" s="40"/>
       <c r="AF107" s="40"/>
       <c r="AG107" s="41"/>
-      <c r="AI107" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ107" s="83"/>
-      <c r="AK107" s="83"/>
-      <c r="AL107" s="117" t="s">
+      <c r="AI107" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ107" s="76"/>
+      <c r="AK107" s="76"/>
+      <c r="AL107" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="AM107" s="117"/>
-      <c r="AN107" s="117"/>
-      <c r="AO107" s="117"/>
-    </row>
-    <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM107" s="84"/>
+      <c r="AN107" s="84"/>
+      <c r="AO107" s="84"/>
+    </row>
+    <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="35" t="s">
         <v>8</v>
       </c>
@@ -10356,13 +10374,13 @@
       <c r="AE108" s="40"/>
       <c r="AF108" s="40"/>
       <c r="AG108" s="41"/>
-      <c r="AI108" s="83" t="s">
+      <c r="AI108" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="AJ108" s="83"/>
-      <c r="AK108" s="83"/>
-    </row>
-    <row r="109" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ108" s="76"/>
+      <c r="AK108" s="76"/>
+    </row>
+    <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="35" t="s">
         <v>9</v>
       </c>
@@ -10408,13 +10426,13 @@
       <c r="AE109" s="40"/>
       <c r="AF109" s="40"/>
       <c r="AG109" s="41"/>
-      <c r="AI109" s="83" t="s">
+      <c r="AI109" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="AJ109" s="83"/>
-      <c r="AK109" s="83"/>
-    </row>
-    <row r="110" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ109" s="76"/>
+      <c r="AK109" s="76"/>
+    </row>
+    <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="35" t="s">
         <v>64</v>
       </c>
@@ -10474,13 +10492,13 @@
       <c r="AE110" s="40"/>
       <c r="AF110" s="40"/>
       <c r="AG110" s="41"/>
-      <c r="AI110" s="83" t="s">
+      <c r="AI110" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="AJ110" s="83"/>
-      <c r="AK110" s="83"/>
-    </row>
-    <row r="111" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ110" s="76"/>
+      <c r="AK110" s="76"/>
+    </row>
+    <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="35" t="s">
         <v>10</v>
       </c>
@@ -10526,16 +10544,16 @@
       <c r="AE111" s="40"/>
       <c r="AF111" s="40"/>
       <c r="AG111" s="41"/>
-      <c r="AI111" s="83" t="s">
+      <c r="AI111" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="AJ111" s="83"/>
-      <c r="AK111" s="83"/>
+      <c r="AJ111" s="76"/>
+      <c r="AK111" s="76"/>
       <c r="AL111" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="35" t="s">
         <v>21</v>
       </c>
@@ -10563,8 +10581,12 @@
       <c r="K112" s="37"/>
       <c r="L112" s="58"/>
       <c r="M112" s="37"/>
-      <c r="N112" s="58"/>
-      <c r="O112" s="37"/>
+      <c r="N112" s="58">
+        <v>1</v>
+      </c>
+      <c r="O112" s="37">
+        <v>1</v>
+      </c>
       <c r="P112" s="58"/>
       <c r="Q112" s="37"/>
       <c r="R112" s="55">
@@ -10597,13 +10619,13 @@
       <c r="AE112" s="40"/>
       <c r="AF112" s="40"/>
       <c r="AG112" s="41"/>
-      <c r="AI112" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ112" s="83"/>
-      <c r="AK112" s="83"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AI112" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ112" s="76"/>
+      <c r="AK112" s="76"/>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A113" s="30"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -10615,15 +10637,55 @@
       <c r="I113" s="28"/>
       <c r="J113" s="22"/>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="22"/>
-    </row>
-    <row r="115" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A114" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="25">
+        <v>0</v>
+      </c>
+      <c r="C114" s="26">
+        <v>1</v>
+      </c>
+      <c r="D114" s="27">
+        <v>1</v>
+      </c>
+      <c r="E114" s="124"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="71"/>
+      <c r="Q114" s="71"/>
+      <c r="R114" s="71"/>
+      <c r="S114" s="71"/>
+      <c r="T114" s="71"/>
+      <c r="U114" s="71"/>
+      <c r="V114" s="71"/>
+      <c r="W114" s="71"/>
+      <c r="X114" s="71"/>
+      <c r="Y114" s="71"/>
+      <c r="Z114" s="71"/>
+      <c r="AA114" s="71"/>
+      <c r="AB114" s="71"/>
+      <c r="AC114" s="71"/>
+      <c r="AD114" s="71"/>
+      <c r="AE114" s="71"/>
+      <c r="AF114" s="71"/>
+      <c r="AG114" s="72"/>
+      <c r="AI114" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ114" s="76"/>
+      <c r="AK114" s="76"/>
+    </row>
+    <row r="115" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
@@ -10639,7 +10701,7 @@
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.45">
       <c r="D116" s="28"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
@@ -10656,7 +10718,7 @@
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.45">
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
@@ -10664,21 +10726,21 @@
       <c r="I117" s="28"/>
       <c r="J117" s="22"/>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.45">
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A120" s="15"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -10686,7 +10748,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A121" s="15"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -10694,7 +10756,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A122" s="15"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -10702,7 +10764,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -10715,7 +10777,7 @@
       <c r="AO123" s="70"/>
       <c r="AR123" s="70"/>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -10728,7 +10790,7 @@
       <c r="AO124" s="70"/>
       <c r="AR124" s="70"/>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -10741,7 +10803,7 @@
       <c r="AO125" s="70"/>
       <c r="AR125" s="70"/>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -10754,7 +10816,7 @@
       <c r="AO126" s="70"/>
       <c r="AR126" s="70"/>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -10767,7 +10829,7 @@
       <c r="AO127" s="70"/>
       <c r="AR127" s="70"/>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.45">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -10780,7 +10842,7 @@
       <c r="AO128" s="70"/>
       <c r="AR128" s="70"/>
     </row>
-    <row r="129" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -10793,7 +10855,7 @@
       <c r="AO129" s="70"/>
       <c r="AR129" s="70"/>
     </row>
-    <row r="130" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -10806,7 +10868,7 @@
       <c r="AO130" s="70"/>
       <c r="AR130" s="70"/>
     </row>
-    <row r="131" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -10819,7 +10881,7 @@
       <c r="AO131" s="70"/>
       <c r="AR131" s="70"/>
     </row>
-    <row r="132" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -10832,7 +10894,7 @@
       <c r="AO132" s="70"/>
       <c r="AR132" s="70"/>
     </row>
-    <row r="133" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -10845,7 +10907,7 @@
       <c r="AO133" s="70"/>
       <c r="AR133" s="70"/>
     </row>
-    <row r="134" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -10858,7 +10920,7 @@
       <c r="AO134" s="70"/>
       <c r="AR134" s="70"/>
     </row>
-    <row r="135" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -10871,7 +10933,7 @@
       <c r="AO135" s="70"/>
       <c r="AR135" s="70"/>
     </row>
-    <row r="136" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -10884,7 +10946,7 @@
       <c r="AO136" s="70"/>
       <c r="AR136" s="70"/>
     </row>
-    <row r="137" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -10897,7 +10959,7 @@
       <c r="AO137" s="70"/>
       <c r="AR137" s="70"/>
     </row>
-    <row r="138" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -10910,7 +10972,7 @@
       <c r="AO138" s="70"/>
       <c r="AR138" s="70"/>
     </row>
-    <row r="139" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -10923,7 +10985,7 @@
       <c r="AO139" s="70"/>
       <c r="AR139" s="70"/>
     </row>
-    <row r="140" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -10936,7 +10998,7 @@
       <c r="AO140" s="70"/>
       <c r="AR140" s="70"/>
     </row>
-    <row r="141" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -10949,7 +11011,7 @@
       <c r="AO141" s="70"/>
       <c r="AR141" s="70"/>
     </row>
-    <row r="142" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -10962,7 +11024,7 @@
       <c r="AO142" s="70"/>
       <c r="AR142" s="70"/>
     </row>
-    <row r="143" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -10975,7 +11037,7 @@
       <c r="AO143" s="70"/>
       <c r="AR143" s="70"/>
     </row>
-    <row r="144" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -10988,7 +11050,7 @@
       <c r="AO144" s="70"/>
       <c r="AR144" s="70"/>
     </row>
-    <row r="145" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -11001,7 +11063,7 @@
       <c r="AO145" s="70"/>
       <c r="AR145" s="70"/>
     </row>
-    <row r="146" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -11014,7 +11076,7 @@
       <c r="AO146" s="70"/>
       <c r="AR146" s="70"/>
     </row>
-    <row r="147" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -11027,7 +11089,7 @@
       <c r="AO147" s="70"/>
       <c r="AR147" s="70"/>
     </row>
-    <row r="148" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -11040,7 +11102,7 @@
       <c r="AO148" s="70"/>
       <c r="AR148" s="70"/>
     </row>
-    <row r="149" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -11053,7 +11115,7 @@
       <c r="AO149" s="70"/>
       <c r="AR149" s="70"/>
     </row>
-    <row r="150" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -11066,7 +11128,7 @@
       <c r="AO150" s="70"/>
       <c r="AR150" s="70"/>
     </row>
-    <row r="151" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -11079,7 +11141,7 @@
       <c r="AO151" s="70"/>
       <c r="AR151" s="70"/>
     </row>
-    <row r="152" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -11092,7 +11154,7 @@
       <c r="AO152" s="70"/>
       <c r="AR152" s="70"/>
     </row>
-    <row r="153" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -11105,7 +11167,7 @@
       <c r="AO153" s="70"/>
       <c r="AR153" s="70"/>
     </row>
-    <row r="154" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -11118,7 +11180,7 @@
       <c r="AO154" s="70"/>
       <c r="AR154" s="70"/>
     </row>
-    <row r="155" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -11128,7 +11190,7 @@
       <c r="AO155" s="70"/>
       <c r="AR155" s="70"/>
     </row>
-    <row r="156" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -11138,7 +11200,7 @@
       <c r="AO156" s="70"/>
       <c r="AR156" s="70"/>
     </row>
-    <row r="157" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -11148,7 +11210,7 @@
       <c r="AO157" s="70"/>
       <c r="AR157" s="70"/>
     </row>
-    <row r="158" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -11158,116 +11220,116 @@
       <c r="AO158" s="70"/>
       <c r="AR158" s="70"/>
     </row>
-    <row r="159" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" x14ac:dyDescent="0.45">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A178" s="78" t="s">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A178" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="78"/>
-      <c r="C178" s="78"/>
-      <c r="D178" s="78"/>
-      <c r="E178" s="78"/>
-      <c r="F178" s="78"/>
-      <c r="G178" s="78"/>
-      <c r="H178" s="78"/>
-      <c r="I178" s="78"/>
-      <c r="J178" s="78"/>
-      <c r="K178" s="78"/>
-      <c r="L178" s="78"/>
-      <c r="M178" s="78"/>
-      <c r="N178" s="78"/>
-      <c r="O178" s="78"/>
-      <c r="P178" s="78"/>
-      <c r="Q178" s="78"/>
-      <c r="R178" s="78"/>
-      <c r="S178" s="78"/>
-      <c r="T178" s="78"/>
-      <c r="U178" s="78"/>
-      <c r="V178" s="78"/>
-      <c r="W178" s="78"/>
-      <c r="X178" s="78"/>
-      <c r="Y178" s="78"/>
-      <c r="Z178" s="78"/>
-      <c r="AA178" s="78"/>
-      <c r="AB178" s="78"/>
-      <c r="AC178" s="78"/>
-      <c r="AD178" s="78"/>
-      <c r="AE178" s="78"/>
-      <c r="AF178" s="78"/>
-      <c r="AG178" s="78"/>
+      <c r="B178" s="119"/>
+      <c r="C178" s="119"/>
+      <c r="D178" s="119"/>
+      <c r="E178" s="119"/>
+      <c r="F178" s="119"/>
+      <c r="G178" s="119"/>
+      <c r="H178" s="119"/>
+      <c r="I178" s="119"/>
+      <c r="J178" s="119"/>
+      <c r="K178" s="119"/>
+      <c r="L178" s="119"/>
+      <c r="M178" s="119"/>
+      <c r="N178" s="119"/>
+      <c r="O178" s="119"/>
+      <c r="P178" s="119"/>
+      <c r="Q178" s="119"/>
+      <c r="R178" s="119"/>
+      <c r="S178" s="119"/>
+      <c r="T178" s="119"/>
+      <c r="U178" s="119"/>
+      <c r="V178" s="119"/>
+      <c r="W178" s="119"/>
+      <c r="X178" s="119"/>
+      <c r="Y178" s="119"/>
+      <c r="Z178" s="119"/>
+      <c r="AA178" s="119"/>
+      <c r="AB178" s="119"/>
+      <c r="AC178" s="119"/>
+      <c r="AD178" s="119"/>
+      <c r="AE178" s="119"/>
+      <c r="AF178" s="119"/>
+      <c r="AG178" s="119"/>
       <c r="AH178" s="29"/>
       <c r="AI178" s="29"/>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B181" s="18">
         <v>31</v>
       </c>
@@ -11365,108 +11427,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A184" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B184" s="79" t="s">
+      <c r="B184" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C184" s="80"/>
-      <c r="D184" s="80"/>
-      <c r="E184" s="80"/>
-      <c r="F184" s="80"/>
-      <c r="G184" s="80"/>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
-      <c r="J184" s="80"/>
-      <c r="K184" s="80"/>
-      <c r="L184" s="80"/>
-      <c r="M184" s="80"/>
-      <c r="N184" s="80"/>
-      <c r="O184" s="80"/>
-      <c r="P184" s="80"/>
-      <c r="Q184" s="80"/>
-      <c r="R184" s="80"/>
-      <c r="S184" s="80"/>
-      <c r="T184" s="80"/>
-      <c r="U184" s="80"/>
-      <c r="V184" s="80"/>
-      <c r="W184" s="80"/>
-      <c r="X184" s="80"/>
-      <c r="Y184" s="80"/>
-      <c r="Z184" s="80"/>
-      <c r="AA184" s="80"/>
-      <c r="AB184" s="80"/>
-      <c r="AC184" s="80"/>
-      <c r="AD184" s="80"/>
-      <c r="AE184" s="80"/>
-      <c r="AF184" s="80"/>
-      <c r="AG184" s="81"/>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C184" s="107"/>
+      <c r="D184" s="107"/>
+      <c r="E184" s="107"/>
+      <c r="F184" s="107"/>
+      <c r="G184" s="107"/>
+      <c r="H184" s="107"/>
+      <c r="I184" s="107"/>
+      <c r="J184" s="107"/>
+      <c r="K184" s="107"/>
+      <c r="L184" s="107"/>
+      <c r="M184" s="107"/>
+      <c r="N184" s="107"/>
+      <c r="O184" s="107"/>
+      <c r="P184" s="107"/>
+      <c r="Q184" s="107"/>
+      <c r="R184" s="107"/>
+      <c r="S184" s="107"/>
+      <c r="T184" s="107"/>
+      <c r="U184" s="107"/>
+      <c r="V184" s="107"/>
+      <c r="W184" s="107"/>
+      <c r="X184" s="107"/>
+      <c r="Y184" s="107"/>
+      <c r="Z184" s="107"/>
+      <c r="AA184" s="107"/>
+      <c r="AB184" s="107"/>
+      <c r="AC184" s="107"/>
+      <c r="AD184" s="107"/>
+      <c r="AE184" s="107"/>
+      <c r="AF184" s="107"/>
+      <c r="AG184" s="108"/>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B186" s="79" t="s">
+      <c r="B186" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="80"/>
-      <c r="D186" s="80"/>
-      <c r="E186" s="80"/>
-      <c r="F186" s="80"/>
-      <c r="G186" s="80"/>
-      <c r="H186" s="80"/>
-      <c r="I186" s="80"/>
-      <c r="J186" s="80"/>
-      <c r="K186" s="80"/>
-      <c r="L186" s="80"/>
-      <c r="M186" s="80"/>
-      <c r="N186" s="80"/>
-      <c r="O186" s="80"/>
-      <c r="P186" s="80"/>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="79" t="s">
+      <c r="C186" s="107"/>
+      <c r="D186" s="107"/>
+      <c r="E186" s="107"/>
+      <c r="F186" s="107"/>
+      <c r="G186" s="107"/>
+      <c r="H186" s="107"/>
+      <c r="I186" s="107"/>
+      <c r="J186" s="107"/>
+      <c r="K186" s="107"/>
+      <c r="L186" s="107"/>
+      <c r="M186" s="107"/>
+      <c r="N186" s="107"/>
+      <c r="O186" s="107"/>
+      <c r="P186" s="107"/>
+      <c r="Q186" s="108"/>
+      <c r="R186" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="S186" s="80"/>
-      <c r="T186" s="80"/>
-      <c r="U186" s="80"/>
-      <c r="V186" s="80"/>
-      <c r="W186" s="80"/>
-      <c r="X186" s="80"/>
-      <c r="Y186" s="80"/>
-      <c r="Z186" s="80"/>
-      <c r="AA186" s="80"/>
-      <c r="AB186" s="80"/>
-      <c r="AC186" s="80"/>
-      <c r="AD186" s="80"/>
-      <c r="AE186" s="80"/>
-      <c r="AF186" s="80"/>
-      <c r="AG186" s="81"/>
+      <c r="S186" s="107"/>
+      <c r="T186" s="107"/>
+      <c r="U186" s="107"/>
+      <c r="V186" s="107"/>
+      <c r="W186" s="107"/>
+      <c r="X186" s="107"/>
+      <c r="Y186" s="107"/>
+      <c r="Z186" s="107"/>
+      <c r="AA186" s="107"/>
+      <c r="AB186" s="107"/>
+      <c r="AC186" s="107"/>
+      <c r="AD186" s="107"/>
+      <c r="AE186" s="107"/>
+      <c r="AF186" s="107"/>
+      <c r="AG186" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
-    <mergeCell ref="AI111:AK111"/>
-    <mergeCell ref="AI112:AK112"/>
-    <mergeCell ref="AN60:AN72"/>
-    <mergeCell ref="AN81:AN85"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="AI107:AK107"/>
-    <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AI102:AK102"/>
-    <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="AI104:AK104"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="AL106:AO106"/>
-    <mergeCell ref="AL107:AO107"/>
-    <mergeCell ref="AI100:AK100"/>
-    <mergeCell ref="AI101:AK101"/>
+  <mergeCells count="168">
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="Z93:AB93"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="B95:D97"/>
+    <mergeCell ref="E95:G97"/>
+    <mergeCell ref="J95:K97"/>
+    <mergeCell ref="L95:M97"/>
+    <mergeCell ref="N95:O97"/>
+    <mergeCell ref="P95:Q97"/>
+    <mergeCell ref="R95:V97"/>
+    <mergeCell ref="W95:X97"/>
+    <mergeCell ref="Y95:Z97"/>
+    <mergeCell ref="AA95:AB97"/>
+    <mergeCell ref="AC95:AG97"/>
+    <mergeCell ref="A178:AG178"/>
+    <mergeCell ref="B184:AG184"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="B186:Q186"/>
+    <mergeCell ref="E52:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="AC100:AG100"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B62:D65"/>
+    <mergeCell ref="O71:O76"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="J57:K59"/>
+    <mergeCell ref="L57:M59"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="AC57:AG59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="E57:G59"/>
+    <mergeCell ref="Y57:Z59"/>
+    <mergeCell ref="AJ38:AQ38"/>
+    <mergeCell ref="AJ39:AQ39"/>
+    <mergeCell ref="AJ40:AQ40"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="B52:D54"/>
+    <mergeCell ref="J52:K54"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ44:AQ44"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AI99:AK99"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="AJ34:AQ34"/>
+    <mergeCell ref="AJ35:AQ35"/>
+    <mergeCell ref="AJ36:AQ36"/>
+    <mergeCell ref="AJ37:AQ37"/>
+    <mergeCell ref="Z91:AB91"/>
+    <mergeCell ref="Z87:AB87"/>
+    <mergeCell ref="C99:AG99"/>
+    <mergeCell ref="Z92:AB92"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="AA57:AB59"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ28:AQ28"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AJ13:AQ13"/>
+    <mergeCell ref="B77:C79"/>
+    <mergeCell ref="O82:O85"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="Q82:Q85"/>
+    <mergeCell ref="M82:N85"/>
+    <mergeCell ref="M62:N65"/>
+    <mergeCell ref="M71:N76"/>
+    <mergeCell ref="O62:O65"/>
+    <mergeCell ref="P62:P65"/>
+    <mergeCell ref="Q62:Q65"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="C50:AG50"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="J62:J65"/>
     <mergeCell ref="AY60:AY72"/>
     <mergeCell ref="AX78:AY78"/>
     <mergeCell ref="AY81:AY85"/>
@@ -11491,129 +11657,26 @@
     <mergeCell ref="Z89:AB89"/>
     <mergeCell ref="Z90:AB90"/>
     <mergeCell ref="K62:K65"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="B77:C79"/>
-    <mergeCell ref="O82:O85"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="Q82:Q85"/>
-    <mergeCell ref="M82:N85"/>
-    <mergeCell ref="M62:N65"/>
-    <mergeCell ref="M71:N76"/>
-    <mergeCell ref="O62:O65"/>
-    <mergeCell ref="P62:P65"/>
-    <mergeCell ref="Q62:Q65"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="C50:AG50"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="AJ19:AQ19"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AJ22:AQ22"/>
-    <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ44:AQ44"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AI99:AK99"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="AJ34:AQ34"/>
-    <mergeCell ref="AJ35:AQ35"/>
-    <mergeCell ref="AJ36:AQ36"/>
-    <mergeCell ref="AJ37:AQ37"/>
-    <mergeCell ref="Z91:AB91"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="C99:AG99"/>
-    <mergeCell ref="Z92:AB92"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="AA57:AB59"/>
-    <mergeCell ref="W57:X59"/>
-    <mergeCell ref="AC57:AG59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="E57:G59"/>
-    <mergeCell ref="Y57:Z59"/>
-    <mergeCell ref="AJ38:AQ38"/>
-    <mergeCell ref="AJ39:AQ39"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="B52:D54"/>
-    <mergeCell ref="J52:K54"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="A178:AG178"/>
-    <mergeCell ref="B184:AG184"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="B186:Q186"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="AC100:AG100"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B62:D65"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="J57:K59"/>
-    <mergeCell ref="L57:M59"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="Z93:AB93"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="B95:D97"/>
-    <mergeCell ref="E95:G97"/>
-    <mergeCell ref="J95:K97"/>
-    <mergeCell ref="L95:M97"/>
-    <mergeCell ref="N95:O97"/>
-    <mergeCell ref="P95:Q97"/>
-    <mergeCell ref="R95:V97"/>
-    <mergeCell ref="W95:X97"/>
-    <mergeCell ref="Y95:Z97"/>
-    <mergeCell ref="AA95:AB97"/>
-    <mergeCell ref="AC95:AG97"/>
+    <mergeCell ref="AI111:AK111"/>
+    <mergeCell ref="AI112:AK112"/>
+    <mergeCell ref="AN60:AN72"/>
+    <mergeCell ref="AN81:AN85"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AI102:AK102"/>
+    <mergeCell ref="AI103:AK103"/>
+    <mergeCell ref="AI104:AK104"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="AL106:AO106"/>
+    <mergeCell ref="AL107:AO107"/>
+    <mergeCell ref="AI100:AK100"/>
+    <mergeCell ref="AI101:AK101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -1309,9 +1309,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,143 +1426,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4702,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL121" sqref="AL121"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4892,16 +4892,16 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="96" t="s">
+      <c r="AJ2" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
-      <c r="AO2" s="110"/>
-      <c r="AP2" s="110"/>
-      <c r="AQ2" s="110"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -4947,16 +4947,16 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="96" t="s">
+      <c r="AJ3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="110"/>
-      <c r="AO3" s="110"/>
-      <c r="AP3" s="110"/>
-      <c r="AQ3" s="110"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
     </row>
     <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
@@ -5008,16 +5008,16 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="96" t="s">
+      <c r="AJ4" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -5057,16 +5057,16 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="111" t="s">
+      <c r="AJ5" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
@@ -5108,16 +5108,16 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="96" t="s">
+      <c r="AJ6" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -5163,16 +5163,16 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="96" t="s">
+      <c r="AJ7" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
@@ -5218,16 +5218,16 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="96" t="s">
+      <c r="AJ8" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -5269,16 +5269,16 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="96" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
@@ -5320,16 +5320,16 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="96" t="s">
+      <c r="AJ10" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
@@ -5371,16 +5371,16 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="96" t="s">
+      <c r="AJ11" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
@@ -5422,16 +5422,16 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="96" t="s">
+      <c r="AJ12" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
@@ -5473,16 +5473,16 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="96" t="s">
+      <c r="AJ13" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
@@ -5524,14 +5524,14 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="106"/>
+      <c r="AN14" s="106"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -5575,16 +5575,16 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="96" t="s">
+      <c r="AJ15" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
+      <c r="AK15" s="106"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="106"/>
+      <c r="AN15" s="106"/>
+      <c r="AO15" s="106"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="106"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -5628,16 +5628,16 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="96" t="s">
+      <c r="AJ16" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
+      <c r="AK16" s="106"/>
+      <c r="AL16" s="106"/>
+      <c r="AM16" s="106"/>
+      <c r="AN16" s="106"/>
+      <c r="AO16" s="106"/>
+      <c r="AP16" s="106"/>
+      <c r="AQ16" s="106"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
@@ -5681,16 +5681,16 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="96" t="s">
+      <c r="AJ17" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="97"/>
-      <c r="AO17" s="97"/>
-      <c r="AP17" s="97"/>
-      <c r="AQ17" s="97"/>
+      <c r="AK17" s="106"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="106"/>
+      <c r="AO17" s="106"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="106"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
@@ -5734,16 +5734,16 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="96" t="s">
+      <c r="AJ18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="97"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
@@ -5785,16 +5785,16 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="96" t="s">
+      <c r="AJ19" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="97"/>
+      <c r="AK19" s="106"/>
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="106"/>
+      <c r="AN19" s="106"/>
+      <c r="AO19" s="106"/>
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
@@ -5842,16 +5842,16 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="96" t="s">
+      <c r="AJ20" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="106"/>
+      <c r="AN20" s="106"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
@@ -5895,16 +5895,16 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="96" t="s">
+      <c r="AJ21" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="106"/>
+      <c r="AQ21" s="106"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
@@ -5946,16 +5946,16 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="96" t="s">
+      <c r="AJ22" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
+      <c r="AK22" s="106"/>
+      <c r="AL22" s="106"/>
+      <c r="AM22" s="106"/>
+      <c r="AN22" s="106"/>
+      <c r="AO22" s="106"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="106"/>
     </row>
     <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6132,16 +6132,16 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="96" t="s">
+      <c r="AJ28" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="110"/>
-      <c r="AO28" s="110"/>
-      <c r="AP28" s="110"/>
-      <c r="AQ28" s="110"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="103"/>
+      <c r="AM28" s="103"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="103"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="103"/>
     </row>
     <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
@@ -6187,16 +6187,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="96" t="s">
+      <c r="AJ29" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="110"/>
-      <c r="AM29" s="110"/>
-      <c r="AN29" s="110"/>
-      <c r="AO29" s="110"/>
-      <c r="AP29" s="110"/>
-      <c r="AQ29" s="110"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
     </row>
     <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
@@ -6248,16 +6248,16 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="96" t="s">
+      <c r="AJ30" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="110"/>
-      <c r="AM30" s="110"/>
-      <c r="AN30" s="110"/>
-      <c r="AO30" s="110"/>
-      <c r="AP30" s="110"/>
-      <c r="AQ30" s="110"/>
+      <c r="AK30" s="103"/>
+      <c r="AL30" s="103"/>
+      <c r="AM30" s="103"/>
+      <c r="AN30" s="103"/>
+      <c r="AO30" s="103"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="103"/>
     </row>
     <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
@@ -6299,16 +6299,16 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="96" t="s">
+      <c r="AJ31" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="97"/>
-      <c r="AO31" s="97"/>
-      <c r="AP31" s="97"/>
-      <c r="AQ31" s="97"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
     </row>
     <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -6354,16 +6354,16 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="96" t="s">
+      <c r="AJ32" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="110"/>
-      <c r="AN32" s="110"/>
-      <c r="AO32" s="110"/>
-      <c r="AP32" s="110"/>
-      <c r="AQ32" s="110"/>
+      <c r="AK32" s="103"/>
+      <c r="AL32" s="103"/>
+      <c r="AM32" s="103"/>
+      <c r="AN32" s="103"/>
+      <c r="AO32" s="103"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="103"/>
     </row>
     <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
@@ -6405,16 +6405,16 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="96" t="s">
+      <c r="AJ33" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="110"/>
-      <c r="AO33" s="110"/>
-      <c r="AP33" s="110"/>
-      <c r="AQ33" s="110"/>
+      <c r="AK33" s="103"/>
+      <c r="AL33" s="103"/>
+      <c r="AM33" s="103"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="103"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
     </row>
     <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
@@ -6456,16 +6456,16 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="96" t="s">
+      <c r="AJ34" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="110"/>
-      <c r="AN34" s="110"/>
-      <c r="AO34" s="110"/>
-      <c r="AP34" s="110"/>
-      <c r="AQ34" s="110"/>
+      <c r="AK34" s="103"/>
+      <c r="AL34" s="103"/>
+      <c r="AM34" s="103"/>
+      <c r="AN34" s="103"/>
+      <c r="AO34" s="103"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="103"/>
     </row>
     <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
@@ -6507,16 +6507,16 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="96" t="s">
+      <c r="AJ35" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="110"/>
-      <c r="AL35" s="110"/>
-      <c r="AM35" s="110"/>
-      <c r="AN35" s="110"/>
-      <c r="AO35" s="110"/>
-      <c r="AP35" s="110"/>
-      <c r="AQ35" s="110"/>
+      <c r="AK35" s="103"/>
+      <c r="AL35" s="103"/>
+      <c r="AM35" s="103"/>
+      <c r="AN35" s="103"/>
+      <c r="AO35" s="103"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="103"/>
     </row>
     <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
@@ -6558,16 +6558,16 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="113" t="s">
+      <c r="AJ36" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="114"/>
-      <c r="AL36" s="114"/>
-      <c r="AM36" s="114"/>
-      <c r="AN36" s="114"/>
-      <c r="AO36" s="114"/>
-      <c r="AP36" s="114"/>
-      <c r="AQ36" s="114"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
     </row>
     <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
@@ -6609,14 +6609,14 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="110"/>
-      <c r="AL37" s="110"/>
-      <c r="AM37" s="110"/>
-      <c r="AN37" s="110"/>
-      <c r="AO37" s="110"/>
-      <c r="AP37" s="110"/>
-      <c r="AQ37" s="110"/>
+      <c r="AJ37" s="102"/>
+      <c r="AK37" s="103"/>
+      <c r="AL37" s="103"/>
+      <c r="AM37" s="103"/>
+      <c r="AN37" s="103"/>
+      <c r="AO37" s="103"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="103"/>
     </row>
     <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
@@ -6660,16 +6660,16 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="96" t="s">
+      <c r="AJ38" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="110"/>
-      <c r="AL38" s="110"/>
-      <c r="AM38" s="110"/>
-      <c r="AN38" s="110"/>
-      <c r="AO38" s="110"/>
-      <c r="AP38" s="110"/>
-      <c r="AQ38" s="110"/>
+      <c r="AK38" s="103"/>
+      <c r="AL38" s="103"/>
+      <c r="AM38" s="103"/>
+      <c r="AN38" s="103"/>
+      <c r="AO38" s="103"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="103"/>
     </row>
     <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
@@ -6713,16 +6713,16 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="96" t="s">
+      <c r="AJ39" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="110"/>
-      <c r="AM39" s="110"/>
-      <c r="AN39" s="110"/>
-      <c r="AO39" s="110"/>
-      <c r="AP39" s="110"/>
-      <c r="AQ39" s="110"/>
+      <c r="AK39" s="103"/>
+      <c r="AL39" s="103"/>
+      <c r="AM39" s="103"/>
+      <c r="AN39" s="103"/>
+      <c r="AO39" s="103"/>
+      <c r="AP39" s="103"/>
+      <c r="AQ39" s="103"/>
     </row>
     <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
@@ -6766,16 +6766,16 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="96" t="s">
+      <c r="AJ40" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="110"/>
-      <c r="AN40" s="110"/>
-      <c r="AO40" s="110"/>
-      <c r="AP40" s="110"/>
-      <c r="AQ40" s="110"/>
+      <c r="AK40" s="103"/>
+      <c r="AL40" s="103"/>
+      <c r="AM40" s="103"/>
+      <c r="AN40" s="103"/>
+      <c r="AO40" s="103"/>
+      <c r="AP40" s="103"/>
+      <c r="AQ40" s="103"/>
     </row>
     <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
@@ -6817,16 +6817,16 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="113" t="s">
+      <c r="AJ41" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="114"/>
-      <c r="AL41" s="114"/>
-      <c r="AM41" s="114"/>
-      <c r="AN41" s="114"/>
-      <c r="AO41" s="114"/>
-      <c r="AP41" s="114"/>
-      <c r="AQ41" s="114"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="105"/>
+      <c r="AO41" s="105"/>
+      <c r="AP41" s="105"/>
+      <c r="AQ41" s="105"/>
     </row>
     <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
@@ -6874,16 +6874,16 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="96" t="s">
+      <c r="AJ42" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="110"/>
-      <c r="AL42" s="110"/>
-      <c r="AM42" s="110"/>
-      <c r="AN42" s="110"/>
-      <c r="AO42" s="110"/>
-      <c r="AP42" s="110"/>
-      <c r="AQ42" s="110"/>
+      <c r="AK42" s="103"/>
+      <c r="AL42" s="103"/>
+      <c r="AM42" s="103"/>
+      <c r="AN42" s="103"/>
+      <c r="AO42" s="103"/>
+      <c r="AP42" s="103"/>
+      <c r="AQ42" s="103"/>
     </row>
     <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -6927,16 +6927,16 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="96" t="s">
+      <c r="AJ43" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="110"/>
-      <c r="AL43" s="110"/>
-      <c r="AM43" s="110"/>
-      <c r="AN43" s="110"/>
-      <c r="AO43" s="110"/>
-      <c r="AP43" s="110"/>
-      <c r="AQ43" s="110"/>
+      <c r="AK43" s="103"/>
+      <c r="AL43" s="103"/>
+      <c r="AM43" s="103"/>
+      <c r="AN43" s="103"/>
+      <c r="AO43" s="103"/>
+      <c r="AP43" s="103"/>
+      <c r="AQ43" s="103"/>
     </row>
     <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
@@ -6978,16 +6978,16 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="96" t="s">
+      <c r="AJ44" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="110"/>
-      <c r="AL44" s="110"/>
-      <c r="AM44" s="110"/>
-      <c r="AN44" s="110"/>
-      <c r="AO44" s="110"/>
-      <c r="AP44" s="110"/>
-      <c r="AQ44" s="110"/>
+      <c r="AK44" s="103"/>
+      <c r="AL44" s="103"/>
+      <c r="AM44" s="103"/>
+      <c r="AN44" s="103"/>
+      <c r="AO44" s="103"/>
+      <c r="AP44" s="103"/>
+      <c r="AQ44" s="103"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB45" s="70"/>
@@ -6998,43 +6998,43 @@
       <c r="BC46" s="70"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="119"/>
-      <c r="S47" s="119"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="119"/>
-      <c r="W47" s="119"/>
-      <c r="X47" s="119"/>
-      <c r="Y47" s="119"/>
-      <c r="Z47" s="119"/>
-      <c r="AA47" s="119"/>
-      <c r="AB47" s="119"/>
-      <c r="AC47" s="119"/>
-      <c r="AD47" s="119"/>
-      <c r="AE47" s="119"/>
-      <c r="AF47" s="119"/>
-      <c r="AG47" s="119"/>
-      <c r="AH47" s="119"/>
-      <c r="AI47" s="119"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="86"/>
+      <c r="AF47" s="86"/>
+      <c r="AG47" s="86"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="86"/>
       <c r="BB47" s="70"/>
       <c r="BC47" s="70"/>
     </row>
@@ -7149,39 +7149,39 @@
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="106" t="s">
+      <c r="C50" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="107"/>
-      <c r="N50" s="107"/>
-      <c r="O50" s="107"/>
-      <c r="P50" s="107"/>
-      <c r="Q50" s="107"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="107"/>
-      <c r="U50" s="107"/>
-      <c r="V50" s="107"/>
-      <c r="W50" s="107"/>
-      <c r="X50" s="107"/>
-      <c r="Y50" s="107"/>
-      <c r="Z50" s="107"/>
-      <c r="AA50" s="107"/>
-      <c r="AB50" s="107"/>
-      <c r="AC50" s="107"/>
-      <c r="AD50" s="107"/>
-      <c r="AE50" s="107"/>
-      <c r="AF50" s="107"/>
-      <c r="AG50" s="108"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="89"/>
       <c r="BB50" s="70"/>
       <c r="BC50" s="70"/>
     </row>
@@ -7192,10 +7192,10 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="118" t="s">
+      <c r="H51" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="118" t="s">
+      <c r="I51" s="83" t="s">
         <v>160</v>
       </c>
       <c r="J51" s="22"/>
@@ -7224,34 +7224,34 @@
       <c r="BC51" s="70"/>
     </row>
     <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="118" t="s">
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="91" t="s">
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91" t="s">
+      <c r="K52" s="85"/>
+      <c r="L52" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91" t="s">
+      <c r="M52" s="85"/>
+      <c r="N52" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91" t="s">
+      <c r="O52" s="85"/>
+      <c r="P52" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="91"/>
+      <c r="Q52" s="85"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7272,22 +7272,22 @@
       <c r="BC52" s="70"/>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="91"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7308,22 +7308,22 @@
       <c r="BC53" s="70"/>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="92"/>
-      <c r="Q54" s="92"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7369,29 +7369,29 @@
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="106" t="s">
+      <c r="R55" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
-      <c r="U55" s="107"/>
-      <c r="V55" s="107"/>
-      <c r="W55" s="107"/>
-      <c r="X55" s="107"/>
-      <c r="Y55" s="107"/>
-      <c r="Z55" s="107"/>
-      <c r="AA55" s="107"/>
-      <c r="AB55" s="107"/>
-      <c r="AC55" s="107"/>
-      <c r="AD55" s="107"/>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="107"/>
-      <c r="AG55" s="108"/>
-      <c r="AJ55" s="110"/>
-      <c r="AK55" s="110"/>
-      <c r="AL55" s="110"/>
-      <c r="AM55" s="110"/>
-      <c r="AN55" s="110"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="89"/>
+      <c r="AJ55" s="103"/>
+      <c r="AK55" s="103"/>
+      <c r="AL55" s="103"/>
+      <c r="AM55" s="103"/>
+      <c r="AN55" s="103"/>
       <c r="AR55" s="51"/>
       <c r="AS55" s="51"/>
       <c r="BB55" s="70"/>
@@ -7401,10 +7401,10 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="H56" s="118" t="s">
+      <c r="H56" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="118" t="s">
+      <c r="I56" s="83" t="s">
         <v>160</v>
       </c>
       <c r="J56" s="28"/>
@@ -7432,136 +7432,136 @@
       <c r="BC56" s="70"/>
     </row>
     <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="118" t="s">
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="91" t="s">
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91" t="s">
+      <c r="K57" s="85"/>
+      <c r="L57" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91" t="s">
+      <c r="M57" s="85"/>
+      <c r="N57" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91" t="s">
+      <c r="O57" s="85"/>
+      <c r="P57" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91" t="s">
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91" t="s">
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91" t="s">
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="Z57" s="91"/>
-      <c r="AA57" s="91" t="s">
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91" t="s">
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="AD57" s="91"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
       <c r="AR57" s="51"/>
       <c r="AS57" s="51"/>
       <c r="BB57" s="70"/>
       <c r="BC57" s="70"/>
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="91"/>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91"/>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="85"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="85"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
+      <c r="X58" s="85"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="85"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="85"/>
+      <c r="AC58" s="85"/>
+      <c r="AD58" s="85"/>
+      <c r="AE58" s="85"/>
+      <c r="AF58" s="85"/>
+      <c r="AG58" s="85"/>
       <c r="AR58" s="51"/>
       <c r="AS58" s="51"/>
       <c r="BB58" s="70"/>
       <c r="BC58" s="70"/>
     </row>
     <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="92"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="92"/>
-      <c r="X59" s="92"/>
-      <c r="Y59" s="92"/>
-      <c r="Z59" s="92"/>
-      <c r="AA59" s="92"/>
-      <c r="AB59" s="92"/>
-      <c r="AC59" s="92"/>
-      <c r="AD59" s="92"/>
-      <c r="AE59" s="92"/>
-      <c r="AF59" s="92"/>
-      <c r="AG59" s="92"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="84"/>
+      <c r="U59" s="84"/>
+      <c r="V59" s="84"/>
+      <c r="W59" s="84"/>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="84"/>
+      <c r="Z59" s="84"/>
+      <c r="AA59" s="84"/>
+      <c r="AB59" s="84"/>
+      <c r="AC59" s="84"/>
+      <c r="AD59" s="84"/>
+      <c r="AE59" s="84"/>
+      <c r="AF59" s="84"/>
+      <c r="AG59" s="84"/>
       <c r="BB59" s="70"/>
       <c r="BC59" s="70"/>
     </row>
@@ -7607,11 +7607,11 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="77" t="s">
+      <c r="AN60" s="112" t="s">
         <v>115</v>
       </c>
       <c r="AX60" s="34"/>
-      <c r="AY60" s="77" t="s">
+      <c r="AY60" s="112" t="s">
         <v>115</v>
       </c>
       <c r="AZ60" s="34"/>
@@ -7624,19 +7624,19 @@
       <c r="AM61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AN61" s="78"/>
+      <c r="AN61" s="113"/>
       <c r="AO61" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AQ61" s="85" t="s">
+      <c r="AQ61" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="AR61" s="86"/>
+      <c r="AR61" s="118"/>
       <c r="AU61" s="34"/>
       <c r="AX61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AY61" s="78"/>
+      <c r="AY61" s="113"/>
       <c r="AZ61" s="52" t="s">
         <v>117</v>
       </c>
@@ -7644,43 +7644,43 @@
       <c r="BC61" s="70"/>
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="121"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="95" t="s">
+      <c r="C62" s="93"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="95" t="s">
+      <c r="F62" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="95" t="s">
+      <c r="G62" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="95" t="s">
+      <c r="H62" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="I62" s="95" t="s">
+      <c r="I62" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="J62" s="109" t="s">
+      <c r="J62" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="K62" s="95" t="s">
+      <c r="K62" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="M62" s="98" t="s">
+      <c r="M62" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="N62" s="99"/>
-      <c r="O62" s="95" t="s">
+      <c r="N62" s="94"/>
+      <c r="O62" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="P62" s="95" t="s">
+      <c r="P62" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="105" t="s">
+      <c r="Q62" s="90" t="s">
         <v>105</v>
       </c>
       <c r="T62" s="21">
@@ -7701,40 +7701,40 @@
       <c r="Y62" s="19">
         <v>0</v>
       </c>
-      <c r="Z62" s="94" t="s">
+      <c r="Z62" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="94"/>
+      <c r="AA62" s="79"/>
+      <c r="AB62" s="79"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
-      <c r="AN62" s="78"/>
-      <c r="AQ62" s="87"/>
-      <c r="AR62" s="88"/>
+      <c r="AN62" s="113"/>
+      <c r="AQ62" s="119"/>
+      <c r="AR62" s="120"/>
       <c r="AX62" s="34"/>
-      <c r="AY62" s="78"/>
+      <c r="AY62" s="113"/>
       <c r="AZ62" s="34"/>
       <c r="BB62" s="70"/>
       <c r="BC62" s="70"/>
     </row>
     <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="100"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="109"/>
-      <c r="K63" s="95"/>
-      <c r="M63" s="100"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="95"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="105"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="91"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="90"/>
       <c r="T63" s="21">
         <v>0</v>
       </c>
@@ -7753,11 +7753,11 @@
       <c r="Y63" s="19">
         <v>1</v>
       </c>
-      <c r="Z63" s="94" t="s">
+      <c r="Z63" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="AA63" s="94"/>
-      <c r="AB63" s="94"/>
+      <c r="AA63" s="79"/>
+      <c r="AB63" s="79"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
       <c r="AE63" s="6"/>
@@ -7765,31 +7765,31 @@
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="78"/>
-      <c r="AQ63" s="87"/>
-      <c r="AR63" s="88"/>
+      <c r="AN63" s="113"/>
+      <c r="AQ63" s="119"/>
+      <c r="AR63" s="120"/>
       <c r="AX63" s="34"/>
-      <c r="AY63" s="78"/>
+      <c r="AY63" s="113"/>
       <c r="AZ63" s="34"/>
       <c r="BB63" s="70"/>
       <c r="BC63" s="70"/>
     </row>
     <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="100"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="95"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="105"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="91"/>
+      <c r="M64" s="95"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="90"/>
       <c r="T64" s="21">
         <v>0</v>
       </c>
@@ -7808,11 +7808,11 @@
       <c r="Y64" s="19">
         <v>2</v>
       </c>
-      <c r="Z64" s="76" t="s">
+      <c r="Z64" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AA64" s="76"/>
-      <c r="AB64" s="76"/>
+      <c r="AA64" s="78"/>
+      <c r="AB64" s="78"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -7820,31 +7820,31 @@
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="78"/>
-      <c r="AQ64" s="89"/>
-      <c r="AR64" s="90"/>
+      <c r="AN64" s="113"/>
+      <c r="AQ64" s="121"/>
+      <c r="AR64" s="122"/>
       <c r="AX64" s="34"/>
-      <c r="AY64" s="78"/>
+      <c r="AY64" s="113"/>
       <c r="AZ64" s="34"/>
       <c r="BB64" s="70"/>
       <c r="BC64" s="70"/>
     </row>
     <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="102"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="95"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="105"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="91"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="90"/>
       <c r="T65" s="21">
         <v>0</v>
       </c>
@@ -7863,11 +7863,11 @@
       <c r="Y65" s="19">
         <v>3</v>
       </c>
-      <c r="Z65" s="76" t="s">
+      <c r="Z65" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AA65" s="76"/>
-      <c r="AB65" s="76"/>
+      <c r="AA65" s="78"/>
+      <c r="AB65" s="78"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
@@ -7875,9 +7875,9 @@
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="78"/>
+      <c r="AN65" s="113"/>
       <c r="AX65" s="34"/>
-      <c r="AY65" s="78"/>
+      <c r="AY65" s="113"/>
       <c r="AZ65" s="34"/>
       <c r="BB65" s="70"/>
       <c r="BC65" s="70"/>
@@ -7926,11 +7926,11 @@
       <c r="Y66" s="19">
         <v>4</v>
       </c>
-      <c r="Z66" s="76" t="s">
+      <c r="Z66" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="AA66" s="76"/>
-      <c r="AB66" s="76"/>
+      <c r="AA66" s="78"/>
+      <c r="AB66" s="78"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
@@ -7938,11 +7938,11 @@
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-      <c r="AN66" s="78"/>
+      <c r="AN66" s="113"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AX66" s="34"/>
-      <c r="AY66" s="78"/>
+      <c r="AY66" s="113"/>
       <c r="AZ66" s="34"/>
       <c r="BB66" s="70"/>
       <c r="BC66" s="70"/>
@@ -7995,11 +7995,11 @@
       <c r="Y67" s="19">
         <v>5</v>
       </c>
-      <c r="Z67" s="76" t="s">
+      <c r="Z67" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AA67" s="76"/>
-      <c r="AB67" s="76"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
@@ -8007,9 +8007,9 @@
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-      <c r="AN67" s="78"/>
+      <c r="AN67" s="113"/>
       <c r="AX67" s="34"/>
-      <c r="AY67" s="78"/>
+      <c r="AY67" s="113"/>
       <c r="AZ67" s="34"/>
       <c r="BB67" s="70"/>
       <c r="BC67" s="70"/>
@@ -8067,11 +8067,11 @@
       <c r="Y68" s="19">
         <v>6</v>
       </c>
-      <c r="Z68" s="76" t="s">
+      <c r="Z68" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AA68" s="76"/>
-      <c r="AB68" s="76"/>
+      <c r="AA68" s="78"/>
+      <c r="AB68" s="78"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
@@ -8079,9 +8079,9 @@
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AN68" s="78"/>
+      <c r="AN68" s="113"/>
       <c r="AX68" s="34"/>
-      <c r="AY68" s="78"/>
+      <c r="AY68" s="113"/>
       <c r="AZ68" s="34"/>
       <c r="BB68" s="70"/>
       <c r="BC68" s="70"/>
@@ -8138,11 +8138,11 @@
       <c r="Y69" s="19">
         <v>7</v>
       </c>
-      <c r="Z69" s="76" t="s">
+      <c r="Z69" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AA69" s="76"/>
-      <c r="AB69" s="76"/>
+      <c r="AA69" s="78"/>
+      <c r="AB69" s="78"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
@@ -8150,11 +8150,11 @@
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AN69" s="78"/>
+      <c r="AN69" s="113"/>
       <c r="AX69" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AY69" s="78"/>
+      <c r="AY69" s="113"/>
       <c r="AZ69" s="34"/>
       <c r="BB69" s="70"/>
       <c r="BC69" s="70"/>
@@ -8198,11 +8198,11 @@
       <c r="Y70" s="19">
         <v>8</v>
       </c>
-      <c r="Z70" s="76" t="s">
+      <c r="Z70" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AA70" s="76"/>
-      <c r="AB70" s="76"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
@@ -8210,9 +8210,9 @@
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AN70" s="78"/>
+      <c r="AN70" s="113"/>
       <c r="AX70" s="34"/>
-      <c r="AY70" s="78"/>
+      <c r="AY70" s="113"/>
       <c r="AZ70" s="34"/>
       <c r="BB70" s="70"/>
       <c r="BC70" s="70"/>
@@ -8237,17 +8237,17 @@
       <c r="K71" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="M71" s="98" t="s">
+      <c r="M71" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="N71" s="99"/>
-      <c r="O71" s="93" t="s">
+      <c r="N71" s="94"/>
+      <c r="O71" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="P71" s="93" t="s">
+      <c r="P71" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="Q71" s="93" t="s">
+      <c r="Q71" s="101" t="s">
         <v>165</v>
       </c>
       <c r="R71" s="6"/>
@@ -8269,11 +8269,11 @@
       <c r="Y71" s="19">
         <v>9</v>
       </c>
-      <c r="Z71" s="76" t="s">
+      <c r="Z71" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AA71" s="76"/>
-      <c r="AB71" s="76"/>
+      <c r="AA71" s="78"/>
+      <c r="AB71" s="78"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
@@ -8284,22 +8284,22 @@
       <c r="AM71" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AN71" s="78"/>
+      <c r="AN71" s="113"/>
       <c r="AO71" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="AQ71" s="80" t="s">
+      <c r="AQ71" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="AR71" s="81"/>
-      <c r="AU71" s="80" t="s">
+      <c r="AR71" s="124"/>
+      <c r="AU71" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="AV71" s="81"/>
+      <c r="AV71" s="124"/>
       <c r="AX71" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AY71" s="78"/>
+      <c r="AY71" s="113"/>
       <c r="AZ71" s="52" t="s">
         <v>120</v>
       </c>
@@ -8325,11 +8325,11 @@
       </c>
       <c r="J72" s="61"/>
       <c r="K72" s="62"/>
-      <c r="M72" s="100"/>
-      <c r="N72" s="101"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
+      <c r="M72" s="95"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="101"/>
+      <c r="Q72" s="101"/>
       <c r="R72" s="6"/>
       <c r="T72" s="21">
         <v>0</v>
@@ -8349,11 +8349,11 @@
       <c r="Y72" s="19">
         <v>10</v>
       </c>
-      <c r="Z72" s="76" t="s">
+      <c r="Z72" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AA72" s="76"/>
-      <c r="AB72" s="76"/>
+      <c r="AA72" s="78"/>
+      <c r="AB72" s="78"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
@@ -8361,9 +8361,9 @@
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-      <c r="AN72" s="79"/>
+      <c r="AN72" s="114"/>
       <c r="AX72" s="34"/>
-      <c r="AY72" s="79"/>
+      <c r="AY72" s="114"/>
       <c r="AZ72" s="34"/>
       <c r="BB72" s="70"/>
       <c r="BC72" s="70"/>
@@ -8387,11 +8387,11 @@
         <v>59</v>
       </c>
       <c r="K73" s="62"/>
-      <c r="M73" s="100"/>
-      <c r="N73" s="101"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="101"/>
+      <c r="Q73" s="101"/>
       <c r="R73" s="6"/>
       <c r="T73" s="21">
         <v>0</v>
@@ -8411,11 +8411,11 @@
       <c r="Y73" s="19">
         <v>11</v>
       </c>
-      <c r="Z73" s="76" t="s">
+      <c r="Z73" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="76"/>
-      <c r="AB73" s="76"/>
+      <c r="AA73" s="78"/>
+      <c r="AB73" s="78"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
       <c r="AE73" s="6"/>
@@ -8434,11 +8434,11 @@
       <c r="E74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-      <c r="M74" s="100"/>
-      <c r="N74" s="101"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="93"/>
-      <c r="Q74" s="93"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="97"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="101"/>
       <c r="R74" s="6"/>
       <c r="T74" s="21">
         <v>0</v>
@@ -8458,11 +8458,11 @@
       <c r="Y74" s="19">
         <v>12</v>
       </c>
-      <c r="Z74" s="76" t="s">
+      <c r="Z74" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
+      <c r="AA74" s="78"/>
+      <c r="AB74" s="78"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6"/>
@@ -8489,11 +8489,11 @@
       <c r="F75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="101"/>
-      <c r="O75" s="93"/>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="93"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="97"/>
+      <c r="O75" s="101"/>
+      <c r="P75" s="101"/>
+      <c r="Q75" s="101"/>
       <c r="R75" s="6"/>
       <c r="T75" s="21">
         <v>0</v>
@@ -8513,11 +8513,11 @@
       <c r="Y75" s="19">
         <v>13</v>
       </c>
-      <c r="Z75" s="76" t="s">
+      <c r="Z75" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="AA75" s="76"/>
-      <c r="AB75" s="76"/>
+      <c r="AA75" s="78"/>
+      <c r="AB75" s="78"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
       <c r="AE75" s="6"/>
@@ -8544,11 +8544,11 @@
       <c r="F76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="103"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="101"/>
+      <c r="P76" s="101"/>
+      <c r="Q76" s="101"/>
       <c r="R76" s="6"/>
       <c r="T76" s="21">
         <v>0</v>
@@ -8568,11 +8568,11 @@
       <c r="Y76" s="19">
         <v>14</v>
       </c>
-      <c r="Z76" s="76" t="s">
+      <c r="Z76" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
+      <c r="AA76" s="78"/>
+      <c r="AB76" s="78"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
@@ -8595,17 +8595,17 @@
       <c r="BC76" s="70"/>
     </row>
     <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="95" t="s">
+      <c r="C77" s="94"/>
+      <c r="D77" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="E77" s="95" t="s">
+      <c r="E77" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="105" t="s">
+      <c r="F77" s="90" t="s">
         <v>141</v>
       </c>
       <c r="H77" s="6"/>
@@ -8638,11 +8638,11 @@
       <c r="Y77" s="19">
         <v>15</v>
       </c>
-      <c r="Z77" s="76" t="s">
+      <c r="Z77" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AA77" s="76"/>
-      <c r="AB77" s="76"/>
+      <c r="AA77" s="78"/>
+      <c r="AB77" s="78"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AE77" s="6"/>
@@ -8656,11 +8656,11 @@
       <c r="BC77" s="70"/>
     </row>
     <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="100"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="105"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="90"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="M78" s="20">
@@ -8693,41 +8693,41 @@
       <c r="Y78" s="19">
         <v>16</v>
       </c>
-      <c r="Z78" s="76" t="s">
+      <c r="Z78" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AA78" s="76"/>
-      <c r="AB78" s="76"/>
+      <c r="AA78" s="78"/>
+      <c r="AB78" s="78"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AN78" s="82" t="s">
+      <c r="AN78" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="AO78" s="83"/>
-      <c r="AQ78" s="85" t="s">
+      <c r="AO78" s="116"/>
+      <c r="AQ78" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="86"/>
+      <c r="AR78" s="118"/>
       <c r="AT78" s="34"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="82" t="s">
+      <c r="AX78" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="AY78" s="83"/>
+      <c r="AY78" s="116"/>
       <c r="AZ78" s="34"/>
       <c r="BB78" s="70"/>
       <c r="BC78" s="70"/>
     </row>
     <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="102"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="105"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="90"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="M79" s="20">
@@ -8760,11 +8760,11 @@
       <c r="Y79" s="19">
         <v>17</v>
       </c>
-      <c r="Z79" s="76" t="s">
+      <c r="Z79" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AA79" s="76"/>
-      <c r="AB79" s="76"/>
+      <c r="AA79" s="78"/>
+      <c r="AB79" s="78"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
       <c r="AE79" s="6"/>
@@ -8776,8 +8776,8 @@
       <c r="AO79" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AQ79" s="87"/>
-      <c r="AR79" s="88"/>
+      <c r="AQ79" s="119"/>
+      <c r="AR79" s="120"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="53" t="s">
@@ -8832,18 +8832,18 @@
       <c r="Y80" s="19">
         <v>18</v>
       </c>
-      <c r="Z80" s="76" t="s">
+      <c r="Z80" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AA80" s="76"/>
-      <c r="AB80" s="76"/>
+      <c r="AA80" s="78"/>
+      <c r="AB80" s="78"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AQ80" s="87"/>
-      <c r="AR80" s="88"/>
+      <c r="AQ80" s="119"/>
+      <c r="AR80" s="120"/>
       <c r="AV80" s="34"/>
       <c r="AX80" s="34"/>
       <c r="AY80" s="34"/>
@@ -8881,24 +8881,24 @@
       <c r="Y81" s="19">
         <v>19</v>
       </c>
-      <c r="Z81" s="76" t="s">
+      <c r="Z81" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
+      <c r="AA81" s="78"/>
+      <c r="AB81" s="78"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AN81" s="77" t="s">
+      <c r="AN81" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="AQ81" s="89"/>
-      <c r="AR81" s="90"/>
+      <c r="AQ81" s="121"/>
+      <c r="AR81" s="122"/>
       <c r="AV81" s="34"/>
       <c r="AX81" s="34"/>
-      <c r="AY81" s="77" t="s">
+      <c r="AY81" s="112" t="s">
         <v>129</v>
       </c>
       <c r="AZ81" s="34"/>
@@ -8919,17 +8919,17 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="M82" s="98" t="s">
+      <c r="M82" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="N82" s="99"/>
-      <c r="O82" s="95" t="s">
+      <c r="N82" s="94"/>
+      <c r="O82" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="P82" s="95" t="s">
+      <c r="P82" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="Q82" s="104" t="s">
+      <c r="Q82" s="110" t="s">
         <v>101</v>
       </c>
       <c r="T82" s="21">
@@ -8950,18 +8950,18 @@
       <c r="Y82" s="19">
         <v>20</v>
       </c>
-      <c r="Z82" s="94"/>
-      <c r="AA82" s="94"/>
-      <c r="AB82" s="94"/>
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="79"/>
+      <c r="AB82" s="79"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
       <c r="AE82" s="6"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="78"/>
+      <c r="AN82" s="113"/>
       <c r="AV82" s="34"/>
       <c r="AX82" s="34"/>
-      <c r="AY82" s="78"/>
+      <c r="AY82" s="113"/>
       <c r="AZ82" s="34"/>
     </row>
     <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8982,11 +8982,11 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="M83" s="100"/>
-      <c r="N83" s="101"/>
-      <c r="O83" s="95"/>
-      <c r="P83" s="95"/>
-      <c r="Q83" s="104"/>
+      <c r="M83" s="95"/>
+      <c r="N83" s="97"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="110"/>
       <c r="T83" s="21">
         <v>1</v>
       </c>
@@ -9005,17 +9005,17 @@
       <c r="Y83" s="19">
         <v>21</v>
       </c>
-      <c r="Z83" s="94"/>
-      <c r="AA83" s="94"/>
-      <c r="AB83" s="94"/>
+      <c r="Z83" s="79"/>
+      <c r="AA83" s="79"/>
+      <c r="AB83" s="79"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="78"/>
+      <c r="AN83" s="113"/>
       <c r="AX83" s="34"/>
-      <c r="AY83" s="78"/>
+      <c r="AY83" s="113"/>
       <c r="AZ83" s="34"/>
     </row>
     <row r="84" spans="2:52" x14ac:dyDescent="0.45">
@@ -9028,11 +9028,11 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="M84" s="100"/>
-      <c r="N84" s="101"/>
-      <c r="O84" s="95"/>
-      <c r="P84" s="95"/>
-      <c r="Q84" s="104"/>
+      <c r="M84" s="95"/>
+      <c r="N84" s="97"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="110"/>
       <c r="T84" s="21">
         <v>1</v>
       </c>
@@ -9051,16 +9051,16 @@
       <c r="Y84" s="19">
         <v>22</v>
       </c>
-      <c r="Z84" s="94"/>
-      <c r="AA84" s="94"/>
-      <c r="AB84" s="94"/>
+      <c r="Z84" s="79"/>
+      <c r="AA84" s="79"/>
+      <c r="AB84" s="79"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="78"/>
+      <c r="AN84" s="113"/>
       <c r="AX84" s="34"/>
-      <c r="AY84" s="78"/>
+      <c r="AY84" s="113"/>
       <c r="AZ84" s="34"/>
     </row>
     <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9070,11 +9070,11 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="M85" s="102"/>
-      <c r="N85" s="103"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="95"/>
-      <c r="Q85" s="104"/>
+      <c r="M85" s="98"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="110"/>
       <c r="T85" s="21">
         <v>1</v>
       </c>
@@ -9093,16 +9093,16 @@
       <c r="Y85" s="19">
         <v>23</v>
       </c>
-      <c r="Z85" s="94"/>
-      <c r="AA85" s="94"/>
-      <c r="AB85" s="94"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="79"/>
+      <c r="AN85" s="114"/>
       <c r="AX85" s="34"/>
-      <c r="AY85" s="79"/>
+      <c r="AY85" s="114"/>
       <c r="AZ85" s="34"/>
     </row>
     <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9142,9 +9142,9 @@
       <c r="Y86" s="19">
         <v>24</v>
       </c>
-      <c r="Z86" s="94"/>
-      <c r="AA86" s="94"/>
-      <c r="AB86" s="94"/>
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="79"/>
+      <c r="AB86" s="79"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
       <c r="AE86" s="6"/>
@@ -9192,18 +9192,18 @@
       <c r="Y87" s="19">
         <v>25</v>
       </c>
-      <c r="Z87" s="94"/>
-      <c r="AA87" s="94"/>
-      <c r="AB87" s="94"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="79"/>
+      <c r="AB87" s="79"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="77" t="s">
+      <c r="AN87" s="112" t="s">
         <v>124</v>
       </c>
       <c r="AX87" s="34"/>
-      <c r="AY87" s="77" t="s">
+      <c r="AY87" s="112" t="s">
         <v>130</v>
       </c>
       <c r="AZ87" s="34"/>
@@ -9247,16 +9247,16 @@
       <c r="Y88" s="19">
         <v>26</v>
       </c>
-      <c r="Z88" s="94"/>
-      <c r="AA88" s="94"/>
-      <c r="AB88" s="94"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="79"/>
+      <c r="AB88" s="79"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="78"/>
+      <c r="AN88" s="113"/>
       <c r="AX88" s="34"/>
-      <c r="AY88" s="78"/>
+      <c r="AY88" s="113"/>
       <c r="AZ88" s="34"/>
     </row>
     <row r="89" spans="2:52" x14ac:dyDescent="0.45">
@@ -9299,16 +9299,16 @@
       <c r="Y89" s="19">
         <v>27</v>
       </c>
-      <c r="Z89" s="94"/>
-      <c r="AA89" s="94"/>
-      <c r="AB89" s="94"/>
+      <c r="Z89" s="79"/>
+      <c r="AA89" s="79"/>
+      <c r="AB89" s="79"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="78"/>
+      <c r="AN89" s="113"/>
       <c r="AX89" s="34"/>
-      <c r="AY89" s="78"/>
+      <c r="AY89" s="113"/>
       <c r="AZ89" s="34"/>
     </row>
     <row r="90" spans="2:52" x14ac:dyDescent="0.45">
@@ -9342,16 +9342,16 @@
       <c r="Y90" s="19">
         <v>28</v>
       </c>
-      <c r="Z90" s="94"/>
-      <c r="AA90" s="94"/>
-      <c r="AB90" s="94"/>
+      <c r="Z90" s="79"/>
+      <c r="AA90" s="79"/>
+      <c r="AB90" s="79"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="78"/>
+      <c r="AN90" s="113"/>
       <c r="AX90" s="34"/>
-      <c r="AY90" s="78"/>
+      <c r="AY90" s="113"/>
       <c r="AZ90" s="34"/>
     </row>
     <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9385,16 +9385,16 @@
       <c r="Y91" s="19">
         <v>29</v>
       </c>
-      <c r="Z91" s="94"/>
-      <c r="AA91" s="94"/>
-      <c r="AB91" s="94"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="79"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="79"/>
+      <c r="AN91" s="114"/>
       <c r="AX91" s="34"/>
-      <c r="AY91" s="79"/>
+      <c r="AY91" s="114"/>
       <c r="AZ91" s="34"/>
     </row>
     <row r="92" spans="2:52" x14ac:dyDescent="0.45">
@@ -9428,9 +9428,9 @@
       <c r="Y92" s="19">
         <v>30</v>
       </c>
-      <c r="Z92" s="94"/>
-      <c r="AA92" s="94"/>
-      <c r="AB92" s="94"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="79"/>
+      <c r="AB92" s="79"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
@@ -9467,11 +9467,11 @@
       <c r="Y93" s="19">
         <v>31</v>
       </c>
-      <c r="Z93" s="94" t="s">
+      <c r="Z93" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AA93" s="94"/>
-      <c r="AB93" s="94"/>
+      <c r="AA93" s="79"/>
+      <c r="AB93" s="79"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
@@ -9481,10 +9481,10 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="H94" s="118" t="s">
+      <c r="H94" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="I94" s="118" t="s">
+      <c r="I94" s="83" t="s">
         <v>160</v>
       </c>
       <c r="J94" s="28"/>
@@ -9508,128 +9508,128 @@
       <c r="AG94" s="1"/>
     </row>
     <row r="95" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="118" t="s">
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="118"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="91" t="s">
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="K95" s="91"/>
-      <c r="L95" s="91" t="s">
+      <c r="K95" s="85"/>
+      <c r="L95" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="M95" s="91"/>
-      <c r="N95" s="91" t="s">
+      <c r="M95" s="85"/>
+      <c r="N95" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="O95" s="91"/>
-      <c r="P95" s="91" t="s">
+      <c r="O95" s="85"/>
+      <c r="P95" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="Q95" s="91"/>
-      <c r="R95" s="91" t="s">
+      <c r="Q95" s="85"/>
+      <c r="R95" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="91"/>
-      <c r="T95" s="91"/>
-      <c r="U95" s="91"/>
-      <c r="V95" s="91"/>
-      <c r="W95" s="91" t="s">
+      <c r="S95" s="85"/>
+      <c r="T95" s="85"/>
+      <c r="U95" s="85"/>
+      <c r="V95" s="85"/>
+      <c r="W95" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="X95" s="91"/>
-      <c r="Y95" s="91" t="s">
+      <c r="X95" s="85"/>
+      <c r="Y95" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="Z95" s="91"/>
-      <c r="AA95" s="91" t="s">
+      <c r="Z95" s="85"/>
+      <c r="AA95" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="AB95" s="91"/>
-      <c r="AC95" s="91" t="s">
+      <c r="AB95" s="85"/>
+      <c r="AC95" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="AD95" s="91"/>
-      <c r="AE95" s="91"/>
-      <c r="AF95" s="91"/>
-      <c r="AG95" s="91"/>
+      <c r="AD95" s="85"/>
+      <c r="AE95" s="85"/>
+      <c r="AF95" s="85"/>
+      <c r="AG95" s="85"/>
     </row>
     <row r="96" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="118"/>
-      <c r="F96" s="118"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="118"/>
-      <c r="I96" s="118"/>
-      <c r="J96" s="91"/>
-      <c r="K96" s="91"/>
-      <c r="L96" s="91"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="91"/>
-      <c r="O96" s="91"/>
-      <c r="P96" s="91"/>
-      <c r="Q96" s="91"/>
-      <c r="R96" s="91"/>
-      <c r="S96" s="91"/>
-      <c r="T96" s="91"/>
-      <c r="U96" s="91"/>
-      <c r="V96" s="91"/>
-      <c r="W96" s="91"/>
-      <c r="X96" s="91"/>
-      <c r="Y96" s="91"/>
-      <c r="Z96" s="91"/>
-      <c r="AA96" s="91"/>
-      <c r="AB96" s="91"/>
-      <c r="AC96" s="91"/>
-      <c r="AD96" s="91"/>
-      <c r="AE96" s="91"/>
-      <c r="AF96" s="91"/>
-      <c r="AG96" s="91"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="83"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="85"/>
+      <c r="O96" s="85"/>
+      <c r="P96" s="85"/>
+      <c r="Q96" s="85"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="85"/>
+      <c r="T96" s="85"/>
+      <c r="U96" s="85"/>
+      <c r="V96" s="85"/>
+      <c r="W96" s="85"/>
+      <c r="X96" s="85"/>
+      <c r="Y96" s="85"/>
+      <c r="Z96" s="85"/>
+      <c r="AA96" s="85"/>
+      <c r="AB96" s="85"/>
+      <c r="AC96" s="85"/>
+      <c r="AD96" s="85"/>
+      <c r="AE96" s="85"/>
+      <c r="AF96" s="85"/>
+      <c r="AG96" s="85"/>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="92"/>
-      <c r="N97" s="92"/>
-      <c r="O97" s="92"/>
-      <c r="P97" s="92"/>
-      <c r="Q97" s="92"/>
-      <c r="R97" s="92"/>
-      <c r="S97" s="92"/>
-      <c r="T97" s="92"/>
-      <c r="U97" s="92"/>
-      <c r="V97" s="92"/>
-      <c r="W97" s="92"/>
-      <c r="X97" s="92"/>
-      <c r="Y97" s="92"/>
-      <c r="Z97" s="92"/>
-      <c r="AA97" s="92"/>
-      <c r="AB97" s="92"/>
-      <c r="AC97" s="92"/>
-      <c r="AD97" s="92"/>
-      <c r="AE97" s="92"/>
-      <c r="AF97" s="92"/>
-      <c r="AG97" s="92"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
+      <c r="Q97" s="84"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="84"/>
+      <c r="T97" s="84"/>
+      <c r="U97" s="84"/>
+      <c r="V97" s="84"/>
+      <c r="W97" s="84"/>
+      <c r="X97" s="84"/>
+      <c r="Y97" s="84"/>
+      <c r="Z97" s="84"/>
+      <c r="AA97" s="84"/>
+      <c r="AB97" s="84"/>
+      <c r="AC97" s="84"/>
+      <c r="AD97" s="84"/>
+      <c r="AE97" s="84"/>
+      <c r="AF97" s="84"/>
+      <c r="AG97" s="84"/>
     </row>
     <row r="98" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B98" s="18">
@@ -9736,45 +9736,45 @@
       <c r="B99" s="36">
         <v>1</v>
       </c>
-      <c r="C99" s="115" t="s">
+      <c r="C99" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="116"/>
-      <c r="Q99" s="116"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="116"/>
-      <c r="T99" s="116"/>
-      <c r="U99" s="116"/>
-      <c r="V99" s="116"/>
-      <c r="W99" s="116"/>
-      <c r="X99" s="116"/>
-      <c r="Y99" s="116"/>
-      <c r="Z99" s="116"/>
-      <c r="AA99" s="116"/>
-      <c r="AB99" s="116"/>
-      <c r="AC99" s="116"/>
-      <c r="AD99" s="116"/>
-      <c r="AE99" s="116"/>
-      <c r="AF99" s="116"/>
-      <c r="AG99" s="117"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="81"/>
+      <c r="S99" s="81"/>
+      <c r="T99" s="81"/>
+      <c r="U99" s="81"/>
+      <c r="V99" s="81"/>
+      <c r="W99" s="81"/>
+      <c r="X99" s="81"/>
+      <c r="Y99" s="81"/>
+      <c r="Z99" s="81"/>
+      <c r="AA99" s="81"/>
+      <c r="AB99" s="81"/>
+      <c r="AC99" s="81"/>
+      <c r="AD99" s="81"/>
+      <c r="AE99" s="81"/>
+      <c r="AF99" s="81"/>
+      <c r="AG99" s="82"/>
       <c r="AH99" s="6"/>
-      <c r="AI99" s="76" t="s">
+      <c r="AI99" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AJ99" s="76"/>
-      <c r="AK99" s="76"/>
+      <c r="AJ99" s="78"/>
+      <c r="AK99" s="78"/>
     </row>
     <row r="100" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="35" t="s">
@@ -9825,18 +9825,18 @@
       <c r="Z100" s="37"/>
       <c r="AA100" s="42"/>
       <c r="AB100" s="37"/>
-      <c r="AC100" s="120" t="s">
+      <c r="AC100" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="AD100" s="116"/>
-      <c r="AE100" s="116"/>
-      <c r="AF100" s="116"/>
-      <c r="AG100" s="117"/>
-      <c r="AI100" s="76" t="s">
+      <c r="AD100" s="81"/>
+      <c r="AE100" s="81"/>
+      <c r="AF100" s="81"/>
+      <c r="AG100" s="82"/>
+      <c r="AI100" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="AJ100" s="76"/>
-      <c r="AK100" s="76"/>
+      <c r="AJ100" s="78"/>
+      <c r="AK100" s="78"/>
     </row>
     <row r="101" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="35" t="s">
@@ -9900,11 +9900,11 @@
       <c r="AE101" s="40"/>
       <c r="AF101" s="40"/>
       <c r="AG101" s="41"/>
-      <c r="AI101" s="76" t="s">
+      <c r="AI101" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="AJ101" s="76"/>
-      <c r="AK101" s="76"/>
+      <c r="AJ101" s="78"/>
+      <c r="AK101" s="78"/>
     </row>
     <row r="102" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="35" t="s">
@@ -9976,11 +9976,11 @@
       <c r="AE102" s="40"/>
       <c r="AF102" s="40"/>
       <c r="AG102" s="41"/>
-      <c r="AI102" s="76" t="s">
+      <c r="AI102" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="AJ102" s="76"/>
-      <c r="AK102" s="76"/>
+      <c r="AJ102" s="78"/>
+      <c r="AK102" s="78"/>
     </row>
     <row r="103" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="35" t="s">
@@ -10030,11 +10030,11 @@
       <c r="AE103" s="40"/>
       <c r="AF103" s="40"/>
       <c r="AG103" s="41"/>
-      <c r="AI103" s="76" t="s">
+      <c r="AI103" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="AJ103" s="76"/>
-      <c r="AK103" s="76"/>
+      <c r="AJ103" s="78"/>
+      <c r="AK103" s="78"/>
     </row>
     <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="35" t="s">
@@ -10100,11 +10100,11 @@
       <c r="AE104" s="40"/>
       <c r="AF104" s="40"/>
       <c r="AG104" s="41"/>
-      <c r="AI104" s="76" t="s">
+      <c r="AI104" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AJ104" s="76"/>
-      <c r="AK104" s="76"/>
+      <c r="AJ104" s="78"/>
+      <c r="AK104" s="78"/>
     </row>
     <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="35" t="s">
@@ -10138,29 +10138,29 @@
       <c r="O105" s="37"/>
       <c r="P105" s="42"/>
       <c r="Q105" s="37"/>
-      <c r="R105" s="120" t="s">
+      <c r="R105" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="S105" s="116"/>
-      <c r="T105" s="116"/>
-      <c r="U105" s="116"/>
-      <c r="V105" s="116"/>
-      <c r="W105" s="116"/>
-      <c r="X105" s="116"/>
-      <c r="Y105" s="116"/>
-      <c r="Z105" s="116"/>
-      <c r="AA105" s="116"/>
-      <c r="AB105" s="116"/>
-      <c r="AC105" s="116"/>
-      <c r="AD105" s="116"/>
-      <c r="AE105" s="116"/>
-      <c r="AF105" s="116"/>
-      <c r="AG105" s="117"/>
-      <c r="AI105" s="76" t="s">
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
+      <c r="W105" s="81"/>
+      <c r="X105" s="81"/>
+      <c r="Y105" s="81"/>
+      <c r="Z105" s="81"/>
+      <c r="AA105" s="81"/>
+      <c r="AB105" s="81"/>
+      <c r="AC105" s="81"/>
+      <c r="AD105" s="81"/>
+      <c r="AE105" s="81"/>
+      <c r="AF105" s="81"/>
+      <c r="AG105" s="82"/>
+      <c r="AI105" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="AJ105" s="76"/>
-      <c r="AK105" s="76"/>
+      <c r="AJ105" s="78"/>
+      <c r="AK105" s="78"/>
     </row>
     <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="35" t="s">
@@ -10234,17 +10234,17 @@
       <c r="AE106" s="40"/>
       <c r="AF106" s="40"/>
       <c r="AG106" s="41"/>
-      <c r="AI106" s="76" t="s">
+      <c r="AI106" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="AJ106" s="76"/>
-      <c r="AK106" s="76"/>
-      <c r="AL106" s="84" t="s">
+      <c r="AJ106" s="78"/>
+      <c r="AK106" s="78"/>
+      <c r="AL106" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="AM106" s="84"/>
-      <c r="AN106" s="84"/>
-      <c r="AO106" s="84"/>
+      <c r="AM106" s="125"/>
+      <c r="AN106" s="125"/>
+      <c r="AO106" s="125"/>
     </row>
     <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="35" t="s">
@@ -10312,17 +10312,17 @@
       <c r="AE107" s="40"/>
       <c r="AF107" s="40"/>
       <c r="AG107" s="41"/>
-      <c r="AI107" s="76" t="s">
+      <c r="AI107" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="AJ107" s="76"/>
-      <c r="AK107" s="76"/>
-      <c r="AL107" s="84" t="s">
+      <c r="AJ107" s="78"/>
+      <c r="AK107" s="78"/>
+      <c r="AL107" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="AM107" s="84"/>
-      <c r="AN107" s="84"/>
-      <c r="AO107" s="84"/>
+      <c r="AM107" s="125"/>
+      <c r="AN107" s="125"/>
+      <c r="AO107" s="125"/>
     </row>
     <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="35" t="s">
@@ -10374,11 +10374,11 @@
       <c r="AE108" s="40"/>
       <c r="AF108" s="40"/>
       <c r="AG108" s="41"/>
-      <c r="AI108" s="76" t="s">
+      <c r="AI108" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="AJ108" s="76"/>
-      <c r="AK108" s="76"/>
+      <c r="AJ108" s="78"/>
+      <c r="AK108" s="78"/>
     </row>
     <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="35" t="s">
@@ -10426,11 +10426,11 @@
       <c r="AE109" s="40"/>
       <c r="AF109" s="40"/>
       <c r="AG109" s="41"/>
-      <c r="AI109" s="76" t="s">
+      <c r="AI109" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="AJ109" s="76"/>
-      <c r="AK109" s="76"/>
+      <c r="AJ109" s="78"/>
+      <c r="AK109" s="78"/>
     </row>
     <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="35" t="s">
@@ -10492,11 +10492,11 @@
       <c r="AE110" s="40"/>
       <c r="AF110" s="40"/>
       <c r="AG110" s="41"/>
-      <c r="AI110" s="76" t="s">
+      <c r="AI110" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="AJ110" s="76"/>
-      <c r="AK110" s="76"/>
+      <c r="AJ110" s="78"/>
+      <c r="AK110" s="78"/>
     </row>
     <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="35" t="s">
@@ -10544,11 +10544,11 @@
       <c r="AE111" s="40"/>
       <c r="AF111" s="40"/>
       <c r="AG111" s="41"/>
-      <c r="AI111" s="76" t="s">
+      <c r="AI111" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="AJ111" s="76"/>
-      <c r="AK111" s="76"/>
+      <c r="AJ111" s="78"/>
+      <c r="AK111" s="78"/>
       <c r="AL111" s="6" t="s">
         <v>114</v>
       </c>
@@ -10619,11 +10619,11 @@
       <c r="AE112" s="40"/>
       <c r="AF112" s="40"/>
       <c r="AG112" s="41"/>
-      <c r="AI112" s="76" t="s">
+      <c r="AI112" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="AJ112" s="76"/>
-      <c r="AK112" s="76"/>
+      <c r="AJ112" s="78"/>
+      <c r="AK112" s="78"/>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A113" s="30"/>
@@ -10650,11 +10650,11 @@
       <c r="D114" s="27">
         <v>1</v>
       </c>
-      <c r="E114" s="124"/>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="125"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
       <c r="J114" s="71"/>
       <c r="K114" s="71"/>
       <c r="L114" s="71"/>
@@ -10679,11 +10679,11 @@
       <c r="AE114" s="71"/>
       <c r="AF114" s="71"/>
       <c r="AG114" s="72"/>
-      <c r="AI114" s="76" t="s">
+      <c r="AI114" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="AJ114" s="76"/>
-      <c r="AK114" s="76"/>
+      <c r="AJ114" s="78"/>
+      <c r="AK114" s="78"/>
     </row>
     <row r="115" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E115" s="28"/>
@@ -11291,41 +11291,41 @@
       <c r="I168" s="6"/>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A178" s="119" t="s">
+      <c r="A178" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="119"/>
-      <c r="C178" s="119"/>
-      <c r="D178" s="119"/>
-      <c r="E178" s="119"/>
-      <c r="F178" s="119"/>
-      <c r="G178" s="119"/>
-      <c r="H178" s="119"/>
-      <c r="I178" s="119"/>
-      <c r="J178" s="119"/>
-      <c r="K178" s="119"/>
-      <c r="L178" s="119"/>
-      <c r="M178" s="119"/>
-      <c r="N178" s="119"/>
-      <c r="O178" s="119"/>
-      <c r="P178" s="119"/>
-      <c r="Q178" s="119"/>
-      <c r="R178" s="119"/>
-      <c r="S178" s="119"/>
-      <c r="T178" s="119"/>
-      <c r="U178" s="119"/>
-      <c r="V178" s="119"/>
-      <c r="W178" s="119"/>
-      <c r="X178" s="119"/>
-      <c r="Y178" s="119"/>
-      <c r="Z178" s="119"/>
-      <c r="AA178" s="119"/>
-      <c r="AB178" s="119"/>
-      <c r="AC178" s="119"/>
-      <c r="AD178" s="119"/>
-      <c r="AE178" s="119"/>
-      <c r="AF178" s="119"/>
-      <c r="AG178" s="119"/>
+      <c r="B178" s="86"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="86"/>
+      <c r="H178" s="86"/>
+      <c r="I178" s="86"/>
+      <c r="J178" s="86"/>
+      <c r="K178" s="86"/>
+      <c r="L178" s="86"/>
+      <c r="M178" s="86"/>
+      <c r="N178" s="86"/>
+      <c r="O178" s="86"/>
+      <c r="P178" s="86"/>
+      <c r="Q178" s="86"/>
+      <c r="R178" s="86"/>
+      <c r="S178" s="86"/>
+      <c r="T178" s="86"/>
+      <c r="U178" s="86"/>
+      <c r="V178" s="86"/>
+      <c r="W178" s="86"/>
+      <c r="X178" s="86"/>
+      <c r="Y178" s="86"/>
+      <c r="Z178" s="86"/>
+      <c r="AA178" s="86"/>
+      <c r="AB178" s="86"/>
+      <c r="AC178" s="86"/>
+      <c r="AD178" s="86"/>
+      <c r="AE178" s="86"/>
+      <c r="AF178" s="86"/>
+      <c r="AG178" s="86"/>
       <c r="AH178" s="29"/>
       <c r="AI178" s="29"/>
     </row>
@@ -11431,100 +11431,210 @@
       <c r="A184" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B184" s="106" t="s">
+      <c r="B184" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C184" s="107"/>
-      <c r="D184" s="107"/>
-      <c r="E184" s="107"/>
-      <c r="F184" s="107"/>
-      <c r="G184" s="107"/>
-      <c r="H184" s="107"/>
-      <c r="I184" s="107"/>
-      <c r="J184" s="107"/>
-      <c r="K184" s="107"/>
-      <c r="L184" s="107"/>
-      <c r="M184" s="107"/>
-      <c r="N184" s="107"/>
-      <c r="O184" s="107"/>
-      <c r="P184" s="107"/>
-      <c r="Q184" s="107"/>
-      <c r="R184" s="107"/>
-      <c r="S184" s="107"/>
-      <c r="T184" s="107"/>
-      <c r="U184" s="107"/>
-      <c r="V184" s="107"/>
-      <c r="W184" s="107"/>
-      <c r="X184" s="107"/>
-      <c r="Y184" s="107"/>
-      <c r="Z184" s="107"/>
-      <c r="AA184" s="107"/>
-      <c r="AB184" s="107"/>
-      <c r="AC184" s="107"/>
-      <c r="AD184" s="107"/>
-      <c r="AE184" s="107"/>
-      <c r="AF184" s="107"/>
-      <c r="AG184" s="108"/>
+      <c r="C184" s="88"/>
+      <c r="D184" s="88"/>
+      <c r="E184" s="88"/>
+      <c r="F184" s="88"/>
+      <c r="G184" s="88"/>
+      <c r="H184" s="88"/>
+      <c r="I184" s="88"/>
+      <c r="J184" s="88"/>
+      <c r="K184" s="88"/>
+      <c r="L184" s="88"/>
+      <c r="M184" s="88"/>
+      <c r="N184" s="88"/>
+      <c r="O184" s="88"/>
+      <c r="P184" s="88"/>
+      <c r="Q184" s="88"/>
+      <c r="R184" s="88"/>
+      <c r="S184" s="88"/>
+      <c r="T184" s="88"/>
+      <c r="U184" s="88"/>
+      <c r="V184" s="88"/>
+      <c r="W184" s="88"/>
+      <c r="X184" s="88"/>
+      <c r="Y184" s="88"/>
+      <c r="Z184" s="88"/>
+      <c r="AA184" s="88"/>
+      <c r="AB184" s="88"/>
+      <c r="AC184" s="88"/>
+      <c r="AD184" s="88"/>
+      <c r="AE184" s="88"/>
+      <c r="AF184" s="88"/>
+      <c r="AG184" s="89"/>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B186" s="106" t="s">
+      <c r="B186" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="107"/>
-      <c r="D186" s="107"/>
-      <c r="E186" s="107"/>
-      <c r="F186" s="107"/>
-      <c r="G186" s="107"/>
-      <c r="H186" s="107"/>
-      <c r="I186" s="107"/>
-      <c r="J186" s="107"/>
-      <c r="K186" s="107"/>
-      <c r="L186" s="107"/>
-      <c r="M186" s="107"/>
-      <c r="N186" s="107"/>
-      <c r="O186" s="107"/>
-      <c r="P186" s="107"/>
-      <c r="Q186" s="108"/>
-      <c r="R186" s="106" t="s">
+      <c r="C186" s="88"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="88"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="88"/>
+      <c r="K186" s="88"/>
+      <c r="L186" s="88"/>
+      <c r="M186" s="88"/>
+      <c r="N186" s="88"/>
+      <c r="O186" s="88"/>
+      <c r="P186" s="88"/>
+      <c r="Q186" s="89"/>
+      <c r="R186" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="S186" s="107"/>
-      <c r="T186" s="107"/>
-      <c r="U186" s="107"/>
-      <c r="V186" s="107"/>
-      <c r="W186" s="107"/>
-      <c r="X186" s="107"/>
-      <c r="Y186" s="107"/>
-      <c r="Z186" s="107"/>
-      <c r="AA186" s="107"/>
-      <c r="AB186" s="107"/>
-      <c r="AC186" s="107"/>
-      <c r="AD186" s="107"/>
-      <c r="AE186" s="107"/>
-      <c r="AF186" s="107"/>
-      <c r="AG186" s="108"/>
+      <c r="S186" s="88"/>
+      <c r="T186" s="88"/>
+      <c r="U186" s="88"/>
+      <c r="V186" s="88"/>
+      <c r="W186" s="88"/>
+      <c r="X186" s="88"/>
+      <c r="Y186" s="88"/>
+      <c r="Z186" s="88"/>
+      <c r="AA186" s="88"/>
+      <c r="AB186" s="88"/>
+      <c r="AC186" s="88"/>
+      <c r="AD186" s="88"/>
+      <c r="AE186" s="88"/>
+      <c r="AF186" s="88"/>
+      <c r="AG186" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="Z93:AB93"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="B95:D97"/>
-    <mergeCell ref="E95:G97"/>
-    <mergeCell ref="J95:K97"/>
-    <mergeCell ref="L95:M97"/>
-    <mergeCell ref="N95:O97"/>
-    <mergeCell ref="P95:Q97"/>
-    <mergeCell ref="R95:V97"/>
-    <mergeCell ref="W95:X97"/>
-    <mergeCell ref="Y95:Z97"/>
-    <mergeCell ref="AA95:AB97"/>
-    <mergeCell ref="AC95:AG97"/>
+    <mergeCell ref="AN60:AN72"/>
+    <mergeCell ref="AN81:AN85"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AI102:AK102"/>
+    <mergeCell ref="AI103:AK103"/>
+    <mergeCell ref="AI104:AK104"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="AL106:AO106"/>
+    <mergeCell ref="AL107:AO107"/>
+    <mergeCell ref="AI100:AK100"/>
+    <mergeCell ref="AI101:AK101"/>
+    <mergeCell ref="AY60:AY72"/>
+    <mergeCell ref="AX78:AY78"/>
+    <mergeCell ref="AY81:AY85"/>
+    <mergeCell ref="AY87:AY91"/>
+    <mergeCell ref="AQ78:AR81"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AQ61:AR64"/>
+    <mergeCell ref="B57:D59"/>
+    <mergeCell ref="P57:Q59"/>
+    <mergeCell ref="Q71:Q76"/>
+    <mergeCell ref="Z78:AB78"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="Z81:AB81"/>
+    <mergeCell ref="Z82:AB82"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="Z76:AB76"/>
+    <mergeCell ref="Z77:AB77"/>
+    <mergeCell ref="Z88:AB88"/>
+    <mergeCell ref="Z89:AB89"/>
+    <mergeCell ref="Z90:AB90"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AJ13:AQ13"/>
+    <mergeCell ref="B77:C79"/>
+    <mergeCell ref="O82:O85"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="Q82:Q85"/>
+    <mergeCell ref="M82:N85"/>
+    <mergeCell ref="M62:N65"/>
+    <mergeCell ref="M71:N76"/>
+    <mergeCell ref="O62:O65"/>
+    <mergeCell ref="P62:P65"/>
+    <mergeCell ref="Q62:Q65"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="C50:AG50"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ28:AQ28"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ44:AQ44"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AI99:AK99"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="AJ34:AQ34"/>
+    <mergeCell ref="AJ35:AQ35"/>
+    <mergeCell ref="AJ36:AQ36"/>
+    <mergeCell ref="AJ37:AQ37"/>
+    <mergeCell ref="Z91:AB91"/>
+    <mergeCell ref="Z87:AB87"/>
+    <mergeCell ref="C99:AG99"/>
+    <mergeCell ref="Z92:AB92"/>
+    <mergeCell ref="Z83:AB83"/>
+    <mergeCell ref="Z84:AB84"/>
+    <mergeCell ref="Z85:AB85"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="P71:P76"/>
+    <mergeCell ref="AA57:AB59"/>
+    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="AC57:AG59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="E57:G59"/>
+    <mergeCell ref="Y57:Z59"/>
+    <mergeCell ref="AJ38:AQ38"/>
+    <mergeCell ref="AJ39:AQ39"/>
+    <mergeCell ref="AJ40:AQ40"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="B52:D54"/>
+    <mergeCell ref="J52:K54"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
     <mergeCell ref="A178:AG178"/>
     <mergeCell ref="B184:AG184"/>
     <mergeCell ref="R186:AG186"/>
@@ -11549,134 +11659,24 @@
     <mergeCell ref="J57:K59"/>
     <mergeCell ref="L57:M59"/>
     <mergeCell ref="N57:O59"/>
-    <mergeCell ref="W57:X59"/>
-    <mergeCell ref="AC57:AG59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="E57:G59"/>
-    <mergeCell ref="Y57:Z59"/>
-    <mergeCell ref="AJ38:AQ38"/>
-    <mergeCell ref="AJ39:AQ39"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="B52:D54"/>
-    <mergeCell ref="J52:K54"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ44:AQ44"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AI99:AK99"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="AJ34:AQ34"/>
-    <mergeCell ref="AJ35:AQ35"/>
-    <mergeCell ref="AJ36:AQ36"/>
-    <mergeCell ref="AJ37:AQ37"/>
-    <mergeCell ref="Z91:AB91"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="C99:AG99"/>
-    <mergeCell ref="Z92:AB92"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="AA57:AB59"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="AJ19:AQ19"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AJ22:AQ22"/>
-    <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="B77:C79"/>
-    <mergeCell ref="O82:O85"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="Q82:Q85"/>
-    <mergeCell ref="M82:N85"/>
-    <mergeCell ref="M62:N65"/>
-    <mergeCell ref="M71:N76"/>
-    <mergeCell ref="O62:O65"/>
-    <mergeCell ref="P62:P65"/>
-    <mergeCell ref="Q62:Q65"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="C50:AG50"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="AY60:AY72"/>
-    <mergeCell ref="AX78:AY78"/>
-    <mergeCell ref="AY81:AY85"/>
-    <mergeCell ref="AY87:AY91"/>
-    <mergeCell ref="AQ78:AR81"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AQ61:AR64"/>
-    <mergeCell ref="B57:D59"/>
-    <mergeCell ref="P57:Q59"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="Z78:AB78"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="Z76:AB76"/>
-    <mergeCell ref="Z77:AB77"/>
-    <mergeCell ref="Z88:AB88"/>
-    <mergeCell ref="Z89:AB89"/>
-    <mergeCell ref="Z90:AB90"/>
-    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="Z93:AB93"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="B95:D97"/>
+    <mergeCell ref="E95:G97"/>
+    <mergeCell ref="J95:K97"/>
+    <mergeCell ref="L95:M97"/>
+    <mergeCell ref="N95:O97"/>
+    <mergeCell ref="P95:Q97"/>
+    <mergeCell ref="R95:V97"/>
+    <mergeCell ref="W95:X97"/>
+    <mergeCell ref="Y95:Z97"/>
+    <mergeCell ref="AA95:AB97"/>
+    <mergeCell ref="AC95:AG97"/>
     <mergeCell ref="AI111:AK111"/>
     <mergeCell ref="AI112:AK112"/>
-    <mergeCell ref="AN60:AN72"/>
-    <mergeCell ref="AN81:AN85"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="AI107:AK107"/>
-    <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AI102:AK102"/>
-    <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="AI104:AK104"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="AL106:AO106"/>
-    <mergeCell ref="AL107:AO107"/>
-    <mergeCell ref="AI100:AK100"/>
-    <mergeCell ref="AI101:AK101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="179">
   <si>
     <t>LDI</t>
   </si>
@@ -354,9 +354,6 @@
     <t>lit.c -&gt; acc.c</t>
   </si>
   <si>
-    <t xml:space="preserve">lit.c -&gt; pc </t>
-  </si>
-  <si>
     <t>argS</t>
   </si>
   <si>
@@ -369,21 +366,12 @@
     <t>n</t>
   </si>
   <si>
-    <t>Call / Jump / CLOS</t>
-  </si>
-  <si>
     <t>CLOS</t>
   </si>
   <si>
     <t>addr</t>
   </si>
   <si>
-    <t>fucked up conditional pop of closure</t>
-  </si>
-  <si>
-    <t>need to check env stack here</t>
-  </si>
-  <si>
     <t>RAM     64k x 32</t>
   </si>
   <si>
@@ -486,33 +474,6 @@
     <t>0x80000000</t>
   </si>
   <si>
-    <t>0x24000000</t>
-  </si>
-  <si>
-    <t>0x204C02A0</t>
-  </si>
-  <si>
-    <t>0x205D02A0</t>
-  </si>
-  <si>
-    <t>0x22040000</t>
-  </si>
-  <si>
-    <t>0x10000000</t>
-  </si>
-  <si>
-    <t>0x20000120</t>
-  </si>
-  <si>
-    <t>0x20000060</t>
-  </si>
-  <si>
-    <t>0x2000F920</t>
-  </si>
-  <si>
-    <t>0x20000100</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -540,9 +501,6 @@
     <t>alu -&gt; A</t>
   </si>
   <si>
-    <t>0x3E04F800</t>
-  </si>
-  <si>
     <t>?A.e -&gt; E</t>
   </si>
   <si>
@@ -555,19 +513,67 @@
     <t>E  +/-</t>
   </si>
   <si>
-    <t>0x288E04C0</t>
-  </si>
-  <si>
-    <t>0x20CE06C0</t>
-  </si>
-  <si>
     <t>0x3C0C1100</t>
   </si>
   <si>
     <t>END</t>
   </si>
   <si>
-    <t>0x60000000</t>
+    <t>Call / Jump / CLOS / IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A != 0, lit.c -&gt; pc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A &gt; 0, lit.c -&gt; pc </t>
+  </si>
+  <si>
+    <t>PC &amp; n -&gt; PC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A == 0, lit.c -&gt; pc </t>
+  </si>
+  <si>
+    <t>0x20000000</t>
+  </si>
+  <si>
+    <t>0x48000000</t>
+  </si>
+  <si>
+    <t>0x404C02A0</t>
+  </si>
+  <si>
+    <t>0x405D02A0</t>
+  </si>
+  <si>
+    <t>0x44040000</t>
+  </si>
+  <si>
+    <t>0x7C04F800</t>
+  </si>
+  <si>
+    <t>0x588E04C0</t>
+  </si>
+  <si>
+    <t>0x40CE06C0</t>
+  </si>
+  <si>
+    <t>0x40000120</t>
+  </si>
+  <si>
+    <t>0x40000060</t>
+  </si>
+  <si>
+    <t>0x4000F920</t>
+  </si>
+  <si>
+    <t>0x40000100</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFFF</t>
+  </si>
+  <si>
+    <t>0x01000000</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,7 +1177,79 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,281 +1261,188 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4702,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP109" sqref="AP109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4892,16 +4877,16 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="102" t="s">
+      <c r="AJ2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -4947,16 +4932,16 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="102" t="s">
+      <c r="AJ3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="95"/>
     </row>
     <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
@@ -5008,16 +4993,16 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="102" t="s">
+      <c r="AJ4" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -5057,16 +5042,16 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="108" t="s">
+      <c r="AJ5" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="109"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
@@ -5108,16 +5093,16 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="102" t="s">
+      <c r="AJ6" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -5163,16 +5148,16 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="102" t="s">
+      <c r="AJ7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="106"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
@@ -5218,16 +5203,16 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="102" t="s">
+      <c r="AJ8" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -5269,16 +5254,16 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
@@ -5320,16 +5305,16 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="102" t="s">
+      <c r="AJ10" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
@@ -5371,16 +5356,16 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="102" t="s">
+      <c r="AJ11" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
@@ -5422,16 +5407,16 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="102" t="s">
+      <c r="AJ12" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
@@ -5473,16 +5458,16 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="102" t="s">
+      <c r="AJ13" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
@@ -5524,14 +5509,14 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -5575,16 +5560,16 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="102" t="s">
+      <c r="AJ15" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="106"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -5628,16 +5613,16 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="102" t="s">
+      <c r="AJ16" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="106"/>
-      <c r="AL16" s="106"/>
-      <c r="AM16" s="106"/>
-      <c r="AN16" s="106"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
@@ -5681,16 +5666,16 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="102" t="s">
+      <c r="AJ17" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
@@ -5734,16 +5719,16 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="102" t="s">
+      <c r="AJ18" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
@@ -5785,16 +5770,16 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="102" t="s">
+      <c r="AJ19" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
@@ -5842,16 +5827,16 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="102" t="s">
+      <c r="AJ20" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
-      <c r="AN20" s="106"/>
-      <c r="AO20" s="106"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="106"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
@@ -5895,16 +5880,16 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="102" t="s">
+      <c r="AJ21" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="106"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="106"/>
-      <c r="AP21" s="106"/>
-      <c r="AQ21" s="106"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
@@ -5946,16 +5931,16 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="102" t="s">
+      <c r="AJ22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="106"/>
-      <c r="AN22" s="106"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
     </row>
     <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6132,16 +6117,16 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="102" t="s">
+      <c r="AJ28" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="103"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="103"/>
-      <c r="AO28" s="103"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="103"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="95"/>
+      <c r="AM28" s="95"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="95"/>
+      <c r="AP28" s="95"/>
+      <c r="AQ28" s="95"/>
     </row>
     <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
@@ -6187,16 +6172,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="102" t="s">
+      <c r="AJ29" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="95"/>
+      <c r="AP29" s="95"/>
+      <c r="AQ29" s="95"/>
     </row>
     <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
@@ -6248,16 +6233,16 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="102" t="s">
+      <c r="AJ30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="103"/>
-      <c r="AM30" s="103"/>
-      <c r="AN30" s="103"/>
-      <c r="AO30" s="103"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="103"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="95"/>
+      <c r="AO30" s="95"/>
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
     </row>
     <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
@@ -6299,16 +6284,16 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="102" t="s">
+      <c r="AJ31" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="106"/>
-      <c r="AM31" s="106"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
     </row>
     <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -6354,16 +6339,16 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="102" t="s">
+      <c r="AJ32" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
+      <c r="AM32" s="95"/>
+      <c r="AN32" s="95"/>
+      <c r="AO32" s="95"/>
+      <c r="AP32" s="95"/>
+      <c r="AQ32" s="95"/>
     </row>
     <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
@@ -6405,16 +6390,16 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="102" t="s">
+      <c r="AJ33" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="103"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="103"/>
-      <c r="AO33" s="103"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="103"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="95"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="95"/>
     </row>
     <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
@@ -6456,16 +6441,16 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="102" t="s">
+      <c r="AJ34" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="95"/>
     </row>
     <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
@@ -6507,16 +6492,16 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="102" t="s">
+      <c r="AJ35" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="103"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="103"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="95"/>
+      <c r="AO35" s="95"/>
+      <c r="AP35" s="95"/>
+      <c r="AQ35" s="95"/>
     </row>
     <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
@@ -6558,16 +6543,16 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="104" t="s">
+      <c r="AJ36" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" s="99"/>
     </row>
     <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
@@ -6609,14 +6594,14 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="102"/>
-      <c r="AK37" s="103"/>
-      <c r="AL37" s="103"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="103"/>
-      <c r="AO37" s="103"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="103"/>
+      <c r="AJ37" s="81"/>
+      <c r="AK37" s="95"/>
+      <c r="AL37" s="95"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="95"/>
+      <c r="AO37" s="95"/>
+      <c r="AP37" s="95"/>
+      <c r="AQ37" s="95"/>
     </row>
     <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
@@ -6660,16 +6645,16 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="102" t="s">
+      <c r="AJ38" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="103"/>
-      <c r="AL38" s="103"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="103"/>
-      <c r="AO38" s="103"/>
-      <c r="AP38" s="103"/>
-      <c r="AQ38" s="103"/>
+      <c r="AK38" s="95"/>
+      <c r="AL38" s="95"/>
+      <c r="AM38" s="95"/>
+      <c r="AN38" s="95"/>
+      <c r="AO38" s="95"/>
+      <c r="AP38" s="95"/>
+      <c r="AQ38" s="95"/>
     </row>
     <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
@@ -6713,16 +6698,16 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="102" t="s">
+      <c r="AJ39" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="103"/>
-      <c r="AL39" s="103"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="103"/>
-      <c r="AO39" s="103"/>
-      <c r="AP39" s="103"/>
-      <c r="AQ39" s="103"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="95"/>
+      <c r="AO39" s="95"/>
+      <c r="AP39" s="95"/>
+      <c r="AQ39" s="95"/>
     </row>
     <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
@@ -6766,16 +6751,16 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="102" t="s">
+      <c r="AJ40" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="103"/>
-      <c r="AL40" s="103"/>
-      <c r="AM40" s="103"/>
-      <c r="AN40" s="103"/>
-      <c r="AO40" s="103"/>
-      <c r="AP40" s="103"/>
-      <c r="AQ40" s="103"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95"/>
+      <c r="AN40" s="95"/>
+      <c r="AO40" s="95"/>
+      <c r="AP40" s="95"/>
+      <c r="AQ40" s="95"/>
     </row>
     <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
@@ -6817,16 +6802,16 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="104" t="s">
+      <c r="AJ41" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
-      <c r="AM41" s="105"/>
-      <c r="AN41" s="105"/>
-      <c r="AO41" s="105"/>
-      <c r="AP41" s="105"/>
-      <c r="AQ41" s="105"/>
+      <c r="AK41" s="99"/>
+      <c r="AL41" s="99"/>
+      <c r="AM41" s="99"/>
+      <c r="AN41" s="99"/>
+      <c r="AO41" s="99"/>
+      <c r="AP41" s="99"/>
+      <c r="AQ41" s="99"/>
     </row>
     <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
@@ -6874,16 +6859,16 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="102" t="s">
+      <c r="AJ42" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="103"/>
-      <c r="AL42" s="103"/>
-      <c r="AM42" s="103"/>
-      <c r="AN42" s="103"/>
-      <c r="AO42" s="103"/>
-      <c r="AP42" s="103"/>
-      <c r="AQ42" s="103"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="95"/>
+      <c r="AO42" s="95"/>
+      <c r="AP42" s="95"/>
+      <c r="AQ42" s="95"/>
     </row>
     <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -6927,16 +6912,16 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="102" t="s">
+      <c r="AJ43" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="103"/>
-      <c r="AL43" s="103"/>
-      <c r="AM43" s="103"/>
-      <c r="AN43" s="103"/>
-      <c r="AO43" s="103"/>
-      <c r="AP43" s="103"/>
-      <c r="AQ43" s="103"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="95"/>
+      <c r="AQ43" s="95"/>
     </row>
     <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
@@ -6978,69 +6963,69 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="102" t="s">
+      <c r="AJ44" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="103"/>
-      <c r="AL44" s="103"/>
-      <c r="AM44" s="103"/>
-      <c r="AN44" s="103"/>
-      <c r="AO44" s="103"/>
-      <c r="AP44" s="103"/>
-      <c r="AQ44" s="103"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="95"/>
+      <c r="AO44" s="95"/>
+      <c r="AP44" s="95"/>
+      <c r="AQ44" s="95"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="BB45" s="70"/>
-      <c r="BC45" s="70"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="BB46" s="70"/>
-      <c r="BC46" s="70"/>
+      <c r="BB46" s="47"/>
+      <c r="BC46" s="47"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="86"/>
-      <c r="X47" s="86"/>
-      <c r="Y47" s="86"/>
-      <c r="Z47" s="86"/>
-      <c r="AA47" s="86"/>
-      <c r="AB47" s="86"/>
-      <c r="AC47" s="86"/>
-      <c r="AD47" s="86"/>
-      <c r="AE47" s="86"/>
-      <c r="AF47" s="86"/>
-      <c r="AG47" s="86"/>
-      <c r="AH47" s="86"/>
-      <c r="AI47" s="86"/>
-      <c r="BB47" s="70"/>
-      <c r="BC47" s="70"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="103"/>
+      <c r="Z47" s="103"/>
+      <c r="AA47" s="103"/>
+      <c r="AB47" s="103"/>
+      <c r="AC47" s="103"/>
+      <c r="AD47" s="103"/>
+      <c r="AE47" s="103"/>
+      <c r="AF47" s="103"/>
+      <c r="AG47" s="103"/>
+      <c r="AH47" s="103"/>
+      <c r="AI47" s="103"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="47"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="BB48" s="70"/>
-      <c r="BC48" s="70"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="47"/>
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B49" s="18">
@@ -7139,8 +7124,8 @@
       <c r="AG49" s="18">
         <v>0</v>
       </c>
-      <c r="BB49" s="70"/>
-      <c r="BC49" s="70"/>
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
@@ -7149,55 +7134,48 @@
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="89"/>
-      <c r="BB50" s="70"/>
-      <c r="BC50" s="70"/>
-    </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="92"/>
+      <c r="V50" s="92"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="92"/>
+      <c r="AE50" s="92"/>
+      <c r="AF50" s="92"/>
+      <c r="AG50" s="93"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="47"/>
+    </row>
+    <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="83" t="s">
-        <v>160</v>
-      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -7220,38 +7198,42 @@
       <c r="AE51" s="22"/>
       <c r="AF51" s="22"/>
       <c r="AG51" s="22"/>
-      <c r="BB51" s="70"/>
-      <c r="BC51" s="70"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="47"/>
     </row>
     <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="85" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85" t="s">
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85" t="s">
+      <c r="M52" s="76"/>
+      <c r="N52" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85" t="s">
+      <c r="O52" s="76"/>
+      <c r="P52" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="85"/>
+      <c r="Q52" s="76"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7268,26 +7250,26 @@
       <c r="AE52" s="22"/>
       <c r="AF52" s="22"/>
       <c r="AG52" s="22"/>
-      <c r="BB52" s="70"/>
-      <c r="BC52" s="70"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="47"/>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7304,26 +7286,26 @@
       <c r="AE53" s="22"/>
       <c r="AF53" s="22"/>
       <c r="AG53" s="22"/>
-      <c r="BB53" s="70"/>
-      <c r="BC53" s="70"/>
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7340,73 +7322,70 @@
       <c r="AE54" s="22"/>
       <c r="AF54" s="22"/>
       <c r="AG54" s="22"/>
-      <c r="BB54" s="70"/>
-      <c r="BC54" s="70"/>
+      <c r="BB54" s="47"/>
+      <c r="BC54" s="47"/>
     </row>
     <row r="55" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="20">
-        <v>0</v>
-      </c>
-      <c r="C55" s="23">
-        <v>0</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="B55" s="55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="56">
+        <v>0</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="24"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="57"/>
       <c r="L55" s="20"/>
       <c r="M55" s="24"/>
       <c r="N55" s="20"/>
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="87" t="s">
+      <c r="R55" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="89"/>
-      <c r="AJ55" s="103"/>
-      <c r="AK55" s="103"/>
-      <c r="AL55" s="103"/>
-      <c r="AM55" s="103"/>
-      <c r="AN55" s="103"/>
-      <c r="AR55" s="51"/>
-      <c r="AS55" s="51"/>
-      <c r="BB55" s="70"/>
-      <c r="BC55" s="70"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="92"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="92"/>
+      <c r="AB55" s="92"/>
+      <c r="AC55" s="92"/>
+      <c r="AD55" s="92"/>
+      <c r="AE55" s="92"/>
+      <c r="AF55" s="92"/>
+      <c r="AG55" s="93"/>
+      <c r="AJ55" s="95"/>
+      <c r="AK55" s="95"/>
+      <c r="AL55" s="95"/>
+      <c r="AM55" s="95"/>
+      <c r="AN55" s="95"/>
+      <c r="AR55" s="38"/>
+      <c r="AS55" s="38"/>
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
     </row>
     <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="H56" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="83" t="s">
-        <v>160</v>
-      </c>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="1"/>
@@ -7426,144 +7405,148 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-      <c r="AR56" s="51"/>
-      <c r="AS56" s="51"/>
-      <c r="BB56" s="70"/>
-      <c r="BC56" s="70"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="BB56" s="47"/>
+      <c r="BC56" s="47"/>
     </row>
     <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="85" t="s">
+      <c r="C57" s="107"/>
+      <c r="D57" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85" t="s">
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85" t="s">
+      <c r="M57" s="76"/>
+      <c r="N57" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85" t="s">
+      <c r="O57" s="76"/>
+      <c r="P57" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="85"/>
-      <c r="R57" s="85" t="s">
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="85"/>
-      <c r="T57" s="85"/>
-      <c r="U57" s="85"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="X57" s="85"/>
-      <c r="Y57" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z57" s="85"/>
-      <c r="AA57" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB57" s="85"/>
-      <c r="AC57" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD57" s="85"/>
-      <c r="AE57" s="85"/>
-      <c r="AF57" s="85"/>
-      <c r="AG57" s="85"/>
-      <c r="AR57" s="51"/>
-      <c r="AS57" s="51"/>
-      <c r="BB57" s="70"/>
-      <c r="BC57" s="70"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="76"/>
+      <c r="AR57" s="38"/>
+      <c r="AS57" s="38"/>
+      <c r="BB57" s="47"/>
+      <c r="BC57" s="47"/>
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="85"/>
-      <c r="S58" s="85"/>
-      <c r="T58" s="85"/>
-      <c r="U58" s="85"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
-      <c r="X58" s="85"/>
-      <c r="Y58" s="85"/>
-      <c r="Z58" s="85"/>
-      <c r="AA58" s="85"/>
-      <c r="AB58" s="85"/>
-      <c r="AC58" s="85"/>
-      <c r="AD58" s="85"/>
-      <c r="AE58" s="85"/>
-      <c r="AF58" s="85"/>
-      <c r="AG58" s="85"/>
-      <c r="AR58" s="51"/>
-      <c r="AS58" s="51"/>
-      <c r="BB58" s="70"/>
-      <c r="BC58" s="70"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="76"/>
+      <c r="AB58" s="76"/>
+      <c r="AC58" s="76"/>
+      <c r="AD58" s="76"/>
+      <c r="AE58" s="76"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="76"/>
+      <c r="AR58" s="38"/>
+      <c r="AS58" s="38"/>
+      <c r="BB58" s="47"/>
+      <c r="BC58" s="47"/>
     </row>
     <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="84"/>
-      <c r="AA59" s="84"/>
-      <c r="AB59" s="84"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="84"/>
-      <c r="AE59" s="84"/>
-      <c r="AF59" s="84"/>
-      <c r="AG59" s="84"/>
-      <c r="BB59" s="70"/>
-      <c r="BC59" s="70"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="77"/>
+      <c r="X59" s="77"/>
+      <c r="Y59" s="77"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="77"/>
+      <c r="BB59" s="47"/>
+      <c r="BC59" s="47"/>
     </row>
     <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
@@ -7573,18 +7556,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="23">
-        <v>0</v>
-      </c>
-      <c r="D60" s="24">
-        <v>1</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="24"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="57"/>
       <c r="L60" s="20"/>
       <c r="M60" s="24"/>
       <c r="N60" s="20"/>
@@ -7607,1503 +7588,1476 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX60" s="34"/>
-      <c r="AY60" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ60" s="34"/>
-      <c r="BB60" s="70"/>
-      <c r="BC60" s="70"/>
+      <c r="AN60" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX60" s="30"/>
+      <c r="AY60" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ60" s="30"/>
+      <c r="BB60" s="47"/>
+      <c r="BC60" s="47"/>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.45">
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="AM61" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN61" s="113"/>
-      <c r="AO61" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ61" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR61" s="118"/>
-      <c r="AU61" s="34"/>
-      <c r="AX61" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY61" s="113"/>
-      <c r="AZ61" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="70"/>
-    </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B62" s="92" t="s">
+      <c r="AM61" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN61" s="62"/>
+      <c r="AO61" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ61" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR61" s="71"/>
+      <c r="AU61" s="30"/>
+      <c r="AX61" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY61" s="62"/>
+      <c r="AZ61" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB61" s="47"/>
+      <c r="BC61" s="47"/>
+    </row>
+    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P62" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q62" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="R62" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="J62" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="K62" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="M62" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="N62" s="94"/>
-      <c r="O62" s="91" t="s">
+      <c r="S62" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="T62" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="P62" s="91" t="s">
+      <c r="U62" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="Q62" s="90" t="s">
+      <c r="W62" s="21">
+        <v>0</v>
+      </c>
+      <c r="X62" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD62" s="79"/>
+      <c r="AE62" s="79"/>
+      <c r="AF62" s="6"/>
+      <c r="AN62" s="62"/>
+      <c r="AQ62" s="72"/>
+      <c r="AR62" s="73"/>
+      <c r="AX62" s="30"/>
+      <c r="AY62" s="62"/>
+      <c r="AZ62" s="30"/>
+      <c r="BB62" s="47"/>
+      <c r="BC62" s="47"/>
+    </row>
+    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="109"/>
+      <c r="T63" s="109"/>
+      <c r="U63" s="102"/>
+      <c r="W63" s="21">
+        <v>0</v>
+      </c>
+      <c r="X63" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="T62" s="21">
-        <v>0</v>
-      </c>
-      <c r="U62" s="23">
-        <v>0</v>
-      </c>
-      <c r="V62" s="23">
-        <v>0</v>
-      </c>
-      <c r="W62" s="23">
-        <v>0</v>
-      </c>
-      <c r="X62" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA62" s="79"/>
-      <c r="AB62" s="79"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AN62" s="113"/>
-      <c r="AQ62" s="119"/>
-      <c r="AR62" s="120"/>
-      <c r="AX62" s="34"/>
-      <c r="AY62" s="113"/>
-      <c r="AZ62" s="34"/>
-      <c r="BB62" s="70"/>
-      <c r="BC62" s="70"/>
-    </row>
-    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="95"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="111"/>
-      <c r="K63" s="91"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="91"/>
-      <c r="Q63" s="90"/>
-      <c r="T63" s="21">
-        <v>0</v>
-      </c>
-      <c r="U63" s="23">
-        <v>0</v>
-      </c>
-      <c r="V63" s="23">
-        <v>0</v>
-      </c>
-      <c r="W63" s="23">
-        <v>0</v>
-      </c>
-      <c r="X63" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA63" s="79"/>
-      <c r="AB63" s="79"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
+      <c r="AD63" s="79"/>
+      <c r="AE63" s="79"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="113"/>
-      <c r="AQ63" s="119"/>
-      <c r="AR63" s="120"/>
-      <c r="AX63" s="34"/>
-      <c r="AY63" s="113"/>
-      <c r="AZ63" s="34"/>
-      <c r="BB63" s="70"/>
-      <c r="BC63" s="70"/>
+      <c r="AN63" s="62"/>
+      <c r="AQ63" s="72"/>
+      <c r="AR63" s="73"/>
+      <c r="AX63" s="30"/>
+      <c r="AY63" s="62"/>
+      <c r="AZ63" s="30"/>
+      <c r="BB63" s="47"/>
+      <c r="BC63" s="47"/>
     </row>
     <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="91"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="97"/>
-      <c r="O64" s="91"/>
-      <c r="P64" s="91"/>
-      <c r="Q64" s="90"/>
-      <c r="T64" s="21">
-        <v>0</v>
-      </c>
-      <c r="U64" s="23">
-        <v>0</v>
-      </c>
-      <c r="V64" s="23">
-        <v>0</v>
-      </c>
-      <c r="W64" s="23">
-        <v>1</v>
-      </c>
-      <c r="X64" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="19">
+      <c r="B64" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="104"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="M64" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="N64" s="104"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="102"/>
+      <c r="W64" s="21">
+        <v>0</v>
+      </c>
+      <c r="X64" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="19">
         <v>2</v>
       </c>
-      <c r="Z64" s="78" t="s">
+      <c r="AC64" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AA64" s="78"/>
-      <c r="AB64" s="78"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
+      <c r="AD64" s="68"/>
+      <c r="AE64" s="68"/>
       <c r="AF64" s="6"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="113"/>
-      <c r="AQ64" s="121"/>
-      <c r="AR64" s="122"/>
-      <c r="AX64" s="34"/>
-      <c r="AY64" s="113"/>
-      <c r="AZ64" s="34"/>
-      <c r="BB64" s="70"/>
-      <c r="BC64" s="70"/>
+      <c r="AN64" s="62"/>
+      <c r="AQ64" s="74"/>
+      <c r="AR64" s="75"/>
+      <c r="AX64" s="30"/>
+      <c r="AY64" s="62"/>
+      <c r="AZ64" s="30"/>
+      <c r="BB64" s="47"/>
+      <c r="BC64" s="47"/>
     </row>
     <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="98"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="91"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="100"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="90"/>
-      <c r="T65" s="21">
-        <v>0</v>
-      </c>
-      <c r="U65" s="23">
-        <v>0</v>
-      </c>
-      <c r="V65" s="23">
-        <v>0</v>
-      </c>
-      <c r="W65" s="23">
-        <v>1</v>
-      </c>
-      <c r="X65" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="19">
+      <c r="B65" s="85"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="80"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="109"/>
+      <c r="U65" s="102"/>
+      <c r="W65" s="21">
+        <v>0</v>
+      </c>
+      <c r="X65" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="19">
         <v>3</v>
       </c>
-      <c r="Z65" s="78" t="s">
+      <c r="AC65" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AA65" s="78"/>
-      <c r="AB65" s="78"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="113"/>
-      <c r="AX65" s="34"/>
-      <c r="AY65" s="113"/>
-      <c r="AZ65" s="34"/>
-      <c r="BB65" s="70"/>
-      <c r="BC65" s="70"/>
+      <c r="AN65" s="62"/>
+      <c r="AX65" s="30"/>
+      <c r="AY65" s="62"/>
+      <c r="AZ65" s="30"/>
+      <c r="BB65" s="47"/>
+      <c r="BC65" s="47"/>
     </row>
     <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="20">
-        <v>0</v>
-      </c>
-      <c r="C66" s="23">
-        <v>0</v>
-      </c>
-      <c r="D66" s="24">
-        <v>0</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="62"/>
-      <c r="M66" s="21">
-        <v>0</v>
-      </c>
-      <c r="N66" s="24">
-        <v>0</v>
-      </c>
-      <c r="O66" s="20"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="24"/>
-      <c r="T66" s="21">
-        <v>0</v>
-      </c>
-      <c r="U66" s="23">
-        <v>0</v>
-      </c>
-      <c r="V66" s="23">
-        <v>1</v>
-      </c>
-      <c r="W66" s="23">
-        <v>0</v>
-      </c>
-      <c r="X66" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="19">
+      <c r="B66" s="85"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="80"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="109"/>
+      <c r="U66" s="102"/>
+      <c r="W66" s="21">
+        <v>0</v>
+      </c>
+      <c r="X66" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="19">
         <v>4</v>
       </c>
-      <c r="Z66" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="78"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
+      <c r="AC66" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD66" s="68"/>
+      <c r="AE66" s="68"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-      <c r="AN66" s="113"/>
+      <c r="AN66" s="62"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
-      <c r="AX66" s="34"/>
-      <c r="AY66" s="113"/>
-      <c r="AZ66" s="34"/>
-      <c r="BB66" s="70"/>
-      <c r="BC66" s="70"/>
+      <c r="AX66" s="30"/>
+      <c r="AY66" s="62"/>
+      <c r="AZ66" s="30"/>
+      <c r="BB66" s="47"/>
+      <c r="BC66" s="47"/>
     </row>
     <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="20">
-        <v>0</v>
-      </c>
-      <c r="C67" s="23">
-        <v>0</v>
-      </c>
-      <c r="D67" s="24">
-        <v>1</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
-      <c r="M67" s="21">
-        <v>0</v>
-      </c>
-      <c r="N67" s="24">
-        <v>1</v>
-      </c>
-      <c r="O67" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="24"/>
-      <c r="T67" s="21">
-        <v>0</v>
-      </c>
-      <c r="U67" s="23">
-        <v>0</v>
-      </c>
-      <c r="V67" s="23">
-        <v>1</v>
-      </c>
-      <c r="W67" s="23">
-        <v>0</v>
-      </c>
-      <c r="X67" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="19">
+      <c r="B67" s="87"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="80"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="106"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="110"/>
+      <c r="T67" s="110"/>
+      <c r="U67" s="77"/>
+      <c r="W67" s="21">
+        <v>0</v>
+      </c>
+      <c r="X67" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="19">
         <v>5</v>
       </c>
-      <c r="Z67" s="78" t="s">
+      <c r="AC67" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA67" s="78"/>
-      <c r="AB67" s="78"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
+      <c r="AD67" s="68"/>
+      <c r="AE67" s="68"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-      <c r="AN67" s="113"/>
-      <c r="AX67" s="34"/>
-      <c r="AY67" s="113"/>
-      <c r="AZ67" s="34"/>
-      <c r="BB67" s="70"/>
-      <c r="BC67" s="70"/>
+      <c r="AN67" s="62"/>
+      <c r="AX67" s="30"/>
+      <c r="AY67" s="62"/>
+      <c r="AZ67" s="30"/>
+      <c r="BB67" s="47"/>
+      <c r="BC67" s="47"/>
     </row>
     <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="66" t="s">
-        <v>108</v>
+      <c r="A68" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="B68" s="20">
         <v>0</v>
       </c>
       <c r="C68" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="24">
         <v>0</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="62"/>
-      <c r="M68" s="21">
-        <v>1</v>
-      </c>
-      <c r="N68" s="24">
-        <v>0</v>
-      </c>
-      <c r="O68" s="20"/>
-      <c r="P68" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q68" s="24"/>
-      <c r="T68" s="21">
-        <v>0</v>
-      </c>
-      <c r="U68" s="23">
-        <v>0</v>
-      </c>
-      <c r="V68" s="23">
-        <v>1</v>
-      </c>
-      <c r="W68" s="23">
-        <v>1</v>
-      </c>
-      <c r="X68" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="19">
+      <c r="I68" s="42"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="45"/>
+      <c r="M68" s="55">
+        <v>0</v>
+      </c>
+      <c r="N68" s="56">
+        <v>0</v>
+      </c>
+      <c r="O68" s="57">
+        <v>0</v>
+      </c>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="57"/>
+      <c r="W68" s="21">
+        <v>0</v>
+      </c>
+      <c r="X68" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="19">
         <v>6</v>
       </c>
-      <c r="Z68" s="78" t="s">
+      <c r="AC68" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AA68" s="78"/>
-      <c r="AB68" s="78"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="6"/>
+      <c r="AD68" s="68"/>
+      <c r="AE68" s="68"/>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AN68" s="113"/>
-      <c r="AX68" s="34"/>
-      <c r="AY68" s="113"/>
-      <c r="AZ68" s="34"/>
-      <c r="BB68" s="70"/>
-      <c r="BC68" s="70"/>
+      <c r="AN68" s="62"/>
+      <c r="AX68" s="30"/>
+      <c r="AY68" s="62"/>
+      <c r="AZ68" s="30"/>
+      <c r="BB68" s="47"/>
+      <c r="BC68" s="47"/>
     </row>
     <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="20">
         <v>0</v>
       </c>
       <c r="C69" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="24">
         <v>1</v>
       </c>
-      <c r="E69" s="20"/>
+      <c r="E69" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="23"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="45"/>
+      <c r="M69" s="55">
+        <v>0</v>
+      </c>
+      <c r="N69" s="56">
+        <v>0</v>
+      </c>
+      <c r="O69" s="57">
+        <v>1</v>
+      </c>
+      <c r="P69" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="J69" s="61"/>
-      <c r="K69" s="62"/>
-      <c r="M69" s="21">
-        <v>1</v>
-      </c>
-      <c r="N69" s="24">
-        <v>1</v>
-      </c>
-      <c r="O69" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="P69" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q69" s="24"/>
-      <c r="T69" s="21">
-        <v>0</v>
-      </c>
-      <c r="U69" s="23">
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <v>1</v>
-      </c>
-      <c r="W69" s="23">
-        <v>1</v>
-      </c>
-      <c r="X69" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="19">
+      <c r="Q69" s="23"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="57"/>
+      <c r="W69" s="21">
+        <v>0</v>
+      </c>
+      <c r="X69" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="19">
         <v>7</v>
       </c>
-      <c r="Z69" s="78" t="s">
+      <c r="AC69" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AA69" s="78"/>
-      <c r="AB69" s="78"/>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="6"/>
+      <c r="AD69" s="68"/>
+      <c r="AE69" s="68"/>
       <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AN69" s="113"/>
-      <c r="AX69" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY69" s="113"/>
-      <c r="AZ69" s="34"/>
-      <c r="BB69" s="70"/>
-      <c r="BC69" s="70"/>
+      <c r="AN69" s="62"/>
+      <c r="AX69" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY69" s="62"/>
+      <c r="AZ69" s="30"/>
+      <c r="BB69" s="47"/>
+      <c r="BC69" s="47"/>
     </row>
     <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="24">
         <v>0</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="G70" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="56" t="s">
+      <c r="I70" s="42"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="45"/>
+      <c r="M70" s="55">
+        <v>0</v>
+      </c>
+      <c r="N70" s="56">
+        <v>1</v>
+      </c>
+      <c r="O70" s="57">
+        <v>0</v>
+      </c>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
-      <c r="T70" s="21">
-        <v>0</v>
-      </c>
-      <c r="U70" s="23">
-        <v>1</v>
-      </c>
-      <c r="V70" s="23">
-        <v>0</v>
-      </c>
-      <c r="W70" s="23">
-        <v>0</v>
-      </c>
-      <c r="X70" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="19">
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="57"/>
+      <c r="W70" s="21">
+        <v>0</v>
+      </c>
+      <c r="X70" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="19">
         <v>8</v>
       </c>
-      <c r="Z70" s="78" t="s">
+      <c r="AC70" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="AA70" s="78"/>
-      <c r="AB70" s="78"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
+      <c r="AD70" s="68"/>
+      <c r="AE70" s="68"/>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AN70" s="113"/>
-      <c r="AX70" s="34"/>
-      <c r="AY70" s="113"/>
-      <c r="AZ70" s="34"/>
-      <c r="BB70" s="70"/>
-      <c r="BC70" s="70"/>
+      <c r="AN70" s="62"/>
+      <c r="AX70" s="30"/>
+      <c r="AY70" s="62"/>
+      <c r="AZ70" s="30"/>
+      <c r="BB70" s="47"/>
+      <c r="BC70" s="47"/>
     </row>
     <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="66" t="s">
-        <v>108</v>
+      <c r="A71" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="B71" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="24">
         <v>1</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="23"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62" t="s">
+      <c r="G71" s="23"/>
+      <c r="H71" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M71" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="N71" s="94"/>
-      <c r="O71" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="P71" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q71" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="R71" s="6"/>
-      <c r="T71" s="21">
-        <v>0</v>
-      </c>
-      <c r="U71" s="23">
-        <v>1</v>
-      </c>
-      <c r="V71" s="23">
-        <v>0</v>
-      </c>
-      <c r="W71" s="23">
-        <v>0</v>
-      </c>
-      <c r="X71" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="19">
+      <c r="I71" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="44"/>
+      <c r="K71" s="45"/>
+      <c r="M71" s="55">
+        <v>0</v>
+      </c>
+      <c r="N71" s="56">
+        <v>1</v>
+      </c>
+      <c r="O71" s="57">
+        <v>1</v>
+      </c>
+      <c r="P71" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="R71" s="56"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="57"/>
+      <c r="W71" s="21">
+        <v>0</v>
+      </c>
+      <c r="X71" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="19">
         <v>9</v>
       </c>
-      <c r="Z71" s="78" t="s">
+      <c r="AC71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AA71" s="78"/>
-      <c r="AB71" s="78"/>
-      <c r="AC71" s="6"/>
-      <c r="AD71" s="6"/>
-      <c r="AE71" s="6"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
       <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
-      <c r="AM71" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN71" s="113"/>
-      <c r="AO71" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ71" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR71" s="124"/>
-      <c r="AU71" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV71" s="124"/>
-      <c r="AX71" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY71" s="113"/>
-      <c r="AZ71" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB71" s="70"/>
-      <c r="BC71" s="70"/>
+      <c r="AM71" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN71" s="62"/>
+      <c r="AO71" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ71" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR71" s="65"/>
+      <c r="AU71" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV71" s="65"/>
+      <c r="AX71" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY71" s="62"/>
+      <c r="AZ71" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB71" s="47"/>
+      <c r="BC71" s="47"/>
     </row>
     <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="20">
         <v>1</v>
       </c>
       <c r="C72" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="24">
         <v>0</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="56" t="s">
+      <c r="I72" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="97"/>
-      <c r="O72" s="101"/>
-      <c r="P72" s="101"/>
-      <c r="Q72" s="101"/>
-      <c r="R72" s="6"/>
-      <c r="T72" s="21">
-        <v>0</v>
-      </c>
-      <c r="U72" s="23">
-        <v>1</v>
-      </c>
-      <c r="V72" s="23">
-        <v>0</v>
-      </c>
-      <c r="W72" s="23">
-        <v>1</v>
-      </c>
-      <c r="X72" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="19">
+      <c r="J72" s="44"/>
+      <c r="K72" s="45"/>
+      <c r="M72" s="55">
+        <v>1</v>
+      </c>
+      <c r="N72" s="56">
+        <v>0</v>
+      </c>
+      <c r="O72" s="57">
+        <v>0</v>
+      </c>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="57"/>
+      <c r="W72" s="21">
+        <v>0</v>
+      </c>
+      <c r="X72" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="19">
         <v>10</v>
       </c>
-      <c r="Z72" s="78" t="s">
+      <c r="AC72" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AA72" s="78"/>
-      <c r="AB72" s="78"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="6"/>
+      <c r="AD72" s="68"/>
+      <c r="AE72" s="68"/>
       <c r="AF72" s="6"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-      <c r="AN72" s="114"/>
-      <c r="AX72" s="34"/>
-      <c r="AY72" s="114"/>
-      <c r="AZ72" s="34"/>
-      <c r="BB72" s="70"/>
-      <c r="BC72" s="70"/>
+      <c r="AN72" s="63"/>
+      <c r="AX72" s="30"/>
+      <c r="AY72" s="63"/>
+      <c r="AZ72" s="30"/>
+      <c r="BB72" s="47"/>
+      <c r="BC72" s="47"/>
     </row>
     <row r="73" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="20">
         <v>1</v>
       </c>
       <c r="C73" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="24">
         <v>1</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="61" t="s">
+      <c r="I73" s="42"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="K73" s="62"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="97"/>
-      <c r="O73" s="101"/>
-      <c r="P73" s="101"/>
-      <c r="Q73" s="101"/>
-      <c r="R73" s="6"/>
-      <c r="T73" s="21">
-        <v>0</v>
-      </c>
-      <c r="U73" s="23">
-        <v>1</v>
-      </c>
-      <c r="V73" s="23">
-        <v>0</v>
-      </c>
-      <c r="W73" s="23">
-        <v>1</v>
-      </c>
-      <c r="X73" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="19">
+      <c r="M73" s="55">
+        <v>1</v>
+      </c>
+      <c r="N73" s="56">
+        <v>0</v>
+      </c>
+      <c r="O73" s="57">
+        <v>1</v>
+      </c>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="57"/>
+      <c r="W73" s="21">
+        <v>0</v>
+      </c>
+      <c r="X73" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="19">
         <v>11</v>
       </c>
-      <c r="Z73" s="78" t="s">
+      <c r="AC73" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="78"/>
-      <c r="AB73" s="78"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
-      <c r="AE73" s="6"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
-      <c r="AX73" s="34"/>
-      <c r="AY73" s="34"/>
-      <c r="AZ73" s="34"/>
-      <c r="BB73" s="70"/>
-      <c r="BC73" s="70"/>
+      <c r="AX73" s="30"/>
+      <c r="AY73" s="30"/>
+      <c r="AZ73" s="30"/>
+      <c r="BB73" s="47"/>
+      <c r="BC73" s="47"/>
     </row>
     <row r="74" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="101"/>
-      <c r="P74" s="101"/>
-      <c r="Q74" s="101"/>
-      <c r="R74" s="6"/>
-      <c r="T74" s="21">
-        <v>0</v>
-      </c>
-      <c r="U74" s="23">
-        <v>1</v>
-      </c>
-      <c r="V74" s="23">
-        <v>1</v>
-      </c>
-      <c r="W74" s="23">
-        <v>0</v>
-      </c>
-      <c r="X74" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="19">
+      <c r="B74" s="20">
+        <v>1</v>
+      </c>
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+      <c r="D74" s="24">
+        <v>0</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="44"/>
+      <c r="K74" s="45"/>
+      <c r="M74" s="55">
+        <v>1</v>
+      </c>
+      <c r="N74" s="56">
+        <v>1</v>
+      </c>
+      <c r="O74" s="57">
+        <v>0</v>
+      </c>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="57"/>
+      <c r="W74" s="21">
+        <v>0</v>
+      </c>
+      <c r="X74" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="19">
         <v>12</v>
       </c>
-      <c r="Z74" s="78" t="s">
+      <c r="AC74" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AA74" s="78"/>
-      <c r="AB74" s="78"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
-      <c r="AE74" s="6"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
       <c r="AF74" s="6"/>
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
-      <c r="AN74" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX74" s="34"/>
-      <c r="AY74" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ74" s="34"/>
-      <c r="BB74" s="70"/>
-      <c r="BC74" s="70"/>
+      <c r="AN74" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX74" s="30"/>
+      <c r="AY74" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ74" s="30"/>
+      <c r="BB74" s="47"/>
+      <c r="BC74" s="47"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="97"/>
-      <c r="O75" s="101"/>
-      <c r="P75" s="101"/>
-      <c r="Q75" s="101"/>
-      <c r="R75" s="6"/>
-      <c r="T75" s="21">
-        <v>0</v>
-      </c>
-      <c r="U75" s="23">
-        <v>1</v>
-      </c>
-      <c r="V75" s="23">
-        <v>1</v>
-      </c>
-      <c r="W75" s="23">
-        <v>0</v>
-      </c>
-      <c r="X75" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="19">
+      <c r="B75" s="20">
+        <v>1</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1</v>
+      </c>
+      <c r="D75" s="24">
+        <v>1</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K75" s="45"/>
+      <c r="M75" s="55">
+        <v>1</v>
+      </c>
+      <c r="N75" s="56">
+        <v>1</v>
+      </c>
+      <c r="O75" s="57">
+        <v>1</v>
+      </c>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="57"/>
+      <c r="W75" s="21">
+        <v>0</v>
+      </c>
+      <c r="X75" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="19">
         <v>13</v>
       </c>
-      <c r="Z75" s="78" t="s">
+      <c r="AC75" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AA75" s="78"/>
-      <c r="AB75" s="78"/>
-      <c r="AC75" s="6"/>
-      <c r="AD75" s="6"/>
-      <c r="AE75" s="6"/>
+      <c r="AD75" s="68"/>
+      <c r="AE75" s="68"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
-      <c r="AN75" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX75" s="34"/>
-      <c r="AY75" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ75" s="34"/>
-      <c r="BB75" s="70"/>
-      <c r="BC75" s="70"/>
+      <c r="AN75" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX75" s="30"/>
+      <c r="AY75" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ75" s="30"/>
+      <c r="BB75" s="47"/>
+      <c r="BC75" s="47"/>
     </row>
     <row r="76" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="101"/>
-      <c r="P76" s="101"/>
-      <c r="Q76" s="101"/>
       <c r="R76" s="6"/>
-      <c r="T76" s="21">
-        <v>0</v>
-      </c>
-      <c r="U76" s="23">
-        <v>1</v>
-      </c>
-      <c r="V76" s="23">
-        <v>1</v>
-      </c>
-      <c r="W76" s="23">
-        <v>1</v>
-      </c>
-      <c r="X76" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="19">
+      <c r="W76" s="21">
+        <v>0</v>
+      </c>
+      <c r="X76" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="19">
         <v>14</v>
       </c>
-      <c r="Z76" s="78" t="s">
+      <c r="AC76" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AA76" s="78"/>
-      <c r="AB76" s="78"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
-      <c r="AE76" s="6"/>
+      <c r="AD76" s="68"/>
+      <c r="AE76" s="68"/>
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
-      <c r="AN76" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ76" s="34"/>
-      <c r="AR76" s="34"/>
-      <c r="AT76" s="34"/>
+      <c r="AN76" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ76" s="30"/>
+      <c r="AR76" s="30"/>
+      <c r="AT76" s="30"/>
       <c r="AV76" s="15"/>
       <c r="AW76" s="15"/>
-      <c r="AY76" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB76" s="70"/>
-      <c r="BC76" s="70"/>
+      <c r="AY76" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB76" s="47"/>
+      <c r="BC76" s="47"/>
     </row>
     <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="94"/>
-      <c r="D77" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="F77" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="M77" s="20">
-        <v>0</v>
-      </c>
-      <c r="N77" s="24">
-        <v>0</v>
-      </c>
-      <c r="O77" s="20"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="24"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="M77" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="N77" s="84"/>
+      <c r="O77" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="P77" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q77" s="78" t="s">
+        <v>152</v>
+      </c>
       <c r="R77" s="6"/>
-      <c r="T77" s="21">
-        <v>0</v>
-      </c>
-      <c r="U77" s="23">
-        <v>1</v>
-      </c>
-      <c r="V77" s="23">
-        <v>1</v>
-      </c>
-      <c r="W77" s="23">
-        <v>1</v>
-      </c>
-      <c r="X77" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="19">
+      <c r="W77" s="21">
+        <v>0</v>
+      </c>
+      <c r="X77" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="19">
         <v>15</v>
       </c>
-      <c r="Z77" s="78" t="s">
+      <c r="AC77" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AA77" s="78"/>
-      <c r="AB77" s="78"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
       <c r="AF77" s="6"/>
-      <c r="AQ77" s="34"/>
-      <c r="AR77" s="34"/>
-      <c r="AT77" s="34"/>
+      <c r="AQ77" s="30"/>
+      <c r="AR77" s="30"/>
+      <c r="AT77" s="30"/>
       <c r="AV77" s="15"/>
       <c r="AW77" s="15"/>
-      <c r="BB77" s="70"/>
-      <c r="BC77" s="70"/>
+      <c r="BB77" s="47"/>
+      <c r="BC77" s="47"/>
     </row>
     <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="95"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="90"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="M78" s="20">
-        <v>0</v>
-      </c>
-      <c r="N78" s="24">
-        <v>1</v>
-      </c>
-      <c r="O78" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="24"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="86"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="78"/>
       <c r="R78" s="6"/>
-      <c r="T78" s="21">
-        <v>1</v>
-      </c>
-      <c r="U78" s="23">
-        <v>0</v>
-      </c>
-      <c r="V78" s="23">
-        <v>0</v>
-      </c>
-      <c r="W78" s="23">
-        <v>0</v>
-      </c>
-      <c r="X78" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="19">
+      <c r="W78" s="21">
+        <v>1</v>
+      </c>
+      <c r="X78" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="19">
         <v>16</v>
       </c>
-      <c r="Z78" s="78" t="s">
+      <c r="AC78" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AA78" s="78"/>
-      <c r="AB78" s="78"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
+      <c r="AD78" s="68"/>
+      <c r="AE78" s="68"/>
       <c r="AF78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AN78" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO78" s="116"/>
-      <c r="AQ78" s="117" t="s">
+      <c r="AN78" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO78" s="67"/>
+      <c r="AQ78" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="118"/>
-      <c r="AT78" s="34"/>
+      <c r="AR78" s="71"/>
+      <c r="AT78" s="30"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY78" s="116"/>
-      <c r="AZ78" s="34"/>
-      <c r="BB78" s="70"/>
-      <c r="BC78" s="70"/>
+      <c r="AX78" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY78" s="67"/>
+      <c r="AZ78" s="30"/>
+      <c r="BB78" s="47"/>
+      <c r="BC78" s="47"/>
     </row>
     <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="98"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="90"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="M79" s="20">
-        <v>1</v>
-      </c>
-      <c r="N79" s="24">
-        <v>0</v>
-      </c>
-      <c r="O79" s="20"/>
-      <c r="P79" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q79" s="24"/>
+      <c r="B79" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="84"/>
+      <c r="D79" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="M79" s="85"/>
+      <c r="N79" s="86"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="78"/>
       <c r="R79" s="6"/>
-      <c r="T79" s="21">
-        <v>1</v>
-      </c>
-      <c r="U79" s="23">
-        <v>0</v>
-      </c>
-      <c r="V79" s="23">
-        <v>0</v>
-      </c>
-      <c r="W79" s="23">
-        <v>0</v>
-      </c>
-      <c r="X79" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="19">
+      <c r="W79" s="21">
+        <v>1</v>
+      </c>
+      <c r="X79" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="19">
         <v>17</v>
       </c>
-      <c r="Z79" s="78" t="s">
+      <c r="AC79" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AA79" s="78"/>
-      <c r="AB79" s="78"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
+      <c r="AD79" s="68"/>
+      <c r="AE79" s="68"/>
       <c r="AF79" s="6"/>
       <c r="AI79" s="6"/>
-      <c r="AN79" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO79" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ79" s="119"/>
-      <c r="AR79" s="120"/>
+      <c r="AN79" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO79" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ79" s="72"/>
+      <c r="AR79" s="73"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
-      <c r="AX79" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY79" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ79" s="34"/>
-      <c r="BB79" s="70"/>
-      <c r="BC79" s="70"/>
+      <c r="AX79" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY79" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ79" s="30"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
     </row>
     <row r="80" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="21">
-        <v>0</v>
-      </c>
-      <c r="C80" s="24">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="M80" s="20">
-        <v>1</v>
-      </c>
-      <c r="N80" s="24">
-        <v>1</v>
-      </c>
-      <c r="O80" s="20"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="B80" s="85"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="90"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="86"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
       <c r="R80" s="6"/>
-      <c r="T80" s="21">
-        <v>1</v>
-      </c>
-      <c r="U80" s="23">
-        <v>0</v>
-      </c>
-      <c r="V80" s="23">
-        <v>0</v>
-      </c>
-      <c r="W80" s="23">
-        <v>1</v>
-      </c>
-      <c r="X80" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="19">
+      <c r="W80" s="21">
+        <v>1</v>
+      </c>
+      <c r="X80" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="19">
         <v>18</v>
       </c>
-      <c r="Z80" s="78" t="s">
+      <c r="AC80" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA80" s="78"/>
-      <c r="AB80" s="78"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
-      <c r="AE80" s="6"/>
+      <c r="AD80" s="68"/>
+      <c r="AE80" s="68"/>
       <c r="AF80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AQ80" s="119"/>
-      <c r="AR80" s="120"/>
-      <c r="AV80" s="34"/>
-      <c r="AX80" s="34"/>
-      <c r="AY80" s="34"/>
-      <c r="AZ80" s="34"/>
-      <c r="BB80" s="70"/>
-      <c r="BC80" s="70"/>
+      <c r="AQ80" s="72"/>
+      <c r="AR80" s="73"/>
+      <c r="AV80" s="30"/>
+      <c r="AX80" s="30"/>
+      <c r="AY80" s="30"/>
+      <c r="AZ80" s="30"/>
+      <c r="BB80" s="47"/>
+      <c r="BC80" s="47"/>
     </row>
     <row r="81" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="24">
-        <v>1</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
-      <c r="T81" s="21">
-        <v>1</v>
-      </c>
-      <c r="U81" s="23">
-        <v>0</v>
-      </c>
-      <c r="V81" s="23">
-        <v>0</v>
-      </c>
-      <c r="W81" s="23">
-        <v>1</v>
-      </c>
-      <c r="X81" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y81" s="19">
+      <c r="B81" s="87"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="90"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="6"/>
+      <c r="W81" s="21">
+        <v>1</v>
+      </c>
+      <c r="X81" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="19">
         <v>19</v>
       </c>
-      <c r="Z81" s="78" t="s">
+      <c r="AC81" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA81" s="78"/>
-      <c r="AB81" s="78"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
+      <c r="AD81" s="68"/>
+      <c r="AE81" s="68"/>
       <c r="AF81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AN81" s="112" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ81" s="121"/>
-      <c r="AR81" s="122"/>
-      <c r="AV81" s="34"/>
-      <c r="AX81" s="34"/>
-      <c r="AY81" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ81" s="34"/>
+      <c r="AN81" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ81" s="74"/>
+      <c r="AR81" s="75"/>
+      <c r="AV81" s="30"/>
+      <c r="AX81" s="30"/>
+      <c r="AY81" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ81" s="30"/>
     </row>
     <row r="82" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B82" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="24">
         <v>0</v>
       </c>
       <c r="D82" s="21"/>
-      <c r="E82" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="E82" s="23"/>
       <c r="F82" s="24"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="M82" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="N82" s="94"/>
-      <c r="O82" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="P82" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q82" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="T82" s="21">
-        <v>1</v>
-      </c>
-      <c r="U82" s="23">
-        <v>0</v>
-      </c>
-      <c r="V82" s="23">
-        <v>1</v>
-      </c>
-      <c r="W82" s="23">
-        <v>0</v>
-      </c>
-      <c r="X82" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="19">
+      <c r="M82" s="87"/>
+      <c r="N82" s="88"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="6"/>
+      <c r="W82" s="21">
+        <v>1</v>
+      </c>
+      <c r="X82" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="19">
         <v>20</v>
       </c>
-      <c r="Z82" s="79"/>
-      <c r="AA82" s="79"/>
-      <c r="AB82" s="79"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
+      <c r="AC82" s="79"/>
+      <c r="AD82" s="79"/>
+      <c r="AE82" s="79"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="113"/>
-      <c r="AV82" s="34"/>
-      <c r="AX82" s="34"/>
-      <c r="AY82" s="113"/>
-      <c r="AZ82" s="34"/>
+      <c r="AN82" s="62"/>
+      <c r="AV82" s="30"/>
+      <c r="AX82" s="30"/>
+      <c r="AY82" s="62"/>
+      <c r="AZ82" s="30"/>
     </row>
     <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="24">
         <v>1</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="74" t="s">
-        <v>59</v>
-      </c>
+      <c r="E83" s="23"/>
       <c r="F83" s="24"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="M83" s="95"/>
-      <c r="N83" s="97"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="110"/>
-      <c r="T83" s="21">
-        <v>1</v>
-      </c>
-      <c r="U83" s="23">
-        <v>0</v>
-      </c>
-      <c r="V83" s="23">
-        <v>1</v>
-      </c>
-      <c r="W83" s="23">
-        <v>0</v>
-      </c>
-      <c r="X83" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y83" s="19">
+      <c r="M83" s="20">
+        <v>0</v>
+      </c>
+      <c r="N83" s="24">
+        <v>0</v>
+      </c>
+      <c r="O83" s="20"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="24"/>
+      <c r="W83" s="21">
+        <v>1</v>
+      </c>
+      <c r="X83" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="19">
         <v>21</v>
       </c>
-      <c r="Z83" s="79"/>
-      <c r="AA83" s="79"/>
-      <c r="AB83" s="79"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
-      <c r="AE83" s="6"/>
+      <c r="AC83" s="79"/>
+      <c r="AD83" s="79"/>
+      <c r="AE83" s="79"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="113"/>
-      <c r="AX83" s="34"/>
-      <c r="AY83" s="113"/>
-      <c r="AZ83" s="34"/>
+      <c r="AN83" s="62"/>
+      <c r="AX83" s="30"/>
+      <c r="AY83" s="62"/>
+      <c r="AZ83" s="30"/>
     </row>
     <row r="84" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+      <c r="C84" s="24">
+        <v>0</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="24"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="M84" s="95"/>
-      <c r="N84" s="97"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="110"/>
-      <c r="T84" s="21">
-        <v>1</v>
-      </c>
-      <c r="U84" s="23">
-        <v>0</v>
-      </c>
-      <c r="V84" s="23">
-        <v>1</v>
-      </c>
-      <c r="W84" s="23">
-        <v>1</v>
-      </c>
-      <c r="X84" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="19">
+      <c r="M84" s="20">
+        <v>0</v>
+      </c>
+      <c r="N84" s="24">
+        <v>1</v>
+      </c>
+      <c r="O84" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="24"/>
+      <c r="W84" s="21">
+        <v>1</v>
+      </c>
+      <c r="X84" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="19">
         <v>22</v>
       </c>
-      <c r="Z84" s="79"/>
-      <c r="AA84" s="79"/>
-      <c r="AB84" s="79"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-      <c r="AE84" s="6"/>
+      <c r="AC84" s="79"/>
+      <c r="AD84" s="79"/>
+      <c r="AE84" s="79"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="113"/>
-      <c r="AX84" s="34"/>
-      <c r="AY84" s="113"/>
-      <c r="AZ84" s="34"/>
+      <c r="AN84" s="62"/>
+      <c r="AX84" s="30"/>
+      <c r="AY84" s="62"/>
+      <c r="AZ84" s="30"/>
     </row>
     <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="B85" s="21">
+        <v>1</v>
+      </c>
+      <c r="C85" s="24">
+        <v>1</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="24"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="100"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="110"/>
-      <c r="T85" s="21">
-        <v>1</v>
-      </c>
-      <c r="U85" s="23">
-        <v>0</v>
-      </c>
-      <c r="V85" s="23">
-        <v>1</v>
-      </c>
-      <c r="W85" s="23">
-        <v>1</v>
-      </c>
-      <c r="X85" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="19">
+      <c r="M85" s="20">
+        <v>1</v>
+      </c>
+      <c r="N85" s="24">
+        <v>0</v>
+      </c>
+      <c r="O85" s="20"/>
+      <c r="P85" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q85" s="24"/>
+      <c r="W85" s="21">
+        <v>1</v>
+      </c>
+      <c r="X85" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="19">
         <v>23</v>
       </c>
-      <c r="Z85" s="79"/>
-      <c r="AA85" s="79"/>
-      <c r="AB85" s="79"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-      <c r="AE85" s="6"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="114"/>
-      <c r="AX85" s="34"/>
-      <c r="AY85" s="114"/>
-      <c r="AZ85" s="34"/>
+      <c r="AN85" s="63"/>
+      <c r="AX85" s="30"/>
+      <c r="AY85" s="63"/>
+      <c r="AZ85" s="30"/>
     </row>
     <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="6"/>
@@ -9112,101 +9066,77 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="M86" s="21">
-        <v>0</v>
+      <c r="M86" s="20">
+        <v>1</v>
       </c>
       <c r="N86" s="24">
-        <v>0</v>
-      </c>
-      <c r="O86" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="O86" s="20"/>
       <c r="P86" s="23"/>
-      <c r="Q86" s="24"/>
-      <c r="T86" s="21">
-        <v>1</v>
-      </c>
-      <c r="U86" s="23">
-        <v>1</v>
-      </c>
-      <c r="V86" s="23">
-        <v>0</v>
-      </c>
-      <c r="W86" s="23">
-        <v>0</v>
-      </c>
-      <c r="X86" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="19">
+      <c r="Q86" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="W86" s="21">
+        <v>1</v>
+      </c>
+      <c r="X86" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="19">
         <v>24</v>
       </c>
-      <c r="Z86" s="79"/>
-      <c r="AA86" s="79"/>
-      <c r="AB86" s="79"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-      <c r="AE86" s="6"/>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="79"/>
+      <c r="AE86" s="79"/>
       <c r="AF86" s="6"/>
-      <c r="AX86" s="34"/>
-      <c r="AY86" s="34"/>
-      <c r="AZ86" s="34"/>
+      <c r="AX86" s="30"/>
+      <c r="AY86" s="30"/>
+      <c r="AZ86" s="30"/>
     </row>
     <row r="87" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="M87" s="21">
-        <v>0</v>
-      </c>
-      <c r="N87" s="24">
-        <v>1</v>
-      </c>
-      <c r="O87" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="24"/>
-      <c r="T87" s="21">
-        <v>1</v>
-      </c>
-      <c r="U87" s="23">
-        <v>1</v>
-      </c>
-      <c r="V87" s="23">
-        <v>0</v>
-      </c>
-      <c r="W87" s="23">
-        <v>0</v>
-      </c>
-      <c r="X87" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="19">
+      <c r="W87" s="21">
+        <v>1</v>
+      </c>
+      <c r="X87" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="19">
         <v>25</v>
       </c>
-      <c r="Z87" s="79"/>
-      <c r="AA87" s="79"/>
-      <c r="AB87" s="79"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-      <c r="AE87" s="6"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX87" s="34"/>
-      <c r="AY87" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ87" s="34"/>
+      <c r="AN87" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX87" s="30"/>
+      <c r="AY87" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ87" s="30"/>
     </row>
     <row r="88" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
@@ -9215,49 +9145,45 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="M88" s="21">
-        <v>1</v>
-      </c>
-      <c r="N88" s="24">
-        <v>0</v>
-      </c>
-      <c r="O88" s="21"/>
-      <c r="P88" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q88" s="24"/>
-      <c r="T88" s="21">
-        <v>1</v>
-      </c>
-      <c r="U88" s="23">
-        <v>1</v>
-      </c>
-      <c r="V88" s="23">
-        <v>0</v>
-      </c>
-      <c r="W88" s="23">
-        <v>1</v>
-      </c>
-      <c r="X88" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="19">
+      <c r="M88" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="N88" s="84"/>
+      <c r="O88" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="P88" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q88" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="W88" s="21">
+        <v>1</v>
+      </c>
+      <c r="X88" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="19">
         <v>26</v>
       </c>
-      <c r="Z88" s="79"/>
-      <c r="AA88" s="79"/>
-      <c r="AB88" s="79"/>
-      <c r="AC88" s="6"/>
-      <c r="AD88" s="6"/>
-      <c r="AE88" s="6"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="79"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="113"/>
-      <c r="AX88" s="34"/>
-      <c r="AY88" s="113"/>
-      <c r="AZ88" s="34"/>
+      <c r="AN88" s="62"/>
+      <c r="AX88" s="30"/>
+      <c r="AY88" s="62"/>
+      <c r="AZ88" s="30"/>
     </row>
     <row r="89" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
@@ -9266,50 +9192,37 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="M89" s="21">
-        <v>1</v>
-      </c>
-      <c r="N89" s="24">
-        <v>1</v>
-      </c>
-      <c r="O89" s="21"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="21">
-        <v>1</v>
-      </c>
-      <c r="U89" s="23">
-        <v>1</v>
-      </c>
-      <c r="V89" s="23">
-        <v>0</v>
-      </c>
-      <c r="W89" s="23">
-        <v>1</v>
-      </c>
-      <c r="X89" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="19">
+      <c r="M89" s="85"/>
+      <c r="N89" s="86"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="89"/>
+      <c r="W89" s="21">
+        <v>1</v>
+      </c>
+      <c r="X89" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="19">
         <v>27</v>
       </c>
-      <c r="Z89" s="79"/>
-      <c r="AA89" s="79"/>
-      <c r="AB89" s="79"/>
-      <c r="AC89" s="6"/>
-      <c r="AD89" s="6"/>
-      <c r="AE89" s="6"/>
+      <c r="AC89" s="79"/>
+      <c r="AD89" s="79"/>
+      <c r="AE89" s="79"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="113"/>
-      <c r="AX89" s="34"/>
-      <c r="AY89" s="113"/>
-      <c r="AZ89" s="34"/>
+      <c r="AN89" s="62"/>
+      <c r="AX89" s="30"/>
+      <c r="AY89" s="62"/>
+      <c r="AZ89" s="30"/>
     </row>
     <row r="90" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
@@ -9318,41 +9231,37 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="21">
-        <v>1</v>
-      </c>
-      <c r="U90" s="23">
-        <v>1</v>
-      </c>
-      <c r="V90" s="23">
-        <v>1</v>
-      </c>
-      <c r="W90" s="23">
-        <v>0</v>
-      </c>
-      <c r="X90" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="19">
+      <c r="M90" s="85"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="80"/>
+      <c r="P90" s="80"/>
+      <c r="Q90" s="89"/>
+      <c r="W90" s="21">
+        <v>1</v>
+      </c>
+      <c r="X90" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="19">
         <v>28</v>
       </c>
-      <c r="Z90" s="79"/>
-      <c r="AA90" s="79"/>
-      <c r="AB90" s="79"/>
-      <c r="AC90" s="6"/>
-      <c r="AD90" s="6"/>
-      <c r="AE90" s="6"/>
+      <c r="AC90" s="79"/>
+      <c r="AD90" s="79"/>
+      <c r="AE90" s="79"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="113"/>
-      <c r="AX90" s="34"/>
-      <c r="AY90" s="113"/>
-      <c r="AZ90" s="34"/>
+      <c r="AN90" s="62"/>
+      <c r="AX90" s="30"/>
+      <c r="AY90" s="62"/>
+      <c r="AZ90" s="30"/>
     </row>
     <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="6"/>
@@ -9361,1873 +9270,1842 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="M91" s="87"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="80"/>
+      <c r="P91" s="80"/>
+      <c r="Q91" s="89"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="21">
-        <v>1</v>
-      </c>
-      <c r="U91" s="23">
-        <v>1</v>
-      </c>
-      <c r="V91" s="23">
-        <v>1</v>
-      </c>
-      <c r="W91" s="23">
-        <v>0</v>
-      </c>
-      <c r="X91" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y91" s="19">
+      <c r="W91" s="21">
+        <v>1</v>
+      </c>
+      <c r="X91" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="19">
         <v>29</v>
       </c>
-      <c r="Z91" s="79"/>
-      <c r="AA91" s="79"/>
-      <c r="AB91" s="79"/>
-      <c r="AC91" s="6"/>
-      <c r="AD91" s="6"/>
-      <c r="AE91" s="6"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="114"/>
-      <c r="AX91" s="34"/>
-      <c r="AY91" s="114"/>
-      <c r="AZ91" s="34"/>
+      <c r="AN91" s="63"/>
+      <c r="AX91" s="30"/>
+      <c r="AY91" s="63"/>
+      <c r="AZ91" s="30"/>
     </row>
     <row r="92" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
+      <c r="M92" s="21">
+        <v>0</v>
+      </c>
+      <c r="N92" s="24">
+        <v>0</v>
+      </c>
+      <c r="O92" s="21"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="24"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="21">
-        <v>1</v>
-      </c>
-      <c r="U92" s="23">
-        <v>1</v>
-      </c>
-      <c r="V92" s="23">
-        <v>1</v>
-      </c>
-      <c r="W92" s="23">
-        <v>1</v>
-      </c>
-      <c r="X92" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="19">
+      <c r="W92" s="21">
+        <v>1</v>
+      </c>
+      <c r="X92" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="19">
         <v>30</v>
       </c>
-      <c r="Z92" s="79"/>
-      <c r="AA92" s="79"/>
-      <c r="AB92" s="79"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
-      <c r="AE92" s="6"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="79"/>
       <c r="AF92" s="6"/>
     </row>
     <row r="93" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="M93" s="21">
+        <v>0</v>
+      </c>
+      <c r="N93" s="24">
+        <v>1</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="24"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="21">
-        <v>1</v>
-      </c>
-      <c r="U93" s="23">
-        <v>1</v>
-      </c>
-      <c r="V93" s="23">
-        <v>1</v>
-      </c>
-      <c r="W93" s="23">
-        <v>1</v>
-      </c>
-      <c r="X93" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y93" s="19">
+      <c r="W93" s="21">
+        <v>1</v>
+      </c>
+      <c r="X93" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="19">
         <v>31</v>
       </c>
-      <c r="Z93" s="79" t="s">
+      <c r="AC93" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AA93" s="79"/>
-      <c r="AB93" s="79"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
-      <c r="AE93" s="6"/>
+      <c r="AD93" s="79"/>
+      <c r="AE93" s="79"/>
       <c r="AF93" s="6"/>
     </row>
-    <row r="94" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="H94" s="83" t="s">
+    <row r="94" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="B94" s="6"/>
+      <c r="M94" s="21">
+        <v>1</v>
+      </c>
+      <c r="N94" s="24">
+        <v>0</v>
+      </c>
+      <c r="O94" s="21"/>
+      <c r="P94" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q94" s="24"/>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="B95" s="6"/>
+      <c r="M95" s="21">
+        <v>1</v>
+      </c>
+      <c r="N95" s="24">
+        <v>1</v>
+      </c>
+      <c r="O95" s="21"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="S95" s="6"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A98" s="60"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="H98" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="28"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="51"/>
+      <c r="AI98" s="51"/>
+      <c r="AJ98" s="60"/>
+      <c r="AK98" s="60"/>
+      <c r="AL98" s="60"/>
+      <c r="AM98" s="60"/>
+      <c r="AN98" s="60"/>
+      <c r="AO98" s="60"/>
+    </row>
+    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="60"/>
+      <c r="B99" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="76"/>
+      <c r="D99" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="J99" s="102"/>
+      <c r="K99" s="102"/>
+      <c r="L99" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="M99" s="76"/>
+      <c r="N99" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="S99" s="76"/>
+      <c r="T99" s="76"/>
+      <c r="U99" s="76"/>
+      <c r="V99" s="76"/>
+      <c r="W99" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="X99" s="76"/>
+      <c r="Y99" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z99" s="76"/>
+      <c r="AA99" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD99" s="76"/>
+      <c r="AE99" s="76"/>
+      <c r="AF99" s="76"/>
+      <c r="AG99" s="76"/>
+      <c r="AH99" s="51"/>
+      <c r="AI99" s="51"/>
+      <c r="AJ99" s="60"/>
+      <c r="AK99" s="60"/>
+      <c r="AL99" s="60"/>
+      <c r="AM99" s="60"/>
+      <c r="AN99" s="60"/>
+      <c r="AO99" s="60"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A100" s="60"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="102"/>
+      <c r="J100" s="102"/>
+      <c r="K100" s="102"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="76"/>
+      <c r="N100" s="76"/>
+      <c r="O100" s="76"/>
+      <c r="P100" s="76"/>
+      <c r="Q100" s="76"/>
+      <c r="R100" s="76"/>
+      <c r="S100" s="76"/>
+      <c r="T100" s="76"/>
+      <c r="U100" s="76"/>
+      <c r="V100" s="76"/>
+      <c r="W100" s="76"/>
+      <c r="X100" s="76"/>
+      <c r="Y100" s="76"/>
+      <c r="Z100" s="76"/>
+      <c r="AA100" s="76"/>
+      <c r="AB100" s="76"/>
+      <c r="AC100" s="76"/>
+      <c r="AD100" s="76"/>
+      <c r="AE100" s="76"/>
+      <c r="AF100" s="76"/>
+      <c r="AG100" s="76"/>
+      <c r="AH100" s="51"/>
+      <c r="AI100" s="51"/>
+      <c r="AJ100" s="60"/>
+      <c r="AK100" s="60"/>
+      <c r="AL100" s="60"/>
+      <c r="AM100" s="60"/>
+      <c r="AN100" s="60"/>
+      <c r="AO100" s="60"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A101" s="60"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
+      <c r="AA101" s="77"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="51"/>
+      <c r="AJ101" s="60"/>
+      <c r="AK101" s="60"/>
+      <c r="AL101" s="60"/>
+      <c r="AM101" s="60"/>
+      <c r="AN101" s="60"/>
+      <c r="AO101" s="60"/>
+    </row>
+    <row r="102" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B102" s="18">
+        <v>31</v>
+      </c>
+      <c r="C102" s="18">
+        <v>30</v>
+      </c>
+      <c r="D102" s="18">
+        <v>29</v>
+      </c>
+      <c r="E102" s="18">
+        <v>28</v>
+      </c>
+      <c r="F102" s="18">
+        <v>27</v>
+      </c>
+      <c r="G102" s="18">
+        <v>26</v>
+      </c>
+      <c r="H102" s="18">
+        <v>25</v>
+      </c>
+      <c r="I102" s="18">
+        <v>24</v>
+      </c>
+      <c r="J102" s="18">
+        <v>23</v>
+      </c>
+      <c r="K102" s="18">
+        <v>22</v>
+      </c>
+      <c r="L102" s="18">
+        <v>21</v>
+      </c>
+      <c r="M102" s="18">
+        <v>20</v>
+      </c>
+      <c r="N102" s="18">
+        <v>19</v>
+      </c>
+      <c r="O102" s="18">
+        <v>18</v>
+      </c>
+      <c r="P102" s="18">
+        <v>17</v>
+      </c>
+      <c r="Q102" s="18">
+        <v>16</v>
+      </c>
+      <c r="R102" s="18">
+        <v>15</v>
+      </c>
+      <c r="S102" s="18">
+        <v>14</v>
+      </c>
+      <c r="T102" s="18">
+        <v>13</v>
+      </c>
+      <c r="U102" s="18">
+        <v>12</v>
+      </c>
+      <c r="V102" s="18">
+        <v>11</v>
+      </c>
+      <c r="W102" s="18">
+        <v>10</v>
+      </c>
+      <c r="X102" s="18">
+        <v>9</v>
+      </c>
+      <c r="Y102" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="18">
+        <v>7</v>
+      </c>
+      <c r="AA102" s="18">
+        <v>6</v>
+      </c>
+      <c r="AB102" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="18">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="18">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF102" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG102" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="59">
+        <v>1</v>
+      </c>
+      <c r="C103" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="100"/>
+      <c r="E103" s="100"/>
+      <c r="F103" s="100"/>
+      <c r="G103" s="100"/>
+      <c r="H103" s="100"/>
+      <c r="I103" s="100"/>
+      <c r="J103" s="100"/>
+      <c r="K103" s="100"/>
+      <c r="L103" s="100"/>
+      <c r="M103" s="100"/>
+      <c r="N103" s="100"/>
+      <c r="O103" s="100"/>
+      <c r="P103" s="100"/>
+      <c r="Q103" s="100"/>
+      <c r="R103" s="100"/>
+      <c r="S103" s="100"/>
+      <c r="T103" s="100"/>
+      <c r="U103" s="100"/>
+      <c r="V103" s="100"/>
+      <c r="W103" s="100"/>
+      <c r="X103" s="100"/>
+      <c r="Y103" s="100"/>
+      <c r="Z103" s="100"/>
+      <c r="AA103" s="100"/>
+      <c r="AB103" s="100"/>
+      <c r="AC103" s="100"/>
+      <c r="AD103" s="100"/>
+      <c r="AE103" s="100"/>
+      <c r="AF103" s="100"/>
+      <c r="AG103" s="101"/>
+      <c r="AH103" s="114"/>
+      <c r="AI103" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ103" s="92"/>
+      <c r="AK103" s="92"/>
+    </row>
+    <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="59">
+        <v>0</v>
+      </c>
+      <c r="C104" s="32">
+        <v>0</v>
+      </c>
+      <c r="D104" s="52">
+        <v>1</v>
+      </c>
+      <c r="E104" s="53">
+        <v>0</v>
+      </c>
+      <c r="F104" s="32">
+        <v>0</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="52"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S104" s="100"/>
+      <c r="T104" s="100"/>
+      <c r="U104" s="100"/>
+      <c r="V104" s="100"/>
+      <c r="W104" s="100"/>
+      <c r="X104" s="100"/>
+      <c r="Y104" s="100"/>
+      <c r="Z104" s="100"/>
+      <c r="AA104" s="100"/>
+      <c r="AB104" s="100"/>
+      <c r="AC104" s="100"/>
+      <c r="AD104" s="100"/>
+      <c r="AE104" s="100"/>
+      <c r="AF104" s="100"/>
+      <c r="AG104" s="101"/>
+      <c r="AH104" s="56"/>
+      <c r="AI104" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ104" s="92"/>
+      <c r="AK104" s="92"/>
+    </row>
+    <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="59">
+        <v>0</v>
+      </c>
+      <c r="C105" s="32">
+        <v>0</v>
+      </c>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="52">
+        <v>1</v>
+      </c>
+      <c r="J105" s="53">
+        <v>0</v>
+      </c>
+      <c r="K105" s="32">
+        <v>0</v>
+      </c>
+      <c r="L105" s="52"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="52"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S105" s="100"/>
+      <c r="T105" s="100"/>
+      <c r="U105" s="100"/>
+      <c r="V105" s="100"/>
+      <c r="W105" s="100"/>
+      <c r="X105" s="100"/>
+      <c r="Y105" s="100"/>
+      <c r="Z105" s="100"/>
+      <c r="AA105" s="100"/>
+      <c r="AB105" s="100"/>
+      <c r="AC105" s="100"/>
+      <c r="AD105" s="100"/>
+      <c r="AE105" s="100"/>
+      <c r="AF105" s="100"/>
+      <c r="AG105" s="101"/>
+      <c r="AH105" s="56"/>
+      <c r="AI105" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ105" s="92"/>
+      <c r="AK105" s="92"/>
+    </row>
+    <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="31"/>
+      <c r="B106" s="59">
+        <v>0</v>
+      </c>
+      <c r="C106" s="32">
+        <v>0</v>
+      </c>
+      <c r="D106" s="52"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="52"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S106" s="100"/>
+      <c r="T106" s="100"/>
+      <c r="U106" s="100"/>
+      <c r="V106" s="100"/>
+      <c r="W106" s="100"/>
+      <c r="X106" s="100"/>
+      <c r="Y106" s="100"/>
+      <c r="Z106" s="100"/>
+      <c r="AA106" s="100"/>
+      <c r="AB106" s="100"/>
+      <c r="AC106" s="100"/>
+      <c r="AD106" s="100"/>
+      <c r="AE106" s="100"/>
+      <c r="AF106" s="100"/>
+      <c r="AG106" s="101"/>
+      <c r="AH106" s="56"/>
+      <c r="AI106" s="92"/>
+      <c r="AJ106" s="92"/>
+      <c r="AK106" s="92"/>
+    </row>
+    <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="31"/>
+      <c r="B107" s="59">
+        <v>0</v>
+      </c>
+      <c r="C107" s="32">
+        <v>0</v>
+      </c>
+      <c r="D107" s="52"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S107" s="100"/>
+      <c r="T107" s="100"/>
+      <c r="U107" s="100"/>
+      <c r="V107" s="100"/>
+      <c r="W107" s="100"/>
+      <c r="X107" s="100"/>
+      <c r="Y107" s="100"/>
+      <c r="Z107" s="100"/>
+      <c r="AA107" s="100"/>
+      <c r="AB107" s="100"/>
+      <c r="AC107" s="100"/>
+      <c r="AD107" s="100"/>
+      <c r="AE107" s="100"/>
+      <c r="AF107" s="100"/>
+      <c r="AG107" s="101"/>
+      <c r="AH107" s="56"/>
+      <c r="AI107" s="92"/>
+      <c r="AJ107" s="92"/>
+      <c r="AK107" s="92"/>
+    </row>
+    <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="31"/>
+      <c r="B108" s="59">
+        <v>0</v>
+      </c>
+      <c r="C108" s="32">
+        <v>0</v>
+      </c>
+      <c r="D108" s="52"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="53"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="52"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S108" s="100"/>
+      <c r="T108" s="100"/>
+      <c r="U108" s="100"/>
+      <c r="V108" s="100"/>
+      <c r="W108" s="100"/>
+      <c r="X108" s="100"/>
+      <c r="Y108" s="100"/>
+      <c r="Z108" s="100"/>
+      <c r="AA108" s="100"/>
+      <c r="AB108" s="100"/>
+      <c r="AC108" s="100"/>
+      <c r="AD108" s="100"/>
+      <c r="AE108" s="100"/>
+      <c r="AF108" s="100"/>
+      <c r="AG108" s="101"/>
+      <c r="AH108" s="56"/>
+      <c r="AI108" s="92"/>
+      <c r="AJ108" s="92"/>
+      <c r="AK108" s="92"/>
+    </row>
+    <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="59">
+        <v>0</v>
+      </c>
+      <c r="C109" s="32">
+        <v>1</v>
+      </c>
+      <c r="D109" s="52">
+        <v>0</v>
+      </c>
+      <c r="E109" s="53">
+        <v>0</v>
+      </c>
+      <c r="F109" s="32">
+        <v>1</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H109" s="33"/>
+      <c r="I109" s="52"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="52"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="52">
+        <v>0</v>
+      </c>
+      <c r="O109" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P109" s="52"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="52"/>
+      <c r="S109" s="53"/>
+      <c r="T109" s="53"/>
+      <c r="U109" s="53"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="52"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="52"/>
+      <c r="Z109" s="32"/>
+      <c r="AA109" s="52"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD109" s="100"/>
+      <c r="AE109" s="100"/>
+      <c r="AF109" s="100"/>
+      <c r="AG109" s="101"/>
+      <c r="AH109" s="56"/>
+      <c r="AI109" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ109" s="92"/>
+      <c r="AK109" s="92"/>
+    </row>
+    <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A110" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="59">
+        <v>0</v>
+      </c>
+      <c r="C110" s="32">
+        <v>1</v>
+      </c>
+      <c r="D110" s="52"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="52">
+        <v>0</v>
+      </c>
+      <c r="J110" s="53">
+        <v>0</v>
+      </c>
+      <c r="K110" s="32">
+        <v>1</v>
+      </c>
+      <c r="L110" s="52"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="52">
+        <v>1</v>
+      </c>
+      <c r="O110" s="32">
+        <v>1</v>
+      </c>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="52"/>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="52">
+        <v>0</v>
+      </c>
+      <c r="X110" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="34"/>
+      <c r="AD110" s="34"/>
+      <c r="AE110" s="34"/>
+      <c r="AF110" s="34"/>
+      <c r="AG110" s="35"/>
+      <c r="AH110" s="56"/>
+      <c r="AI110" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ110" s="92"/>
+      <c r="AK110" s="92"/>
+    </row>
+    <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="59">
+        <v>0</v>
+      </c>
+      <c r="C111" s="32">
+        <v>1</v>
+      </c>
+      <c r="D111" s="52"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="52">
+        <v>0</v>
+      </c>
+      <c r="J111" s="53">
+        <v>0</v>
+      </c>
+      <c r="K111" s="32">
+        <v>1</v>
+      </c>
+      <c r="L111" s="52">
+        <v>0</v>
+      </c>
+      <c r="M111" s="32">
+        <v>1</v>
+      </c>
+      <c r="N111" s="52">
+        <v>1</v>
+      </c>
+      <c r="O111" s="32">
+        <v>1</v>
+      </c>
+      <c r="P111" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="32">
+        <v>1</v>
+      </c>
+      <c r="R111" s="52"/>
+      <c r="S111" s="53"/>
+      <c r="T111" s="53"/>
+      <c r="U111" s="53"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="52">
+        <v>0</v>
+      </c>
+      <c r="X111" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="34"/>
+      <c r="AD111" s="34"/>
+      <c r="AE111" s="34"/>
+      <c r="AF111" s="34"/>
+      <c r="AG111" s="35"/>
+      <c r="AH111" s="56"/>
+      <c r="AI111" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ111" s="92"/>
+      <c r="AK111" s="92"/>
+    </row>
+    <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="59">
+        <v>0</v>
+      </c>
+      <c r="C112" s="32">
+        <v>1</v>
+      </c>
+      <c r="D112" s="52"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="33">
+        <v>1</v>
+      </c>
+      <c r="H112" s="33"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="52">
+        <v>0</v>
+      </c>
+      <c r="O112" s="32">
+        <v>1</v>
+      </c>
+      <c r="P112" s="52"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="52"/>
+      <c r="S112" s="53"/>
+      <c r="T112" s="53"/>
+      <c r="U112" s="53"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="52"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="52"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="52"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="34"/>
+      <c r="AD112" s="34"/>
+      <c r="AE112" s="34"/>
+      <c r="AF112" s="34"/>
+      <c r="AG112" s="35"/>
+      <c r="AH112" s="56"/>
+      <c r="AI112" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ112" s="92"/>
+      <c r="AK112" s="92"/>
+    </row>
+    <row r="113" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="59">
+        <v>0</v>
+      </c>
+      <c r="C113" s="32">
+        <v>1</v>
+      </c>
+      <c r="D113" s="52">
+        <v>1</v>
+      </c>
+      <c r="E113" s="53">
+        <v>1</v>
+      </c>
+      <c r="F113" s="32">
+        <v>1</v>
+      </c>
+      <c r="G113" s="33">
+        <v>1</v>
+      </c>
+      <c r="H113" s="33"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="52">
+        <v>0</v>
+      </c>
+      <c r="O113" s="32">
+        <v>1</v>
+      </c>
+      <c r="P113" s="52"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="52">
+        <v>1</v>
+      </c>
+      <c r="S113" s="53">
+        <v>1</v>
+      </c>
+      <c r="T113" s="53">
+        <v>1</v>
+      </c>
+      <c r="U113" s="53">
+        <v>1</v>
+      </c>
+      <c r="V113" s="32">
+        <v>1</v>
+      </c>
+      <c r="W113" s="52"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="52"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="52"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="34"/>
+      <c r="AD113" s="34"/>
+      <c r="AE113" s="34"/>
+      <c r="AF113" s="34"/>
+      <c r="AG113" s="35"/>
+      <c r="AH113" s="56"/>
+      <c r="AI113" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ113" s="92"/>
+      <c r="AK113" s="92"/>
+    </row>
+    <row r="114" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="59">
+        <v>0</v>
+      </c>
+      <c r="C114" s="32">
+        <v>1</v>
+      </c>
+      <c r="D114" s="36">
+        <v>0</v>
+      </c>
+      <c r="E114" s="111">
+        <v>1</v>
+      </c>
+      <c r="F114" s="37">
+        <v>0</v>
+      </c>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="52">
+        <v>0</v>
+      </c>
+      <c r="J114" s="111">
+        <v>1</v>
+      </c>
+      <c r="K114" s="37">
+        <v>0</v>
+      </c>
+      <c r="L114" s="112"/>
+      <c r="M114" s="113"/>
+      <c r="N114" s="52">
+        <v>1</v>
+      </c>
+      <c r="O114" s="32">
+        <v>1</v>
+      </c>
+      <c r="P114" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="37">
+        <v>0</v>
+      </c>
+      <c r="R114" s="52"/>
+      <c r="S114" s="53"/>
+      <c r="T114" s="53"/>
+      <c r="U114" s="53"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="36">
+        <v>1</v>
+      </c>
+      <c r="X114" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="34"/>
+      <c r="AE114" s="34"/>
+      <c r="AF114" s="34"/>
+      <c r="AG114" s="35"/>
+      <c r="AH114" s="56"/>
+      <c r="AI114" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ114" s="92"/>
+      <c r="AK114" s="92"/>
+      <c r="AL114" s="69"/>
+      <c r="AM114" s="69"/>
+      <c r="AN114" s="69"/>
+      <c r="AO114" s="69"/>
+    </row>
+    <row r="115" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="59">
+        <v>0</v>
+      </c>
+      <c r="C115" s="32">
+        <v>1</v>
+      </c>
+      <c r="D115" s="36"/>
+      <c r="E115" s="111"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="52">
+        <v>0</v>
+      </c>
+      <c r="J115" s="53">
+        <v>1</v>
+      </c>
+      <c r="K115" s="32">
+        <v>1</v>
+      </c>
+      <c r="L115" s="52"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="52">
+        <v>1</v>
+      </c>
+      <c r="O115" s="32">
+        <v>1</v>
+      </c>
+      <c r="P115" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="37">
+        <v>0</v>
+      </c>
+      <c r="R115" s="52"/>
+      <c r="S115" s="53"/>
+      <c r="T115" s="53"/>
+      <c r="U115" s="53"/>
+      <c r="V115" s="32"/>
+      <c r="W115" s="52">
+        <v>1</v>
+      </c>
+      <c r="X115" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="34"/>
+      <c r="AD115" s="34"/>
+      <c r="AE115" s="34"/>
+      <c r="AF115" s="34"/>
+      <c r="AG115" s="35"/>
+      <c r="AH115" s="56"/>
+      <c r="AI115" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ115" s="92"/>
+      <c r="AK115" s="92"/>
+      <c r="AL115" s="69"/>
+      <c r="AM115" s="69"/>
+      <c r="AN115" s="69"/>
+      <c r="AO115" s="69"/>
+    </row>
+    <row r="116" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="59">
+        <v>0</v>
+      </c>
+      <c r="C116" s="32">
+        <v>1</v>
+      </c>
+      <c r="D116" s="52"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="52"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="52"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="52"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="52"/>
+      <c r="S116" s="53"/>
+      <c r="T116" s="53"/>
+      <c r="U116" s="53"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="52"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="34"/>
+      <c r="AD116" s="34"/>
+      <c r="AE116" s="34"/>
+      <c r="AF116" s="34"/>
+      <c r="AG116" s="35"/>
+      <c r="AH116" s="56"/>
+      <c r="AI116" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ116" s="92"/>
+      <c r="AK116" s="92"/>
+    </row>
+    <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="59">
+        <v>0</v>
+      </c>
+      <c r="C117" s="32">
+        <v>1</v>
+      </c>
+      <c r="D117" s="52"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="52"/>
+      <c r="J117" s="53"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="52"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="52"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="52"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="52"/>
+      <c r="S117" s="53"/>
+      <c r="T117" s="53"/>
+      <c r="U117" s="53"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="52"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="52"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="52">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="34"/>
+      <c r="AD117" s="34"/>
+      <c r="AE117" s="34"/>
+      <c r="AF117" s="34"/>
+      <c r="AG117" s="35"/>
+      <c r="AH117" s="56"/>
+      <c r="AI117" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ117" s="92"/>
+      <c r="AK117" s="92"/>
+    </row>
+    <row r="118" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="59">
+        <v>0</v>
+      </c>
+      <c r="C118" s="32">
+        <v>1</v>
+      </c>
+      <c r="D118" s="52"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="52"/>
+      <c r="O118" s="32"/>
+      <c r="P118" s="52"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="52">
+        <v>1</v>
+      </c>
+      <c r="S118" s="53">
+        <v>1</v>
+      </c>
+      <c r="T118" s="53">
+        <v>1</v>
+      </c>
+      <c r="U118" s="53">
+        <v>1</v>
+      </c>
+      <c r="V118" s="32">
+        <v>1</v>
+      </c>
+      <c r="W118" s="52"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z118" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="34"/>
+      <c r="AD118" s="34"/>
+      <c r="AE118" s="34"/>
+      <c r="AF118" s="34"/>
+      <c r="AG118" s="35"/>
+      <c r="AH118" s="56"/>
+      <c r="AI118" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ118" s="92"/>
+      <c r="AK118" s="92"/>
+    </row>
+    <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A119" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="59">
+        <v>0</v>
+      </c>
+      <c r="C119" s="32">
+        <v>1</v>
+      </c>
+      <c r="D119" s="52"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="52"/>
+      <c r="J119" s="53"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="52"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="52"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="52"/>
+      <c r="S119" s="53"/>
+      <c r="T119" s="53"/>
+      <c r="U119" s="53"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="52"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z119" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="52"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="34"/>
+      <c r="AD119" s="34"/>
+      <c r="AE119" s="34"/>
+      <c r="AF119" s="34"/>
+      <c r="AG119" s="35"/>
+      <c r="AH119" s="56"/>
+      <c r="AI119" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ119" s="92"/>
+      <c r="AK119" s="92"/>
+    </row>
+    <row r="120" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A120" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="I94" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="1"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-    </row>
-    <row r="95" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B95" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="83" t="s">
+      <c r="B120" s="59">
+        <v>0</v>
+      </c>
+      <c r="C120" s="32">
+        <v>1</v>
+      </c>
+      <c r="D120" s="52">
+        <v>1</v>
+      </c>
+      <c r="E120" s="52">
+        <v>1</v>
+      </c>
+      <c r="F120" s="52">
+        <v>1</v>
+      </c>
+      <c r="G120" s="52">
+        <v>1</v>
+      </c>
+      <c r="H120" s="52">
+        <v>1</v>
+      </c>
+      <c r="I120" s="52">
+        <v>1</v>
+      </c>
+      <c r="J120" s="52">
+        <v>1</v>
+      </c>
+      <c r="K120" s="52">
+        <v>1</v>
+      </c>
+      <c r="L120" s="52">
+        <v>1</v>
+      </c>
+      <c r="M120" s="52">
+        <v>1</v>
+      </c>
+      <c r="N120" s="52">
+        <v>1</v>
+      </c>
+      <c r="O120" s="52">
+        <v>1</v>
+      </c>
+      <c r="P120" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="52">
+        <v>1</v>
+      </c>
+      <c r="R120" s="52">
+        <v>1</v>
+      </c>
+      <c r="S120" s="52">
+        <v>1</v>
+      </c>
+      <c r="T120" s="52">
+        <v>1</v>
+      </c>
+      <c r="U120" s="52">
+        <v>1</v>
+      </c>
+      <c r="V120" s="52">
+        <v>1</v>
+      </c>
+      <c r="W120" s="52">
+        <v>1</v>
+      </c>
+      <c r="X120" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG120" s="35">
+        <v>1</v>
+      </c>
+      <c r="AH120" s="56"/>
+      <c r="AI120" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ120" s="92"/>
+      <c r="AK120" s="92"/>
+    </row>
+    <row r="121" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="46"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="118"/>
+      <c r="J121" s="53"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="52"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="52"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="52"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="52"/>
+      <c r="S121" s="53"/>
+      <c r="T121" s="53"/>
+      <c r="U121" s="53"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="52"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="52"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="52"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="53"/>
+      <c r="AD121" s="53"/>
+      <c r="AE121" s="53"/>
+      <c r="AF121" s="53"/>
+      <c r="AG121" s="35"/>
+      <c r="AH121" s="56"/>
+      <c r="AI121" s="56"/>
+      <c r="AJ121" s="114"/>
+      <c r="AK121" s="114"/>
+    </row>
+    <row r="122" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B122" s="59"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="116"/>
+      <c r="G122" s="117"/>
+      <c r="H122" s="117"/>
+      <c r="I122" s="118"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="52"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="52"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="52"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="52"/>
+      <c r="S122" s="53"/>
+      <c r="T122" s="53"/>
+      <c r="U122" s="53"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="52"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="52"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="52"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="53"/>
+      <c r="AD122" s="53"/>
+      <c r="AE122" s="53"/>
+      <c r="AF122" s="53"/>
+      <c r="AG122" s="35"/>
+    </row>
+    <row r="123" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B123" s="59"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="116"/>
+      <c r="G123" s="117"/>
+      <c r="H123" s="117"/>
+      <c r="I123" s="118"/>
+      <c r="J123" s="53"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="52"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="52"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="52"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="52"/>
+      <c r="S123" s="53"/>
+      <c r="T123" s="53"/>
+      <c r="U123" s="53"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="52"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="52"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="52"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="53"/>
+      <c r="AD123" s="53"/>
+      <c r="AE123" s="53"/>
+      <c r="AF123" s="53"/>
+      <c r="AG123" s="35"/>
+      <c r="AH123" s="56"/>
+      <c r="AI123" s="56"/>
+      <c r="AJ123" s="114"/>
+      <c r="AK123" s="114"/>
+      <c r="AR123" s="47"/>
+    </row>
+    <row r="124" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A124" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="59">
+        <v>0</v>
+      </c>
+      <c r="C124" s="32">
+        <v>1</v>
+      </c>
+      <c r="D124" s="52">
+        <v>1</v>
+      </c>
+      <c r="E124" s="53">
+        <v>1</v>
+      </c>
+      <c r="F124" s="32">
+        <v>1</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="52">
+        <v>1</v>
+      </c>
+      <c r="O124" s="32">
+        <v>1</v>
+      </c>
+      <c r="P124" s="52"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="52">
+        <v>0</v>
+      </c>
+      <c r="S124" s="53">
+        <v>0</v>
+      </c>
+      <c r="T124" s="53">
+        <v>0</v>
+      </c>
+      <c r="U124" s="53">
+        <v>1</v>
+      </c>
+      <c r="V124" s="32">
+        <v>0</v>
+      </c>
+      <c r="W124" s="52"/>
+      <c r="X124" s="32"/>
+      <c r="Y124" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="52"/>
+      <c r="AB124" s="32"/>
+      <c r="AC124" s="53"/>
+      <c r="AD124" s="53"/>
+      <c r="AE124" s="53"/>
+      <c r="AF124" s="53"/>
+      <c r="AG124" s="54"/>
+      <c r="AH124" s="56"/>
+      <c r="AI124" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M95" s="85"/>
-      <c r="N95" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="O95" s="85"/>
-      <c r="P95" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q95" s="85"/>
-      <c r="R95" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="S95" s="85"/>
-      <c r="T95" s="85"/>
-      <c r="U95" s="85"/>
-      <c r="V95" s="85"/>
-      <c r="W95" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="X95" s="85"/>
-      <c r="Y95" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z95" s="85"/>
-      <c r="AA95" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB95" s="85"/>
-      <c r="AC95" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD95" s="85"/>
-      <c r="AE95" s="85"/>
-      <c r="AF95" s="85"/>
-      <c r="AG95" s="85"/>
-    </row>
-    <row r="96" spans="2:52" x14ac:dyDescent="0.45">
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
-      <c r="M96" s="85"/>
-      <c r="N96" s="85"/>
-      <c r="O96" s="85"/>
-      <c r="P96" s="85"/>
-      <c r="Q96" s="85"/>
-      <c r="R96" s="85"/>
-      <c r="S96" s="85"/>
-      <c r="T96" s="85"/>
-      <c r="U96" s="85"/>
-      <c r="V96" s="85"/>
-      <c r="W96" s="85"/>
-      <c r="X96" s="85"/>
-      <c r="Y96" s="85"/>
-      <c r="Z96" s="85"/>
-      <c r="AA96" s="85"/>
-      <c r="AB96" s="85"/>
-      <c r="AC96" s="85"/>
-      <c r="AD96" s="85"/>
-      <c r="AE96" s="85"/>
-      <c r="AF96" s="85"/>
-      <c r="AG96" s="85"/>
-    </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B97" s="84"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="84"/>
-      <c r="N97" s="84"/>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
-      <c r="Q97" s="84"/>
-      <c r="R97" s="84"/>
-      <c r="S97" s="84"/>
-      <c r="T97" s="84"/>
-      <c r="U97" s="84"/>
-      <c r="V97" s="84"/>
-      <c r="W97" s="84"/>
-      <c r="X97" s="84"/>
-      <c r="Y97" s="84"/>
-      <c r="Z97" s="84"/>
-      <c r="AA97" s="84"/>
-      <c r="AB97" s="84"/>
-      <c r="AC97" s="84"/>
-      <c r="AD97" s="84"/>
-      <c r="AE97" s="84"/>
-      <c r="AF97" s="84"/>
-      <c r="AG97" s="84"/>
-    </row>
-    <row r="98" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="18">
-        <v>31</v>
-      </c>
-      <c r="C98" s="18">
-        <v>30</v>
-      </c>
-      <c r="D98" s="18">
-        <v>29</v>
-      </c>
-      <c r="E98" s="18">
-        <v>28</v>
-      </c>
-      <c r="F98" s="18">
-        <v>27</v>
-      </c>
-      <c r="G98" s="18">
-        <v>26</v>
-      </c>
-      <c r="H98" s="18">
-        <v>25</v>
-      </c>
-      <c r="I98" s="18">
-        <v>24</v>
-      </c>
-      <c r="J98" s="18">
-        <v>23</v>
-      </c>
-      <c r="K98" s="18">
-        <v>22</v>
-      </c>
-      <c r="L98" s="18">
-        <v>21</v>
-      </c>
-      <c r="M98" s="18">
-        <v>20</v>
-      </c>
-      <c r="N98" s="18">
-        <v>19</v>
-      </c>
-      <c r="O98" s="18">
-        <v>18</v>
-      </c>
-      <c r="P98" s="18">
-        <v>17</v>
-      </c>
-      <c r="Q98" s="18">
-        <v>16</v>
-      </c>
-      <c r="R98" s="18">
-        <v>15</v>
-      </c>
-      <c r="S98" s="18">
-        <v>14</v>
-      </c>
-      <c r="T98" s="18">
-        <v>13</v>
-      </c>
-      <c r="U98" s="18">
-        <v>12</v>
-      </c>
-      <c r="V98" s="18">
-        <v>11</v>
-      </c>
-      <c r="W98" s="18">
-        <v>10</v>
-      </c>
-      <c r="X98" s="18">
-        <v>9</v>
-      </c>
-      <c r="Y98" s="18">
-        <v>8</v>
-      </c>
-      <c r="Z98" s="18">
-        <v>7</v>
-      </c>
-      <c r="AA98" s="18">
-        <v>6</v>
-      </c>
-      <c r="AB98" s="18">
-        <v>5</v>
-      </c>
-      <c r="AC98" s="18">
-        <v>4</v>
-      </c>
-      <c r="AD98" s="18">
-        <v>3</v>
-      </c>
-      <c r="AE98" s="18">
-        <v>2</v>
-      </c>
-      <c r="AF98" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG98" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="36">
-        <v>1</v>
-      </c>
-      <c r="C99" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="81"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="81"/>
-      <c r="K99" s="81"/>
-      <c r="L99" s="81"/>
-      <c r="M99" s="81"/>
-      <c r="N99" s="81"/>
-      <c r="O99" s="81"/>
-      <c r="P99" s="81"/>
-      <c r="Q99" s="81"/>
-      <c r="R99" s="81"/>
-      <c r="S99" s="81"/>
-      <c r="T99" s="81"/>
-      <c r="U99" s="81"/>
-      <c r="V99" s="81"/>
-      <c r="W99" s="81"/>
-      <c r="X99" s="81"/>
-      <c r="Y99" s="81"/>
-      <c r="Z99" s="81"/>
-      <c r="AA99" s="81"/>
-      <c r="AB99" s="81"/>
-      <c r="AC99" s="81"/>
-      <c r="AD99" s="81"/>
-      <c r="AE99" s="81"/>
-      <c r="AF99" s="81"/>
-      <c r="AG99" s="82"/>
-      <c r="AH99" s="6"/>
-      <c r="AI99" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ99" s="78"/>
-      <c r="AK99" s="78"/>
-    </row>
-    <row r="100" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="36">
-        <v>0</v>
-      </c>
-      <c r="C100" s="43">
-        <v>0</v>
-      </c>
-      <c r="D100" s="37">
-        <v>1</v>
-      </c>
-      <c r="E100" s="42">
-        <v>0</v>
-      </c>
-      <c r="F100" s="43">
-        <v>0</v>
-      </c>
-      <c r="G100" s="37">
-        <v>1</v>
-      </c>
-      <c r="H100" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I100" s="38"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="42">
-        <v>0</v>
-      </c>
-      <c r="O100" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="P100" s="42"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="42"/>
-      <c r="S100" s="43"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="42"/>
-      <c r="X100" s="37"/>
-      <c r="Y100" s="42"/>
-      <c r="Z100" s="37"/>
-      <c r="AA100" s="42"/>
-      <c r="AB100" s="37"/>
-      <c r="AC100" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD100" s="81"/>
-      <c r="AE100" s="81"/>
-      <c r="AF100" s="81"/>
-      <c r="AG100" s="82"/>
-      <c r="AI100" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ100" s="78"/>
-      <c r="AK100" s="78"/>
-    </row>
-    <row r="101" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="36">
-        <v>0</v>
-      </c>
-      <c r="C101" s="43">
-        <v>0</v>
-      </c>
-      <c r="D101" s="37">
-        <v>1</v>
-      </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="32">
-        <v>0</v>
-      </c>
-      <c r="K101" s="33">
-        <v>1</v>
-      </c>
-      <c r="L101" s="42"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="42">
-        <v>1</v>
-      </c>
-      <c r="O101" s="37">
-        <v>1</v>
-      </c>
-      <c r="P101" s="42"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="42"/>
-      <c r="S101" s="43"/>
-      <c r="T101" s="43"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="31">
-        <v>0</v>
-      </c>
-      <c r="X101" s="33">
-        <v>1</v>
-      </c>
-      <c r="Y101" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA101" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC101" s="39"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="40"/>
-      <c r="AF101" s="40"/>
-      <c r="AG101" s="41"/>
-      <c r="AI101" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ101" s="78"/>
-      <c r="AK101" s="78"/>
-    </row>
-    <row r="102" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="36">
-        <v>0</v>
-      </c>
-      <c r="C102" s="43">
-        <v>0</v>
-      </c>
-      <c r="D102" s="37">
-        <v>1</v>
-      </c>
-      <c r="E102" s="42"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="32">
-        <v>0</v>
-      </c>
-      <c r="K102" s="33">
-        <v>1</v>
-      </c>
-      <c r="L102" s="31">
-        <v>0</v>
-      </c>
-      <c r="M102" s="33">
-        <v>1</v>
-      </c>
-      <c r="N102" s="42">
-        <v>1</v>
-      </c>
-      <c r="O102" s="37">
-        <v>1</v>
-      </c>
-      <c r="P102" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="37">
-        <v>1</v>
-      </c>
-      <c r="R102" s="42"/>
-      <c r="S102" s="43"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="43"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="31">
-        <v>0</v>
-      </c>
-      <c r="X102" s="33">
-        <v>1</v>
-      </c>
-      <c r="Y102" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA102" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC102" s="39"/>
-      <c r="AD102" s="40"/>
-      <c r="AE102" s="40"/>
-      <c r="AF102" s="40"/>
-      <c r="AG102" s="41"/>
-      <c r="AI102" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ102" s="78"/>
-      <c r="AK102" s="78"/>
-    </row>
-    <row r="103" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="36">
-        <v>0</v>
-      </c>
-      <c r="C103" s="43">
-        <v>0</v>
-      </c>
-      <c r="D103" s="37">
-        <v>1</v>
-      </c>
-      <c r="E103" s="42"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38">
-        <v>1</v>
-      </c>
-      <c r="I103" s="38"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="42">
-        <v>0</v>
-      </c>
-      <c r="O103" s="37">
-        <v>1</v>
-      </c>
-      <c r="P103" s="42"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="42"/>
-      <c r="S103" s="43"/>
-      <c r="T103" s="43"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="42"/>
-      <c r="X103" s="37"/>
-      <c r="Y103" s="42"/>
-      <c r="Z103" s="37"/>
-      <c r="AA103" s="42"/>
-      <c r="AB103" s="37"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="40"/>
-      <c r="AE103" s="40"/>
-      <c r="AF103" s="40"/>
-      <c r="AG103" s="41"/>
-      <c r="AI103" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ103" s="78"/>
-      <c r="AK103" s="78"/>
-    </row>
-    <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="36">
-        <v>0</v>
-      </c>
-      <c r="C104" s="43">
-        <v>0</v>
-      </c>
-      <c r="D104" s="37">
-        <v>1</v>
-      </c>
-      <c r="E104" s="67">
-        <v>1</v>
-      </c>
-      <c r="F104" s="68">
-        <v>1</v>
-      </c>
-      <c r="G104" s="69">
-        <v>1</v>
-      </c>
-      <c r="H104" s="38">
-        <v>1</v>
-      </c>
-      <c r="I104" s="38"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="42">
-        <v>0</v>
-      </c>
-      <c r="O104" s="37">
-        <v>1</v>
-      </c>
-      <c r="P104" s="42"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="42">
-        <v>1</v>
-      </c>
-      <c r="S104" s="43">
-        <v>1</v>
-      </c>
-      <c r="T104" s="43">
-        <v>1</v>
-      </c>
-      <c r="U104" s="43">
-        <v>1</v>
-      </c>
-      <c r="V104" s="37">
-        <v>1</v>
-      </c>
-      <c r="W104" s="42"/>
-      <c r="X104" s="37"/>
-      <c r="Y104" s="42"/>
-      <c r="Z104" s="37"/>
-      <c r="AA104" s="42"/>
-      <c r="AB104" s="37"/>
-      <c r="AC104" s="39"/>
-      <c r="AD104" s="40"/>
-      <c r="AE104" s="40"/>
-      <c r="AF104" s="40"/>
-      <c r="AG104" s="41"/>
-      <c r="AI104" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ104" s="78"/>
-      <c r="AK104" s="78"/>
-    </row>
-    <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="36">
-        <v>0</v>
-      </c>
-      <c r="C105" s="43">
-        <v>0</v>
-      </c>
-      <c r="D105" s="37">
-        <v>0</v>
-      </c>
-      <c r="E105" s="31">
-        <v>1</v>
-      </c>
-      <c r="F105" s="32">
-        <v>0</v>
-      </c>
-      <c r="G105" s="33">
-        <v>0</v>
-      </c>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="81"/>
-      <c r="V105" s="81"/>
-      <c r="W105" s="81"/>
-      <c r="X105" s="81"/>
-      <c r="Y105" s="81"/>
-      <c r="Z105" s="81"/>
-      <c r="AA105" s="81"/>
-      <c r="AB105" s="81"/>
-      <c r="AC105" s="81"/>
-      <c r="AD105" s="81"/>
-      <c r="AE105" s="81"/>
-      <c r="AF105" s="81"/>
-      <c r="AG105" s="82"/>
-      <c r="AI105" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ105" s="78"/>
-      <c r="AK105" s="78"/>
-    </row>
-    <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="36">
-        <v>0</v>
-      </c>
-      <c r="C106" s="43">
-        <v>0</v>
-      </c>
-      <c r="D106" s="37">
-        <v>1</v>
-      </c>
-      <c r="E106" s="44">
-        <v>0</v>
-      </c>
-      <c r="F106" s="46">
-        <v>1</v>
-      </c>
-      <c r="G106" s="45">
-        <v>0</v>
-      </c>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="44">
-        <v>1</v>
-      </c>
-      <c r="K106" s="45">
-        <v>0</v>
-      </c>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="63">
-        <v>1</v>
-      </c>
-      <c r="O106" s="37">
-        <v>1</v>
-      </c>
-      <c r="P106" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="48">
-        <v>0</v>
-      </c>
-      <c r="R106" s="42"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="43"/>
-      <c r="U106" s="43"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="47">
-        <v>1</v>
-      </c>
-      <c r="X106" s="48">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="47">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA106" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB106" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="39"/>
-      <c r="AD106" s="40"/>
-      <c r="AE106" s="40"/>
-      <c r="AF106" s="40"/>
-      <c r="AG106" s="41"/>
-      <c r="AI106" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ106" s="78"/>
-      <c r="AK106" s="78"/>
-      <c r="AL106" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM106" s="125"/>
-      <c r="AN106" s="125"/>
-      <c r="AO106" s="125"/>
-    </row>
-    <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="36">
-        <v>0</v>
-      </c>
-      <c r="C107" s="43">
-        <v>0</v>
-      </c>
-      <c r="D107" s="37">
-        <v>1</v>
-      </c>
-      <c r="E107" s="44"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="64">
-        <v>1</v>
-      </c>
-      <c r="K107" s="65">
-        <v>1</v>
-      </c>
-      <c r="L107" s="42"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="63">
-        <v>1</v>
-      </c>
-      <c r="O107" s="37">
-        <v>1</v>
-      </c>
-      <c r="P107" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="48">
-        <v>0</v>
-      </c>
-      <c r="R107" s="42"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="43"/>
-      <c r="U107" s="43"/>
-      <c r="V107" s="37"/>
-      <c r="W107" s="64">
-        <v>1</v>
-      </c>
-      <c r="X107" s="65">
-        <v>1</v>
-      </c>
-      <c r="Y107" s="47">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA107" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB107" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="40"/>
-      <c r="AE107" s="40"/>
-      <c r="AF107" s="40"/>
-      <c r="AG107" s="41"/>
-      <c r="AI107" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ107" s="78"/>
-      <c r="AK107" s="78"/>
-      <c r="AL107" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM107" s="125"/>
-      <c r="AN107" s="125"/>
-      <c r="AO107" s="125"/>
-    </row>
-    <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="36">
-        <v>0</v>
-      </c>
-      <c r="C108" s="43">
-        <v>0</v>
-      </c>
-      <c r="D108" s="37">
-        <v>1</v>
-      </c>
-      <c r="E108" s="42"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="42"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="42"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="43"/>
-      <c r="U108" s="43"/>
-      <c r="V108" s="37"/>
-      <c r="W108" s="42"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="49">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC108" s="39"/>
-      <c r="AD108" s="40"/>
-      <c r="AE108" s="40"/>
-      <c r="AF108" s="40"/>
-      <c r="AG108" s="41"/>
-      <c r="AI108" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ108" s="78"/>
-      <c r="AK108" s="78"/>
-    </row>
-    <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="36">
-        <v>0</v>
-      </c>
-      <c r="C109" s="43">
-        <v>0</v>
-      </c>
-      <c r="D109" s="37">
-        <v>1</v>
-      </c>
-      <c r="E109" s="42"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="42"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="42"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="42"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="43"/>
-      <c r="U109" s="43"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="42"/>
-      <c r="X109" s="37"/>
-      <c r="Y109" s="42"/>
-      <c r="Z109" s="37"/>
-      <c r="AA109" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="39"/>
-      <c r="AD109" s="40"/>
-      <c r="AE109" s="40"/>
-      <c r="AF109" s="40"/>
-      <c r="AG109" s="41"/>
-      <c r="AI109" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ109" s="78"/>
-      <c r="AK109" s="78"/>
-    </row>
-    <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B110" s="36">
-        <v>0</v>
-      </c>
-      <c r="C110" s="43">
-        <v>0</v>
-      </c>
-      <c r="D110" s="37">
-        <v>1</v>
-      </c>
-      <c r="E110" s="42"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="42"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="42">
-        <v>1</v>
-      </c>
-      <c r="S110" s="43">
-        <v>1</v>
-      </c>
-      <c r="T110" s="43">
-        <v>1</v>
-      </c>
-      <c r="U110" s="43">
-        <v>1</v>
-      </c>
-      <c r="V110" s="37">
-        <v>1</v>
-      </c>
-      <c r="W110" s="42"/>
-      <c r="X110" s="37"/>
-      <c r="Y110" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC110" s="39"/>
-      <c r="AD110" s="40"/>
-      <c r="AE110" s="40"/>
-      <c r="AF110" s="40"/>
-      <c r="AG110" s="41"/>
-      <c r="AI110" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ110" s="78"/>
-      <c r="AK110" s="78"/>
-    </row>
-    <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="36">
-        <v>0</v>
-      </c>
-      <c r="C111" s="43">
-        <v>0</v>
-      </c>
-      <c r="D111" s="37">
-        <v>1</v>
-      </c>
-      <c r="E111" s="42"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="42"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="42"/>
-      <c r="Q111" s="37"/>
-      <c r="R111" s="42"/>
-      <c r="S111" s="43"/>
-      <c r="T111" s="43"/>
-      <c r="U111" s="43"/>
-      <c r="V111" s="37"/>
-      <c r="W111" s="42"/>
-      <c r="X111" s="37"/>
-      <c r="Y111" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="42"/>
-      <c r="AB111" s="37"/>
-      <c r="AC111" s="39"/>
-      <c r="AD111" s="40"/>
-      <c r="AE111" s="40"/>
-      <c r="AF111" s="40"/>
-      <c r="AG111" s="41"/>
-      <c r="AI111" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ111" s="78"/>
-      <c r="AK111" s="78"/>
-      <c r="AL111" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="36">
-        <v>0</v>
-      </c>
-      <c r="C112" s="59">
-        <v>0</v>
-      </c>
-      <c r="D112" s="37">
-        <v>1</v>
-      </c>
-      <c r="E112" s="55">
-        <v>1</v>
-      </c>
-      <c r="F112" s="56">
-        <v>1</v>
-      </c>
-      <c r="G112" s="57">
-        <v>1</v>
-      </c>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="58"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="58">
-        <v>1</v>
-      </c>
-      <c r="O112" s="37">
-        <v>1</v>
-      </c>
-      <c r="P112" s="58"/>
-      <c r="Q112" s="37"/>
-      <c r="R112" s="55">
-        <v>0</v>
-      </c>
-      <c r="S112" s="56">
-        <v>0</v>
-      </c>
-      <c r="T112" s="56">
-        <v>0</v>
-      </c>
-      <c r="U112" s="56">
-        <v>1</v>
-      </c>
-      <c r="V112" s="57">
-        <v>0</v>
-      </c>
-      <c r="W112" s="58"/>
-      <c r="X112" s="37"/>
-      <c r="Y112" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="58"/>
-      <c r="AB112" s="37"/>
-      <c r="AC112" s="39"/>
-      <c r="AD112" s="40"/>
-      <c r="AE112" s="40"/>
-      <c r="AF112" s="40"/>
-      <c r="AG112" s="41"/>
-      <c r="AI112" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ112" s="78"/>
-      <c r="AK112" s="78"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="A113" s="30"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="22"/>
-    </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="A114" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B114" s="25">
-        <v>0</v>
-      </c>
-      <c r="C114" s="26">
-        <v>1</v>
-      </c>
-      <c r="D114" s="27">
-        <v>1</v>
-      </c>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
-      <c r="P114" s="71"/>
-      <c r="Q114" s="71"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="71"/>
-      <c r="T114" s="71"/>
-      <c r="U114" s="71"/>
-      <c r="V114" s="71"/>
-      <c r="W114" s="71"/>
-      <c r="X114" s="71"/>
-      <c r="Y114" s="71"/>
-      <c r="Z114" s="71"/>
-      <c r="AA114" s="71"/>
-      <c r="AB114" s="71"/>
-      <c r="AC114" s="71"/>
-      <c r="AD114" s="71"/>
-      <c r="AE114" s="71"/>
-      <c r="AF114" s="71"/>
-      <c r="AG114" s="72"/>
-      <c r="AI114" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ114" s="78"/>
-      <c r="AK114" s="78"/>
-    </row>
-    <row r="115" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="22"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
-      <c r="X115" s="6"/>
-    </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="D116" s="28"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="6"/>
-      <c r="W116" s="6"/>
-      <c r="X116" s="6"/>
-    </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="22"/>
-    </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="A120" s="15"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="A121" s="15"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="A122" s="15"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="AN123" s="70"/>
-      <c r="AO123" s="70"/>
-      <c r="AR123" s="70"/>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="AN124" s="70"/>
-      <c r="AO124" s="70"/>
-      <c r="AR124" s="70"/>
+      <c r="AJ124" s="92"/>
+      <c r="AK124" s="92"/>
+      <c r="AR124" s="47"/>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="AN125" s="70"/>
-      <c r="AO125" s="70"/>
-      <c r="AR125" s="70"/>
+      <c r="AR125" s="47"/>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="AN126" s="70"/>
-      <c r="AO126" s="70"/>
-      <c r="AR126" s="70"/>
+      <c r="AR126" s="47"/>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="AN127" s="70"/>
-      <c r="AO127" s="70"/>
-      <c r="AR127" s="70"/>
+      <c r="AR127" s="47"/>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.45">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="AN128" s="70"/>
-      <c r="AO128" s="70"/>
-      <c r="AR128" s="70"/>
-    </row>
-    <row r="129" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="AN129" s="70"/>
-      <c r="AO129" s="70"/>
-      <c r="AR129" s="70"/>
-    </row>
-    <row r="130" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="AN130" s="70"/>
-      <c r="AO130" s="70"/>
-      <c r="AR130" s="70"/>
-    </row>
-    <row r="131" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="AN131" s="70"/>
-      <c r="AO131" s="70"/>
-      <c r="AR131" s="70"/>
-    </row>
-    <row r="132" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="AN132" s="70"/>
-      <c r="AO132" s="70"/>
-      <c r="AR132" s="70"/>
-    </row>
-    <row r="133" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="AN133" s="70"/>
-      <c r="AO133" s="70"/>
-      <c r="AR133" s="70"/>
-    </row>
-    <row r="134" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="AN134" s="70"/>
-      <c r="AO134" s="70"/>
-      <c r="AR134" s="70"/>
-    </row>
-    <row r="135" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="AN135" s="70"/>
-      <c r="AO135" s="70"/>
-      <c r="AR135" s="70"/>
-    </row>
-    <row r="136" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="AN136" s="70"/>
-      <c r="AO136" s="70"/>
-      <c r="AR136" s="70"/>
-    </row>
-    <row r="137" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="AN137" s="70"/>
-      <c r="AO137" s="70"/>
-      <c r="AR137" s="70"/>
-    </row>
-    <row r="138" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="AN138" s="70"/>
-      <c r="AO138" s="70"/>
-      <c r="AR138" s="70"/>
-    </row>
-    <row r="139" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="AN139" s="70"/>
-      <c r="AO139" s="70"/>
-      <c r="AR139" s="70"/>
-    </row>
-    <row r="140" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="AN140" s="70"/>
-      <c r="AO140" s="70"/>
-      <c r="AR140" s="70"/>
-    </row>
-    <row r="141" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="AN141" s="70"/>
-      <c r="AO141" s="70"/>
-      <c r="AR141" s="70"/>
-    </row>
-    <row r="142" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="AN142" s="70"/>
-      <c r="AO142" s="70"/>
-      <c r="AR142" s="70"/>
-    </row>
-    <row r="143" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="AN143" s="70"/>
-      <c r="AO143" s="70"/>
-      <c r="AR143" s="70"/>
-    </row>
-    <row r="144" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="AN144" s="70"/>
-      <c r="AO144" s="70"/>
-      <c r="AR144" s="70"/>
-    </row>
-    <row r="145" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="AN145" s="70"/>
-      <c r="AO145" s="70"/>
-      <c r="AR145" s="70"/>
-    </row>
-    <row r="146" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="AN146" s="70"/>
-      <c r="AO146" s="70"/>
-      <c r="AR146" s="70"/>
-    </row>
-    <row r="147" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="AN147" s="70"/>
-      <c r="AO147" s="70"/>
-      <c r="AR147" s="70"/>
-    </row>
-    <row r="148" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="AN148" s="70"/>
-      <c r="AO148" s="70"/>
-      <c r="AR148" s="70"/>
-    </row>
-    <row r="149" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="AN149" s="70"/>
-      <c r="AO149" s="70"/>
-      <c r="AR149" s="70"/>
-    </row>
-    <row r="150" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="AN150" s="70"/>
-      <c r="AO150" s="70"/>
-      <c r="AR150" s="70"/>
-    </row>
-    <row r="151" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="AN151" s="70"/>
-      <c r="AO151" s="70"/>
-      <c r="AR151" s="70"/>
-    </row>
-    <row r="152" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="AN152" s="70"/>
-      <c r="AO152" s="70"/>
-      <c r="AR152" s="70"/>
-    </row>
-    <row r="153" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="AN153" s="70"/>
-      <c r="AO153" s="70"/>
-      <c r="AR153" s="70"/>
-    </row>
-    <row r="154" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="AN154" s="70"/>
-      <c r="AO154" s="70"/>
-      <c r="AR154" s="70"/>
-    </row>
-    <row r="155" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="AN155" s="70"/>
-      <c r="AO155" s="70"/>
-      <c r="AR155" s="70"/>
-    </row>
-    <row r="156" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="AN156" s="70"/>
-      <c r="AO156" s="70"/>
-      <c r="AR156" s="70"/>
-    </row>
-    <row r="157" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="AN157" s="70"/>
-      <c r="AO157" s="70"/>
-      <c r="AR157" s="70"/>
-    </row>
-    <row r="158" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="AN158" s="70"/>
-      <c r="AO158" s="70"/>
-      <c r="AR158" s="70"/>
-    </row>
-    <row r="159" spans="2:44" x14ac:dyDescent="0.45">
+      <c r="AR128" s="47"/>
+    </row>
+    <row r="129" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR129" s="47"/>
+    </row>
+    <row r="130" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR130" s="47"/>
+    </row>
+    <row r="131" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR131" s="47"/>
+    </row>
+    <row r="132" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR132" s="47"/>
+    </row>
+    <row r="133" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR133" s="47"/>
+    </row>
+    <row r="134" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR134" s="47"/>
+    </row>
+    <row r="135" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR135" s="47"/>
+    </row>
+    <row r="136" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR136" s="47"/>
+    </row>
+    <row r="137" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR137" s="47"/>
+    </row>
+    <row r="138" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR138" s="47"/>
+    </row>
+    <row r="139" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR139" s="47"/>
+    </row>
+    <row r="140" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR140" s="47"/>
+    </row>
+    <row r="141" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR141" s="47"/>
+    </row>
+    <row r="142" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR142" s="47"/>
+    </row>
+    <row r="143" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR143" s="47"/>
+    </row>
+    <row r="144" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR144" s="47"/>
+    </row>
+    <row r="145" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR145" s="47"/>
+    </row>
+    <row r="146" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR146" s="47"/>
+    </row>
+    <row r="147" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR147" s="47"/>
+    </row>
+    <row r="148" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR148" s="47"/>
+    </row>
+    <row r="149" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR149" s="47"/>
+    </row>
+    <row r="150" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR150" s="47"/>
+    </row>
+    <row r="151" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR151" s="47"/>
+    </row>
+    <row r="152" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR152" s="47"/>
+    </row>
+    <row r="153" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR153" s="47"/>
+    </row>
+    <row r="154" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR154" s="47"/>
+    </row>
+    <row r="155" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR155" s="47"/>
+    </row>
+    <row r="156" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR156" s="47"/>
+    </row>
+    <row r="157" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR157" s="47"/>
+    </row>
+    <row r="158" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="AR158" s="47"/>
+    </row>
+    <row r="159" spans="5:44" x14ac:dyDescent="0.45">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:44" x14ac:dyDescent="0.45">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -11291,41 +11169,41 @@
       <c r="I168" s="6"/>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A178" s="86" t="s">
+      <c r="A178" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="86"/>
-      <c r="C178" s="86"/>
-      <c r="D178" s="86"/>
-      <c r="E178" s="86"/>
-      <c r="F178" s="86"/>
-      <c r="G178" s="86"/>
-      <c r="H178" s="86"/>
-      <c r="I178" s="86"/>
-      <c r="J178" s="86"/>
-      <c r="K178" s="86"/>
-      <c r="L178" s="86"/>
-      <c r="M178" s="86"/>
-      <c r="N178" s="86"/>
-      <c r="O178" s="86"/>
-      <c r="P178" s="86"/>
-      <c r="Q178" s="86"/>
-      <c r="R178" s="86"/>
-      <c r="S178" s="86"/>
-      <c r="T178" s="86"/>
-      <c r="U178" s="86"/>
-      <c r="V178" s="86"/>
-      <c r="W178" s="86"/>
-      <c r="X178" s="86"/>
-      <c r="Y178" s="86"/>
-      <c r="Z178" s="86"/>
-      <c r="AA178" s="86"/>
-      <c r="AB178" s="86"/>
-      <c r="AC178" s="86"/>
-      <c r="AD178" s="86"/>
-      <c r="AE178" s="86"/>
-      <c r="AF178" s="86"/>
-      <c r="AG178" s="86"/>
+      <c r="B178" s="103"/>
+      <c r="C178" s="103"/>
+      <c r="D178" s="103"/>
+      <c r="E178" s="103"/>
+      <c r="F178" s="103"/>
+      <c r="G178" s="103"/>
+      <c r="H178" s="103"/>
+      <c r="I178" s="103"/>
+      <c r="J178" s="103"/>
+      <c r="K178" s="103"/>
+      <c r="L178" s="103"/>
+      <c r="M178" s="103"/>
+      <c r="N178" s="103"/>
+      <c r="O178" s="103"/>
+      <c r="P178" s="103"/>
+      <c r="Q178" s="103"/>
+      <c r="R178" s="103"/>
+      <c r="S178" s="103"/>
+      <c r="T178" s="103"/>
+      <c r="U178" s="103"/>
+      <c r="V178" s="103"/>
+      <c r="W178" s="103"/>
+      <c r="X178" s="103"/>
+      <c r="Y178" s="103"/>
+      <c r="Z178" s="103"/>
+      <c r="AA178" s="103"/>
+      <c r="AB178" s="103"/>
+      <c r="AC178" s="103"/>
+      <c r="AD178" s="103"/>
+      <c r="AE178" s="103"/>
+      <c r="AF178" s="103"/>
+      <c r="AG178" s="103"/>
       <c r="AH178" s="29"/>
       <c r="AI178" s="29"/>
     </row>
@@ -11431,150 +11309,191 @@
       <c r="A184" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B184" s="87" t="s">
+      <c r="B184" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C184" s="88"/>
-      <c r="D184" s="88"/>
-      <c r="E184" s="88"/>
-      <c r="F184" s="88"/>
-      <c r="G184" s="88"/>
-      <c r="H184" s="88"/>
-      <c r="I184" s="88"/>
-      <c r="J184" s="88"/>
-      <c r="K184" s="88"/>
-      <c r="L184" s="88"/>
-      <c r="M184" s="88"/>
-      <c r="N184" s="88"/>
-      <c r="O184" s="88"/>
-      <c r="P184" s="88"/>
-      <c r="Q184" s="88"/>
-      <c r="R184" s="88"/>
-      <c r="S184" s="88"/>
-      <c r="T184" s="88"/>
-      <c r="U184" s="88"/>
-      <c r="V184" s="88"/>
-      <c r="W184" s="88"/>
-      <c r="X184" s="88"/>
-      <c r="Y184" s="88"/>
-      <c r="Z184" s="88"/>
-      <c r="AA184" s="88"/>
-      <c r="AB184" s="88"/>
-      <c r="AC184" s="88"/>
-      <c r="AD184" s="88"/>
-      <c r="AE184" s="88"/>
-      <c r="AF184" s="88"/>
-      <c r="AG184" s="89"/>
+      <c r="C184" s="92"/>
+      <c r="D184" s="92"/>
+      <c r="E184" s="92"/>
+      <c r="F184" s="92"/>
+      <c r="G184" s="92"/>
+      <c r="H184" s="92"/>
+      <c r="I184" s="92"/>
+      <c r="J184" s="92"/>
+      <c r="K184" s="92"/>
+      <c r="L184" s="92"/>
+      <c r="M184" s="92"/>
+      <c r="N184" s="92"/>
+      <c r="O184" s="92"/>
+      <c r="P184" s="92"/>
+      <c r="Q184" s="92"/>
+      <c r="R184" s="92"/>
+      <c r="S184" s="92"/>
+      <c r="T184" s="92"/>
+      <c r="U184" s="92"/>
+      <c r="V184" s="92"/>
+      <c r="W184" s="92"/>
+      <c r="X184" s="92"/>
+      <c r="Y184" s="92"/>
+      <c r="Z184" s="92"/>
+      <c r="AA184" s="92"/>
+      <c r="AB184" s="92"/>
+      <c r="AC184" s="92"/>
+      <c r="AD184" s="92"/>
+      <c r="AE184" s="92"/>
+      <c r="AF184" s="92"/>
+      <c r="AG184" s="93"/>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A186" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B186" s="87" t="s">
+      <c r="B186" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="88"/>
-      <c r="D186" s="88"/>
-      <c r="E186" s="88"/>
-      <c r="F186" s="88"/>
-      <c r="G186" s="88"/>
-      <c r="H186" s="88"/>
-      <c r="I186" s="88"/>
-      <c r="J186" s="88"/>
-      <c r="K186" s="88"/>
-      <c r="L186" s="88"/>
-      <c r="M186" s="88"/>
-      <c r="N186" s="88"/>
-      <c r="O186" s="88"/>
-      <c r="P186" s="88"/>
-      <c r="Q186" s="89"/>
-      <c r="R186" s="87" t="s">
+      <c r="C186" s="92"/>
+      <c r="D186" s="92"/>
+      <c r="E186" s="92"/>
+      <c r="F186" s="92"/>
+      <c r="G186" s="92"/>
+      <c r="H186" s="92"/>
+      <c r="I186" s="92"/>
+      <c r="J186" s="92"/>
+      <c r="K186" s="92"/>
+      <c r="L186" s="92"/>
+      <c r="M186" s="92"/>
+      <c r="N186" s="92"/>
+      <c r="O186" s="92"/>
+      <c r="P186" s="92"/>
+      <c r="Q186" s="93"/>
+      <c r="R186" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="S186" s="88"/>
-      <c r="T186" s="88"/>
-      <c r="U186" s="88"/>
-      <c r="V186" s="88"/>
-      <c r="W186" s="88"/>
-      <c r="X186" s="88"/>
-      <c r="Y186" s="88"/>
-      <c r="Z186" s="88"/>
-      <c r="AA186" s="88"/>
-      <c r="AB186" s="88"/>
-      <c r="AC186" s="88"/>
-      <c r="AD186" s="88"/>
-      <c r="AE186" s="88"/>
-      <c r="AF186" s="88"/>
-      <c r="AG186" s="89"/>
+      <c r="S186" s="92"/>
+      <c r="T186" s="92"/>
+      <c r="U186" s="92"/>
+      <c r="V186" s="92"/>
+      <c r="W186" s="92"/>
+      <c r="X186" s="92"/>
+      <c r="Y186" s="92"/>
+      <c r="Z186" s="92"/>
+      <c r="AA186" s="92"/>
+      <c r="AB186" s="92"/>
+      <c r="AC186" s="92"/>
+      <c r="AD186" s="92"/>
+      <c r="AE186" s="92"/>
+      <c r="AF186" s="92"/>
+      <c r="AG186" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="AN60:AN72"/>
-    <mergeCell ref="AN81:AN85"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
+  <mergeCells count="178">
+    <mergeCell ref="B99:C101"/>
+    <mergeCell ref="I99:K101"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="R106:AG106"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="R107:AG107"/>
     <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="R108:AG108"/>
     <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AI102:AK102"/>
+    <mergeCell ref="D99:F101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="P62:P67"/>
+    <mergeCell ref="Q62:Q67"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="S62:S67"/>
+    <mergeCell ref="T62:T67"/>
+    <mergeCell ref="I57:K59"/>
+    <mergeCell ref="M64:O67"/>
+    <mergeCell ref="P99:Q101"/>
+    <mergeCell ref="N99:O101"/>
+    <mergeCell ref="L99:M101"/>
+    <mergeCell ref="U62:U67"/>
+    <mergeCell ref="AI120:AK120"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R99:V101"/>
+    <mergeCell ref="W99:X101"/>
+    <mergeCell ref="Y99:Z101"/>
+    <mergeCell ref="AA99:AB101"/>
+    <mergeCell ref="AC99:AG101"/>
+    <mergeCell ref="AI119:AK119"/>
+    <mergeCell ref="AI124:AK124"/>
+    <mergeCell ref="A178:AG178"/>
+    <mergeCell ref="B184:AG184"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="B186:Q186"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="AC109:AG109"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AC63:AE63"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="B64:D67"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="L57:M59"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="AC57:AG59"/>
+    <mergeCell ref="Y57:Z59"/>
+    <mergeCell ref="AJ38:AQ38"/>
+    <mergeCell ref="AJ39:AQ39"/>
+    <mergeCell ref="AJ40:AQ40"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="I52:K54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="D57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ44:AQ44"/>
+    <mergeCell ref="AJ55:AN55"/>
     <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="AI104:AK104"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="AL106:AO106"/>
-    <mergeCell ref="AL107:AO107"/>
-    <mergeCell ref="AI100:AK100"/>
-    <mergeCell ref="AI101:AK101"/>
-    <mergeCell ref="AY60:AY72"/>
-    <mergeCell ref="AX78:AY78"/>
-    <mergeCell ref="AY81:AY85"/>
-    <mergeCell ref="AY87:AY91"/>
-    <mergeCell ref="AQ78:AR81"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AQ61:AR64"/>
-    <mergeCell ref="B57:D59"/>
-    <mergeCell ref="P57:Q59"/>
-    <mergeCell ref="Q71:Q76"/>
-    <mergeCell ref="Z78:AB78"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="Z81:AB81"/>
-    <mergeCell ref="Z82:AB82"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="Z76:AB76"/>
-    <mergeCell ref="Z77:AB77"/>
-    <mergeCell ref="Z88:AB88"/>
-    <mergeCell ref="Z89:AB89"/>
-    <mergeCell ref="Z90:AB90"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="B77:C79"/>
-    <mergeCell ref="O82:O85"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="Q82:Q85"/>
-    <mergeCell ref="M82:N85"/>
-    <mergeCell ref="M62:N65"/>
-    <mergeCell ref="M71:N76"/>
-    <mergeCell ref="O62:O65"/>
-    <mergeCell ref="P62:P65"/>
-    <mergeCell ref="Q62:Q65"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="C50:AG50"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="AJ34:AQ34"/>
+    <mergeCell ref="AJ35:AQ35"/>
+    <mergeCell ref="AJ36:AQ36"/>
+    <mergeCell ref="AJ37:AQ37"/>
+    <mergeCell ref="AC91:AE91"/>
+    <mergeCell ref="AC87:AE87"/>
+    <mergeCell ref="C103:AG103"/>
+    <mergeCell ref="AC92:AE92"/>
+    <mergeCell ref="AC83:AE83"/>
+    <mergeCell ref="AC84:AE84"/>
+    <mergeCell ref="AC85:AE85"/>
+    <mergeCell ref="AC86:AE86"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="AA57:AB59"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
     <mergeCell ref="AJ19:AQ19"/>
     <mergeCell ref="AJ20:AQ20"/>
     <mergeCell ref="AJ21:AQ21"/>
@@ -11585,98 +11504,67 @@
     <mergeCell ref="AJ16:AQ16"/>
     <mergeCell ref="AJ17:AQ17"/>
     <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ44:AQ44"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AI99:AK99"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="AJ34:AQ34"/>
-    <mergeCell ref="AJ35:AQ35"/>
-    <mergeCell ref="AJ36:AQ36"/>
-    <mergeCell ref="AJ37:AQ37"/>
-    <mergeCell ref="Z91:AB91"/>
-    <mergeCell ref="Z87:AB87"/>
-    <mergeCell ref="C99:AG99"/>
-    <mergeCell ref="Z92:AB92"/>
-    <mergeCell ref="Z83:AB83"/>
-    <mergeCell ref="Z84:AB84"/>
-    <mergeCell ref="Z85:AB85"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="P71:P76"/>
-    <mergeCell ref="AA57:AB59"/>
-    <mergeCell ref="W57:X59"/>
-    <mergeCell ref="AC57:AG59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="E57:G59"/>
-    <mergeCell ref="Y57:Z59"/>
-    <mergeCell ref="AJ38:AQ38"/>
-    <mergeCell ref="AJ39:AQ39"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="B52:D54"/>
-    <mergeCell ref="J52:K54"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="A178:AG178"/>
-    <mergeCell ref="B184:AG184"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="B186:Q186"/>
-    <mergeCell ref="E52:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="AC100:AG100"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="B62:D65"/>
-    <mergeCell ref="O71:O76"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="J57:K59"/>
-    <mergeCell ref="L57:M59"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="Z93:AB93"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="B95:D97"/>
-    <mergeCell ref="E95:G97"/>
-    <mergeCell ref="J95:K97"/>
-    <mergeCell ref="L95:M97"/>
-    <mergeCell ref="N95:O97"/>
-    <mergeCell ref="P95:Q97"/>
-    <mergeCell ref="R95:V97"/>
-    <mergeCell ref="W95:X97"/>
-    <mergeCell ref="Y95:Z97"/>
-    <mergeCell ref="AA95:AB97"/>
-    <mergeCell ref="AC95:AG97"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AJ13:AQ13"/>
+    <mergeCell ref="B79:C81"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="P88:P91"/>
+    <mergeCell ref="Q88:Q91"/>
+    <mergeCell ref="M88:N91"/>
+    <mergeCell ref="M77:N82"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="AC69:AE69"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="AC71:AE71"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="C50:AG50"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="AY60:AY72"/>
+    <mergeCell ref="AX78:AY78"/>
+    <mergeCell ref="AY81:AY85"/>
+    <mergeCell ref="AY87:AY91"/>
+    <mergeCell ref="AQ78:AR81"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AQ61:AR64"/>
+    <mergeCell ref="P57:Q59"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="AC78:AE78"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="AC82:AE82"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="AC75:AE75"/>
+    <mergeCell ref="AC76:AE76"/>
+    <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AC90:AE90"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="AN60:AN72"/>
+    <mergeCell ref="AN81:AN85"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AI115:AK115"/>
+    <mergeCell ref="AI116:AK116"/>
+    <mergeCell ref="AI117:AK117"/>
+    <mergeCell ref="AI118:AK118"/>
     <mergeCell ref="AI111:AK111"/>
     <mergeCell ref="AI112:AK112"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AI104:AK104"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="AL114:AO114"/>
+    <mergeCell ref="AL115:AO115"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Flamer\Dropbox\LambdaCore\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
   <si>
     <t>LDI</t>
   </si>
@@ -513,9 +508,6 @@
     <t>E  +/-</t>
   </si>
   <si>
-    <t>0x3C0C1100</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
@@ -574,6 +566,12 @@
   </si>
   <si>
     <t>0x01000000</t>
+  </si>
+  <si>
+    <t>0x780C1100</t>
+  </si>
+  <si>
+    <t>0x780C1900</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,200 +1247,212 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4677,7 +4687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4687,25 +4697,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP109" sqref="AP109"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT106" sqref="AT106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="6" customWidth="1"/>
-    <col min="2" max="24" width="2.6640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="24" width="2.7109375" style="19" customWidth="1"/>
     <col min="25" max="25" width="3" style="19" customWidth="1"/>
-    <col min="26" max="35" width="2.6640625" style="19" customWidth="1"/>
-    <col min="36" max="36" width="9.1328125" style="6" customWidth="1"/>
-    <col min="37" max="39" width="9.1328125" style="6"/>
-    <col min="40" max="40" width="9.1328125" style="6" customWidth="1"/>
-    <col min="41" max="54" width="9.1328125" style="6"/>
-    <col min="55" max="55" width="13.46484375" style="6" customWidth="1"/>
-    <col min="56" max="16384" width="9.1328125" style="6"/>
+    <col min="26" max="35" width="2.7109375" style="19" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="6" customWidth="1"/>
+    <col min="37" max="39" width="9.140625" style="6"/>
+    <col min="40" max="40" width="9.140625" style="6" customWidth="1"/>
+    <col min="41" max="54" width="9.140625" style="6"/>
+    <col min="55" max="55" width="13.42578125" style="6" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
@@ -4809,7 +4819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -4877,18 +4887,18 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="81" t="s">
+      <c r="AJ2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+    </row>
+    <row r="3" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -4932,16 +4942,16 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="81" t="s">
+      <c r="AJ3" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="95"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
     </row>
     <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
@@ -4993,18 +5003,18 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="81" t="s">
+      <c r="AJ4" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+    </row>
+    <row r="5" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -5042,18 +5052,18 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="96" t="s">
+      <c r="AJ5" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+    </row>
+    <row r="6" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -5093,18 +5103,18 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="81" t="s">
+      <c r="AJ6" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+    </row>
+    <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -5148,18 +5158,18 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="81" t="s">
+      <c r="AJ7" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+    </row>
+    <row r="8" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -5203,18 +5213,18 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="81" t="s">
+      <c r="AJ8" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+    </row>
+    <row r="9" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -5254,18 +5264,18 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="81" t="s">
+      <c r="AJ9" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+    </row>
+    <row r="10" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5305,18 +5315,18 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="81" t="s">
+      <c r="AJ10" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+    </row>
+    <row r="11" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -5356,18 +5366,18 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="81" t="s">
+      <c r="AJ11" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+    </row>
+    <row r="12" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -5407,18 +5417,18 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="81" t="s">
+      <c r="AJ12" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+    </row>
+    <row r="13" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -5458,18 +5468,18 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="81" t="s">
+      <c r="AJ13" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+    </row>
+    <row r="14" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -5509,16 +5519,16 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+    </row>
+    <row r="15" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5560,18 +5570,18 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="81" t="s">
+      <c r="AJ15" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+    </row>
+    <row r="16" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -5613,18 +5623,18 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="81" t="s">
+      <c r="AJ16" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+    </row>
+    <row r="17" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -5666,18 +5676,18 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="81" t="s">
+      <c r="AJ17" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+    </row>
+    <row r="18" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -5719,18 +5729,18 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="81" t="s">
+      <c r="AJ18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+    </row>
+    <row r="19" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
@@ -5770,18 +5780,18 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="81" t="s">
+      <c r="AJ19" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+    </row>
+    <row r="20" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -5827,18 +5837,18 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="81" t="s">
+      <c r="AJ20" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+    </row>
+    <row r="21" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -5880,18 +5890,18 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="81" t="s">
+      <c r="AJ21" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+    </row>
+    <row r="22" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -5931,18 +5941,18 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="81" t="s">
+      <c r="AJ22" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-    </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+    </row>
+    <row r="26" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
@@ -6049,7 +6059,7 @@
       </c>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -6117,18 +6127,18 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="81" t="s">
+      <c r="AJ28" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-    </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+    </row>
+    <row r="29" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -6172,16 +6182,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="81" t="s">
+      <c r="AJ29" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="101"/>
     </row>
     <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
@@ -6233,18 +6243,18 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="81" t="s">
+      <c r="AJ30" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-    </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
+      <c r="AQ30" s="101"/>
+    </row>
+    <row r="31" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -6284,18 +6294,18 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="81" t="s">
+      <c r="AJ31" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-    </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK31" s="104"/>
+      <c r="AL31" s="104"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="104"/>
+      <c r="AP31" s="104"/>
+      <c r="AQ31" s="104"/>
+    </row>
+    <row r="32" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>77</v>
       </c>
@@ -6339,18 +6349,18 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="81" t="s">
+      <c r="AJ32" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="95"/>
-      <c r="AQ32" s="95"/>
-    </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK32" s="101"/>
+      <c r="AL32" s="101"/>
+      <c r="AM32" s="101"/>
+      <c r="AN32" s="101"/>
+      <c r="AO32" s="101"/>
+      <c r="AP32" s="101"/>
+      <c r="AQ32" s="101"/>
+    </row>
+    <row r="33" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -6390,18 +6400,18 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="81" t="s">
+      <c r="AJ33" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
-      <c r="AQ33" s="95"/>
-    </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="101"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="101"/>
+    </row>
+    <row r="34" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>80</v>
       </c>
@@ -6441,18 +6451,18 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="81" t="s">
+      <c r="AJ34" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-    </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK34" s="101"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="101"/>
+      <c r="AO34" s="101"/>
+      <c r="AP34" s="101"/>
+      <c r="AQ34" s="101"/>
+    </row>
+    <row r="35" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>37</v>
       </c>
@@ -6492,18 +6502,18 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="81" t="s">
+      <c r="AJ35" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="95"/>
-      <c r="AO35" s="95"/>
-      <c r="AP35" s="95"/>
-      <c r="AQ35" s="95"/>
-    </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK35" s="101"/>
+      <c r="AL35" s="101"/>
+      <c r="AM35" s="101"/>
+      <c r="AN35" s="101"/>
+      <c r="AO35" s="101"/>
+      <c r="AP35" s="101"/>
+      <c r="AQ35" s="101"/>
+    </row>
+    <row r="36" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -6543,18 +6553,18 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="98" t="s">
+      <c r="AJ36" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="99"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" s="99"/>
-    </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK36" s="103"/>
+      <c r="AL36" s="103"/>
+      <c r="AM36" s="103"/>
+      <c r="AN36" s="103"/>
+      <c r="AO36" s="103"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="103"/>
+    </row>
+    <row r="37" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>72</v>
       </c>
@@ -6594,16 +6604,16 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="81"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="95"/>
-      <c r="AP37" s="95"/>
-      <c r="AQ37" s="95"/>
-    </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AJ37" s="100"/>
+      <c r="AK37" s="101"/>
+      <c r="AL37" s="101"/>
+      <c r="AM37" s="101"/>
+      <c r="AN37" s="101"/>
+      <c r="AO37" s="101"/>
+      <c r="AP37" s="101"/>
+      <c r="AQ37" s="101"/>
+    </row>
+    <row r="38" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
         <v>38</v>
       </c>
@@ -6645,18 +6655,18 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="81" t="s">
+      <c r="AJ38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="95"/>
-      <c r="AO38" s="95"/>
-      <c r="AP38" s="95"/>
-      <c r="AQ38" s="95"/>
-    </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK38" s="101"/>
+      <c r="AL38" s="101"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="101"/>
+      <c r="AO38" s="101"/>
+      <c r="AP38" s="101"/>
+      <c r="AQ38" s="101"/>
+    </row>
+    <row r="39" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
@@ -6698,18 +6708,18 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="81" t="s">
+      <c r="AJ39" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="95"/>
-      <c r="AO39" s="95"/>
-      <c r="AP39" s="95"/>
-      <c r="AQ39" s="95"/>
-    </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK39" s="101"/>
+      <c r="AL39" s="101"/>
+      <c r="AM39" s="101"/>
+      <c r="AN39" s="101"/>
+      <c r="AO39" s="101"/>
+      <c r="AP39" s="101"/>
+      <c r="AQ39" s="101"/>
+    </row>
+    <row r="40" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
@@ -6751,18 +6761,18 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="81" t="s">
+      <c r="AJ40" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="95"/>
-      <c r="AQ40" s="95"/>
-    </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK40" s="101"/>
+      <c r="AL40" s="101"/>
+      <c r="AM40" s="101"/>
+      <c r="AN40" s="101"/>
+      <c r="AO40" s="101"/>
+      <c r="AP40" s="101"/>
+      <c r="AQ40" s="101"/>
+    </row>
+    <row r="41" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
@@ -6802,18 +6812,18 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="98" t="s">
+      <c r="AJ41" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="99"/>
-      <c r="AL41" s="99"/>
-      <c r="AM41" s="99"/>
-      <c r="AN41" s="99"/>
-      <c r="AO41" s="99"/>
-      <c r="AP41" s="99"/>
-      <c r="AQ41" s="99"/>
-    </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK41" s="103"/>
+      <c r="AL41" s="103"/>
+      <c r="AM41" s="103"/>
+      <c r="AN41" s="103"/>
+      <c r="AO41" s="103"/>
+      <c r="AP41" s="103"/>
+      <c r="AQ41" s="103"/>
+    </row>
+    <row r="42" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>69</v>
       </c>
@@ -6859,18 +6869,18 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="81" t="s">
+      <c r="AJ42" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="95"/>
-      <c r="AP42" s="95"/>
-      <c r="AQ42" s="95"/>
-    </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK42" s="101"/>
+      <c r="AL42" s="101"/>
+      <c r="AM42" s="101"/>
+      <c r="AN42" s="101"/>
+      <c r="AO42" s="101"/>
+      <c r="AP42" s="101"/>
+      <c r="AQ42" s="101"/>
+    </row>
+    <row r="43" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>70</v>
       </c>
@@ -6912,18 +6922,18 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="81" t="s">
+      <c r="AJ43" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="95"/>
-      <c r="AO43" s="95"/>
-      <c r="AP43" s="95"/>
-      <c r="AQ43" s="95"/>
-    </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK43" s="101"/>
+      <c r="AL43" s="101"/>
+      <c r="AM43" s="101"/>
+      <c r="AN43" s="101"/>
+      <c r="AO43" s="101"/>
+      <c r="AP43" s="101"/>
+      <c r="AQ43" s="101"/>
+    </row>
+    <row r="44" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>90</v>
       </c>
@@ -6963,71 +6973,71 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="81" t="s">
+      <c r="AJ44" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="AK44" s="101"/>
+      <c r="AL44" s="101"/>
+      <c r="AM44" s="101"/>
+      <c r="AN44" s="101"/>
+      <c r="AO44" s="101"/>
+      <c r="AP44" s="101"/>
+      <c r="AQ44" s="101"/>
+    </row>
+    <row r="45" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
       <c r="BB45" s="47"/>
       <c r="BC45" s="47"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
       <c r="BB46" s="47"/>
       <c r="BC46" s="47"/>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A47" s="103" t="s">
+    <row r="47" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A47" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="103"/>
-      <c r="X47" s="103"/>
-      <c r="Y47" s="103"/>
-      <c r="Z47" s="103"/>
-      <c r="AA47" s="103"/>
-      <c r="AB47" s="103"/>
-      <c r="AC47" s="103"/>
-      <c r="AD47" s="103"/>
-      <c r="AE47" s="103"/>
-      <c r="AF47" s="103"/>
-      <c r="AG47" s="103"/>
-      <c r="AH47" s="103"/>
-      <c r="AI47" s="103"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="93"/>
+      <c r="AA47" s="93"/>
+      <c r="AB47" s="93"/>
+      <c r="AC47" s="93"/>
+      <c r="AD47" s="93"/>
+      <c r="AE47" s="93"/>
+      <c r="AF47" s="93"/>
+      <c r="AG47" s="93"/>
+      <c r="AH47" s="93"/>
+      <c r="AI47" s="93"/>
       <c r="BB47" s="47"/>
       <c r="BC47" s="47"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
       <c r="BB48" s="47"/>
       <c r="BC48" s="47"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B49" s="18">
         <v>31</v>
       </c>
@@ -7127,52 +7137,52 @@
       <c r="BB49" s="47"/>
       <c r="BC49" s="47"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
-      <c r="R50" s="92"/>
-      <c r="S50" s="92"/>
-      <c r="T50" s="92"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="92"/>
-      <c r="AB50" s="92"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="92"/>
-      <c r="AE50" s="92"/>
-      <c r="AF50" s="92"/>
-      <c r="AG50" s="93"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="80"/>
+      <c r="AE50" s="80"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="95"/>
       <c r="BB50" s="47"/>
       <c r="BC50" s="47"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -7201,39 +7211,39 @@
       <c r="BB51" s="47"/>
       <c r="BC51" s="47"/>
     </row>
-    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="76" t="s">
+    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="102" t="s">
+      <c r="C52" s="75"/>
+      <c r="D52" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102" t="s">
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="102" t="s">
+      <c r="H52" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I52" s="76" t="s">
+      <c r="I52" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76" t="s">
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76" t="s">
+      <c r="M52" s="75"/>
+      <c r="N52" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76" t="s">
+      <c r="O52" s="75"/>
+      <c r="P52" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="76"/>
+      <c r="Q52" s="75"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7253,23 +7263,23 @@
       <c r="BB52" s="47"/>
       <c r="BC52" s="47"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7289,23 +7299,23 @@
       <c r="BB53" s="47"/>
       <c r="BC53" s="47"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7327,12 +7337,12 @@
     </row>
     <row r="55" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="56">
+        <v>159</v>
+      </c>
+      <c r="B55" s="54">
+        <v>0</v>
+      </c>
+      <c r="C55" s="55">
         <v>0</v>
       </c>
       <c r="D55" s="21"/>
@@ -7340,44 +7350,44 @@
       <c r="F55" s="24"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="57"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="56"/>
       <c r="L55" s="20"/>
       <c r="M55" s="24"/>
       <c r="N55" s="20"/>
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="91" t="s">
+      <c r="R55" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="92"/>
-      <c r="T55" s="92"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="92"/>
-      <c r="W55" s="92"/>
-      <c r="X55" s="92"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
-      <c r="AB55" s="92"/>
-      <c r="AC55" s="92"/>
-      <c r="AD55" s="92"/>
-      <c r="AE55" s="92"/>
-      <c r="AF55" s="92"/>
-      <c r="AG55" s="93"/>
-      <c r="AJ55" s="95"/>
-      <c r="AK55" s="95"/>
-      <c r="AL55" s="95"/>
-      <c r="AM55" s="95"/>
-      <c r="AN55" s="95"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="95"/>
+      <c r="AJ55" s="101"/>
+      <c r="AK55" s="101"/>
+      <c r="AL55" s="101"/>
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="101"/>
       <c r="AR55" s="38"/>
       <c r="AS55" s="38"/>
       <c r="BB55" s="47"/>
       <c r="BC55" s="47"/>
     </row>
-    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7410,145 +7420,145 @@
       <c r="BB56" s="47"/>
       <c r="BC56" s="47"/>
     </row>
-    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="107" t="s">
+    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="107"/>
-      <c r="D57" s="102" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102" t="s">
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="76" t="s">
+      <c r="I57" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76" t="s">
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76" t="s">
+      <c r="M57" s="75"/>
+      <c r="N57" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76" t="s">
+      <c r="O57" s="75"/>
+      <c r="P57" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76" t="s">
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76" t="s">
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76" t="s">
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76" t="s">
+      <c r="Z57" s="75"/>
+      <c r="AA57" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76" t="s">
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
       <c r="AR57" s="38"/>
       <c r="AS57" s="38"/>
       <c r="BB57" s="47"/>
       <c r="BC57" s="47"/>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76"/>
-      <c r="Y58" s="76"/>
-      <c r="Z58" s="76"/>
-      <c r="AA58" s="76"/>
-      <c r="AB58" s="76"/>
-      <c r="AC58" s="76"/>
-      <c r="AD58" s="76"/>
-      <c r="AE58" s="76"/>
-      <c r="AF58" s="76"/>
-      <c r="AG58" s="76"/>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="75"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="75"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="75"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="75"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="75"/>
+      <c r="AD58" s="75"/>
+      <c r="AE58" s="75"/>
+      <c r="AF58" s="75"/>
+      <c r="AG58" s="75"/>
       <c r="AR58" s="38"/>
       <c r="AS58" s="38"/>
       <c r="BB58" s="47"/>
       <c r="BC58" s="47"/>
     </row>
-    <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="77"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="77"/>
-      <c r="V59" s="77"/>
-      <c r="W59" s="77"/>
-      <c r="X59" s="77"/>
-      <c r="Y59" s="77"/>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="77"/>
-      <c r="AB59" s="77"/>
-      <c r="AC59" s="77"/>
-      <c r="AD59" s="77"/>
-      <c r="AE59" s="77"/>
-      <c r="AF59" s="77"/>
-      <c r="AG59" s="77"/>
+    <row r="59" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="76"/>
+      <c r="V59" s="76"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="76"/>
+      <c r="AC59" s="76"/>
+      <c r="AD59" s="76"/>
+      <c r="AE59" s="76"/>
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="76"/>
       <c r="BB59" s="47"/>
       <c r="BC59" s="47"/>
     </row>
-    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>86</v>
       </c>
@@ -7558,14 +7568,14 @@
       <c r="C60" s="23">
         <v>1</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="57"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="56"/>
       <c r="L60" s="20"/>
       <c r="M60" s="24"/>
       <c r="N60" s="20"/>
@@ -7588,61 +7598,61 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="61" t="s">
+      <c r="AN60" s="109" t="s">
         <v>111</v>
       </c>
       <c r="AX60" s="30"/>
-      <c r="AY60" s="61" t="s">
+      <c r="AY60" s="109" t="s">
         <v>111</v>
       </c>
       <c r="AZ60" s="30"/>
       <c r="BB60" s="47"/>
       <c r="BC60" s="47"/>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="AM61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AN61" s="62"/>
+      <c r="AN61" s="110"/>
       <c r="AO61" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="AQ61" s="70" t="s">
+      <c r="AQ61" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="AR61" s="71"/>
+      <c r="AR61" s="115"/>
       <c r="AU61" s="30"/>
       <c r="AX61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AY61" s="62"/>
+      <c r="AY61" s="110"/>
       <c r="AZ61" s="39" t="s">
         <v>113</v>
       </c>
       <c r="BB61" s="47"/>
       <c r="BC61" s="47"/>
     </row>
-    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P62" s="102" t="s">
+    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="Q62" s="102" t="s">
+      <c r="Q62" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="R62" s="102" t="s">
+      <c r="R62" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="S62" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="T62" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="S62" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="T62" s="109" t="s">
+      <c r="U62" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="U62" s="102" t="s">
-        <v>163</v>
-      </c>
       <c r="W62" s="21">
         <v>0</v>
       </c>
@@ -7661,28 +7671,28 @@
       <c r="AB62" s="19">
         <v>0</v>
       </c>
-      <c r="AC62" s="79" t="s">
+      <c r="AC62" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AD62" s="79"/>
-      <c r="AE62" s="79"/>
+      <c r="AD62" s="92"/>
+      <c r="AE62" s="92"/>
       <c r="AF62" s="6"/>
-      <c r="AN62" s="62"/>
-      <c r="AQ62" s="72"/>
-      <c r="AR62" s="73"/>
+      <c r="AN62" s="110"/>
+      <c r="AQ62" s="116"/>
+      <c r="AR62" s="117"/>
       <c r="AX62" s="30"/>
-      <c r="AY62" s="62"/>
+      <c r="AY62" s="110"/>
       <c r="AZ62" s="30"/>
       <c r="BB62" s="47"/>
       <c r="BC62" s="47"/>
     </row>
-    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="109"/>
-      <c r="T63" s="109"/>
-      <c r="U63" s="102"/>
+    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="81"/>
+      <c r="T63" s="81"/>
+      <c r="U63" s="77"/>
       <c r="W63" s="21">
         <v>0</v>
       </c>
@@ -7701,62 +7711,62 @@
       <c r="AB63" s="19">
         <v>1</v>
       </c>
-      <c r="AC63" s="79" t="s">
+      <c r="AC63" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="AD63" s="79"/>
-      <c r="AE63" s="79"/>
+      <c r="AD63" s="92"/>
+      <c r="AE63" s="92"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="62"/>
-      <c r="AQ63" s="72"/>
-      <c r="AR63" s="73"/>
+      <c r="AN63" s="110"/>
+      <c r="AQ63" s="116"/>
+      <c r="AR63" s="117"/>
       <c r="AX63" s="30"/>
-      <c r="AY63" s="62"/>
+      <c r="AY63" s="110"/>
       <c r="AZ63" s="30"/>
       <c r="BB63" s="47"/>
       <c r="BC63" s="47"/>
     </row>
-    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="80" t="s">
+      <c r="C64" s="84"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="80" t="s">
+      <c r="F64" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="80" t="s">
+      <c r="G64" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="80" t="s">
+      <c r="H64" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="80" t="s">
+      <c r="I64" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="94" t="s">
+      <c r="J64" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="80" t="s">
+      <c r="K64" s="97" t="s">
         <v>155</v>
       </c>
       <c r="M64" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="104"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="102"/>
-      <c r="S64" s="109"/>
-      <c r="T64" s="109"/>
-      <c r="U64" s="102"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="77"/>
       <c r="W64" s="21">
         <v>0</v>
       </c>
@@ -7775,44 +7785,44 @@
       <c r="AB64" s="19">
         <v>2</v>
       </c>
-      <c r="AC64" s="68" t="s">
+      <c r="AC64" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AD64" s="68"/>
-      <c r="AE64" s="68"/>
+      <c r="AD64" s="98"/>
+      <c r="AE64" s="98"/>
       <c r="AF64" s="6"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="62"/>
-      <c r="AQ64" s="74"/>
-      <c r="AR64" s="75"/>
+      <c r="AN64" s="110"/>
+      <c r="AQ64" s="118"/>
+      <c r="AR64" s="119"/>
       <c r="AX64" s="30"/>
-      <c r="AY64" s="62"/>
+      <c r="AY64" s="110"/>
       <c r="AZ64" s="30"/>
       <c r="BB64" s="47"/>
       <c r="BC64" s="47"/>
     </row>
-    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="85"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="80"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="86"/>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="102"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="109"/>
-      <c r="U65" s="102"/>
+    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="86"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="97"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="77"/>
       <c r="W65" s="21">
         <v>0</v>
       </c>
@@ -7831,42 +7841,42 @@
       <c r="AB65" s="19">
         <v>3</v>
       </c>
-      <c r="AC65" s="68" t="s">
+      <c r="AC65" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AD65" s="68"/>
-      <c r="AE65" s="68"/>
+      <c r="AD65" s="98"/>
+      <c r="AE65" s="98"/>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="62"/>
+      <c r="AN65" s="110"/>
       <c r="AX65" s="30"/>
-      <c r="AY65" s="62"/>
+      <c r="AY65" s="110"/>
       <c r="AZ65" s="30"/>
       <c r="BB65" s="47"/>
       <c r="BC65" s="47"/>
     </row>
-    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="85"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="80"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="105"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="102"/>
-      <c r="S66" s="109"/>
-      <c r="T66" s="109"/>
-      <c r="U66" s="102"/>
+    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="86"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="97"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="81"/>
+      <c r="U66" s="77"/>
       <c r="W66" s="21">
         <v>0</v>
       </c>
@@ -7885,44 +7895,44 @@
       <c r="AB66" s="19">
         <v>4</v>
       </c>
-      <c r="AC66" s="68" t="s">
+      <c r="AC66" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="AD66" s="68"/>
-      <c r="AE66" s="68"/>
+      <c r="AD66" s="98"/>
+      <c r="AE66" s="98"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-      <c r="AN66" s="62"/>
+      <c r="AN66" s="110"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AX66" s="30"/>
-      <c r="AY66" s="62"/>
+      <c r="AY66" s="110"/>
       <c r="AZ66" s="30"/>
       <c r="BB66" s="47"/>
       <c r="BC66" s="47"/>
     </row>
-    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="87"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="80"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="106"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="77"/>
-      <c r="S67" s="110"/>
-      <c r="T67" s="110"/>
-      <c r="U67" s="77"/>
+    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="97"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="76"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="76"/>
+      <c r="S67" s="82"/>
+      <c r="T67" s="82"/>
+      <c r="U67" s="76"/>
       <c r="W67" s="21">
         <v>0</v>
       </c>
@@ -7941,23 +7951,23 @@
       <c r="AB67" s="19">
         <v>5</v>
       </c>
-      <c r="AC67" s="68" t="s">
+      <c r="AC67" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AD67" s="68"/>
-      <c r="AE67" s="68"/>
+      <c r="AD67" s="98"/>
+      <c r="AE67" s="98"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-      <c r="AN67" s="62"/>
+      <c r="AN67" s="110"/>
       <c r="AX67" s="30"/>
-      <c r="AY67" s="62"/>
+      <c r="AY67" s="110"/>
       <c r="AZ67" s="30"/>
       <c r="BB67" s="47"/>
       <c r="BC67" s="47"/>
     </row>
-    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
         <v>107</v>
       </c>
@@ -7977,21 +7987,21 @@
       <c r="I68" s="42"/>
       <c r="J68" s="44"/>
       <c r="K68" s="45"/>
-      <c r="M68" s="55">
-        <v>0</v>
-      </c>
-      <c r="N68" s="56">
-        <v>0</v>
-      </c>
-      <c r="O68" s="57">
+      <c r="M68" s="54">
+        <v>0</v>
+      </c>
+      <c r="N68" s="55">
+        <v>0</v>
+      </c>
+      <c r="O68" s="56">
         <v>0</v>
       </c>
       <c r="P68" s="20"/>
       <c r="Q68" s="23"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="57"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="56"/>
       <c r="W68" s="21">
         <v>0</v>
       </c>
@@ -8010,23 +8020,23 @@
       <c r="AB68" s="19">
         <v>6</v>
       </c>
-      <c r="AC68" s="68" t="s">
+      <c r="AC68" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AD68" s="68"/>
-      <c r="AE68" s="68"/>
+      <c r="AD68" s="98"/>
+      <c r="AE68" s="98"/>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AN68" s="62"/>
+      <c r="AN68" s="110"/>
       <c r="AX68" s="30"/>
-      <c r="AY68" s="62"/>
+      <c r="AY68" s="110"/>
       <c r="AZ68" s="30"/>
       <c r="BB68" s="47"/>
       <c r="BC68" s="47"/>
     </row>
-    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="20">
         <v>0</v>
       </c>
@@ -8045,23 +8055,23 @@
       <c r="I69" s="42"/>
       <c r="J69" s="44"/>
       <c r="K69" s="45"/>
-      <c r="M69" s="55">
-        <v>0</v>
-      </c>
-      <c r="N69" s="56">
-        <v>0</v>
-      </c>
-      <c r="O69" s="57">
+      <c r="M69" s="54">
+        <v>0</v>
+      </c>
+      <c r="N69" s="55">
+        <v>0</v>
+      </c>
+      <c r="O69" s="56">
         <v>1</v>
       </c>
       <c r="P69" s="20" t="s">
         <v>59</v>
       </c>
       <c r="Q69" s="23"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="57"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="56"/>
       <c r="W69" s="21">
         <v>0</v>
       </c>
@@ -8080,25 +8090,25 @@
       <c r="AB69" s="19">
         <v>7</v>
       </c>
-      <c r="AC69" s="68" t="s">
+      <c r="AC69" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="68"/>
+      <c r="AD69" s="98"/>
+      <c r="AE69" s="98"/>
       <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AN69" s="62"/>
+      <c r="AN69" s="110"/>
       <c r="AX69" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AY69" s="62"/>
+      <c r="AY69" s="110"/>
       <c r="AZ69" s="30"/>
       <c r="BB69" s="47"/>
       <c r="BC69" s="47"/>
     </row>
-    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="20">
         <v>0</v>
       </c>
@@ -8119,23 +8129,23 @@
       <c r="I70" s="42"/>
       <c r="J70" s="44"/>
       <c r="K70" s="45"/>
-      <c r="M70" s="55">
-        <v>0</v>
-      </c>
-      <c r="N70" s="56">
-        <v>1</v>
-      </c>
-      <c r="O70" s="57">
+      <c r="M70" s="54">
+        <v>0</v>
+      </c>
+      <c r="N70" s="55">
+        <v>1</v>
+      </c>
+      <c r="O70" s="56">
         <v>0</v>
       </c>
       <c r="P70" s="20"/>
       <c r="Q70" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="57"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="56"/>
       <c r="W70" s="21">
         <v>0</v>
       </c>
@@ -8154,23 +8164,23 @@
       <c r="AB70" s="19">
         <v>8</v>
       </c>
-      <c r="AC70" s="68" t="s">
+      <c r="AC70" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AD70" s="68"/>
-      <c r="AE70" s="68"/>
+      <c r="AD70" s="98"/>
+      <c r="AE70" s="98"/>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AN70" s="62"/>
+      <c r="AN70" s="110"/>
       <c r="AX70" s="30"/>
-      <c r="AY70" s="62"/>
+      <c r="AY70" s="110"/>
       <c r="AZ70" s="30"/>
       <c r="BB70" s="47"/>
       <c r="BC70" s="47"/>
     </row>
-    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>107</v>
       </c>
@@ -8194,13 +8204,13 @@
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="45"/>
-      <c r="M71" s="55">
-        <v>0</v>
-      </c>
-      <c r="N71" s="56">
-        <v>1</v>
-      </c>
-      <c r="O71" s="57">
+      <c r="M71" s="54">
+        <v>0</v>
+      </c>
+      <c r="N71" s="55">
+        <v>1</v>
+      </c>
+      <c r="O71" s="56">
         <v>1</v>
       </c>
       <c r="P71" s="48" t="s">
@@ -8209,10 +8219,10 @@
       <c r="Q71" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="R71" s="56"/>
+      <c r="R71" s="55"/>
       <c r="S71" s="49"/>
       <c r="T71" s="49"/>
-      <c r="U71" s="57"/>
+      <c r="U71" s="56"/>
       <c r="W71" s="21">
         <v>0</v>
       </c>
@@ -8231,11 +8241,11 @@
       <c r="AB71" s="19">
         <v>9</v>
       </c>
-      <c r="AC71" s="68" t="s">
+      <c r="AC71" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="AD71" s="68"/>
-      <c r="AE71" s="68"/>
+      <c r="AD71" s="98"/>
+      <c r="AE71" s="98"/>
       <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
@@ -8243,29 +8253,29 @@
       <c r="AM71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AN71" s="62"/>
+      <c r="AN71" s="110"/>
       <c r="AO71" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AQ71" s="64" t="s">
+      <c r="AQ71" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="AR71" s="65"/>
-      <c r="AU71" s="64" t="s">
+      <c r="AR71" s="121"/>
+      <c r="AU71" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="AV71" s="65"/>
+      <c r="AV71" s="121"/>
       <c r="AX71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AY71" s="62"/>
+      <c r="AY71" s="110"/>
       <c r="AZ71" s="39" t="s">
         <v>116</v>
       </c>
       <c r="BB71" s="47"/>
       <c r="BC71" s="47"/>
     </row>
-    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="20">
         <v>1</v>
       </c>
@@ -8286,23 +8296,23 @@
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="45"/>
-      <c r="M72" s="55">
-        <v>1</v>
-      </c>
-      <c r="N72" s="56">
-        <v>0</v>
-      </c>
-      <c r="O72" s="57">
-        <v>0</v>
-      </c>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56" t="s">
+      <c r="M72" s="54">
+        <v>1</v>
+      </c>
+      <c r="N72" s="55">
+        <v>0</v>
+      </c>
+      <c r="O72" s="56">
+        <v>0</v>
+      </c>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="57"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="56"/>
       <c r="W72" s="21">
         <v>0</v>
       </c>
@@ -8321,18 +8331,18 @@
       <c r="AB72" s="19">
         <v>10</v>
       </c>
-      <c r="AC72" s="68" t="s">
+      <c r="AC72" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="AD72" s="68"/>
-      <c r="AE72" s="68"/>
+      <c r="AD72" s="98"/>
+      <c r="AE72" s="98"/>
       <c r="AF72" s="6"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-      <c r="AN72" s="63"/>
+      <c r="AN72" s="111"/>
       <c r="AX72" s="30"/>
-      <c r="AY72" s="63"/>
+      <c r="AY72" s="111"/>
       <c r="AZ72" s="30"/>
       <c r="BB72" s="47"/>
       <c r="BC72" s="47"/>
@@ -8354,21 +8364,21 @@
       <c r="K73" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M73" s="55">
-        <v>1</v>
-      </c>
-      <c r="N73" s="56">
-        <v>0</v>
-      </c>
-      <c r="O73" s="57">
-        <v>1</v>
-      </c>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="56"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="56"/>
-      <c r="U73" s="57"/>
+      <c r="M73" s="54">
+        <v>1</v>
+      </c>
+      <c r="N73" s="55">
+        <v>0</v>
+      </c>
+      <c r="O73" s="56">
+        <v>1</v>
+      </c>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="56"/>
       <c r="W73" s="21">
         <v>0</v>
       </c>
@@ -8387,11 +8397,11 @@
       <c r="AB73" s="19">
         <v>11</v>
       </c>
-      <c r="AC73" s="68" t="s">
+      <c r="AC73" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AD73" s="68"/>
-      <c r="AE73" s="68"/>
+      <c r="AD73" s="98"/>
+      <c r="AE73" s="98"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
@@ -8421,21 +8431,21 @@
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="45"/>
-      <c r="M74" s="55">
-        <v>1</v>
-      </c>
-      <c r="N74" s="56">
-        <v>1</v>
-      </c>
-      <c r="O74" s="57">
-        <v>0</v>
-      </c>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="56"/>
-      <c r="T74" s="56"/>
-      <c r="U74" s="57"/>
+      <c r="M74" s="54">
+        <v>1</v>
+      </c>
+      <c r="N74" s="55">
+        <v>1</v>
+      </c>
+      <c r="O74" s="56">
+        <v>0</v>
+      </c>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="56"/>
       <c r="W74" s="21">
         <v>0</v>
       </c>
@@ -8454,11 +8464,11 @@
       <c r="AB74" s="19">
         <v>12</v>
       </c>
-      <c r="AC74" s="68" t="s">
+      <c r="AC74" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AD74" s="68"/>
-      <c r="AE74" s="68"/>
+      <c r="AD74" s="98"/>
+      <c r="AE74" s="98"/>
       <c r="AF74" s="6"/>
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
@@ -8493,21 +8503,21 @@
         <v>59</v>
       </c>
       <c r="K75" s="45"/>
-      <c r="M75" s="55">
-        <v>1</v>
-      </c>
-      <c r="N75" s="56">
-        <v>1</v>
-      </c>
-      <c r="O75" s="57">
+      <c r="M75" s="54">
+        <v>1</v>
+      </c>
+      <c r="N75" s="55">
+        <v>1</v>
+      </c>
+      <c r="O75" s="56">
         <v>1</v>
       </c>
       <c r="P75" s="48"/>
       <c r="Q75" s="49"/>
-      <c r="R75" s="56"/>
+      <c r="R75" s="55"/>
       <c r="S75" s="49"/>
       <c r="T75" s="49"/>
-      <c r="U75" s="57"/>
+      <c r="U75" s="56"/>
       <c r="W75" s="21">
         <v>0</v>
       </c>
@@ -8526,11 +8536,11 @@
       <c r="AB75" s="19">
         <v>13</v>
       </c>
-      <c r="AC75" s="68" t="s">
+      <c r="AC75" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AD75" s="68"/>
-      <c r="AE75" s="68"/>
+      <c r="AD75" s="98"/>
+      <c r="AE75" s="98"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
@@ -8570,11 +8580,11 @@
       <c r="AB76" s="19">
         <v>14</v>
       </c>
-      <c r="AC76" s="68" t="s">
+      <c r="AC76" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="AD76" s="68"/>
-      <c r="AE76" s="68"/>
+      <c r="AD76" s="98"/>
+      <c r="AE76" s="98"/>
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
@@ -8593,7 +8603,7 @@
       <c r="BB76" s="47"/>
       <c r="BC76" s="47"/>
     </row>
-    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -8602,14 +8612,14 @@
       <c r="M77" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="84"/>
-      <c r="O77" s="78" t="s">
+      <c r="N77" s="85"/>
+      <c r="O77" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="78" t="s">
+      <c r="P77" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="Q77" s="78" t="s">
+      <c r="Q77" s="99" t="s">
         <v>152</v>
       </c>
       <c r="R77" s="6"/>
@@ -8631,11 +8641,11 @@
       <c r="AB77" s="19">
         <v>15</v>
       </c>
-      <c r="AC77" s="68" t="s">
+      <c r="AC77" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="AD77" s="68"/>
-      <c r="AE77" s="68"/>
+      <c r="AD77" s="98"/>
+      <c r="AE77" s="98"/>
       <c r="AF77" s="6"/>
       <c r="AQ77" s="30"/>
       <c r="AR77" s="30"/>
@@ -8645,17 +8655,17 @@
       <c r="BB77" s="47"/>
       <c r="BC77" s="47"/>
     </row>
-    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="78"/>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="78"/>
+      <c r="M78" s="86"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
       <c r="R78" s="6"/>
       <c r="W78" s="21">
         <v>1</v>
@@ -8675,51 +8685,51 @@
       <c r="AB78" s="19">
         <v>16</v>
       </c>
-      <c r="AC78" s="68" t="s">
+      <c r="AC78" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="AD78" s="68"/>
-      <c r="AE78" s="68"/>
+      <c r="AD78" s="98"/>
+      <c r="AE78" s="98"/>
       <c r="AF78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AN78" s="66" t="s">
+      <c r="AN78" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="AO78" s="67"/>
-      <c r="AQ78" s="70" t="s">
+      <c r="AO78" s="113"/>
+      <c r="AQ78" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="71"/>
+      <c r="AR78" s="115"/>
       <c r="AT78" s="30"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="66" t="s">
+      <c r="AX78" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="AY78" s="67"/>
+      <c r="AY78" s="113"/>
       <c r="AZ78" s="30"/>
       <c r="BB78" s="47"/>
       <c r="BC78" s="47"/>
     </row>
-    <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="80" t="s">
+      <c r="C79" s="85"/>
+      <c r="D79" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="80" t="s">
+      <c r="E79" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="90" t="s">
+      <c r="F79" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="M79" s="85"/>
-      <c r="N79" s="86"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="78"/>
+      <c r="M79" s="86"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="99"/>
       <c r="R79" s="6"/>
       <c r="W79" s="21">
         <v>1</v>
@@ -8739,11 +8749,11 @@
       <c r="AB79" s="19">
         <v>17</v>
       </c>
-      <c r="AC79" s="68" t="s">
+      <c r="AC79" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="AD79" s="68"/>
-      <c r="AE79" s="68"/>
+      <c r="AD79" s="98"/>
+      <c r="AE79" s="98"/>
       <c r="AF79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AN79" s="40" t="s">
@@ -8752,8 +8762,8 @@
       <c r="AO79" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AQ79" s="72"/>
-      <c r="AR79" s="73"/>
+      <c r="AQ79" s="116"/>
+      <c r="AR79" s="117"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="40" t="s">
@@ -8766,17 +8776,17 @@
       <c r="BB79" s="47"/>
       <c r="BC79" s="47"/>
     </row>
-    <row r="80" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="85"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="90"/>
-      <c r="M80" s="85"/>
-      <c r="N80" s="86"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
+    <row r="80" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="86"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="96"/>
+      <c r="M80" s="86"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="99"/>
+      <c r="Q80" s="99"/>
       <c r="R80" s="6"/>
       <c r="W80" s="21">
         <v>1</v>
@@ -8796,15 +8806,15 @@
       <c r="AB80" s="19">
         <v>18</v>
       </c>
-      <c r="AC80" s="68" t="s">
+      <c r="AC80" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AD80" s="68"/>
-      <c r="AE80" s="68"/>
+      <c r="AD80" s="98"/>
+      <c r="AE80" s="98"/>
       <c r="AF80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AQ80" s="72"/>
-      <c r="AR80" s="73"/>
+      <c r="AQ80" s="116"/>
+      <c r="AR80" s="117"/>
       <c r="AV80" s="30"/>
       <c r="AX80" s="30"/>
       <c r="AY80" s="30"/>
@@ -8812,17 +8822,17 @@
       <c r="BB80" s="47"/>
       <c r="BC80" s="47"/>
     </row>
-    <row r="81" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="87"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="90"/>
-      <c r="M81" s="85"/>
-      <c r="N81" s="86"/>
-      <c r="O81" s="78"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="78"/>
+    <row r="81" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="89"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="96"/>
+      <c r="M81" s="86"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
       <c r="R81" s="6"/>
       <c r="W81" s="21">
         <v>1</v>
@@ -8842,26 +8852,26 @@
       <c r="AB81" s="19">
         <v>19</v>
       </c>
-      <c r="AC81" s="68" t="s">
+      <c r="AC81" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="AD81" s="68"/>
-      <c r="AE81" s="68"/>
+      <c r="AD81" s="98"/>
+      <c r="AE81" s="98"/>
       <c r="AF81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AN81" s="61" t="s">
+      <c r="AN81" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="AQ81" s="74"/>
-      <c r="AR81" s="75"/>
+      <c r="AQ81" s="118"/>
+      <c r="AR81" s="119"/>
       <c r="AV81" s="30"/>
       <c r="AX81" s="30"/>
-      <c r="AY81" s="61" t="s">
+      <c r="AY81" s="109" t="s">
         <v>125</v>
       </c>
       <c r="AZ81" s="30"/>
     </row>
-    <row r="82" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B82" s="21">
         <v>0</v>
       </c>
@@ -8871,11 +8881,11 @@
       <c r="D82" s="21"/>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
-      <c r="M82" s="87"/>
-      <c r="N82" s="88"/>
-      <c r="O82" s="78"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="78"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="99"/>
+      <c r="P82" s="99"/>
+      <c r="Q82" s="99"/>
       <c r="R82" s="6"/>
       <c r="W82" s="21">
         <v>1</v>
@@ -8895,18 +8905,18 @@
       <c r="AB82" s="19">
         <v>20</v>
       </c>
-      <c r="AC82" s="79"/>
-      <c r="AD82" s="79"/>
-      <c r="AE82" s="79"/>
+      <c r="AC82" s="92"/>
+      <c r="AD82" s="92"/>
+      <c r="AE82" s="92"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="62"/>
+      <c r="AN82" s="110"/>
       <c r="AV82" s="30"/>
       <c r="AX82" s="30"/>
-      <c r="AY82" s="62"/>
+      <c r="AY82" s="110"/>
       <c r="AZ82" s="30"/>
     </row>
-    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21">
         <v>0</v>
       </c>
@@ -8945,17 +8955,17 @@
       <c r="AB83" s="19">
         <v>21</v>
       </c>
-      <c r="AC83" s="79"/>
-      <c r="AD83" s="79"/>
-      <c r="AE83" s="79"/>
+      <c r="AC83" s="92"/>
+      <c r="AD83" s="92"/>
+      <c r="AE83" s="92"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="62"/>
+      <c r="AN83" s="110"/>
       <c r="AX83" s="30"/>
-      <c r="AY83" s="62"/>
+      <c r="AY83" s="110"/>
       <c r="AZ83" s="30"/>
     </row>
-    <row r="84" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B84" s="21">
         <v>1</v>
       </c>
@@ -8997,16 +9007,16 @@
       <c r="AB84" s="19">
         <v>22</v>
       </c>
-      <c r="AC84" s="79"/>
-      <c r="AD84" s="79"/>
-      <c r="AE84" s="79"/>
+      <c r="AC84" s="92"/>
+      <c r="AD84" s="92"/>
+      <c r="AE84" s="92"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="62"/>
+      <c r="AN84" s="110"/>
       <c r="AX84" s="30"/>
-      <c r="AY84" s="62"/>
+      <c r="AY84" s="110"/>
       <c r="AZ84" s="30"/>
     </row>
-    <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="21">
         <v>1</v>
       </c>
@@ -9050,13 +9060,13 @@
       <c r="AB85" s="19">
         <v>23</v>
       </c>
-      <c r="AC85" s="79"/>
-      <c r="AD85" s="79"/>
-      <c r="AE85" s="79"/>
+      <c r="AC85" s="92"/>
+      <c r="AD85" s="92"/>
+      <c r="AE85" s="92"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="63"/>
+      <c r="AN85" s="111"/>
       <c r="AX85" s="30"/>
-      <c r="AY85" s="63"/>
+      <c r="AY85" s="111"/>
       <c r="AZ85" s="30"/>
     </row>
     <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9095,15 +9105,15 @@
       <c r="AB86" s="19">
         <v>24</v>
       </c>
-      <c r="AC86" s="79"/>
-      <c r="AD86" s="79"/>
-      <c r="AE86" s="79"/>
+      <c r="AC86" s="92"/>
+      <c r="AD86" s="92"/>
+      <c r="AE86" s="92"/>
       <c r="AF86" s="6"/>
       <c r="AX86" s="30"/>
       <c r="AY86" s="30"/>
       <c r="AZ86" s="30"/>
     </row>
-    <row r="87" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:52" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -9125,20 +9135,20 @@
       <c r="AB87" s="19">
         <v>25</v>
       </c>
-      <c r="AC87" s="79"/>
-      <c r="AD87" s="79"/>
-      <c r="AE87" s="79"/>
+      <c r="AC87" s="92"/>
+      <c r="AD87" s="92"/>
+      <c r="AE87" s="92"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="61" t="s">
+      <c r="AN87" s="109" t="s">
         <v>120</v>
       </c>
       <c r="AX87" s="30"/>
-      <c r="AY87" s="61" t="s">
+      <c r="AY87" s="109" t="s">
         <v>126</v>
       </c>
       <c r="AZ87" s="30"/>
     </row>
-    <row r="88" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -9148,14 +9158,14 @@
       <c r="M88" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="N88" s="84"/>
-      <c r="O88" s="80" t="s">
+      <c r="N88" s="85"/>
+      <c r="O88" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="P88" s="80" t="s">
+      <c r="P88" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="Q88" s="89" t="s">
+      <c r="Q88" s="107" t="s">
         <v>101</v>
       </c>
       <c r="W88" s="21">
@@ -9176,27 +9186,27 @@
       <c r="AB88" s="19">
         <v>26</v>
       </c>
-      <c r="AC88" s="79"/>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="79"/>
+      <c r="AC88" s="92"/>
+      <c r="AD88" s="92"/>
+      <c r="AE88" s="92"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="62"/>
+      <c r="AN88" s="110"/>
       <c r="AX88" s="30"/>
-      <c r="AY88" s="62"/>
+      <c r="AY88" s="110"/>
       <c r="AZ88" s="30"/>
     </row>
-    <row r="89" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="86"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="89"/>
+      <c r="M89" s="86"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="97"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="107"/>
       <c r="W89" s="21">
         <v>1</v>
       </c>
@@ -9215,27 +9225,27 @@
       <c r="AB89" s="19">
         <v>27</v>
       </c>
-      <c r="AC89" s="79"/>
-      <c r="AD89" s="79"/>
-      <c r="AE89" s="79"/>
+      <c r="AC89" s="92"/>
+      <c r="AD89" s="92"/>
+      <c r="AE89" s="92"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="62"/>
+      <c r="AN89" s="110"/>
       <c r="AX89" s="30"/>
-      <c r="AY89" s="62"/>
+      <c r="AY89" s="110"/>
       <c r="AZ89" s="30"/>
     </row>
-    <row r="90" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="80"/>
-      <c r="P90" s="80"/>
-      <c r="Q90" s="89"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="97"/>
+      <c r="P90" s="97"/>
+      <c r="Q90" s="107"/>
       <c r="W90" s="21">
         <v>1</v>
       </c>
@@ -9254,27 +9264,27 @@
       <c r="AB90" s="19">
         <v>28</v>
       </c>
-      <c r="AC90" s="79"/>
-      <c r="AD90" s="79"/>
-      <c r="AE90" s="79"/>
+      <c r="AC90" s="92"/>
+      <c r="AD90" s="92"/>
+      <c r="AE90" s="92"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="62"/>
+      <c r="AN90" s="110"/>
       <c r="AX90" s="30"/>
-      <c r="AY90" s="62"/>
+      <c r="AY90" s="110"/>
       <c r="AZ90" s="30"/>
     </row>
-    <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="M91" s="87"/>
-      <c r="N91" s="88"/>
-      <c r="O91" s="80"/>
-      <c r="P91" s="80"/>
-      <c r="Q91" s="89"/>
+      <c r="M91" s="89"/>
+      <c r="N91" s="91"/>
+      <c r="O91" s="97"/>
+      <c r="P91" s="97"/>
+      <c r="Q91" s="107"/>
       <c r="S91" s="6"/>
       <c r="W91" s="21">
         <v>1</v>
@@ -9294,16 +9304,16 @@
       <c r="AB91" s="19">
         <v>29</v>
       </c>
-      <c r="AC91" s="79"/>
-      <c r="AD91" s="79"/>
-      <c r="AE91" s="79"/>
+      <c r="AC91" s="92"/>
+      <c r="AD91" s="92"/>
+      <c r="AE91" s="92"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="63"/>
+      <c r="AN91" s="111"/>
       <c r="AX91" s="30"/>
-      <c r="AY91" s="63"/>
+      <c r="AY91" s="111"/>
       <c r="AZ91" s="30"/>
     </row>
-    <row r="92" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="M92" s="21">
         <v>0</v>
@@ -9333,12 +9343,12 @@
       <c r="AB92" s="19">
         <v>30</v>
       </c>
-      <c r="AC92" s="79"/>
-      <c r="AD92" s="79"/>
-      <c r="AE92" s="79"/>
+      <c r="AC92" s="92"/>
+      <c r="AD92" s="92"/>
+      <c r="AE92" s="92"/>
       <c r="AF92" s="6"/>
     </row>
-    <row r="93" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="M93" s="21">
         <v>0</v>
@@ -9370,14 +9380,14 @@
       <c r="AB93" s="19">
         <v>31</v>
       </c>
-      <c r="AC93" s="79" t="s">
+      <c r="AC93" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AD93" s="79"/>
-      <c r="AE93" s="79"/>
+      <c r="AD93" s="92"/>
+      <c r="AE93" s="92"/>
       <c r="AF93" s="6"/>
     </row>
-    <row r="94" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B94" s="6"/>
       <c r="M94" s="21">
         <v>1</v>
@@ -9392,7 +9402,7 @@
       <c r="Q94" s="24"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B95" s="6"/>
       <c r="M95" s="21">
         <v>1</v>
@@ -9407,17 +9417,17 @@
       </c>
       <c r="S95" s="6"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A98" s="59"/>
       <c r="B98" s="1"/>
       <c r="C98" s="51"/>
       <c r="D98" s="51"/>
       <c r="E98" s="51"/>
       <c r="F98" s="51"/>
-      <c r="G98" s="102" t="s">
+      <c r="G98" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="H98" s="102" t="s">
+      <c r="H98" s="77" t="s">
         <v>147</v>
       </c>
       <c r="J98" s="28"/>
@@ -9446,163 +9456,163 @@
       <c r="AG98" s="1"/>
       <c r="AH98" s="51"/>
       <c r="AI98" s="51"/>
-      <c r="AJ98" s="60"/>
-      <c r="AK98" s="60"/>
-      <c r="AL98" s="60"/>
-      <c r="AM98" s="60"/>
-      <c r="AN98" s="60"/>
-      <c r="AO98" s="60"/>
-    </row>
-    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="60"/>
-      <c r="B99" s="76" t="s">
+      <c r="AJ98" s="59"/>
+      <c r="AK98" s="59"/>
+      <c r="AL98" s="59"/>
+      <c r="AM98" s="59"/>
+      <c r="AN98" s="59"/>
+      <c r="AO98" s="59"/>
+    </row>
+    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="76"/>
-      <c r="D99" s="102" t="s">
+      <c r="C99" s="75"/>
+      <c r="D99" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="E99" s="102"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="102"/>
-      <c r="I99" s="102" t="s">
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="J99" s="102"/>
-      <c r="K99" s="102"/>
-      <c r="L99" s="76" t="s">
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="M99" s="76"/>
-      <c r="N99" s="76" t="s">
+      <c r="M99" s="75"/>
+      <c r="N99" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="O99" s="76"/>
-      <c r="P99" s="76" t="s">
+      <c r="O99" s="75"/>
+      <c r="P99" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="Q99" s="76"/>
-      <c r="R99" s="76" t="s">
+      <c r="Q99" s="75"/>
+      <c r="R99" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="S99" s="76"/>
-      <c r="T99" s="76"/>
-      <c r="U99" s="76"/>
-      <c r="V99" s="76"/>
-      <c r="W99" s="76" t="s">
+      <c r="S99" s="75"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="75"/>
+      <c r="V99" s="75"/>
+      <c r="W99" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="X99" s="76"/>
-      <c r="Y99" s="76" t="s">
+      <c r="X99" s="75"/>
+      <c r="Y99" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="Z99" s="76"/>
-      <c r="AA99" s="76" t="s">
+      <c r="Z99" s="75"/>
+      <c r="AA99" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="AB99" s="76"/>
-      <c r="AC99" s="76" t="s">
+      <c r="AB99" s="75"/>
+      <c r="AC99" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="AD99" s="76"/>
-      <c r="AE99" s="76"/>
-      <c r="AF99" s="76"/>
-      <c r="AG99" s="76"/>
+      <c r="AD99" s="75"/>
+      <c r="AE99" s="75"/>
+      <c r="AF99" s="75"/>
+      <c r="AG99" s="75"/>
       <c r="AH99" s="51"/>
       <c r="AI99" s="51"/>
-      <c r="AJ99" s="60"/>
-      <c r="AK99" s="60"/>
-      <c r="AL99" s="60"/>
-      <c r="AM99" s="60"/>
-      <c r="AN99" s="60"/>
-      <c r="AO99" s="60"/>
-    </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A100" s="60"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="102"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="102"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="76"/>
-      <c r="O100" s="76"/>
-      <c r="P100" s="76"/>
-      <c r="Q100" s="76"/>
-      <c r="R100" s="76"/>
-      <c r="S100" s="76"/>
-      <c r="T100" s="76"/>
-      <c r="U100" s="76"/>
-      <c r="V100" s="76"/>
-      <c r="W100" s="76"/>
-      <c r="X100" s="76"/>
-      <c r="Y100" s="76"/>
-      <c r="Z100" s="76"/>
-      <c r="AA100" s="76"/>
-      <c r="AB100" s="76"/>
-      <c r="AC100" s="76"/>
-      <c r="AD100" s="76"/>
-      <c r="AE100" s="76"/>
-      <c r="AF100" s="76"/>
-      <c r="AG100" s="76"/>
+      <c r="AJ99" s="59"/>
+      <c r="AK99" s="59"/>
+      <c r="AL99" s="59"/>
+      <c r="AM99" s="59"/>
+      <c r="AN99" s="59"/>
+      <c r="AO99" s="59"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
+      <c r="P100" s="75"/>
+      <c r="Q100" s="75"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="75"/>
+      <c r="T100" s="75"/>
+      <c r="U100" s="75"/>
+      <c r="V100" s="75"/>
+      <c r="W100" s="75"/>
+      <c r="X100" s="75"/>
+      <c r="Y100" s="75"/>
+      <c r="Z100" s="75"/>
+      <c r="AA100" s="75"/>
+      <c r="AB100" s="75"/>
+      <c r="AC100" s="75"/>
+      <c r="AD100" s="75"/>
+      <c r="AE100" s="75"/>
+      <c r="AF100" s="75"/>
+      <c r="AG100" s="75"/>
       <c r="AH100" s="51"/>
       <c r="AI100" s="51"/>
-      <c r="AJ100" s="60"/>
-      <c r="AK100" s="60"/>
-      <c r="AL100" s="60"/>
-      <c r="AM100" s="60"/>
-      <c r="AN100" s="60"/>
-      <c r="AO100" s="60"/>
-    </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A101" s="60"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="77"/>
-      <c r="L101" s="77"/>
-      <c r="M101" s="77"/>
-      <c r="N101" s="77"/>
-      <c r="O101" s="77"/>
-      <c r="P101" s="77"/>
-      <c r="Q101" s="77"/>
-      <c r="R101" s="77"/>
-      <c r="S101" s="77"/>
-      <c r="T101" s="77"/>
-      <c r="U101" s="77"/>
-      <c r="V101" s="77"/>
-      <c r="W101" s="77"/>
-      <c r="X101" s="77"/>
-      <c r="Y101" s="77"/>
-      <c r="Z101" s="77"/>
-      <c r="AA101" s="77"/>
-      <c r="AB101" s="77"/>
-      <c r="AC101" s="77"/>
-      <c r="AD101" s="77"/>
-      <c r="AE101" s="77"/>
-      <c r="AF101" s="77"/>
-      <c r="AG101" s="77"/>
+      <c r="AJ100" s="59"/>
+      <c r="AK100" s="59"/>
+      <c r="AL100" s="59"/>
+      <c r="AM100" s="59"/>
+      <c r="AN100" s="59"/>
+      <c r="AO100" s="59"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="76"/>
+      <c r="N101" s="76"/>
+      <c r="O101" s="76"/>
+      <c r="P101" s="76"/>
+      <c r="Q101" s="76"/>
+      <c r="R101" s="76"/>
+      <c r="S101" s="76"/>
+      <c r="T101" s="76"/>
+      <c r="U101" s="76"/>
+      <c r="V101" s="76"/>
+      <c r="W101" s="76"/>
+      <c r="X101" s="76"/>
+      <c r="Y101" s="76"/>
+      <c r="Z101" s="76"/>
+      <c r="AA101" s="76"/>
+      <c r="AB101" s="76"/>
+      <c r="AC101" s="76"/>
+      <c r="AD101" s="76"/>
+      <c r="AE101" s="76"/>
+      <c r="AF101" s="76"/>
+      <c r="AG101" s="76"/>
       <c r="AH101" s="51"/>
       <c r="AI101" s="51"/>
-      <c r="AJ101" s="60"/>
-      <c r="AK101" s="60"/>
-      <c r="AL101" s="60"/>
-      <c r="AM101" s="60"/>
-      <c r="AN101" s="60"/>
-      <c r="AO101" s="60"/>
+      <c r="AJ101" s="59"/>
+      <c r="AK101" s="59"/>
+      <c r="AL101" s="59"/>
+      <c r="AM101" s="59"/>
+      <c r="AN101" s="59"/>
+      <c r="AO101" s="59"/>
     </row>
     <row r="102" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B102" s="18">
@@ -9706,54 +9716,54 @@
       <c r="A103" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="59">
-        <v>1</v>
-      </c>
-      <c r="C103" s="100" t="s">
+      <c r="B103" s="58">
+        <v>1</v>
+      </c>
+      <c r="C103" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="100"/>
-      <c r="H103" s="100"/>
-      <c r="I103" s="100"/>
-      <c r="J103" s="100"/>
-      <c r="K103" s="100"/>
-      <c r="L103" s="100"/>
-      <c r="M103" s="100"/>
-      <c r="N103" s="100"/>
-      <c r="O103" s="100"/>
-      <c r="P103" s="100"/>
-      <c r="Q103" s="100"/>
-      <c r="R103" s="100"/>
-      <c r="S103" s="100"/>
-      <c r="T103" s="100"/>
-      <c r="U103" s="100"/>
-      <c r="V103" s="100"/>
-      <c r="W103" s="100"/>
-      <c r="X103" s="100"/>
-      <c r="Y103" s="100"/>
-      <c r="Z103" s="100"/>
-      <c r="AA103" s="100"/>
-      <c r="AB103" s="100"/>
-      <c r="AC103" s="100"/>
-      <c r="AD103" s="100"/>
-      <c r="AE103" s="100"/>
-      <c r="AF103" s="100"/>
-      <c r="AG103" s="101"/>
-      <c r="AH103" s="114"/>
-      <c r="AI103" s="92" t="s">
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
+      <c r="O103" s="78"/>
+      <c r="P103" s="78"/>
+      <c r="Q103" s="78"/>
+      <c r="R103" s="78"/>
+      <c r="S103" s="78"/>
+      <c r="T103" s="78"/>
+      <c r="U103" s="78"/>
+      <c r="V103" s="78"/>
+      <c r="W103" s="78"/>
+      <c r="X103" s="78"/>
+      <c r="Y103" s="78"/>
+      <c r="Z103" s="78"/>
+      <c r="AA103" s="78"/>
+      <c r="AB103" s="78"/>
+      <c r="AC103" s="78"/>
+      <c r="AD103" s="78"/>
+      <c r="AE103" s="78"/>
+      <c r="AF103" s="78"/>
+      <c r="AG103" s="79"/>
+      <c r="AH103" s="70"/>
+      <c r="AI103" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="92"/>
-      <c r="AK103" s="92"/>
+      <c r="AJ103" s="80"/>
+      <c r="AK103" s="80"/>
     </row>
     <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="59">
+      <c r="B104" s="58">
         <v>0</v>
       </c>
       <c r="C104" s="32">
@@ -9779,36 +9789,36 @@
       <c r="O104" s="32"/>
       <c r="P104" s="52"/>
       <c r="Q104" s="32"/>
-      <c r="R104" s="100" t="s">
+      <c r="R104" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="S104" s="100"/>
-      <c r="T104" s="100"/>
-      <c r="U104" s="100"/>
-      <c r="V104" s="100"/>
-      <c r="W104" s="100"/>
-      <c r="X104" s="100"/>
-      <c r="Y104" s="100"/>
-      <c r="Z104" s="100"/>
-      <c r="AA104" s="100"/>
-      <c r="AB104" s="100"/>
-      <c r="AC104" s="100"/>
-      <c r="AD104" s="100"/>
-      <c r="AE104" s="100"/>
-      <c r="AF104" s="100"/>
-      <c r="AG104" s="101"/>
-      <c r="AH104" s="56"/>
-      <c r="AI104" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ104" s="92"/>
-      <c r="AK104" s="92"/>
+      <c r="S104" s="78"/>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
+      <c r="W104" s="78"/>
+      <c r="X104" s="78"/>
+      <c r="Y104" s="78"/>
+      <c r="Z104" s="78"/>
+      <c r="AA104" s="78"/>
+      <c r="AB104" s="78"/>
+      <c r="AC104" s="78"/>
+      <c r="AD104" s="78"/>
+      <c r="AE104" s="78"/>
+      <c r="AF104" s="78"/>
+      <c r="AG104" s="79"/>
+      <c r="AH104" s="55"/>
+      <c r="AI104" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ104" s="80"/>
+      <c r="AK104" s="80"/>
     </row>
     <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="59">
+      <c r="B105" s="58">
         <v>0</v>
       </c>
       <c r="C105" s="32">
@@ -9834,34 +9844,34 @@
       <c r="O105" s="32"/>
       <c r="P105" s="52"/>
       <c r="Q105" s="32"/>
-      <c r="R105" s="100" t="s">
+      <c r="R105" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="S105" s="100"/>
-      <c r="T105" s="100"/>
-      <c r="U105" s="100"/>
-      <c r="V105" s="100"/>
-      <c r="W105" s="100"/>
-      <c r="X105" s="100"/>
-      <c r="Y105" s="100"/>
-      <c r="Z105" s="100"/>
-      <c r="AA105" s="100"/>
-      <c r="AB105" s="100"/>
-      <c r="AC105" s="100"/>
-      <c r="AD105" s="100"/>
-      <c r="AE105" s="100"/>
-      <c r="AF105" s="100"/>
-      <c r="AG105" s="101"/>
-      <c r="AH105" s="56"/>
-      <c r="AI105" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ105" s="92"/>
-      <c r="AK105" s="92"/>
+      <c r="S105" s="78"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="78"/>
+      <c r="W105" s="78"/>
+      <c r="X105" s="78"/>
+      <c r="Y105" s="78"/>
+      <c r="Z105" s="78"/>
+      <c r="AA105" s="78"/>
+      <c r="AB105" s="78"/>
+      <c r="AC105" s="78"/>
+      <c r="AD105" s="78"/>
+      <c r="AE105" s="78"/>
+      <c r="AF105" s="78"/>
+      <c r="AG105" s="79"/>
+      <c r="AH105" s="55"/>
+      <c r="AI105" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ105" s="80"/>
+      <c r="AK105" s="80"/>
     </row>
     <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="31"/>
-      <c r="B106" s="59">
+      <c r="B106" s="58">
         <v>0</v>
       </c>
       <c r="C106" s="32">
@@ -9881,32 +9891,32 @@
       <c r="O106" s="32"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="32"/>
-      <c r="R106" s="100" t="s">
+      <c r="R106" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="S106" s="100"/>
-      <c r="T106" s="100"/>
-      <c r="U106" s="100"/>
-      <c r="V106" s="100"/>
-      <c r="W106" s="100"/>
-      <c r="X106" s="100"/>
-      <c r="Y106" s="100"/>
-      <c r="Z106" s="100"/>
-      <c r="AA106" s="100"/>
-      <c r="AB106" s="100"/>
-      <c r="AC106" s="100"/>
-      <c r="AD106" s="100"/>
-      <c r="AE106" s="100"/>
-      <c r="AF106" s="100"/>
-      <c r="AG106" s="101"/>
-      <c r="AH106" s="56"/>
-      <c r="AI106" s="92"/>
-      <c r="AJ106" s="92"/>
-      <c r="AK106" s="92"/>
+      <c r="S106" s="78"/>
+      <c r="T106" s="78"/>
+      <c r="U106" s="78"/>
+      <c r="V106" s="78"/>
+      <c r="W106" s="78"/>
+      <c r="X106" s="78"/>
+      <c r="Y106" s="78"/>
+      <c r="Z106" s="78"/>
+      <c r="AA106" s="78"/>
+      <c r="AB106" s="78"/>
+      <c r="AC106" s="78"/>
+      <c r="AD106" s="78"/>
+      <c r="AE106" s="78"/>
+      <c r="AF106" s="78"/>
+      <c r="AG106" s="79"/>
+      <c r="AH106" s="55"/>
+      <c r="AI106" s="80"/>
+      <c r="AJ106" s="80"/>
+      <c r="AK106" s="80"/>
     </row>
     <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31"/>
-      <c r="B107" s="59">
+      <c r="B107" s="58">
         <v>0</v>
       </c>
       <c r="C107" s="32">
@@ -9926,32 +9936,32 @@
       <c r="O107" s="32"/>
       <c r="P107" s="52"/>
       <c r="Q107" s="32"/>
-      <c r="R107" s="100" t="s">
+      <c r="R107" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="S107" s="100"/>
-      <c r="T107" s="100"/>
-      <c r="U107" s="100"/>
-      <c r="V107" s="100"/>
-      <c r="W107" s="100"/>
-      <c r="X107" s="100"/>
-      <c r="Y107" s="100"/>
-      <c r="Z107" s="100"/>
-      <c r="AA107" s="100"/>
-      <c r="AB107" s="100"/>
-      <c r="AC107" s="100"/>
-      <c r="AD107" s="100"/>
-      <c r="AE107" s="100"/>
-      <c r="AF107" s="100"/>
-      <c r="AG107" s="101"/>
-      <c r="AH107" s="56"/>
-      <c r="AI107" s="92"/>
-      <c r="AJ107" s="92"/>
-      <c r="AK107" s="92"/>
+      <c r="S107" s="78"/>
+      <c r="T107" s="78"/>
+      <c r="U107" s="78"/>
+      <c r="V107" s="78"/>
+      <c r="W107" s="78"/>
+      <c r="X107" s="78"/>
+      <c r="Y107" s="78"/>
+      <c r="Z107" s="78"/>
+      <c r="AA107" s="78"/>
+      <c r="AB107" s="78"/>
+      <c r="AC107" s="78"/>
+      <c r="AD107" s="78"/>
+      <c r="AE107" s="78"/>
+      <c r="AF107" s="78"/>
+      <c r="AG107" s="79"/>
+      <c r="AH107" s="55"/>
+      <c r="AI107" s="80"/>
+      <c r="AJ107" s="80"/>
+      <c r="AK107" s="80"/>
     </row>
     <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="31"/>
-      <c r="B108" s="59">
+      <c r="B108" s="58">
         <v>0</v>
       </c>
       <c r="C108" s="32">
@@ -9971,34 +9981,34 @@
       <c r="O108" s="32"/>
       <c r="P108" s="52"/>
       <c r="Q108" s="32"/>
-      <c r="R108" s="100" t="s">
+      <c r="R108" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="S108" s="100"/>
-      <c r="T108" s="100"/>
-      <c r="U108" s="100"/>
-      <c r="V108" s="100"/>
-      <c r="W108" s="100"/>
-      <c r="X108" s="100"/>
-      <c r="Y108" s="100"/>
-      <c r="Z108" s="100"/>
-      <c r="AA108" s="100"/>
-      <c r="AB108" s="100"/>
-      <c r="AC108" s="100"/>
-      <c r="AD108" s="100"/>
-      <c r="AE108" s="100"/>
-      <c r="AF108" s="100"/>
-      <c r="AG108" s="101"/>
-      <c r="AH108" s="56"/>
-      <c r="AI108" s="92"/>
-      <c r="AJ108" s="92"/>
-      <c r="AK108" s="92"/>
+      <c r="S108" s="78"/>
+      <c r="T108" s="78"/>
+      <c r="U108" s="78"/>
+      <c r="V108" s="78"/>
+      <c r="W108" s="78"/>
+      <c r="X108" s="78"/>
+      <c r="Y108" s="78"/>
+      <c r="Z108" s="78"/>
+      <c r="AA108" s="78"/>
+      <c r="AB108" s="78"/>
+      <c r="AC108" s="78"/>
+      <c r="AD108" s="78"/>
+      <c r="AE108" s="78"/>
+      <c r="AF108" s="78"/>
+      <c r="AG108" s="79"/>
+      <c r="AH108" s="55"/>
+      <c r="AI108" s="80"/>
+      <c r="AJ108" s="80"/>
+      <c r="AK108" s="80"/>
     </row>
     <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="59">
+      <c r="B109" s="58">
         <v>0</v>
       </c>
       <c r="C109" s="32">
@@ -10041,25 +10051,25 @@
       <c r="Z109" s="32"/>
       <c r="AA109" s="52"/>
       <c r="AB109" s="32"/>
-      <c r="AC109" s="100" t="s">
+      <c r="AC109" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="AD109" s="100"/>
-      <c r="AE109" s="100"/>
-      <c r="AF109" s="100"/>
-      <c r="AG109" s="101"/>
-      <c r="AH109" s="56"/>
-      <c r="AI109" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ109" s="92"/>
-      <c r="AK109" s="92"/>
+      <c r="AD109" s="78"/>
+      <c r="AE109" s="78"/>
+      <c r="AF109" s="78"/>
+      <c r="AG109" s="79"/>
+      <c r="AH109" s="55"/>
+      <c r="AI109" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ109" s="80"/>
+      <c r="AK109" s="80"/>
     </row>
     <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="59">
+      <c r="B110" s="58">
         <v>0</v>
       </c>
       <c r="C110" s="32">
@@ -10117,18 +10127,18 @@
       <c r="AE110" s="34"/>
       <c r="AF110" s="34"/>
       <c r="AG110" s="35"/>
-      <c r="AH110" s="56"/>
-      <c r="AI110" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ110" s="92"/>
-      <c r="AK110" s="92"/>
+      <c r="AH110" s="55"/>
+      <c r="AI110" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ110" s="80"/>
+      <c r="AK110" s="80"/>
     </row>
     <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="59">
+      <c r="B111" s="58">
         <v>0</v>
       </c>
       <c r="C111" s="32">
@@ -10194,18 +10204,18 @@
       <c r="AE111" s="34"/>
       <c r="AF111" s="34"/>
       <c r="AG111" s="35"/>
-      <c r="AH111" s="56"/>
-      <c r="AI111" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ111" s="92"/>
-      <c r="AK111" s="92"/>
+      <c r="AH111" s="55"/>
+      <c r="AI111" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ111" s="80"/>
+      <c r="AK111" s="80"/>
     </row>
     <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="59">
+      <c r="B112" s="58">
         <v>0</v>
       </c>
       <c r="C112" s="32">
@@ -10247,18 +10257,18 @@
       <c r="AE112" s="34"/>
       <c r="AF112" s="34"/>
       <c r="AG112" s="35"/>
-      <c r="AH112" s="56"/>
-      <c r="AI112" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ112" s="92"/>
-      <c r="AK112" s="92"/>
+      <c r="AH112" s="55"/>
+      <c r="AI112" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ112" s="80"/>
+      <c r="AK112" s="80"/>
     </row>
     <row r="113" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="59">
+      <c r="B113" s="58">
         <v>0</v>
       </c>
       <c r="C113" s="32">
@@ -10316,18 +10326,18 @@
       <c r="AE113" s="34"/>
       <c r="AF113" s="34"/>
       <c r="AG113" s="35"/>
-      <c r="AH113" s="56"/>
-      <c r="AI113" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ113" s="92"/>
-      <c r="AK113" s="92"/>
+      <c r="AH113" s="55"/>
+      <c r="AI113" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ113" s="80"/>
+      <c r="AK113" s="80"/>
     </row>
     <row r="114" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="59">
+      <c r="B114" s="58">
         <v>0</v>
       </c>
       <c r="C114" s="32">
@@ -10336,7 +10346,7 @@
       <c r="D114" s="36">
         <v>0</v>
       </c>
-      <c r="E114" s="111">
+      <c r="E114" s="67">
         <v>1</v>
       </c>
       <c r="F114" s="37">
@@ -10347,14 +10357,14 @@
       <c r="I114" s="52">
         <v>0</v>
       </c>
-      <c r="J114" s="111">
+      <c r="J114" s="67">
         <v>1</v>
       </c>
       <c r="K114" s="37">
         <v>0</v>
       </c>
-      <c r="L114" s="112"/>
-      <c r="M114" s="113"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="69"/>
       <c r="N114" s="52">
         <v>1</v>
       </c>
@@ -10395,29 +10405,29 @@
       <c r="AE114" s="34"/>
       <c r="AF114" s="34"/>
       <c r="AG114" s="35"/>
-      <c r="AH114" s="56"/>
-      <c r="AI114" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ114" s="92"/>
-      <c r="AK114" s="92"/>
-      <c r="AL114" s="69"/>
-      <c r="AM114" s="69"/>
-      <c r="AN114" s="69"/>
-      <c r="AO114" s="69"/>
+      <c r="AH114" s="55"/>
+      <c r="AI114" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ114" s="80"/>
+      <c r="AK114" s="80"/>
+      <c r="AL114" s="122"/>
+      <c r="AM114" s="122"/>
+      <c r="AN114" s="122"/>
+      <c r="AO114" s="122"/>
     </row>
     <row r="115" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="59">
+      <c r="B115" s="58">
         <v>0</v>
       </c>
       <c r="C115" s="32">
         <v>1</v>
       </c>
       <c r="D115" s="36"/>
-      <c r="E115" s="111"/>
+      <c r="E115" s="67"/>
       <c r="F115" s="37"/>
       <c r="G115" s="33"/>
       <c r="H115" s="33"/>
@@ -10472,22 +10482,22 @@
       <c r="AE115" s="34"/>
       <c r="AF115" s="34"/>
       <c r="AG115" s="35"/>
-      <c r="AH115" s="56"/>
-      <c r="AI115" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ115" s="92"/>
-      <c r="AK115" s="92"/>
-      <c r="AL115" s="69"/>
-      <c r="AM115" s="69"/>
-      <c r="AN115" s="69"/>
-      <c r="AO115" s="69"/>
+      <c r="AH115" s="55"/>
+      <c r="AI115" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ115" s="80"/>
+      <c r="AK115" s="80"/>
+      <c r="AL115" s="122"/>
+      <c r="AM115" s="122"/>
+      <c r="AN115" s="122"/>
+      <c r="AO115" s="122"/>
     </row>
     <row r="116" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="59">
+      <c r="B116" s="58">
         <v>0</v>
       </c>
       <c r="C116" s="32">
@@ -10531,18 +10541,18 @@
       <c r="AE116" s="34"/>
       <c r="AF116" s="34"/>
       <c r="AG116" s="35"/>
-      <c r="AH116" s="56"/>
-      <c r="AI116" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ116" s="92"/>
-      <c r="AK116" s="92"/>
-    </row>
-    <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH116" s="55"/>
+      <c r="AI116" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ116" s="80"/>
+      <c r="AK116" s="80"/>
+    </row>
+    <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="59">
+      <c r="B117" s="58">
         <v>0</v>
       </c>
       <c r="C117" s="32">
@@ -10582,26 +10592,32 @@
       <c r="AE117" s="34"/>
       <c r="AF117" s="34"/>
       <c r="AG117" s="35"/>
-      <c r="AH117" s="56"/>
-      <c r="AI117" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ117" s="92"/>
-      <c r="AK117" s="92"/>
-    </row>
-    <row r="118" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH117" s="55"/>
+      <c r="AI117" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ117" s="80"/>
+      <c r="AK117" s="80"/>
+    </row>
+    <row r="118" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B118" s="59">
+      <c r="B118" s="58">
         <v>0</v>
       </c>
       <c r="C118" s="32">
         <v>1</v>
       </c>
-      <c r="D118" s="52"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="32"/>
+      <c r="D118" s="60">
+        <v>1</v>
+      </c>
+      <c r="E118" s="61">
+        <v>1</v>
+      </c>
+      <c r="F118" s="62">
+        <v>1</v>
+      </c>
       <c r="G118" s="33"/>
       <c r="H118" s="33"/>
       <c r="I118" s="52"/>
@@ -10647,18 +10663,18 @@
       <c r="AE118" s="34"/>
       <c r="AF118" s="34"/>
       <c r="AG118" s="35"/>
-      <c r="AH118" s="56"/>
-      <c r="AI118" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ118" s="92"/>
-      <c r="AK118" s="92"/>
-    </row>
-    <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH118" s="55"/>
+      <c r="AI118" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ118" s="80"/>
+      <c r="AK118" s="80"/>
+    </row>
+    <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="59">
+      <c r="B119" s="58">
         <v>0</v>
       </c>
       <c r="C119" s="32">
@@ -10698,18 +10714,18 @@
       <c r="AE119" s="34"/>
       <c r="AF119" s="34"/>
       <c r="AG119" s="35"/>
-      <c r="AH119" s="56"/>
-      <c r="AI119" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ119" s="92"/>
-      <c r="AK119" s="92"/>
+      <c r="AH119" s="55"/>
+      <c r="AI119" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ119" s="80"/>
+      <c r="AK119" s="80"/>
     </row>
     <row r="120" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120" s="59">
+        <v>158</v>
+      </c>
+      <c r="B120" s="58">
         <v>0</v>
       </c>
       <c r="C120" s="32">
@@ -10805,23 +10821,23 @@
       <c r="AG120" s="35">
         <v>1</v>
       </c>
-      <c r="AH120" s="56"/>
-      <c r="AI120" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ120" s="92"/>
-      <c r="AK120" s="92"/>
-    </row>
-    <row r="121" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH120" s="55"/>
+      <c r="AI120" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ120" s="80"/>
+      <c r="AK120" s="80"/>
+    </row>
+    <row r="121" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="46"/>
-      <c r="B121" s="59"/>
+      <c r="B121" s="58"/>
       <c r="C121" s="32"/>
       <c r="D121" s="52"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="116"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="118"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="73"/>
+      <c r="I121" s="74"/>
       <c r="J121" s="53"/>
       <c r="K121" s="32"/>
       <c r="L121" s="52"/>
@@ -10846,20 +10862,20 @@
       <c r="AE121" s="53"/>
       <c r="AF121" s="53"/>
       <c r="AG121" s="35"/>
-      <c r="AH121" s="56"/>
-      <c r="AI121" s="56"/>
-      <c r="AJ121" s="114"/>
-      <c r="AK121" s="114"/>
-    </row>
-    <row r="122" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="59"/>
+      <c r="AH121" s="55"/>
+      <c r="AI121" s="55"/>
+      <c r="AJ121" s="70"/>
+      <c r="AK121" s="70"/>
+    </row>
+    <row r="122" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="58"/>
       <c r="C122" s="32"/>
       <c r="D122" s="52"/>
-      <c r="E122" s="115"/>
-      <c r="F122" s="116"/>
-      <c r="G122" s="117"/>
-      <c r="H122" s="117"/>
-      <c r="I122" s="118"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="73"/>
+      <c r="I122" s="74"/>
       <c r="J122" s="53"/>
       <c r="K122" s="32"/>
       <c r="L122" s="52"/>
@@ -10885,15 +10901,15 @@
       <c r="AF122" s="53"/>
       <c r="AG122" s="35"/>
     </row>
-    <row r="123" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B123" s="59"/>
+    <row r="123" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="58"/>
       <c r="C123" s="32"/>
       <c r="D123" s="52"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="116"/>
-      <c r="G123" s="117"/>
-      <c r="H123" s="117"/>
-      <c r="I123" s="118"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="73"/>
+      <c r="H123" s="73"/>
+      <c r="I123" s="74"/>
       <c r="J123" s="53"/>
       <c r="K123" s="32"/>
       <c r="L123" s="52"/>
@@ -10918,17 +10934,17 @@
       <c r="AE123" s="53"/>
       <c r="AF123" s="53"/>
       <c r="AG123" s="35"/>
-      <c r="AH123" s="56"/>
-      <c r="AI123" s="56"/>
-      <c r="AJ123" s="114"/>
-      <c r="AK123" s="114"/>
+      <c r="AH123" s="55"/>
+      <c r="AI123" s="55"/>
+      <c r="AJ123" s="70"/>
+      <c r="AK123" s="70"/>
       <c r="AR123" s="47"/>
     </row>
-    <row r="124" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:44" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B124" s="59">
+      <c r="B124" s="58">
         <v>0</v>
       </c>
       <c r="C124" s="32">
@@ -10937,7 +10953,7 @@
       <c r="D124" s="52">
         <v>1</v>
       </c>
-      <c r="E124" s="53">
+      <c r="E124" s="63">
         <v>1</v>
       </c>
       <c r="F124" s="32">
@@ -10946,7 +10962,7 @@
       <c r="G124" s="33"/>
       <c r="H124" s="33"/>
       <c r="I124" s="52"/>
-      <c r="J124" s="53"/>
+      <c r="J124" s="63"/>
       <c r="K124" s="32"/>
       <c r="L124" s="52"/>
       <c r="M124" s="32"/>
@@ -10961,13 +10977,13 @@
       <c r="R124" s="52">
         <v>0</v>
       </c>
-      <c r="S124" s="53">
-        <v>0</v>
-      </c>
-      <c r="T124" s="53">
-        <v>0</v>
-      </c>
-      <c r="U124" s="53">
+      <c r="S124" s="63">
+        <v>0</v>
+      </c>
+      <c r="T124" s="63">
+        <v>0</v>
+      </c>
+      <c r="U124" s="63">
         <v>1</v>
       </c>
       <c r="V124" s="32">
@@ -10983,231 +10999,300 @@
       </c>
       <c r="AA124" s="52"/>
       <c r="AB124" s="32"/>
-      <c r="AC124" s="53"/>
-      <c r="AD124" s="53"/>
-      <c r="AE124" s="53"/>
-      <c r="AF124" s="53"/>
-      <c r="AG124" s="54"/>
-      <c r="AH124" s="56"/>
-      <c r="AI124" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ124" s="92"/>
-      <c r="AK124" s="92"/>
+      <c r="AC124" s="63"/>
+      <c r="AD124" s="63"/>
+      <c r="AE124" s="63"/>
+      <c r="AF124" s="63"/>
+      <c r="AG124" s="64"/>
+      <c r="AH124" s="61"/>
+      <c r="AI124" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ124" s="80"/>
+      <c r="AK124" s="80"/>
       <c r="AR124" s="47"/>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="58">
+        <v>0</v>
+      </c>
+      <c r="C125" s="32">
+        <v>1</v>
+      </c>
+      <c r="D125" s="52">
+        <v>1</v>
+      </c>
+      <c r="E125" s="63">
+        <v>1</v>
+      </c>
+      <c r="F125" s="32">
+        <v>1</v>
+      </c>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="52"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="52">
+        <v>1</v>
+      </c>
+      <c r="O125" s="32">
+        <v>1</v>
+      </c>
+      <c r="P125" s="52"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="52">
+        <v>0</v>
+      </c>
+      <c r="S125" s="63">
+        <v>0</v>
+      </c>
+      <c r="T125" s="63">
+        <v>0</v>
+      </c>
+      <c r="U125" s="63">
+        <v>1</v>
+      </c>
+      <c r="V125" s="32">
+        <v>1</v>
+      </c>
+      <c r="W125" s="52"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="52"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="63"/>
+      <c r="AD125" s="63"/>
+      <c r="AE125" s="63"/>
+      <c r="AF125" s="63"/>
+      <c r="AG125" s="64"/>
+      <c r="AH125" s="61"/>
+      <c r="AI125" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ125" s="80"/>
+      <c r="AK125" s="80"/>
       <c r="AR125" s="47"/>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AR126" s="47"/>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR127" s="47"/>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR128" s="47"/>
     </row>
-    <row r="129" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="129" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR129" s="47"/>
     </row>
-    <row r="130" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="130" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR130" s="47"/>
     </row>
-    <row r="131" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="131" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR131" s="47"/>
     </row>
-    <row r="132" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="132" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR132" s="47"/>
     </row>
-    <row r="133" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="133" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR133" s="47"/>
     </row>
-    <row r="134" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="134" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR134" s="47"/>
     </row>
-    <row r="135" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="135" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR135" s="47"/>
     </row>
-    <row r="136" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="136" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR136" s="47"/>
     </row>
-    <row r="137" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="137" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR137" s="47"/>
     </row>
-    <row r="138" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="138" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR138" s="47"/>
     </row>
-    <row r="139" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="139" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR139" s="47"/>
     </row>
-    <row r="140" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="140" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR140" s="47"/>
     </row>
-    <row r="141" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="141" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR141" s="47"/>
     </row>
-    <row r="142" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="142" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR142" s="47"/>
     </row>
-    <row r="143" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="143" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR143" s="47"/>
     </row>
-    <row r="144" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="144" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR144" s="47"/>
     </row>
-    <row r="145" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR145" s="47"/>
     </row>
-    <row r="146" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR146" s="47"/>
     </row>
-    <row r="147" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR147" s="47"/>
     </row>
-    <row r="148" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR148" s="47"/>
     </row>
-    <row r="149" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR149" s="47"/>
     </row>
-    <row r="150" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AR150" s="47"/>
     </row>
-    <row r="151" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR151" s="47"/>
     </row>
-    <row r="152" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR152" s="47"/>
     </row>
-    <row r="153" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR153" s="47"/>
     </row>
-    <row r="154" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR154" s="47"/>
     </row>
-    <row r="155" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR155" s="47"/>
     </row>
-    <row r="156" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR156" s="47"/>
     </row>
-    <row r="157" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR157" s="47"/>
     </row>
-    <row r="158" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:44" x14ac:dyDescent="0.25">
       <c r="AR158" s="47"/>
     </row>
-    <row r="159" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:44" x14ac:dyDescent="0.25">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="5:44" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:44" x14ac:dyDescent="0.25">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A178" s="103" t="s">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A178" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="103"/>
-      <c r="C178" s="103"/>
-      <c r="D178" s="103"/>
-      <c r="E178" s="103"/>
-      <c r="F178" s="103"/>
-      <c r="G178" s="103"/>
-      <c r="H178" s="103"/>
-      <c r="I178" s="103"/>
-      <c r="J178" s="103"/>
-      <c r="K178" s="103"/>
-      <c r="L178" s="103"/>
-      <c r="M178" s="103"/>
-      <c r="N178" s="103"/>
-      <c r="O178" s="103"/>
-      <c r="P178" s="103"/>
-      <c r="Q178" s="103"/>
-      <c r="R178" s="103"/>
-      <c r="S178" s="103"/>
-      <c r="T178" s="103"/>
-      <c r="U178" s="103"/>
-      <c r="V178" s="103"/>
-      <c r="W178" s="103"/>
-      <c r="X178" s="103"/>
-      <c r="Y178" s="103"/>
-      <c r="Z178" s="103"/>
-      <c r="AA178" s="103"/>
-      <c r="AB178" s="103"/>
-      <c r="AC178" s="103"/>
-      <c r="AD178" s="103"/>
-      <c r="AE178" s="103"/>
-      <c r="AF178" s="103"/>
-      <c r="AG178" s="103"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="93"/>
+      <c r="E178" s="93"/>
+      <c r="F178" s="93"/>
+      <c r="G178" s="93"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="93"/>
+      <c r="J178" s="93"/>
+      <c r="K178" s="93"/>
+      <c r="L178" s="93"/>
+      <c r="M178" s="93"/>
+      <c r="N178" s="93"/>
+      <c r="O178" s="93"/>
+      <c r="P178" s="93"/>
+      <c r="Q178" s="93"/>
+      <c r="R178" s="93"/>
+      <c r="S178" s="93"/>
+      <c r="T178" s="93"/>
+      <c r="U178" s="93"/>
+      <c r="V178" s="93"/>
+      <c r="W178" s="93"/>
+      <c r="X178" s="93"/>
+      <c r="Y178" s="93"/>
+      <c r="Z178" s="93"/>
+      <c r="AA178" s="93"/>
+      <c r="AB178" s="93"/>
+      <c r="AC178" s="93"/>
+      <c r="AD178" s="93"/>
+      <c r="AE178" s="93"/>
+      <c r="AF178" s="93"/>
+      <c r="AG178" s="93"/>
       <c r="AH178" s="29"/>
       <c r="AI178" s="29"/>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B181" s="18">
         <v>31</v>
       </c>
@@ -11305,121 +11390,200 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B184" s="91" t="s">
+      <c r="B184" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C184" s="92"/>
-      <c r="D184" s="92"/>
-      <c r="E184" s="92"/>
-      <c r="F184" s="92"/>
-      <c r="G184" s="92"/>
-      <c r="H184" s="92"/>
-      <c r="I184" s="92"/>
-      <c r="J184" s="92"/>
-      <c r="K184" s="92"/>
-      <c r="L184" s="92"/>
-      <c r="M184" s="92"/>
-      <c r="N184" s="92"/>
-      <c r="O184" s="92"/>
-      <c r="P184" s="92"/>
-      <c r="Q184" s="92"/>
-      <c r="R184" s="92"/>
-      <c r="S184" s="92"/>
-      <c r="T184" s="92"/>
-      <c r="U184" s="92"/>
-      <c r="V184" s="92"/>
-      <c r="W184" s="92"/>
-      <c r="X184" s="92"/>
-      <c r="Y184" s="92"/>
-      <c r="Z184" s="92"/>
-      <c r="AA184" s="92"/>
-      <c r="AB184" s="92"/>
-      <c r="AC184" s="92"/>
-      <c r="AD184" s="92"/>
-      <c r="AE184" s="92"/>
-      <c r="AF184" s="92"/>
-      <c r="AG184" s="93"/>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="C184" s="80"/>
+      <c r="D184" s="80"/>
+      <c r="E184" s="80"/>
+      <c r="F184" s="80"/>
+      <c r="G184" s="80"/>
+      <c r="H184" s="80"/>
+      <c r="I184" s="80"/>
+      <c r="J184" s="80"/>
+      <c r="K184" s="80"/>
+      <c r="L184" s="80"/>
+      <c r="M184" s="80"/>
+      <c r="N184" s="80"/>
+      <c r="O184" s="80"/>
+      <c r="P184" s="80"/>
+      <c r="Q184" s="80"/>
+      <c r="R184" s="80"/>
+      <c r="S184" s="80"/>
+      <c r="T184" s="80"/>
+      <c r="U184" s="80"/>
+      <c r="V184" s="80"/>
+      <c r="W184" s="80"/>
+      <c r="X184" s="80"/>
+      <c r="Y184" s="80"/>
+      <c r="Z184" s="80"/>
+      <c r="AA184" s="80"/>
+      <c r="AB184" s="80"/>
+      <c r="AC184" s="80"/>
+      <c r="AD184" s="80"/>
+      <c r="AE184" s="80"/>
+      <c r="AF184" s="80"/>
+      <c r="AG184" s="95"/>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B186" s="91" t="s">
+      <c r="B186" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="92"/>
-      <c r="D186" s="92"/>
-      <c r="E186" s="92"/>
-      <c r="F186" s="92"/>
-      <c r="G186" s="92"/>
-      <c r="H186" s="92"/>
-      <c r="I186" s="92"/>
-      <c r="J186" s="92"/>
-      <c r="K186" s="92"/>
-      <c r="L186" s="92"/>
-      <c r="M186" s="92"/>
-      <c r="N186" s="92"/>
-      <c r="O186" s="92"/>
-      <c r="P186" s="92"/>
-      <c r="Q186" s="93"/>
-      <c r="R186" s="91" t="s">
+      <c r="C186" s="80"/>
+      <c r="D186" s="80"/>
+      <c r="E186" s="80"/>
+      <c r="F186" s="80"/>
+      <c r="G186" s="80"/>
+      <c r="H186" s="80"/>
+      <c r="I186" s="80"/>
+      <c r="J186" s="80"/>
+      <c r="K186" s="80"/>
+      <c r="L186" s="80"/>
+      <c r="M186" s="80"/>
+      <c r="N186" s="80"/>
+      <c r="O186" s="80"/>
+      <c r="P186" s="80"/>
+      <c r="Q186" s="95"/>
+      <c r="R186" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="S186" s="92"/>
-      <c r="T186" s="92"/>
-      <c r="U186" s="92"/>
-      <c r="V186" s="92"/>
-      <c r="W186" s="92"/>
-      <c r="X186" s="92"/>
-      <c r="Y186" s="92"/>
-      <c r="Z186" s="92"/>
-      <c r="AA186" s="92"/>
-      <c r="AB186" s="92"/>
-      <c r="AC186" s="92"/>
-      <c r="AD186" s="92"/>
-      <c r="AE186" s="92"/>
-      <c r="AF186" s="92"/>
-      <c r="AG186" s="93"/>
+      <c r="S186" s="80"/>
+      <c r="T186" s="80"/>
+      <c r="U186" s="80"/>
+      <c r="V186" s="80"/>
+      <c r="W186" s="80"/>
+      <c r="X186" s="80"/>
+      <c r="Y186" s="80"/>
+      <c r="Z186" s="80"/>
+      <c r="AA186" s="80"/>
+      <c r="AB186" s="80"/>
+      <c r="AC186" s="80"/>
+      <c r="AD186" s="80"/>
+      <c r="AE186" s="80"/>
+      <c r="AF186" s="80"/>
+      <c r="AG186" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
-    <mergeCell ref="B99:C101"/>
-    <mergeCell ref="I99:K101"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="R106:AG106"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="R107:AG107"/>
-    <mergeCell ref="AI107:AK107"/>
-    <mergeCell ref="R108:AG108"/>
-    <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="D99:F101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="P62:P67"/>
-    <mergeCell ref="Q62:Q67"/>
-    <mergeCell ref="R62:R67"/>
-    <mergeCell ref="S62:S67"/>
-    <mergeCell ref="T62:T67"/>
-    <mergeCell ref="I57:K59"/>
-    <mergeCell ref="M64:O67"/>
-    <mergeCell ref="P99:Q101"/>
-    <mergeCell ref="N99:O101"/>
-    <mergeCell ref="L99:M101"/>
-    <mergeCell ref="U62:U67"/>
-    <mergeCell ref="AI120:AK120"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="R104:AG104"/>
-    <mergeCell ref="R99:V101"/>
-    <mergeCell ref="W99:X101"/>
-    <mergeCell ref="Y99:Z101"/>
-    <mergeCell ref="AA99:AB101"/>
-    <mergeCell ref="AC99:AG101"/>
-    <mergeCell ref="AI119:AK119"/>
+  <mergeCells count="179">
+    <mergeCell ref="AL114:AO114"/>
+    <mergeCell ref="AL115:AO115"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AI125:AK125"/>
+    <mergeCell ref="AY60:AY72"/>
+    <mergeCell ref="AX78:AY78"/>
+    <mergeCell ref="AY81:AY85"/>
+    <mergeCell ref="AY87:AY91"/>
+    <mergeCell ref="AQ78:AR81"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AQ61:AR64"/>
+    <mergeCell ref="P57:Q59"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="AC78:AE78"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="AC82:AE82"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="AC75:AE75"/>
+    <mergeCell ref="AC76:AE76"/>
+    <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AC90:AE90"/>
+    <mergeCell ref="AN60:AN72"/>
+    <mergeCell ref="AN81:AN85"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AJ13:AQ13"/>
+    <mergeCell ref="B79:C81"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="P88:P91"/>
+    <mergeCell ref="Q88:Q91"/>
+    <mergeCell ref="M88:N91"/>
+    <mergeCell ref="M77:N82"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="AC69:AE69"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="AC71:AE71"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="C50:AG50"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ28:AQ28"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="AJ34:AQ34"/>
+    <mergeCell ref="AJ35:AQ35"/>
+    <mergeCell ref="AJ36:AQ36"/>
+    <mergeCell ref="AJ37:AQ37"/>
+    <mergeCell ref="AC91:AE91"/>
+    <mergeCell ref="AC87:AE87"/>
+    <mergeCell ref="C103:AG103"/>
+    <mergeCell ref="AC92:AE92"/>
+    <mergeCell ref="AC83:AE83"/>
+    <mergeCell ref="AC84:AE84"/>
+    <mergeCell ref="AC85:AE85"/>
+    <mergeCell ref="AC86:AE86"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="AA57:AB59"/>
+    <mergeCell ref="D57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ44:AQ44"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AJ38:AQ38"/>
+    <mergeCell ref="AJ39:AQ39"/>
+    <mergeCell ref="AJ40:AQ40"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="I52:K54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
     <mergeCell ref="AI124:AK124"/>
     <mergeCell ref="A178:AG178"/>
     <mergeCell ref="B184:AG184"/>
@@ -11444,114 +11608,17 @@
     <mergeCell ref="W57:X59"/>
     <mergeCell ref="AC57:AG59"/>
     <mergeCell ref="Y57:Z59"/>
-    <mergeCell ref="AJ38:AQ38"/>
-    <mergeCell ref="AJ39:AQ39"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="I52:K54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="D57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ44:AQ44"/>
-    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="U62:U67"/>
+    <mergeCell ref="AI120:AK120"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R99:V101"/>
+    <mergeCell ref="W99:X101"/>
+    <mergeCell ref="Y99:Z101"/>
+    <mergeCell ref="AA99:AB101"/>
+    <mergeCell ref="AC99:AG101"/>
+    <mergeCell ref="AI119:AK119"/>
     <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="AJ34:AQ34"/>
-    <mergeCell ref="AJ35:AQ35"/>
-    <mergeCell ref="AJ36:AQ36"/>
-    <mergeCell ref="AJ37:AQ37"/>
-    <mergeCell ref="AC91:AE91"/>
-    <mergeCell ref="AC87:AE87"/>
-    <mergeCell ref="C103:AG103"/>
-    <mergeCell ref="AC92:AE92"/>
-    <mergeCell ref="AC83:AE83"/>
-    <mergeCell ref="AC84:AE84"/>
-    <mergeCell ref="AC85:AE85"/>
-    <mergeCell ref="AC86:AE86"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="AA57:AB59"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="AJ19:AQ19"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AJ22:AQ22"/>
-    <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="B79:C81"/>
-    <mergeCell ref="O88:O91"/>
-    <mergeCell ref="P88:P91"/>
-    <mergeCell ref="Q88:Q91"/>
-    <mergeCell ref="M88:N91"/>
-    <mergeCell ref="M77:N82"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="AC68:AE68"/>
-    <mergeCell ref="AC69:AE69"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="AC71:AE71"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="C50:AG50"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="AY60:AY72"/>
-    <mergeCell ref="AX78:AY78"/>
-    <mergeCell ref="AY81:AY85"/>
-    <mergeCell ref="AY87:AY91"/>
-    <mergeCell ref="AQ78:AR81"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AQ61:AR64"/>
-    <mergeCell ref="P57:Q59"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="AC78:AE78"/>
-    <mergeCell ref="AC79:AE79"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="AC82:AE82"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="AC74:AE74"/>
-    <mergeCell ref="AC75:AE75"/>
-    <mergeCell ref="AC76:AE76"/>
-    <mergeCell ref="AC77:AE77"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="AC90:AE90"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="AN60:AN72"/>
-    <mergeCell ref="AN81:AN85"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
     <mergeCell ref="AI115:AK115"/>
     <mergeCell ref="AI116:AK116"/>
     <mergeCell ref="AI117:AK117"/>
@@ -11561,10 +11628,29 @@
     <mergeCell ref="AI113:AK113"/>
     <mergeCell ref="AI104:AK104"/>
     <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="AL114:AO114"/>
-    <mergeCell ref="AL115:AO115"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="P62:P67"/>
+    <mergeCell ref="Q62:Q67"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="S62:S67"/>
+    <mergeCell ref="T62:T67"/>
+    <mergeCell ref="I57:K59"/>
+    <mergeCell ref="M64:O67"/>
+    <mergeCell ref="P99:Q101"/>
+    <mergeCell ref="N99:O101"/>
+    <mergeCell ref="L99:M101"/>
+    <mergeCell ref="B99:C101"/>
+    <mergeCell ref="I99:K101"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="R106:AG106"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="R107:AG107"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="R108:AG108"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="D99:F101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G98:G101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Flamer\Dropbox\LambdaCore\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
   <si>
     <t>LDI</t>
   </si>
@@ -517,15 +522,9 @@
     <t xml:space="preserve">A != 0, lit.c -&gt; pc </t>
   </si>
   <si>
-    <t xml:space="preserve">A &gt; 0, lit.c -&gt; pc </t>
-  </si>
-  <si>
     <t>PC &amp; n -&gt; PC'</t>
   </si>
   <si>
-    <t xml:space="preserve">A == 0, lit.c -&gt; pc </t>
-  </si>
-  <si>
     <t>0x20000000</t>
   </si>
   <si>
@@ -572,6 +571,30 @@
   </si>
   <si>
     <t>0x780C1900</t>
+  </si>
+  <si>
+    <t>retS.c -&gt; pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lit.c -&gt; pc </t>
+  </si>
+  <si>
+    <t>RETC</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>0x01A10000</t>
+  </si>
+  <si>
+    <t>0x01800000</t>
+  </si>
+  <si>
+    <t>0x01430000</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,149 +1333,143 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4687,7 +4704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4695,27 +4712,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC186"/>
+  <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT106" sqref="AT106"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI109" sqref="AI109:AK109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="24" width="2.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" style="6" customWidth="1"/>
+    <col min="2" max="24" width="2.73046875" style="19" customWidth="1"/>
     <col min="25" max="25" width="3" style="19" customWidth="1"/>
-    <col min="26" max="35" width="2.7109375" style="19" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="6" customWidth="1"/>
-    <col min="37" max="39" width="9.140625" style="6"/>
-    <col min="40" max="40" width="9.140625" style="6" customWidth="1"/>
-    <col min="41" max="54" width="9.140625" style="6"/>
-    <col min="55" max="55" width="13.42578125" style="6" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="6"/>
+    <col min="26" max="35" width="2.73046875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="9.1328125" style="6" customWidth="1"/>
+    <col min="37" max="39" width="9.1328125" style="6"/>
+    <col min="40" max="40" width="9.1328125" style="6" customWidth="1"/>
+    <col min="41" max="54" width="9.1328125" style="6"/>
+    <col min="55" max="55" width="13.3984375" style="6" customWidth="1"/>
+    <col min="56" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
@@ -4819,7 +4836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -4887,18 +4904,18 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="100" t="s">
+      <c r="AJ2" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-    </row>
-    <row r="3" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -4942,16 +4959,16 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="100" t="s">
+      <c r="AJ3" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
     </row>
     <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
@@ -5003,18 +5020,18 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="100" t="s">
+      <c r="AJ4" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="101"/>
-    </row>
-    <row r="5" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -5052,18 +5069,18 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="105" t="s">
+      <c r="AJ5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-    </row>
-    <row r="6" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -5103,18 +5120,18 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="100" t="s">
+      <c r="AJ6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-    </row>
-    <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -5158,18 +5175,18 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="100" t="s">
+      <c r="AJ7" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="104"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-    </row>
-    <row r="8" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -5213,18 +5230,18 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="100" t="s">
+      <c r="AJ8" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-    </row>
-    <row r="9" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -5264,18 +5281,18 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="100" t="s">
+      <c r="AJ9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-    </row>
-    <row r="10" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="96"/>
+      <c r="AQ9" s="96"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -5315,18 +5332,18 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="100" t="s">
+      <c r="AJ10" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="104"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-    </row>
-    <row r="11" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -5366,18 +5383,18 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="100" t="s">
+      <c r="AJ11" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-    </row>
-    <row r="12" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -5417,18 +5434,18 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="100" t="s">
+      <c r="AJ12" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="104"/>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="104"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-    </row>
-    <row r="13" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -5468,18 +5485,18 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="100" t="s">
+      <c r="AJ13" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-    </row>
-    <row r="14" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -5519,16 +5536,16 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="104"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-    </row>
-    <row r="15" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="96"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="96"/>
+      <c r="AO14" s="96"/>
+      <c r="AP14" s="96"/>
+      <c r="AQ14" s="96"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -5570,18 +5587,18 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="100" t="s">
+      <c r="AJ15" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="104"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-    </row>
-    <row r="16" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="96"/>
+      <c r="AQ15" s="96"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -5623,18 +5640,18 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="100" t="s">
+      <c r="AJ16" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="104"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-    </row>
-    <row r="17" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -5676,18 +5693,18 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="100" t="s">
+      <c r="AJ17" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-    </row>
-    <row r="18" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="96"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -5729,18 +5746,18 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="100" t="s">
+      <c r="AJ18" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="104"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-    </row>
-    <row r="19" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="96"/>
+      <c r="AQ18" s="96"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
@@ -5780,18 +5797,18 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="100" t="s">
+      <c r="AJ19" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="104"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-    </row>
-    <row r="20" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="96"/>
+      <c r="AQ19" s="96"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -5837,18 +5854,18 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="100" t="s">
+      <c r="AJ20" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-    </row>
-    <row r="21" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="96"/>
+      <c r="AO20" s="96"/>
+      <c r="AP20" s="96"/>
+      <c r="AQ20" s="96"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -5890,18 +5907,18 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="100" t="s">
+      <c r="AJ21" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="104"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-    </row>
-    <row r="22" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="96"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="96"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -5941,18 +5958,18 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="100" t="s">
+      <c r="AJ22" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="104"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-    </row>
-    <row r="26" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+    </row>
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
@@ -6059,7 +6076,7 @@
       </c>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -6127,18 +6144,18 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="100" t="s">
+      <c r="AJ28" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="101"/>
-      <c r="AQ28" s="101"/>
-    </row>
-    <row r="29" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK28" s="108"/>
+      <c r="AL28" s="108"/>
+      <c r="AM28" s="108"/>
+      <c r="AN28" s="108"/>
+      <c r="AO28" s="108"/>
+      <c r="AP28" s="108"/>
+      <c r="AQ28" s="108"/>
+    </row>
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -6182,16 +6199,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="100" t="s">
+      <c r="AJ29" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="101"/>
-      <c r="AQ29" s="101"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="108"/>
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="108"/>
+      <c r="AP29" s="108"/>
+      <c r="AQ29" s="108"/>
     </row>
     <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
@@ -6243,18 +6260,18 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="100" t="s">
+      <c r="AJ30" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="101"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="101"/>
-      <c r="AO30" s="101"/>
-      <c r="AP30" s="101"/>
-      <c r="AQ30" s="101"/>
-    </row>
-    <row r="31" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK30" s="108"/>
+      <c r="AL30" s="108"/>
+      <c r="AM30" s="108"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="108"/>
+      <c r="AP30" s="108"/>
+      <c r="AQ30" s="108"/>
+    </row>
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -6294,18 +6311,18 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="100" t="s">
+      <c r="AJ31" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="104"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="104"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="104"/>
-    </row>
-    <row r="32" spans="1:43" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="96"/>
+      <c r="AO31" s="96"/>
+      <c r="AP31" s="96"/>
+      <c r="AQ31" s="96"/>
+    </row>
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>77</v>
       </c>
@@ -6349,18 +6366,18 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="100" t="s">
+      <c r="AJ32" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="101"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="101"/>
-      <c r="AO32" s="101"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="101"/>
-    </row>
-    <row r="33" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+    </row>
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -6400,18 +6417,18 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="100" t="s">
+      <c r="AJ33" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="101"/>
-      <c r="AO33" s="101"/>
-      <c r="AP33" s="101"/>
-      <c r="AQ33" s="101"/>
-    </row>
-    <row r="34" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK33" s="108"/>
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="108"/>
+      <c r="AP33" s="108"/>
+      <c r="AQ33" s="108"/>
+    </row>
+    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>80</v>
       </c>
@@ -6451,18 +6468,18 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="100" t="s">
+      <c r="AJ34" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="101"/>
-      <c r="AO34" s="101"/>
-      <c r="AP34" s="101"/>
-      <c r="AQ34" s="101"/>
-    </row>
-    <row r="35" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK34" s="108"/>
+      <c r="AL34" s="108"/>
+      <c r="AM34" s="108"/>
+      <c r="AN34" s="108"/>
+      <c r="AO34" s="108"/>
+      <c r="AP34" s="108"/>
+      <c r="AQ34" s="108"/>
+    </row>
+    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>37</v>
       </c>
@@ -6502,18 +6519,18 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="100" t="s">
+      <c r="AJ35" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="101"/>
-      <c r="AO35" s="101"/>
-      <c r="AP35" s="101"/>
-      <c r="AQ35" s="101"/>
-    </row>
-    <row r="36" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK35" s="108"/>
+      <c r="AL35" s="108"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="108"/>
+      <c r="AP35" s="108"/>
+      <c r="AQ35" s="108"/>
+    </row>
+    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>61</v>
       </c>
@@ -6553,18 +6570,18 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="102" t="s">
+      <c r="AJ36" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="103"/>
-      <c r="AL36" s="103"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-    </row>
-    <row r="37" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK36" s="112"/>
+      <c r="AL36" s="112"/>
+      <c r="AM36" s="112"/>
+      <c r="AN36" s="112"/>
+      <c r="AO36" s="112"/>
+      <c r="AP36" s="112"/>
+      <c r="AQ36" s="112"/>
+    </row>
+    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>72</v>
       </c>
@@ -6604,16 +6621,16 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="100"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="101"/>
-      <c r="AP37" s="101"/>
-      <c r="AQ37" s="101"/>
-    </row>
-    <row r="38" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AJ37" s="95"/>
+      <c r="AK37" s="108"/>
+      <c r="AL37" s="108"/>
+      <c r="AM37" s="108"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="108"/>
+      <c r="AP37" s="108"/>
+      <c r="AQ37" s="108"/>
+    </row>
+    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
         <v>38</v>
       </c>
@@ -6655,18 +6672,18 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="100" t="s">
+      <c r="AJ38" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="101"/>
-      <c r="AL38" s="101"/>
-      <c r="AM38" s="101"/>
-      <c r="AN38" s="101"/>
-      <c r="AO38" s="101"/>
-      <c r="AP38" s="101"/>
-      <c r="AQ38" s="101"/>
-    </row>
-    <row r="39" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK38" s="108"/>
+      <c r="AL38" s="108"/>
+      <c r="AM38" s="108"/>
+      <c r="AN38" s="108"/>
+      <c r="AO38" s="108"/>
+      <c r="AP38" s="108"/>
+      <c r="AQ38" s="108"/>
+    </row>
+    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
@@ -6708,18 +6725,18 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="100" t="s">
+      <c r="AJ39" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="101"/>
-      <c r="AL39" s="101"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="101"/>
-      <c r="AO39" s="101"/>
-      <c r="AP39" s="101"/>
-      <c r="AQ39" s="101"/>
-    </row>
-    <row r="40" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK39" s="108"/>
+      <c r="AL39" s="108"/>
+      <c r="AM39" s="108"/>
+      <c r="AN39" s="108"/>
+      <c r="AO39" s="108"/>
+      <c r="AP39" s="108"/>
+      <c r="AQ39" s="108"/>
+    </row>
+    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
@@ -6761,18 +6778,18 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="100" t="s">
+      <c r="AJ40" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="101"/>
-      <c r="AL40" s="101"/>
-      <c r="AM40" s="101"/>
-      <c r="AN40" s="101"/>
-      <c r="AO40" s="101"/>
-      <c r="AP40" s="101"/>
-      <c r="AQ40" s="101"/>
-    </row>
-    <row r="41" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="108"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="108"/>
+      <c r="AP40" s="108"/>
+      <c r="AQ40" s="108"/>
+    </row>
+    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
@@ -6812,18 +6829,18 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="102" t="s">
+      <c r="AJ41" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="103"/>
-      <c r="AL41" s="103"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="103"/>
-      <c r="AO41" s="103"/>
-      <c r="AP41" s="103"/>
-      <c r="AQ41" s="103"/>
-    </row>
-    <row r="42" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK41" s="112"/>
+      <c r="AL41" s="112"/>
+      <c r="AM41" s="112"/>
+      <c r="AN41" s="112"/>
+      <c r="AO41" s="112"/>
+      <c r="AP41" s="112"/>
+      <c r="AQ41" s="112"/>
+    </row>
+    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>69</v>
       </c>
@@ -6869,18 +6886,18 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="100" t="s">
+      <c r="AJ42" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="101"/>
-      <c r="AL42" s="101"/>
-      <c r="AM42" s="101"/>
-      <c r="AN42" s="101"/>
-      <c r="AO42" s="101"/>
-      <c r="AP42" s="101"/>
-      <c r="AQ42" s="101"/>
-    </row>
-    <row r="43" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK42" s="108"/>
+      <c r="AL42" s="108"/>
+      <c r="AM42" s="108"/>
+      <c r="AN42" s="108"/>
+      <c r="AO42" s="108"/>
+      <c r="AP42" s="108"/>
+      <c r="AQ42" s="108"/>
+    </row>
+    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>70</v>
       </c>
@@ -6922,18 +6939,18 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="100" t="s">
+      <c r="AJ43" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="101"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="101"/>
-      <c r="AO43" s="101"/>
-      <c r="AP43" s="101"/>
-      <c r="AQ43" s="101"/>
-    </row>
-    <row r="44" spans="1:55" ht="14.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="AK43" s="108"/>
+      <c r="AL43" s="108"/>
+      <c r="AM43" s="108"/>
+      <c r="AN43" s="108"/>
+      <c r="AO43" s="108"/>
+      <c r="AP43" s="108"/>
+      <c r="AQ43" s="108"/>
+    </row>
+    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>90</v>
       </c>
@@ -6973,71 +6990,71 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="100" t="s">
+      <c r="AJ44" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="101"/>
-      <c r="AL44" s="101"/>
-      <c r="AM44" s="101"/>
-      <c r="AN44" s="101"/>
-      <c r="AO44" s="101"/>
-      <c r="AP44" s="101"/>
-      <c r="AQ44" s="101"/>
-    </row>
-    <row r="45" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AK44" s="108"/>
+      <c r="AL44" s="108"/>
+      <c r="AM44" s="108"/>
+      <c r="AN44" s="108"/>
+      <c r="AO44" s="108"/>
+      <c r="AP44" s="108"/>
+      <c r="AQ44" s="108"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB45" s="47"/>
       <c r="BC45" s="47"/>
     </row>
-    <row r="46" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB46" s="47"/>
       <c r="BC46" s="47"/>
     </row>
-    <row r="47" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A47" s="93" t="s">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A47" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="93"/>
-      <c r="AA47" s="93"/>
-      <c r="AB47" s="93"/>
-      <c r="AC47" s="93"/>
-      <c r="AD47" s="93"/>
-      <c r="AE47" s="93"/>
-      <c r="AF47" s="93"/>
-      <c r="AG47" s="93"/>
-      <c r="AH47" s="93"/>
-      <c r="AI47" s="93"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="116"/>
+      <c r="S47" s="116"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="116"/>
+      <c r="V47" s="116"/>
+      <c r="W47" s="116"/>
+      <c r="X47" s="116"/>
+      <c r="Y47" s="116"/>
+      <c r="Z47" s="116"/>
+      <c r="AA47" s="116"/>
+      <c r="AB47" s="116"/>
+      <c r="AC47" s="116"/>
+      <c r="AD47" s="116"/>
+      <c r="AE47" s="116"/>
+      <c r="AF47" s="116"/>
+      <c r="AG47" s="116"/>
+      <c r="AH47" s="116"/>
+      <c r="AI47" s="116"/>
       <c r="BB47" s="47"/>
       <c r="BC47" s="47"/>
     </row>
-    <row r="48" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB48" s="47"/>
       <c r="BC48" s="47"/>
     </row>
-    <row r="49" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B49" s="18">
         <v>31</v>
       </c>
@@ -7137,46 +7154,46 @@
       <c r="BB49" s="47"/>
       <c r="BC49" s="47"/>
     </row>
-    <row r="50" spans="1:55" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C50" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
-      <c r="Z50" s="80"/>
-      <c r="AA50" s="80"/>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="80"/>
-      <c r="AD50" s="80"/>
-      <c r="AE50" s="80"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="95"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="76"/>
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="76"/>
+      <c r="AD50" s="76"/>
+      <c r="AE50" s="76"/>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="106"/>
       <c r="BB50" s="47"/>
       <c r="BC50" s="47"/>
     </row>
@@ -7211,39 +7228,39 @@
       <c r="BB51" s="47"/>
       <c r="BC51" s="47"/>
     </row>
-    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="75" t="s">
+    <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="77" t="s">
+      <c r="C52" s="90"/>
+      <c r="D52" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77" t="s">
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="77" t="s">
+      <c r="H52" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="I52" s="75" t="s">
+      <c r="I52" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75" t="s">
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75" t="s">
+      <c r="M52" s="90"/>
+      <c r="N52" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75" t="s">
+      <c r="O52" s="90"/>
+      <c r="P52" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="75"/>
+      <c r="Q52" s="90"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7263,23 +7280,23 @@
       <c r="BB52" s="47"/>
       <c r="BC52" s="47"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7299,23 +7316,23 @@
       <c r="BB53" s="47"/>
       <c r="BC53" s="47"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="91"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7359,35 +7376,35 @@
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="94" t="s">
+      <c r="R55" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="80"/>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="80"/>
-      <c r="AD55" s="80"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="95"/>
-      <c r="AJ55" s="101"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="101"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="76"/>
+      <c r="AA55" s="76"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="76"/>
+      <c r="AD55" s="76"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="76"/>
+      <c r="AG55" s="106"/>
+      <c r="AJ55" s="108"/>
+      <c r="AK55" s="108"/>
+      <c r="AL55" s="108"/>
+      <c r="AM55" s="108"/>
+      <c r="AN55" s="108"/>
       <c r="AR55" s="38"/>
       <c r="AS55" s="38"/>
       <c r="BB55" s="47"/>
       <c r="BC55" s="47"/>
     </row>
-    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7420,145 +7437,145 @@
       <c r="BB56" s="47"/>
       <c r="BC56" s="47"/>
     </row>
-    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="65" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="65"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77" t="s">
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="77" t="s">
+      <c r="H57" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="75" t="s">
+      <c r="I57" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75" t="s">
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75" t="s">
+      <c r="M57" s="90"/>
+      <c r="N57" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75" t="s">
+      <c r="O57" s="90"/>
+      <c r="P57" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75" t="s">
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75" t="s">
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="75" t="s">
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="Z57" s="75"/>
-      <c r="AA57" s="75" t="s">
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75" t="s">
+      <c r="AB57" s="90"/>
+      <c r="AC57" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AD57" s="75"/>
-      <c r="AE57" s="75"/>
-      <c r="AF57" s="75"/>
-      <c r="AG57" s="75"/>
+      <c r="AD57" s="90"/>
+      <c r="AE57" s="90"/>
+      <c r="AF57" s="90"/>
+      <c r="AG57" s="90"/>
       <c r="AR57" s="38"/>
       <c r="AS57" s="38"/>
       <c r="BB57" s="47"/>
       <c r="BC57" s="47"/>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="75"/>
-      <c r="U58" s="75"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="75"/>
-      <c r="Z58" s="75"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="75"/>
-      <c r="AD58" s="75"/>
-      <c r="AE58" s="75"/>
-      <c r="AF58" s="75"/>
-      <c r="AG58" s="75"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="90"/>
+      <c r="U58" s="90"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="90"/>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="90"/>
+      <c r="AB58" s="90"/>
+      <c r="AC58" s="90"/>
+      <c r="AD58" s="90"/>
+      <c r="AE58" s="90"/>
+      <c r="AF58" s="90"/>
+      <c r="AG58" s="90"/>
       <c r="AR58" s="38"/>
       <c r="AS58" s="38"/>
       <c r="BB58" s="47"/>
       <c r="BC58" s="47"/>
     </row>
-    <row r="59" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="76"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="76"/>
-      <c r="AD59" s="76"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="76"/>
-      <c r="AG59" s="76"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="91"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="91"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="91"/>
+      <c r="AA59" s="91"/>
+      <c r="AB59" s="91"/>
+      <c r="AC59" s="91"/>
+      <c r="AD59" s="91"/>
+      <c r="AE59" s="91"/>
+      <c r="AF59" s="91"/>
+      <c r="AG59" s="91"/>
       <c r="BB59" s="47"/>
       <c r="BC59" s="47"/>
     </row>
-    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>86</v>
       </c>
@@ -7598,61 +7615,61 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="109" t="s">
+      <c r="AN60" s="77" t="s">
         <v>111</v>
       </c>
       <c r="AX60" s="30"/>
-      <c r="AY60" s="109" t="s">
+      <c r="AY60" s="77" t="s">
         <v>111</v>
       </c>
       <c r="AZ60" s="30"/>
       <c r="BB60" s="47"/>
       <c r="BC60" s="47"/>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.45">
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="AM61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AN61" s="110"/>
+      <c r="AN61" s="78"/>
       <c r="AO61" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="AQ61" s="114" t="s">
+      <c r="AQ61" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AR61" s="115"/>
+      <c r="AR61" s="83"/>
       <c r="AU61" s="30"/>
       <c r="AX61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AY61" s="110"/>
+      <c r="AY61" s="78"/>
       <c r="AZ61" s="39" t="s">
         <v>113</v>
       </c>
       <c r="BB61" s="47"/>
       <c r="BC61" s="47"/>
     </row>
-    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P62" s="77" t="s">
+    <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P62" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="Q62" s="77" t="s">
+      <c r="Q62" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="R62" s="77" t="s">
+      <c r="R62" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="S62" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="S62" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="T62" s="81" t="s">
+      <c r="T62" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="U62" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="U62" s="77" t="s">
-        <v>162</v>
-      </c>
       <c r="W62" s="21">
         <v>0</v>
       </c>
@@ -7671,28 +7688,28 @@
       <c r="AB62" s="19">
         <v>0</v>
       </c>
-      <c r="AC62" s="92" t="s">
+      <c r="AC62" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="AD62" s="92"/>
-      <c r="AE62" s="92"/>
+      <c r="AD62" s="94"/>
+      <c r="AE62" s="94"/>
       <c r="AF62" s="6"/>
-      <c r="AN62" s="110"/>
-      <c r="AQ62" s="116"/>
-      <c r="AR62" s="117"/>
+      <c r="AN62" s="78"/>
+      <c r="AQ62" s="84"/>
+      <c r="AR62" s="85"/>
       <c r="AX62" s="30"/>
-      <c r="AY62" s="110"/>
+      <c r="AY62" s="78"/>
       <c r="AZ62" s="30"/>
       <c r="BB62" s="47"/>
       <c r="BC62" s="47"/>
     </row>
-    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="77"/>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81"/>
-      <c r="U63" s="77"/>
+    <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="115"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="115"/>
       <c r="W63" s="21">
         <v>0</v>
       </c>
@@ -7711,62 +7728,62 @@
       <c r="AB63" s="19">
         <v>1</v>
       </c>
-      <c r="AC63" s="92" t="s">
+      <c r="AC63" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="AD63" s="92"/>
-      <c r="AE63" s="92"/>
+      <c r="AD63" s="94"/>
+      <c r="AE63" s="94"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="110"/>
-      <c r="AQ63" s="116"/>
-      <c r="AR63" s="117"/>
+      <c r="AN63" s="78"/>
+      <c r="AQ63" s="84"/>
+      <c r="AR63" s="85"/>
       <c r="AX63" s="30"/>
-      <c r="AY63" s="110"/>
+      <c r="AY63" s="78"/>
       <c r="AZ63" s="30"/>
       <c r="BB63" s="47"/>
       <c r="BC63" s="47"/>
     </row>
-    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="83" t="s">
+    <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="97" t="s">
+      <c r="C64" s="118"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="97" t="s">
+      <c r="F64" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="97" t="s">
+      <c r="G64" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="97" t="s">
+      <c r="H64" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="97" t="s">
+      <c r="I64" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="108" t="s">
+      <c r="J64" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="97" t="s">
+      <c r="K64" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="M64" s="83" t="s">
+      <c r="M64" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="84"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="77"/>
-      <c r="Q64" s="77"/>
-      <c r="R64" s="77"/>
-      <c r="S64" s="81"/>
-      <c r="T64" s="81"/>
-      <c r="U64" s="77"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="98"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="115"/>
+      <c r="R64" s="115"/>
+      <c r="S64" s="115"/>
+      <c r="T64" s="115"/>
+      <c r="U64" s="115"/>
       <c r="W64" s="21">
         <v>0</v>
       </c>
@@ -7785,44 +7802,44 @@
       <c r="AB64" s="19">
         <v>2</v>
       </c>
-      <c r="AC64" s="98" t="s">
+      <c r="AC64" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AD64" s="98"/>
-      <c r="AE64" s="98"/>
+      <c r="AD64" s="93"/>
+      <c r="AE64" s="93"/>
       <c r="AF64" s="6"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="110"/>
-      <c r="AQ64" s="118"/>
-      <c r="AR64" s="119"/>
+      <c r="AN64" s="78"/>
+      <c r="AQ64" s="86"/>
+      <c r="AR64" s="87"/>
       <c r="AX64" s="30"/>
-      <c r="AY64" s="110"/>
+      <c r="AY64" s="78"/>
       <c r="AZ64" s="30"/>
       <c r="BB64" s="47"/>
       <c r="BC64" s="47"/>
     </row>
-    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="86"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="97"/>
-      <c r="M65" s="86"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
-      <c r="U65" s="77"/>
+    <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="99"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="103"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="100"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
+      <c r="R65" s="115"/>
+      <c r="S65" s="115"/>
+      <c r="T65" s="115"/>
+      <c r="U65" s="115"/>
       <c r="W65" s="21">
         <v>0</v>
       </c>
@@ -7841,42 +7858,42 @@
       <c r="AB65" s="19">
         <v>3</v>
       </c>
-      <c r="AC65" s="98" t="s">
+      <c r="AC65" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AD65" s="98"/>
-      <c r="AE65" s="98"/>
+      <c r="AD65" s="93"/>
+      <c r="AE65" s="93"/>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="110"/>
+      <c r="AN65" s="78"/>
       <c r="AX65" s="30"/>
-      <c r="AY65" s="110"/>
+      <c r="AY65" s="78"/>
       <c r="AZ65" s="30"/>
       <c r="BB65" s="47"/>
       <c r="BC65" s="47"/>
     </row>
-    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="86"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="97"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="77"/>
-      <c r="Q66" s="77"/>
-      <c r="R66" s="77"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="81"/>
-      <c r="U66" s="77"/>
+    <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="99"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="103"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="119"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="115"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="115"/>
+      <c r="T66" s="115"/>
+      <c r="U66" s="115"/>
       <c r="W66" s="21">
         <v>0</v>
       </c>
@@ -7895,44 +7912,44 @@
       <c r="AB66" s="19">
         <v>4</v>
       </c>
-      <c r="AC66" s="98" t="s">
+      <c r="AC66" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="AD66" s="98"/>
-      <c r="AE66" s="98"/>
+      <c r="AD66" s="93"/>
+      <c r="AE66" s="93"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
-      <c r="AN66" s="110"/>
+      <c r="AN66" s="78"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AX66" s="30"/>
-      <c r="AY66" s="110"/>
+      <c r="AY66" s="78"/>
       <c r="AZ66" s="30"/>
       <c r="BB66" s="47"/>
       <c r="BC66" s="47"/>
     </row>
-    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="97"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="91"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="76"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="82"/>
-      <c r="U67" s="76"/>
+    <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="101"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="103"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
       <c r="W67" s="21">
         <v>0</v>
       </c>
@@ -7951,23 +7968,23 @@
       <c r="AB67" s="19">
         <v>5</v>
       </c>
-      <c r="AC67" s="98" t="s">
+      <c r="AC67" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AD67" s="98"/>
-      <c r="AE67" s="98"/>
+      <c r="AD67" s="93"/>
+      <c r="AE67" s="93"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
-      <c r="AN67" s="110"/>
+      <c r="AN67" s="78"/>
       <c r="AX67" s="30"/>
-      <c r="AY67" s="110"/>
+      <c r="AY67" s="78"/>
       <c r="AZ67" s="30"/>
       <c r="BB67" s="47"/>
       <c r="BC67" s="47"/>
     </row>
-    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="46" t="s">
         <v>107</v>
       </c>
@@ -8020,23 +8037,23 @@
       <c r="AB68" s="19">
         <v>6</v>
       </c>
-      <c r="AC68" s="98" t="s">
+      <c r="AC68" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AD68" s="98"/>
-      <c r="AE68" s="98"/>
+      <c r="AD68" s="93"/>
+      <c r="AE68" s="93"/>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
-      <c r="AN68" s="110"/>
+      <c r="AN68" s="78"/>
       <c r="AX68" s="30"/>
-      <c r="AY68" s="110"/>
+      <c r="AY68" s="78"/>
       <c r="AZ68" s="30"/>
       <c r="BB68" s="47"/>
       <c r="BC68" s="47"/>
     </row>
-    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="20">
         <v>0</v>
       </c>
@@ -8090,25 +8107,25 @@
       <c r="AB69" s="19">
         <v>7</v>
       </c>
-      <c r="AC69" s="98" t="s">
+      <c r="AC69" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="AD69" s="98"/>
-      <c r="AE69" s="98"/>
+      <c r="AD69" s="93"/>
+      <c r="AE69" s="93"/>
       <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AN69" s="110"/>
+      <c r="AN69" s="78"/>
       <c r="AX69" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AY69" s="110"/>
+      <c r="AY69" s="78"/>
       <c r="AZ69" s="30"/>
       <c r="BB69" s="47"/>
       <c r="BC69" s="47"/>
     </row>
-    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="20">
         <v>0</v>
       </c>
@@ -8164,23 +8181,23 @@
       <c r="AB70" s="19">
         <v>8</v>
       </c>
-      <c r="AC70" s="98" t="s">
+      <c r="AC70" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="AD70" s="98"/>
-      <c r="AE70" s="98"/>
+      <c r="AD70" s="93"/>
+      <c r="AE70" s="93"/>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AN70" s="110"/>
+      <c r="AN70" s="78"/>
       <c r="AX70" s="30"/>
-      <c r="AY70" s="110"/>
+      <c r="AY70" s="78"/>
       <c r="AZ70" s="30"/>
       <c r="BB70" s="47"/>
       <c r="BC70" s="47"/>
     </row>
-    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="46" t="s">
         <v>107</v>
       </c>
@@ -8241,11 +8258,11 @@
       <c r="AB71" s="19">
         <v>9</v>
       </c>
-      <c r="AC71" s="98" t="s">
+      <c r="AC71" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AD71" s="98"/>
-      <c r="AE71" s="98"/>
+      <c r="AD71" s="93"/>
+      <c r="AE71" s="93"/>
       <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
@@ -8253,29 +8270,29 @@
       <c r="AM71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AN71" s="110"/>
+      <c r="AN71" s="78"/>
       <c r="AO71" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AQ71" s="120" t="s">
+      <c r="AQ71" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="AR71" s="121"/>
-      <c r="AU71" s="120" t="s">
+      <c r="AR71" s="89"/>
+      <c r="AU71" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="AV71" s="121"/>
+      <c r="AV71" s="89"/>
       <c r="AX71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AY71" s="110"/>
+      <c r="AY71" s="78"/>
       <c r="AZ71" s="39" t="s">
         <v>116</v>
       </c>
       <c r="BB71" s="47"/>
       <c r="BC71" s="47"/>
     </row>
-    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="20">
         <v>1</v>
       </c>
@@ -8307,10 +8324,10 @@
       </c>
       <c r="P72" s="54"/>
       <c r="Q72" s="55"/>
-      <c r="R72" s="55" t="s">
+      <c r="R72" s="55"/>
+      <c r="S72" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="56"/>
       <c r="W72" s="21">
@@ -8331,18 +8348,18 @@
       <c r="AB72" s="19">
         <v>10</v>
       </c>
-      <c r="AC72" s="98" t="s">
+      <c r="AC72" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="AD72" s="98"/>
-      <c r="AE72" s="98"/>
+      <c r="AD72" s="93"/>
+      <c r="AE72" s="93"/>
       <c r="AF72" s="6"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
-      <c r="AN72" s="111"/>
+      <c r="AN72" s="79"/>
       <c r="AX72" s="30"/>
-      <c r="AY72" s="111"/>
+      <c r="AY72" s="79"/>
       <c r="AZ72" s="30"/>
       <c r="BB72" s="47"/>
       <c r="BC72" s="47"/>
@@ -8375,7 +8392,9 @@
       </c>
       <c r="P73" s="54"/>
       <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
+      <c r="R73" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="56"/>
@@ -8397,11 +8416,11 @@
       <c r="AB73" s="19">
         <v>11</v>
       </c>
-      <c r="AC73" s="98" t="s">
+      <c r="AC73" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="AD73" s="98"/>
-      <c r="AE73" s="98"/>
+      <c r="AD73" s="93"/>
+      <c r="AE73" s="93"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
@@ -8444,7 +8463,9 @@
       <c r="Q74" s="55"/>
       <c r="R74" s="55"/>
       <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
+      <c r="T74" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="U74" s="56"/>
       <c r="W74" s="21">
         <v>0</v>
@@ -8464,11 +8485,11 @@
       <c r="AB74" s="19">
         <v>12</v>
       </c>
-      <c r="AC74" s="98" t="s">
+      <c r="AC74" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AD74" s="98"/>
-      <c r="AE74" s="98"/>
+      <c r="AD74" s="93"/>
+      <c r="AE74" s="93"/>
       <c r="AF74" s="6"/>
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
@@ -8517,7 +8538,9 @@
       <c r="R75" s="55"/>
       <c r="S75" s="49"/>
       <c r="T75" s="49"/>
-      <c r="U75" s="56"/>
+      <c r="U75" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="W75" s="21">
         <v>0</v>
       </c>
@@ -8536,11 +8559,11 @@
       <c r="AB75" s="19">
         <v>13</v>
       </c>
-      <c r="AC75" s="98" t="s">
+      <c r="AC75" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="AD75" s="98"/>
-      <c r="AE75" s="98"/>
+      <c r="AD75" s="93"/>
+      <c r="AE75" s="93"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
@@ -8580,11 +8603,11 @@
       <c r="AB76" s="19">
         <v>14</v>
       </c>
-      <c r="AC76" s="98" t="s">
+      <c r="AC76" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AD76" s="98"/>
-      <c r="AE76" s="98"/>
+      <c r="AD76" s="93"/>
+      <c r="AE76" s="93"/>
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
@@ -8603,23 +8626,23 @@
       <c r="BB76" s="47"/>
       <c r="BC76" s="47"/>
     </row>
-    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="M77" s="83" t="s">
+      <c r="M77" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="85"/>
-      <c r="O77" s="99" t="s">
+      <c r="N77" s="98"/>
+      <c r="O77" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="99" t="s">
+      <c r="P77" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="Q77" s="99" t="s">
+      <c r="Q77" s="92" t="s">
         <v>152</v>
       </c>
       <c r="R77" s="6"/>
@@ -8641,11 +8664,11 @@
       <c r="AB77" s="19">
         <v>15</v>
       </c>
-      <c r="AC77" s="98" t="s">
+      <c r="AC77" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AD77" s="98"/>
-      <c r="AE77" s="98"/>
+      <c r="AD77" s="93"/>
+      <c r="AE77" s="93"/>
       <c r="AF77" s="6"/>
       <c r="AQ77" s="30"/>
       <c r="AR77" s="30"/>
@@ -8655,17 +8678,17 @@
       <c r="BB77" s="47"/>
       <c r="BC77" s="47"/>
     </row>
-    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="M78" s="86"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="99"/>
-      <c r="P78" s="99"/>
-      <c r="Q78" s="99"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="100"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
       <c r="R78" s="6"/>
       <c r="W78" s="21">
         <v>1</v>
@@ -8685,51 +8708,51 @@
       <c r="AB78" s="19">
         <v>16</v>
       </c>
-      <c r="AC78" s="98" t="s">
+      <c r="AC78" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AD78" s="98"/>
-      <c r="AE78" s="98"/>
+      <c r="AD78" s="93"/>
+      <c r="AE78" s="93"/>
       <c r="AF78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AN78" s="112" t="s">
+      <c r="AN78" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="AO78" s="113"/>
-      <c r="AQ78" s="114" t="s">
+      <c r="AO78" s="81"/>
+      <c r="AQ78" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="115"/>
+      <c r="AR78" s="83"/>
       <c r="AT78" s="30"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="112" t="s">
+      <c r="AX78" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="AY78" s="113"/>
+      <c r="AY78" s="81"/>
       <c r="AZ78" s="30"/>
       <c r="BB78" s="47"/>
       <c r="BC78" s="47"/>
     </row>
-    <row r="79" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="83" t="s">
+    <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="97" t="s">
+      <c r="C79" s="98"/>
+      <c r="D79" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="97" t="s">
+      <c r="E79" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="96" t="s">
+      <c r="F79" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="M79" s="86"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="99"/>
-      <c r="P79" s="99"/>
-      <c r="Q79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="100"/>
+      <c r="O79" s="92"/>
+      <c r="P79" s="92"/>
+      <c r="Q79" s="92"/>
       <c r="R79" s="6"/>
       <c r="W79" s="21">
         <v>1</v>
@@ -8749,11 +8772,11 @@
       <c r="AB79" s="19">
         <v>17</v>
       </c>
-      <c r="AC79" s="98" t="s">
+      <c r="AC79" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AD79" s="98"/>
-      <c r="AE79" s="98"/>
+      <c r="AD79" s="93"/>
+      <c r="AE79" s="93"/>
       <c r="AF79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AN79" s="40" t="s">
@@ -8762,8 +8785,8 @@
       <c r="AO79" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AQ79" s="116"/>
-      <c r="AR79" s="117"/>
+      <c r="AQ79" s="84"/>
+      <c r="AR79" s="85"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="40" t="s">
@@ -8776,17 +8799,17 @@
       <c r="BB79" s="47"/>
       <c r="BC79" s="47"/>
     </row>
-    <row r="80" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="96"/>
-      <c r="M80" s="86"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
+    <row r="80" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="99"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="117"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="100"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="92"/>
+      <c r="Q80" s="92"/>
       <c r="R80" s="6"/>
       <c r="W80" s="21">
         <v>1</v>
@@ -8806,15 +8829,15 @@
       <c r="AB80" s="19">
         <v>18</v>
       </c>
-      <c r="AC80" s="98" t="s">
+      <c r="AC80" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AD80" s="98"/>
-      <c r="AE80" s="98"/>
+      <c r="AD80" s="93"/>
+      <c r="AE80" s="93"/>
       <c r="AF80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AQ80" s="116"/>
-      <c r="AR80" s="117"/>
+      <c r="AQ80" s="84"/>
+      <c r="AR80" s="85"/>
       <c r="AV80" s="30"/>
       <c r="AX80" s="30"/>
       <c r="AY80" s="30"/>
@@ -8822,17 +8845,17 @@
       <c r="BB80" s="47"/>
       <c r="BC80" s="47"/>
     </row>
-    <row r="81" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="89"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="96"/>
-      <c r="M81" s="86"/>
-      <c r="N81" s="88"/>
-      <c r="O81" s="99"/>
-      <c r="P81" s="99"/>
-      <c r="Q81" s="99"/>
+    <row r="81" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="101"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="117"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="100"/>
+      <c r="O81" s="92"/>
+      <c r="P81" s="92"/>
+      <c r="Q81" s="92"/>
       <c r="R81" s="6"/>
       <c r="W81" s="21">
         <v>1</v>
@@ -8852,26 +8875,26 @@
       <c r="AB81" s="19">
         <v>19</v>
       </c>
-      <c r="AC81" s="98" t="s">
+      <c r="AC81" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="AD81" s="98"/>
-      <c r="AE81" s="98"/>
+      <c r="AD81" s="93"/>
+      <c r="AE81" s="93"/>
       <c r="AF81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AN81" s="109" t="s">
+      <c r="AN81" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="AQ81" s="118"/>
-      <c r="AR81" s="119"/>
+      <c r="AQ81" s="86"/>
+      <c r="AR81" s="87"/>
       <c r="AV81" s="30"/>
       <c r="AX81" s="30"/>
-      <c r="AY81" s="109" t="s">
+      <c r="AY81" s="77" t="s">
         <v>125</v>
       </c>
       <c r="AZ81" s="30"/>
     </row>
-    <row r="82" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B82" s="21">
         <v>0</v>
       </c>
@@ -8881,11 +8904,11 @@
       <c r="D82" s="21"/>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="91"/>
-      <c r="O82" s="99"/>
-      <c r="P82" s="99"/>
-      <c r="Q82" s="99"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="102"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
       <c r="R82" s="6"/>
       <c r="W82" s="21">
         <v>1</v>
@@ -8905,18 +8928,18 @@
       <c r="AB82" s="19">
         <v>20</v>
       </c>
-      <c r="AC82" s="92"/>
-      <c r="AD82" s="92"/>
-      <c r="AE82" s="92"/>
+      <c r="AC82" s="94"/>
+      <c r="AD82" s="94"/>
+      <c r="AE82" s="94"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="110"/>
+      <c r="AN82" s="78"/>
       <c r="AV82" s="30"/>
       <c r="AX82" s="30"/>
-      <c r="AY82" s="110"/>
+      <c r="AY82" s="78"/>
       <c r="AZ82" s="30"/>
     </row>
-    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="21">
         <v>0</v>
       </c>
@@ -8955,17 +8978,17 @@
       <c r="AB83" s="19">
         <v>21</v>
       </c>
-      <c r="AC83" s="92"/>
-      <c r="AD83" s="92"/>
-      <c r="AE83" s="92"/>
+      <c r="AC83" s="94"/>
+      <c r="AD83" s="94"/>
+      <c r="AE83" s="94"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="110"/>
+      <c r="AN83" s="78"/>
       <c r="AX83" s="30"/>
-      <c r="AY83" s="110"/>
+      <c r="AY83" s="78"/>
       <c r="AZ83" s="30"/>
     </row>
-    <row r="84" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B84" s="21">
         <v>1</v>
       </c>
@@ -9007,16 +9030,16 @@
       <c r="AB84" s="19">
         <v>22</v>
       </c>
-      <c r="AC84" s="92"/>
-      <c r="AD84" s="92"/>
-      <c r="AE84" s="92"/>
+      <c r="AC84" s="94"/>
+      <c r="AD84" s="94"/>
+      <c r="AE84" s="94"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="110"/>
+      <c r="AN84" s="78"/>
       <c r="AX84" s="30"/>
-      <c r="AY84" s="110"/>
+      <c r="AY84" s="78"/>
       <c r="AZ84" s="30"/>
     </row>
-    <row r="85" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B85" s="21">
         <v>1</v>
       </c>
@@ -9060,13 +9083,13 @@
       <c r="AB85" s="19">
         <v>23</v>
       </c>
-      <c r="AC85" s="92"/>
-      <c r="AD85" s="92"/>
-      <c r="AE85" s="92"/>
+      <c r="AC85" s="94"/>
+      <c r="AD85" s="94"/>
+      <c r="AE85" s="94"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="111"/>
+      <c r="AN85" s="79"/>
       <c r="AX85" s="30"/>
-      <c r="AY85" s="111"/>
+      <c r="AY85" s="79"/>
       <c r="AZ85" s="30"/>
     </row>
     <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9105,15 +9128,15 @@
       <c r="AB86" s="19">
         <v>24</v>
       </c>
-      <c r="AC86" s="92"/>
-      <c r="AD86" s="92"/>
-      <c r="AE86" s="92"/>
+      <c r="AC86" s="94"/>
+      <c r="AD86" s="94"/>
+      <c r="AE86" s="94"/>
       <c r="AF86" s="6"/>
       <c r="AX86" s="30"/>
       <c r="AY86" s="30"/>
       <c r="AZ86" s="30"/>
     </row>
-    <row r="87" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:52" x14ac:dyDescent="0.45">
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -9135,37 +9158,37 @@
       <c r="AB87" s="19">
         <v>25</v>
       </c>
-      <c r="AC87" s="92"/>
-      <c r="AD87" s="92"/>
-      <c r="AE87" s="92"/>
+      <c r="AC87" s="94"/>
+      <c r="AD87" s="94"/>
+      <c r="AE87" s="94"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="109" t="s">
+      <c r="AN87" s="77" t="s">
         <v>120</v>
       </c>
       <c r="AX87" s="30"/>
-      <c r="AY87" s="109" t="s">
+      <c r="AY87" s="77" t="s">
         <v>126</v>
       </c>
       <c r="AZ87" s="30"/>
     </row>
-    <row r="88" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="M88" s="83" t="s">
+      <c r="M88" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="N88" s="85"/>
-      <c r="O88" s="97" t="s">
+      <c r="N88" s="98"/>
+      <c r="O88" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="P88" s="97" t="s">
+      <c r="P88" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="Q88" s="107" t="s">
+      <c r="Q88" s="104" t="s">
         <v>101</v>
       </c>
       <c r="W88" s="21">
@@ -9186,27 +9209,27 @@
       <c r="AB88" s="19">
         <v>26</v>
       </c>
-      <c r="AC88" s="92"/>
-      <c r="AD88" s="92"/>
-      <c r="AE88" s="92"/>
+      <c r="AC88" s="94"/>
+      <c r="AD88" s="94"/>
+      <c r="AE88" s="94"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="110"/>
+      <c r="AN88" s="78"/>
       <c r="AX88" s="30"/>
-      <c r="AY88" s="110"/>
+      <c r="AY88" s="78"/>
       <c r="AZ88" s="30"/>
     </row>
-    <row r="89" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="M89" s="86"/>
-      <c r="N89" s="88"/>
-      <c r="O89" s="97"/>
-      <c r="P89" s="97"/>
-      <c r="Q89" s="107"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="100"/>
+      <c r="O89" s="103"/>
+      <c r="P89" s="103"/>
+      <c r="Q89" s="104"/>
       <c r="W89" s="21">
         <v>1</v>
       </c>
@@ -9225,27 +9248,27 @@
       <c r="AB89" s="19">
         <v>27</v>
       </c>
-      <c r="AC89" s="92"/>
-      <c r="AD89" s="92"/>
-      <c r="AE89" s="92"/>
+      <c r="AC89" s="94"/>
+      <c r="AD89" s="94"/>
+      <c r="AE89" s="94"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="110"/>
+      <c r="AN89" s="78"/>
       <c r="AX89" s="30"/>
-      <c r="AY89" s="110"/>
+      <c r="AY89" s="78"/>
       <c r="AZ89" s="30"/>
     </row>
-    <row r="90" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="88"/>
-      <c r="O90" s="97"/>
-      <c r="P90" s="97"/>
-      <c r="Q90" s="107"/>
+      <c r="M90" s="99"/>
+      <c r="N90" s="100"/>
+      <c r="O90" s="103"/>
+      <c r="P90" s="103"/>
+      <c r="Q90" s="104"/>
       <c r="W90" s="21">
         <v>1</v>
       </c>
@@ -9264,27 +9287,27 @@
       <c r="AB90" s="19">
         <v>28</v>
       </c>
-      <c r="AC90" s="92"/>
-      <c r="AD90" s="92"/>
-      <c r="AE90" s="92"/>
+      <c r="AC90" s="94"/>
+      <c r="AD90" s="94"/>
+      <c r="AE90" s="94"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="110"/>
+      <c r="AN90" s="78"/>
       <c r="AX90" s="30"/>
-      <c r="AY90" s="110"/>
+      <c r="AY90" s="78"/>
       <c r="AZ90" s="30"/>
     </row>
-    <row r="91" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="91"/>
-      <c r="O91" s="97"/>
-      <c r="P91" s="97"/>
-      <c r="Q91" s="107"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="102"/>
+      <c r="O91" s="103"/>
+      <c r="P91" s="103"/>
+      <c r="Q91" s="104"/>
       <c r="S91" s="6"/>
       <c r="W91" s="21">
         <v>1</v>
@@ -9304,16 +9327,16 @@
       <c r="AB91" s="19">
         <v>29</v>
       </c>
-      <c r="AC91" s="92"/>
-      <c r="AD91" s="92"/>
-      <c r="AE91" s="92"/>
+      <c r="AC91" s="94"/>
+      <c r="AD91" s="94"/>
+      <c r="AE91" s="94"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="111"/>
+      <c r="AN91" s="79"/>
       <c r="AX91" s="30"/>
-      <c r="AY91" s="111"/>
+      <c r="AY91" s="79"/>
       <c r="AZ91" s="30"/>
     </row>
-    <row r="92" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="M92" s="21">
         <v>0</v>
@@ -9343,12 +9366,12 @@
       <c r="AB92" s="19">
         <v>30</v>
       </c>
-      <c r="AC92" s="92"/>
-      <c r="AD92" s="92"/>
-      <c r="AE92" s="92"/>
+      <c r="AC92" s="94"/>
+      <c r="AD92" s="94"/>
+      <c r="AE92" s="94"/>
       <c r="AF92" s="6"/>
     </row>
-    <row r="93" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="M93" s="21">
         <v>0</v>
@@ -9380,14 +9403,14 @@
       <c r="AB93" s="19">
         <v>31</v>
       </c>
-      <c r="AC93" s="92" t="s">
+      <c r="AC93" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AD93" s="92"/>
-      <c r="AE93" s="92"/>
+      <c r="AD93" s="94"/>
+      <c r="AE93" s="94"/>
       <c r="AF93" s="6"/>
     </row>
-    <row r="94" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B94" s="6"/>
       <c r="M94" s="21">
         <v>1</v>
@@ -9402,7 +9425,7 @@
       <c r="Q94" s="24"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="2:52" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B95" s="6"/>
       <c r="M95" s="21">
         <v>1</v>
@@ -9417,17 +9440,17 @@
       </c>
       <c r="S95" s="6"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A98" s="59"/>
       <c r="B98" s="1"/>
       <c r="C98" s="51"/>
       <c r="D98" s="51"/>
       <c r="E98" s="51"/>
       <c r="F98" s="51"/>
-      <c r="G98" s="77" t="s">
+      <c r="G98" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="H98" s="77" t="s">
+      <c r="H98" s="115" t="s">
         <v>147</v>
       </c>
       <c r="J98" s="28"/>
@@ -9463,62 +9486,62 @@
       <c r="AN98" s="59"/>
       <c r="AO98" s="59"/>
     </row>
-    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="59"/>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="75"/>
-      <c r="D99" s="77" t="s">
+      <c r="C99" s="90"/>
+      <c r="D99" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77" t="s">
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="J99" s="77"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="75" t="s">
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75" t="s">
+      <c r="M99" s="90"/>
+      <c r="N99" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="O99" s="75"/>
-      <c r="P99" s="75" t="s">
+      <c r="O99" s="90"/>
+      <c r="P99" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="75" t="s">
+      <c r="Q99" s="90"/>
+      <c r="R99" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="S99" s="75"/>
-      <c r="T99" s="75"/>
-      <c r="U99" s="75"/>
-      <c r="V99" s="75"/>
-      <c r="W99" s="75" t="s">
+      <c r="S99" s="90"/>
+      <c r="T99" s="90"/>
+      <c r="U99" s="90"/>
+      <c r="V99" s="90"/>
+      <c r="W99" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="X99" s="75"/>
-      <c r="Y99" s="75" t="s">
+      <c r="X99" s="90"/>
+      <c r="Y99" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="Z99" s="75"/>
-      <c r="AA99" s="75" t="s">
+      <c r="Z99" s="90"/>
+      <c r="AA99" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="AB99" s="75"/>
-      <c r="AC99" s="75" t="s">
+      <c r="AB99" s="90"/>
+      <c r="AC99" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AD99" s="75"/>
-      <c r="AE99" s="75"/>
-      <c r="AF99" s="75"/>
-      <c r="AG99" s="75"/>
+      <c r="AD99" s="90"/>
+      <c r="AE99" s="90"/>
+      <c r="AF99" s="90"/>
+      <c r="AG99" s="90"/>
       <c r="AH99" s="51"/>
       <c r="AI99" s="51"/>
       <c r="AJ99" s="59"/>
@@ -9528,40 +9551,40 @@
       <c r="AN99" s="59"/>
       <c r="AO99" s="59"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A100" s="59"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-      <c r="P100" s="75"/>
-      <c r="Q100" s="75"/>
-      <c r="R100" s="75"/>
-      <c r="S100" s="75"/>
-      <c r="T100" s="75"/>
-      <c r="U100" s="75"/>
-      <c r="V100" s="75"/>
-      <c r="W100" s="75"/>
-      <c r="X100" s="75"/>
-      <c r="Y100" s="75"/>
-      <c r="Z100" s="75"/>
-      <c r="AA100" s="75"/>
-      <c r="AB100" s="75"/>
-      <c r="AC100" s="75"/>
-      <c r="AD100" s="75"/>
-      <c r="AE100" s="75"/>
-      <c r="AF100" s="75"/>
-      <c r="AG100" s="75"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
+      <c r="H100" s="115"/>
+      <c r="I100" s="115"/>
+      <c r="J100" s="115"/>
+      <c r="K100" s="115"/>
+      <c r="L100" s="90"/>
+      <c r="M100" s="90"/>
+      <c r="N100" s="90"/>
+      <c r="O100" s="90"/>
+      <c r="P100" s="90"/>
+      <c r="Q100" s="90"/>
+      <c r="R100" s="90"/>
+      <c r="S100" s="90"/>
+      <c r="T100" s="90"/>
+      <c r="U100" s="90"/>
+      <c r="V100" s="90"/>
+      <c r="W100" s="90"/>
+      <c r="X100" s="90"/>
+      <c r="Y100" s="90"/>
+      <c r="Z100" s="90"/>
+      <c r="AA100" s="90"/>
+      <c r="AB100" s="90"/>
+      <c r="AC100" s="90"/>
+      <c r="AD100" s="90"/>
+      <c r="AE100" s="90"/>
+      <c r="AF100" s="90"/>
+      <c r="AG100" s="90"/>
       <c r="AH100" s="51"/>
       <c r="AI100" s="51"/>
       <c r="AJ100" s="59"/>
@@ -9571,40 +9594,40 @@
       <c r="AN100" s="59"/>
       <c r="AO100" s="59"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A101" s="59"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
-      <c r="S101" s="76"/>
-      <c r="T101" s="76"/>
-      <c r="U101" s="76"/>
-      <c r="V101" s="76"/>
-      <c r="W101" s="76"/>
-      <c r="X101" s="76"/>
-      <c r="Y101" s="76"/>
-      <c r="Z101" s="76"/>
-      <c r="AA101" s="76"/>
-      <c r="AB101" s="76"/>
-      <c r="AC101" s="76"/>
-      <c r="AD101" s="76"/>
-      <c r="AE101" s="76"/>
-      <c r="AF101" s="76"/>
-      <c r="AG101" s="76"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="91"/>
+      <c r="M101" s="91"/>
+      <c r="N101" s="91"/>
+      <c r="O101" s="91"/>
+      <c r="P101" s="91"/>
+      <c r="Q101" s="91"/>
+      <c r="R101" s="91"/>
+      <c r="S101" s="91"/>
+      <c r="T101" s="91"/>
+      <c r="U101" s="91"/>
+      <c r="V101" s="91"/>
+      <c r="W101" s="91"/>
+      <c r="X101" s="91"/>
+      <c r="Y101" s="91"/>
+      <c r="Z101" s="91"/>
+      <c r="AA101" s="91"/>
+      <c r="AB101" s="91"/>
+      <c r="AC101" s="91"/>
+      <c r="AD101" s="91"/>
+      <c r="AE101" s="91"/>
+      <c r="AF101" s="91"/>
+      <c r="AG101" s="91"/>
       <c r="AH101" s="51"/>
       <c r="AI101" s="51"/>
       <c r="AJ101" s="59"/>
@@ -9719,45 +9742,45 @@
       <c r="B103" s="58">
         <v>1</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
-      <c r="H103" s="78"/>
-      <c r="I103" s="78"/>
-      <c r="J103" s="78"/>
-      <c r="K103" s="78"/>
-      <c r="L103" s="78"/>
-      <c r="M103" s="78"/>
-      <c r="N103" s="78"/>
-      <c r="O103" s="78"/>
-      <c r="P103" s="78"/>
-      <c r="Q103" s="78"/>
-      <c r="R103" s="78"/>
-      <c r="S103" s="78"/>
-      <c r="T103" s="78"/>
-      <c r="U103" s="78"/>
-      <c r="V103" s="78"/>
-      <c r="W103" s="78"/>
-      <c r="X103" s="78"/>
-      <c r="Y103" s="78"/>
-      <c r="Z103" s="78"/>
-      <c r="AA103" s="78"/>
-      <c r="AB103" s="78"/>
-      <c r="AC103" s="78"/>
-      <c r="AD103" s="78"/>
-      <c r="AE103" s="78"/>
-      <c r="AF103" s="78"/>
-      <c r="AG103" s="79"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="113"/>
+      <c r="H103" s="113"/>
+      <c r="I103" s="113"/>
+      <c r="J103" s="113"/>
+      <c r="K103" s="113"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="113"/>
+      <c r="N103" s="113"/>
+      <c r="O103" s="113"/>
+      <c r="P103" s="113"/>
+      <c r="Q103" s="113"/>
+      <c r="R103" s="113"/>
+      <c r="S103" s="113"/>
+      <c r="T103" s="113"/>
+      <c r="U103" s="113"/>
+      <c r="V103" s="113"/>
+      <c r="W103" s="113"/>
+      <c r="X103" s="113"/>
+      <c r="Y103" s="113"/>
+      <c r="Z103" s="113"/>
+      <c r="AA103" s="113"/>
+      <c r="AB103" s="113"/>
+      <c r="AC103" s="113"/>
+      <c r="AD103" s="113"/>
+      <c r="AE103" s="113"/>
+      <c r="AF103" s="113"/>
+      <c r="AG103" s="114"/>
       <c r="AH103" s="70"/>
-      <c r="AI103" s="80" t="s">
+      <c r="AI103" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="80"/>
-      <c r="AK103" s="80"/>
+      <c r="AJ103" s="76"/>
+      <c r="AK103" s="76"/>
     </row>
     <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="31" t="s">
@@ -9789,30 +9812,30 @@
       <c r="O104" s="32"/>
       <c r="P104" s="52"/>
       <c r="Q104" s="32"/>
-      <c r="R104" s="78" t="s">
+      <c r="R104" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="S104" s="78"/>
-      <c r="T104" s="78"/>
-      <c r="U104" s="78"/>
-      <c r="V104" s="78"/>
-      <c r="W104" s="78"/>
-      <c r="X104" s="78"/>
-      <c r="Y104" s="78"/>
-      <c r="Z104" s="78"/>
-      <c r="AA104" s="78"/>
-      <c r="AB104" s="78"/>
-      <c r="AC104" s="78"/>
-      <c r="AD104" s="78"/>
-      <c r="AE104" s="78"/>
-      <c r="AF104" s="78"/>
-      <c r="AG104" s="79"/>
+      <c r="S104" s="113"/>
+      <c r="T104" s="113"/>
+      <c r="U104" s="113"/>
+      <c r="V104" s="113"/>
+      <c r="W104" s="113"/>
+      <c r="X104" s="113"/>
+      <c r="Y104" s="113"/>
+      <c r="Z104" s="113"/>
+      <c r="AA104" s="113"/>
+      <c r="AB104" s="113"/>
+      <c r="AC104" s="113"/>
+      <c r="AD104" s="113"/>
+      <c r="AE104" s="113"/>
+      <c r="AF104" s="113"/>
+      <c r="AG104" s="114"/>
       <c r="AH104" s="55"/>
-      <c r="AI104" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ104" s="80"/>
-      <c r="AK104" s="80"/>
+      <c r="AI104" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ104" s="76"/>
+      <c r="AK104" s="76"/>
     </row>
     <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="31" t="s">
@@ -9844,33 +9867,35 @@
       <c r="O105" s="32"/>
       <c r="P105" s="52"/>
       <c r="Q105" s="32"/>
-      <c r="R105" s="78" t="s">
+      <c r="R105" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="S105" s="78"/>
-      <c r="T105" s="78"/>
-      <c r="U105" s="78"/>
-      <c r="V105" s="78"/>
-      <c r="W105" s="78"/>
-      <c r="X105" s="78"/>
-      <c r="Y105" s="78"/>
-      <c r="Z105" s="78"/>
-      <c r="AA105" s="78"/>
-      <c r="AB105" s="78"/>
-      <c r="AC105" s="78"/>
-      <c r="AD105" s="78"/>
-      <c r="AE105" s="78"/>
-      <c r="AF105" s="78"/>
-      <c r="AG105" s="79"/>
+      <c r="S105" s="113"/>
+      <c r="T105" s="113"/>
+      <c r="U105" s="113"/>
+      <c r="V105" s="113"/>
+      <c r="W105" s="113"/>
+      <c r="X105" s="113"/>
+      <c r="Y105" s="113"/>
+      <c r="Z105" s="113"/>
+      <c r="AA105" s="113"/>
+      <c r="AB105" s="113"/>
+      <c r="AC105" s="113"/>
+      <c r="AD105" s="113"/>
+      <c r="AE105" s="113"/>
+      <c r="AF105" s="113"/>
+      <c r="AG105" s="114"/>
       <c r="AH105" s="55"/>
-      <c r="AI105" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ105" s="80"/>
-      <c r="AK105" s="80"/>
+      <c r="AI105" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ105" s="76"/>
+      <c r="AK105" s="76"/>
     </row>
     <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="31"/>
+      <c r="A106" s="31" t="s">
+        <v>181</v>
+      </c>
       <c r="B106" s="58">
         <v>0</v>
       </c>
@@ -9882,40 +9907,58 @@
       <c r="F106" s="32"/>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="32"/>
+      <c r="I106" s="52">
+        <v>1</v>
+      </c>
+      <c r="J106" s="53">
+        <v>1</v>
+      </c>
+      <c r="K106" s="32">
+        <v>0</v>
+      </c>
+      <c r="L106" s="52">
+        <v>1</v>
+      </c>
+      <c r="M106" s="32">
+        <v>0</v>
+      </c>
       <c r="N106" s="52"/>
       <c r="O106" s="32"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="78" t="s">
+      <c r="P106" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="32">
+        <v>1</v>
+      </c>
+      <c r="R106" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="S106" s="78"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="78"/>
-      <c r="W106" s="78"/>
-      <c r="X106" s="78"/>
-      <c r="Y106" s="78"/>
-      <c r="Z106" s="78"/>
-      <c r="AA106" s="78"/>
-      <c r="AB106" s="78"/>
-      <c r="AC106" s="78"/>
-      <c r="AD106" s="78"/>
-      <c r="AE106" s="78"/>
-      <c r="AF106" s="78"/>
-      <c r="AG106" s="79"/>
+      <c r="S106" s="113"/>
+      <c r="T106" s="113"/>
+      <c r="U106" s="113"/>
+      <c r="V106" s="113"/>
+      <c r="W106" s="113"/>
+      <c r="X106" s="113"/>
+      <c r="Y106" s="113"/>
+      <c r="Z106" s="113"/>
+      <c r="AA106" s="113"/>
+      <c r="AB106" s="113"/>
+      <c r="AC106" s="113"/>
+      <c r="AD106" s="113"/>
+      <c r="AE106" s="113"/>
+      <c r="AF106" s="113"/>
+      <c r="AG106" s="114"/>
       <c r="AH106" s="55"/>
-      <c r="AI106" s="80"/>
-      <c r="AJ106" s="80"/>
-      <c r="AK106" s="80"/>
+      <c r="AI106" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ106" s="76"/>
+      <c r="AK106" s="76"/>
     </row>
     <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="31"/>
+      <c r="A107" s="31" t="s">
+        <v>182</v>
+      </c>
       <c r="B107" s="58">
         <v>0</v>
       </c>
@@ -9927,40 +9970,50 @@
       <c r="F107" s="32"/>
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="32"/>
+      <c r="I107" s="52">
+        <v>1</v>
+      </c>
+      <c r="J107" s="53">
+        <v>1</v>
+      </c>
+      <c r="K107" s="32">
+        <v>0</v>
+      </c>
       <c r="L107" s="52"/>
       <c r="M107" s="32"/>
       <c r="N107" s="52"/>
       <c r="O107" s="32"/>
       <c r="P107" s="52"/>
       <c r="Q107" s="32"/>
-      <c r="R107" s="78" t="s">
+      <c r="R107" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="S107" s="78"/>
-      <c r="T107" s="78"/>
-      <c r="U107" s="78"/>
-      <c r="V107" s="78"/>
-      <c r="W107" s="78"/>
-      <c r="X107" s="78"/>
-      <c r="Y107" s="78"/>
-      <c r="Z107" s="78"/>
-      <c r="AA107" s="78"/>
-      <c r="AB107" s="78"/>
-      <c r="AC107" s="78"/>
-      <c r="AD107" s="78"/>
-      <c r="AE107" s="78"/>
-      <c r="AF107" s="78"/>
-      <c r="AG107" s="79"/>
+      <c r="S107" s="113"/>
+      <c r="T107" s="113"/>
+      <c r="U107" s="113"/>
+      <c r="V107" s="113"/>
+      <c r="W107" s="113"/>
+      <c r="X107" s="113"/>
+      <c r="Y107" s="113"/>
+      <c r="Z107" s="113"/>
+      <c r="AA107" s="113"/>
+      <c r="AB107" s="113"/>
+      <c r="AC107" s="113"/>
+      <c r="AD107" s="113"/>
+      <c r="AE107" s="113"/>
+      <c r="AF107" s="113"/>
+      <c r="AG107" s="114"/>
       <c r="AH107" s="55"/>
-      <c r="AI107" s="80"/>
-      <c r="AJ107" s="80"/>
-      <c r="AK107" s="80"/>
+      <c r="AI107" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ107" s="76"/>
+      <c r="AK107" s="76"/>
     </row>
     <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="31"/>
+      <c r="A108" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="B108" s="58">
         <v>0</v>
       </c>
@@ -9972,37 +10025,49 @@
       <c r="F108" s="32"/>
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="32"/>
+      <c r="I108" s="52">
+        <v>1</v>
+      </c>
+      <c r="J108" s="53">
+        <v>0</v>
+      </c>
+      <c r="K108" s="32">
+        <v>1</v>
+      </c>
       <c r="L108" s="52"/>
       <c r="M108" s="32"/>
       <c r="N108" s="52"/>
       <c r="O108" s="32"/>
-      <c r="P108" s="52"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="78" t="s">
+      <c r="P108" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="32">
+        <v>1</v>
+      </c>
+      <c r="R108" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="S108" s="78"/>
-      <c r="T108" s="78"/>
-      <c r="U108" s="78"/>
-      <c r="V108" s="78"/>
-      <c r="W108" s="78"/>
-      <c r="X108" s="78"/>
-      <c r="Y108" s="78"/>
-      <c r="Z108" s="78"/>
-      <c r="AA108" s="78"/>
-      <c r="AB108" s="78"/>
-      <c r="AC108" s="78"/>
-      <c r="AD108" s="78"/>
-      <c r="AE108" s="78"/>
-      <c r="AF108" s="78"/>
-      <c r="AG108" s="79"/>
+      <c r="S108" s="113"/>
+      <c r="T108" s="113"/>
+      <c r="U108" s="113"/>
+      <c r="V108" s="113"/>
+      <c r="W108" s="113"/>
+      <c r="X108" s="113"/>
+      <c r="Y108" s="113"/>
+      <c r="Z108" s="113"/>
+      <c r="AA108" s="113"/>
+      <c r="AB108" s="113"/>
+      <c r="AC108" s="113"/>
+      <c r="AD108" s="113"/>
+      <c r="AE108" s="113"/>
+      <c r="AF108" s="113"/>
+      <c r="AG108" s="114"/>
       <c r="AH108" s="55"/>
-      <c r="AI108" s="80"/>
-      <c r="AJ108" s="80"/>
-      <c r="AK108" s="80"/>
+      <c r="AI108" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ108" s="76"/>
+      <c r="AK108" s="76"/>
     </row>
     <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="31" t="s">
@@ -10051,19 +10116,19 @@
       <c r="Z109" s="32"/>
       <c r="AA109" s="52"/>
       <c r="AB109" s="32"/>
-      <c r="AC109" s="78" t="s">
+      <c r="AC109" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="AD109" s="78"/>
-      <c r="AE109" s="78"/>
-      <c r="AF109" s="78"/>
-      <c r="AG109" s="79"/>
+      <c r="AD109" s="113"/>
+      <c r="AE109" s="113"/>
+      <c r="AF109" s="113"/>
+      <c r="AG109" s="114"/>
       <c r="AH109" s="55"/>
-      <c r="AI109" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ109" s="80"/>
-      <c r="AK109" s="80"/>
+      <c r="AI109" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ109" s="76"/>
+      <c r="AK109" s="76"/>
     </row>
     <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="31" t="s">
@@ -10128,11 +10193,11 @@
       <c r="AF110" s="34"/>
       <c r="AG110" s="35"/>
       <c r="AH110" s="55"/>
-      <c r="AI110" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ110" s="80"/>
-      <c r="AK110" s="80"/>
+      <c r="AI110" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ110" s="76"/>
+      <c r="AK110" s="76"/>
     </row>
     <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="31" t="s">
@@ -10205,11 +10270,11 @@
       <c r="AF111" s="34"/>
       <c r="AG111" s="35"/>
       <c r="AH111" s="55"/>
-      <c r="AI111" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ111" s="80"/>
-      <c r="AK111" s="80"/>
+      <c r="AI111" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ111" s="76"/>
+      <c r="AK111" s="76"/>
     </row>
     <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="31" t="s">
@@ -10258,11 +10323,11 @@
       <c r="AF112" s="34"/>
       <c r="AG112" s="35"/>
       <c r="AH112" s="55"/>
-      <c r="AI112" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ112" s="80"/>
-      <c r="AK112" s="80"/>
+      <c r="AI112" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ112" s="76"/>
+      <c r="AK112" s="76"/>
     </row>
     <row r="113" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="31" t="s">
@@ -10327,11 +10392,11 @@
       <c r="AF113" s="34"/>
       <c r="AG113" s="35"/>
       <c r="AH113" s="55"/>
-      <c r="AI113" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ113" s="80"/>
-      <c r="AK113" s="80"/>
+      <c r="AI113" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ113" s="76"/>
+      <c r="AK113" s="76"/>
     </row>
     <row r="114" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="31" t="s">
@@ -10406,19 +10471,19 @@
       <c r="AF114" s="34"/>
       <c r="AG114" s="35"/>
       <c r="AH114" s="55"/>
-      <c r="AI114" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ114" s="80"/>
-      <c r="AK114" s="80"/>
-      <c r="AL114" s="122"/>
-      <c r="AM114" s="122"/>
-      <c r="AN114" s="122"/>
-      <c r="AO114" s="122"/>
+      <c r="AI114" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ114" s="76"/>
+      <c r="AK114" s="76"/>
+      <c r="AL114" s="75"/>
+      <c r="AM114" s="75"/>
+      <c r="AN114" s="75"/>
+      <c r="AO114" s="75"/>
     </row>
     <row r="115" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="31" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B115" s="58">
         <v>0</v>
@@ -10483,15 +10548,11 @@
       <c r="AF115" s="34"/>
       <c r="AG115" s="35"/>
       <c r="AH115" s="55"/>
-      <c r="AI115" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ115" s="80"/>
-      <c r="AK115" s="80"/>
-      <c r="AL115" s="122"/>
-      <c r="AM115" s="122"/>
-      <c r="AN115" s="122"/>
-      <c r="AO115" s="122"/>
+      <c r="AI115" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ115" s="76"/>
+      <c r="AK115" s="76"/>
     </row>
     <row r="116" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="31" t="s">
@@ -10542,13 +10603,13 @@
       <c r="AF116" s="34"/>
       <c r="AG116" s="35"/>
       <c r="AH116" s="55"/>
-      <c r="AI116" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ116" s="80"/>
-      <c r="AK116" s="80"/>
-    </row>
-    <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI116" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ116" s="76"/>
+      <c r="AK116" s="76"/>
+    </row>
+    <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="31" t="s">
         <v>9</v>
       </c>
@@ -10593,13 +10654,13 @@
       <c r="AF117" s="34"/>
       <c r="AG117" s="35"/>
       <c r="AH117" s="55"/>
-      <c r="AI117" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ117" s="80"/>
-      <c r="AK117" s="80"/>
-    </row>
-    <row r="118" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI117" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ117" s="76"/>
+      <c r="AK117" s="76"/>
+    </row>
+    <row r="118" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="31" t="s">
         <v>64</v>
       </c>
@@ -10664,13 +10725,13 @@
       <c r="AF118" s="34"/>
       <c r="AG118" s="35"/>
       <c r="AH118" s="55"/>
-      <c r="AI118" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ118" s="80"/>
-      <c r="AK118" s="80"/>
-    </row>
-    <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI118" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ118" s="76"/>
+      <c r="AK118" s="76"/>
+    </row>
+    <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="31" t="s">
         <v>10</v>
       </c>
@@ -10715,11 +10776,11 @@
       <c r="AF119" s="34"/>
       <c r="AG119" s="35"/>
       <c r="AH119" s="55"/>
-      <c r="AI119" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ119" s="80"/>
-      <c r="AK119" s="80"/>
+      <c r="AI119" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ119" s="76"/>
+      <c r="AK119" s="76"/>
     </row>
     <row r="120" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="46" t="s">
@@ -10822,14 +10883,13 @@
         <v>1</v>
       </c>
       <c r="AH120" s="55"/>
-      <c r="AI120" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ120" s="80"/>
-      <c r="AK120" s="80"/>
-    </row>
-    <row r="121" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="46"/>
+      <c r="AI120" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ120" s="76"/>
+      <c r="AK120" s="76"/>
+    </row>
+    <row r="121" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="58"/>
       <c r="C121" s="32"/>
       <c r="D121" s="52"/>
@@ -10862,12 +10922,8 @@
       <c r="AE121" s="53"/>
       <c r="AF121" s="53"/>
       <c r="AG121" s="35"/>
-      <c r="AH121" s="55"/>
-      <c r="AI121" s="55"/>
-      <c r="AJ121" s="70"/>
-      <c r="AK121" s="70"/>
-    </row>
-    <row r="122" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B122" s="58"/>
       <c r="C122" s="32"/>
       <c r="D122" s="52"/>
@@ -10900,49 +10956,86 @@
       <c r="AE122" s="53"/>
       <c r="AF122" s="53"/>
       <c r="AG122" s="35"/>
-    </row>
-    <row r="123" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="58"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="74"/>
-      <c r="J123" s="53"/>
+      <c r="AH122" s="55"/>
+      <c r="AI122" s="55"/>
+      <c r="AJ122" s="70"/>
+      <c r="AK122" s="70"/>
+    </row>
+    <row r="123" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A123" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="58">
+        <v>0</v>
+      </c>
+      <c r="C123" s="32">
+        <v>1</v>
+      </c>
+      <c r="D123" s="52">
+        <v>1</v>
+      </c>
+      <c r="E123" s="63">
+        <v>1</v>
+      </c>
+      <c r="F123" s="32">
+        <v>1</v>
+      </c>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="63"/>
       <c r="K123" s="32"/>
       <c r="L123" s="52"/>
       <c r="M123" s="32"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="32"/>
+      <c r="N123" s="52">
+        <v>1</v>
+      </c>
+      <c r="O123" s="32">
+        <v>1</v>
+      </c>
       <c r="P123" s="52"/>
       <c r="Q123" s="32"/>
-      <c r="R123" s="52"/>
-      <c r="S123" s="53"/>
-      <c r="T123" s="53"/>
-      <c r="U123" s="53"/>
-      <c r="V123" s="32"/>
+      <c r="R123" s="52">
+        <v>0</v>
+      </c>
+      <c r="S123" s="63">
+        <v>0</v>
+      </c>
+      <c r="T123" s="63">
+        <v>0</v>
+      </c>
+      <c r="U123" s="63">
+        <v>1</v>
+      </c>
+      <c r="V123" s="32">
+        <v>0</v>
+      </c>
       <c r="W123" s="52"/>
       <c r="X123" s="32"/>
-      <c r="Y123" s="52"/>
-      <c r="Z123" s="32"/>
+      <c r="Y123" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="32">
+        <v>0</v>
+      </c>
       <c r="AA123" s="52"/>
       <c r="AB123" s="32"/>
-      <c r="AC123" s="53"/>
-      <c r="AD123" s="53"/>
-      <c r="AE123" s="53"/>
-      <c r="AF123" s="53"/>
-      <c r="AG123" s="35"/>
-      <c r="AH123" s="55"/>
-      <c r="AI123" s="55"/>
-      <c r="AJ123" s="70"/>
-      <c r="AK123" s="70"/>
+      <c r="AC123" s="63"/>
+      <c r="AD123" s="63"/>
+      <c r="AE123" s="63"/>
+      <c r="AF123" s="63"/>
+      <c r="AG123" s="64"/>
+      <c r="AH123" s="61"/>
+      <c r="AI123" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ123" s="76"/>
+      <c r="AK123" s="76"/>
       <c r="AR123" s="47"/>
     </row>
-    <row r="124" spans="1:44" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B124" s="58">
         <v>0</v>
@@ -10987,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="V124" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W124" s="52"/>
       <c r="X124" s="32"/>
@@ -11005,497 +11098,525 @@
       <c r="AF124" s="63"/>
       <c r="AG124" s="64"/>
       <c r="AH124" s="61"/>
-      <c r="AI124" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ124" s="80"/>
-      <c r="AK124" s="80"/>
+      <c r="AI124" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ124" s="76"/>
+      <c r="AK124" s="76"/>
       <c r="AR124" s="47"/>
     </row>
-    <row r="125" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B125" s="58">
-        <v>0</v>
-      </c>
-      <c r="C125" s="32">
-        <v>1</v>
-      </c>
-      <c r="D125" s="52">
-        <v>1</v>
-      </c>
-      <c r="E125" s="63">
-        <v>1</v>
-      </c>
-      <c r="F125" s="32">
-        <v>1</v>
-      </c>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="63"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="52"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="52">
-        <v>1</v>
-      </c>
-      <c r="O125" s="32">
-        <v>1</v>
-      </c>
-      <c r="P125" s="52"/>
-      <c r="Q125" s="32"/>
-      <c r="R125" s="52">
-        <v>0</v>
-      </c>
-      <c r="S125" s="63">
-        <v>0</v>
-      </c>
-      <c r="T125" s="63">
-        <v>0</v>
-      </c>
-      <c r="U125" s="63">
-        <v>1</v>
-      </c>
-      <c r="V125" s="32">
-        <v>1</v>
-      </c>
-      <c r="W125" s="52"/>
-      <c r="X125" s="32"/>
-      <c r="Y125" s="52">
-        <v>1</v>
-      </c>
-      <c r="Z125" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="32"/>
-      <c r="AC125" s="63"/>
-      <c r="AD125" s="63"/>
-      <c r="AE125" s="63"/>
-      <c r="AF125" s="63"/>
-      <c r="AG125" s="64"/>
-      <c r="AH125" s="61"/>
-      <c r="AI125" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ125" s="80"/>
-      <c r="AK125" s="80"/>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR125" s="47"/>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR126" s="47"/>
     </row>
-    <row r="127" spans="1:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR127" s="47"/>
     </row>
-    <row r="128" spans="1:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR128" s="47"/>
     </row>
-    <row r="129" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR129" s="47"/>
     </row>
-    <row r="130" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR130" s="47"/>
     </row>
-    <row r="131" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="131" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR131" s="47"/>
     </row>
-    <row r="132" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="132" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR132" s="47"/>
     </row>
-    <row r="133" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="133" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR133" s="47"/>
     </row>
-    <row r="134" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="134" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR134" s="47"/>
     </row>
-    <row r="135" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="135" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR135" s="47"/>
     </row>
-    <row r="136" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="136" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR136" s="47"/>
     </row>
-    <row r="137" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="137" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR137" s="47"/>
     </row>
-    <row r="138" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR138" s="47"/>
     </row>
-    <row r="139" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="139" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR139" s="47"/>
     </row>
-    <row r="140" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR140" s="47"/>
     </row>
-    <row r="141" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR141" s="47"/>
     </row>
-    <row r="142" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR142" s="47"/>
     </row>
-    <row r="143" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR143" s="47"/>
     </row>
-    <row r="144" spans="44:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="44:44" x14ac:dyDescent="0.45">
       <c r="AR144" s="47"/>
     </row>
-    <row r="145" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR145" s="47"/>
     </row>
-    <row r="146" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR146" s="47"/>
     </row>
-    <row r="147" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR147" s="47"/>
     </row>
-    <row r="148" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR148" s="47"/>
     </row>
-    <row r="149" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR149" s="47"/>
     </row>
-    <row r="150" spans="5:44" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR150" s="47"/>
     </row>
-    <row r="151" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR151" s="47"/>
     </row>
-    <row r="152" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR152" s="47"/>
     </row>
-    <row r="153" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR153" s="47"/>
     </row>
-    <row r="154" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR154" s="47"/>
     </row>
-    <row r="155" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR155" s="47"/>
     </row>
-    <row r="156" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR156" s="47"/>
     </row>
-    <row r="157" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:44" x14ac:dyDescent="0.45">
       <c r="AR157" s="47"/>
     </row>
-    <row r="158" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:44" x14ac:dyDescent="0.45">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
       <c r="AR158" s="47"/>
     </row>
-    <row r="159" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:44" x14ac:dyDescent="0.45">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="5:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:44" x14ac:dyDescent="0.45">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-    </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A178" s="93" t="s">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A177" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="93"/>
-      <c r="C178" s="93"/>
-      <c r="D178" s="93"/>
-      <c r="E178" s="93"/>
-      <c r="F178" s="93"/>
-      <c r="G178" s="93"/>
-      <c r="H178" s="93"/>
-      <c r="I178" s="93"/>
-      <c r="J178" s="93"/>
-      <c r="K178" s="93"/>
-      <c r="L178" s="93"/>
-      <c r="M178" s="93"/>
-      <c r="N178" s="93"/>
-      <c r="O178" s="93"/>
-      <c r="P178" s="93"/>
-      <c r="Q178" s="93"/>
-      <c r="R178" s="93"/>
-      <c r="S178" s="93"/>
-      <c r="T178" s="93"/>
-      <c r="U178" s="93"/>
-      <c r="V178" s="93"/>
-      <c r="W178" s="93"/>
-      <c r="X178" s="93"/>
-      <c r="Y178" s="93"/>
-      <c r="Z178" s="93"/>
-      <c r="AA178" s="93"/>
-      <c r="AB178" s="93"/>
-      <c r="AC178" s="93"/>
-      <c r="AD178" s="93"/>
-      <c r="AE178" s="93"/>
-      <c r="AF178" s="93"/>
-      <c r="AG178" s="93"/>
-      <c r="AH178" s="29"/>
-      <c r="AI178" s="29"/>
-    </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B181" s="18">
+      <c r="B177" s="116"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="116"/>
+      <c r="E177" s="116"/>
+      <c r="F177" s="116"/>
+      <c r="G177" s="116"/>
+      <c r="H177" s="116"/>
+      <c r="I177" s="116"/>
+      <c r="J177" s="116"/>
+      <c r="K177" s="116"/>
+      <c r="L177" s="116"/>
+      <c r="M177" s="116"/>
+      <c r="N177" s="116"/>
+      <c r="O177" s="116"/>
+      <c r="P177" s="116"/>
+      <c r="Q177" s="116"/>
+      <c r="R177" s="116"/>
+      <c r="S177" s="116"/>
+      <c r="T177" s="116"/>
+      <c r="U177" s="116"/>
+      <c r="V177" s="116"/>
+      <c r="W177" s="116"/>
+      <c r="X177" s="116"/>
+      <c r="Y177" s="116"/>
+      <c r="Z177" s="116"/>
+      <c r="AA177" s="116"/>
+      <c r="AB177" s="116"/>
+      <c r="AC177" s="116"/>
+      <c r="AD177" s="116"/>
+      <c r="AE177" s="116"/>
+      <c r="AF177" s="116"/>
+      <c r="AG177" s="116"/>
+      <c r="AH177" s="29"/>
+      <c r="AI177" s="29"/>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B180" s="18">
         <v>31</v>
       </c>
-      <c r="C181" s="18">
+      <c r="C180" s="18">
         <v>30</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D180" s="18">
         <v>29</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E180" s="18">
         <v>28</v>
       </c>
-      <c r="F181" s="18">
+      <c r="F180" s="18">
         <v>27</v>
       </c>
-      <c r="G181" s="18">
+      <c r="G180" s="18">
         <v>26</v>
       </c>
-      <c r="H181" s="18">
+      <c r="H180" s="18">
         <v>25</v>
       </c>
-      <c r="I181" s="18">
+      <c r="I180" s="18">
         <v>24</v>
       </c>
-      <c r="J181" s="18">
+      <c r="J180" s="18">
         <v>23</v>
       </c>
-      <c r="K181" s="18">
+      <c r="K180" s="18">
         <v>22</v>
       </c>
-      <c r="L181" s="18">
+      <c r="L180" s="18">
         <v>21</v>
       </c>
-      <c r="M181" s="18">
+      <c r="M180" s="18">
         <v>20</v>
       </c>
-      <c r="N181" s="18">
+      <c r="N180" s="18">
         <v>19</v>
       </c>
-      <c r="O181" s="18">
+      <c r="O180" s="18">
         <v>18</v>
       </c>
-      <c r="P181" s="18">
+      <c r="P180" s="18">
         <v>17</v>
       </c>
-      <c r="Q181" s="18">
+      <c r="Q180" s="18">
         <v>16</v>
       </c>
-      <c r="R181" s="18">
+      <c r="R180" s="18">
         <v>15</v>
       </c>
-      <c r="S181" s="18">
+      <c r="S180" s="18">
         <v>14</v>
       </c>
-      <c r="T181" s="18">
+      <c r="T180" s="18">
         <v>13</v>
       </c>
-      <c r="U181" s="18">
+      <c r="U180" s="18">
         <v>12</v>
       </c>
-      <c r="V181" s="18">
+      <c r="V180" s="18">
         <v>11</v>
       </c>
-      <c r="W181" s="18">
+      <c r="W180" s="18">
         <v>10</v>
       </c>
-      <c r="X181" s="18">
+      <c r="X180" s="18">
         <v>9</v>
       </c>
-      <c r="Y181" s="18">
+      <c r="Y180" s="18">
         <v>8</v>
       </c>
-      <c r="Z181" s="18">
+      <c r="Z180" s="18">
         <v>7</v>
       </c>
-      <c r="AA181" s="18">
+      <c r="AA180" s="18">
         <v>6</v>
       </c>
-      <c r="AB181" s="18">
+      <c r="AB180" s="18">
         <v>5</v>
       </c>
-      <c r="AC181" s="18">
+      <c r="AC180" s="18">
         <v>4</v>
       </c>
-      <c r="AD181" s="18">
+      <c r="AD180" s="18">
         <v>3</v>
       </c>
-      <c r="AE181" s="18">
+      <c r="AE180" s="18">
         <v>2</v>
       </c>
-      <c r="AF181" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG181" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="AF180" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG180" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A183" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B184" s="94" t="s">
+      <c r="B183" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="C184" s="80"/>
-      <c r="D184" s="80"/>
-      <c r="E184" s="80"/>
-      <c r="F184" s="80"/>
-      <c r="G184" s="80"/>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
-      <c r="J184" s="80"/>
-      <c r="K184" s="80"/>
-      <c r="L184" s="80"/>
-      <c r="M184" s="80"/>
-      <c r="N184" s="80"/>
-      <c r="O184" s="80"/>
-      <c r="P184" s="80"/>
-      <c r="Q184" s="80"/>
-      <c r="R184" s="80"/>
-      <c r="S184" s="80"/>
-      <c r="T184" s="80"/>
-      <c r="U184" s="80"/>
-      <c r="V184" s="80"/>
-      <c r="W184" s="80"/>
-      <c r="X184" s="80"/>
-      <c r="Y184" s="80"/>
-      <c r="Z184" s="80"/>
-      <c r="AA184" s="80"/>
-      <c r="AB184" s="80"/>
-      <c r="AC184" s="80"/>
-      <c r="AD184" s="80"/>
-      <c r="AE184" s="80"/>
-      <c r="AF184" s="80"/>
-      <c r="AG184" s="95"/>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+      <c r="C183" s="76"/>
+      <c r="D183" s="76"/>
+      <c r="E183" s="76"/>
+      <c r="F183" s="76"/>
+      <c r="G183" s="76"/>
+      <c r="H183" s="76"/>
+      <c r="I183" s="76"/>
+      <c r="J183" s="76"/>
+      <c r="K183" s="76"/>
+      <c r="L183" s="76"/>
+      <c r="M183" s="76"/>
+      <c r="N183" s="76"/>
+      <c r="O183" s="76"/>
+      <c r="P183" s="76"/>
+      <c r="Q183" s="76"/>
+      <c r="R183" s="76"/>
+      <c r="S183" s="76"/>
+      <c r="T183" s="76"/>
+      <c r="U183" s="76"/>
+      <c r="V183" s="76"/>
+      <c r="W183" s="76"/>
+      <c r="X183" s="76"/>
+      <c r="Y183" s="76"/>
+      <c r="Z183" s="76"/>
+      <c r="AA183" s="76"/>
+      <c r="AB183" s="76"/>
+      <c r="AC183" s="76"/>
+      <c r="AD183" s="76"/>
+      <c r="AE183" s="76"/>
+      <c r="AF183" s="76"/>
+      <c r="AG183" s="106"/>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A185" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B186" s="94" t="s">
+      <c r="B185" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="C186" s="80"/>
-      <c r="D186" s="80"/>
-      <c r="E186" s="80"/>
-      <c r="F186" s="80"/>
-      <c r="G186" s="80"/>
-      <c r="H186" s="80"/>
-      <c r="I186" s="80"/>
-      <c r="J186" s="80"/>
-      <c r="K186" s="80"/>
-      <c r="L186" s="80"/>
-      <c r="M186" s="80"/>
-      <c r="N186" s="80"/>
-      <c r="O186" s="80"/>
-      <c r="P186" s="80"/>
-      <c r="Q186" s="95"/>
-      <c r="R186" s="94" t="s">
+      <c r="C185" s="76"/>
+      <c r="D185" s="76"/>
+      <c r="E185" s="76"/>
+      <c r="F185" s="76"/>
+      <c r="G185" s="76"/>
+      <c r="H185" s="76"/>
+      <c r="I185" s="76"/>
+      <c r="J185" s="76"/>
+      <c r="K185" s="76"/>
+      <c r="L185" s="76"/>
+      <c r="M185" s="76"/>
+      <c r="N185" s="76"/>
+      <c r="O185" s="76"/>
+      <c r="P185" s="76"/>
+      <c r="Q185" s="106"/>
+      <c r="R185" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="S186" s="80"/>
-      <c r="T186" s="80"/>
-      <c r="U186" s="80"/>
-      <c r="V186" s="80"/>
-      <c r="W186" s="80"/>
-      <c r="X186" s="80"/>
-      <c r="Y186" s="80"/>
-      <c r="Z186" s="80"/>
-      <c r="AA186" s="80"/>
-      <c r="AB186" s="80"/>
-      <c r="AC186" s="80"/>
-      <c r="AD186" s="80"/>
-      <c r="AE186" s="80"/>
-      <c r="AF186" s="80"/>
-      <c r="AG186" s="95"/>
+      <c r="S185" s="76"/>
+      <c r="T185" s="76"/>
+      <c r="U185" s="76"/>
+      <c r="V185" s="76"/>
+      <c r="W185" s="76"/>
+      <c r="X185" s="76"/>
+      <c r="Y185" s="76"/>
+      <c r="Z185" s="76"/>
+      <c r="AA185" s="76"/>
+      <c r="AB185" s="76"/>
+      <c r="AC185" s="76"/>
+      <c r="AD185" s="76"/>
+      <c r="AE185" s="76"/>
+      <c r="AF185" s="76"/>
+      <c r="AG185" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
-    <mergeCell ref="AL114:AO114"/>
-    <mergeCell ref="AL115:AO115"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AI125:AK125"/>
-    <mergeCell ref="AY60:AY72"/>
-    <mergeCell ref="AX78:AY78"/>
-    <mergeCell ref="AY81:AY85"/>
-    <mergeCell ref="AY87:AY91"/>
-    <mergeCell ref="AQ78:AR81"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AQ61:AR64"/>
-    <mergeCell ref="P57:Q59"/>
-    <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="AC78:AE78"/>
-    <mergeCell ref="AC79:AE79"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="AC82:AE82"/>
-    <mergeCell ref="AC73:AE73"/>
-    <mergeCell ref="AC74:AE74"/>
-    <mergeCell ref="AC75:AE75"/>
-    <mergeCell ref="AC76:AE76"/>
-    <mergeCell ref="AC77:AE77"/>
+  <mergeCells count="178">
+    <mergeCell ref="I57:K59"/>
+    <mergeCell ref="M64:O67"/>
+    <mergeCell ref="P99:Q101"/>
+    <mergeCell ref="N99:O101"/>
+    <mergeCell ref="L99:M101"/>
+    <mergeCell ref="B99:C101"/>
+    <mergeCell ref="I99:K101"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="D99:F101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R99:V101"/>
+    <mergeCell ref="W99:X101"/>
+    <mergeCell ref="Y99:Z101"/>
+    <mergeCell ref="AA99:AB101"/>
+    <mergeCell ref="AC99:AG101"/>
+    <mergeCell ref="AI119:AK119"/>
+    <mergeCell ref="AI103:AK103"/>
+    <mergeCell ref="AI115:AK115"/>
+    <mergeCell ref="AI116:AK116"/>
+    <mergeCell ref="AI117:AK117"/>
+    <mergeCell ref="AI118:AK118"/>
+    <mergeCell ref="AI111:AK111"/>
+    <mergeCell ref="AI112:AK112"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AI104:AK104"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="R106:AG106"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="R107:AG107"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="R108:AG108"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="AI123:AK123"/>
+    <mergeCell ref="A177:AG177"/>
+    <mergeCell ref="B183:AG183"/>
+    <mergeCell ref="R185:AG185"/>
+    <mergeCell ref="B185:Q185"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="AC109:AG109"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AC63:AE63"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="B64:D67"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="L57:M59"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="AJ34:AQ34"/>
+    <mergeCell ref="AJ35:AQ35"/>
+    <mergeCell ref="AJ36:AQ36"/>
+    <mergeCell ref="AJ37:AQ37"/>
+    <mergeCell ref="AC91:AE91"/>
+    <mergeCell ref="AC87:AE87"/>
+    <mergeCell ref="C103:AG103"/>
+    <mergeCell ref="AC92:AE92"/>
+    <mergeCell ref="AC83:AE83"/>
+    <mergeCell ref="AC84:AE84"/>
+    <mergeCell ref="AC85:AE85"/>
+    <mergeCell ref="AC86:AE86"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="P77:P82"/>
+    <mergeCell ref="AA57:AB59"/>
+    <mergeCell ref="D57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="AJ44:AQ44"/>
+    <mergeCell ref="AJ55:AN55"/>
+    <mergeCell ref="AJ38:AQ38"/>
+    <mergeCell ref="AJ39:AQ39"/>
+    <mergeCell ref="AJ40:AQ40"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ28:AQ28"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="I52:K54"/>
     <mergeCell ref="AC88:AE88"/>
     <mergeCell ref="AC89:AE89"/>
     <mergeCell ref="AC90:AE90"/>
@@ -11520,137 +11641,37 @@
     <mergeCell ref="C50:AG50"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="F64:F67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="AJ19:AQ19"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AJ22:AQ22"/>
-    <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="AJ34:AQ34"/>
-    <mergeCell ref="AJ35:AQ35"/>
-    <mergeCell ref="AJ36:AQ36"/>
-    <mergeCell ref="AJ37:AQ37"/>
-    <mergeCell ref="AC91:AE91"/>
-    <mergeCell ref="AC87:AE87"/>
-    <mergeCell ref="C103:AG103"/>
-    <mergeCell ref="AC92:AE92"/>
-    <mergeCell ref="AC83:AE83"/>
-    <mergeCell ref="AC84:AE84"/>
-    <mergeCell ref="AC85:AE85"/>
-    <mergeCell ref="AC86:AE86"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="P77:P82"/>
-    <mergeCell ref="AA57:AB59"/>
-    <mergeCell ref="D57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ44:AQ44"/>
-    <mergeCell ref="AJ55:AN55"/>
-    <mergeCell ref="AJ38:AQ38"/>
-    <mergeCell ref="AJ39:AQ39"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="I52:K54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="AI124:AK124"/>
-    <mergeCell ref="A178:AG178"/>
-    <mergeCell ref="B184:AG184"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="B186:Q186"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="AC109:AG109"/>
-    <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="AC63:AE63"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="B64:D67"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="L57:M59"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="P57:Q59"/>
+    <mergeCell ref="Q77:Q82"/>
+    <mergeCell ref="AC78:AE78"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="AC82:AE82"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="AC74:AE74"/>
+    <mergeCell ref="AC75:AE75"/>
+    <mergeCell ref="AC76:AE76"/>
+    <mergeCell ref="AC77:AE77"/>
     <mergeCell ref="AC57:AG59"/>
     <mergeCell ref="Y57:Z59"/>
     <mergeCell ref="U62:U67"/>
-    <mergeCell ref="AI120:AK120"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="R104:AG104"/>
-    <mergeCell ref="R99:V101"/>
-    <mergeCell ref="W99:X101"/>
-    <mergeCell ref="Y99:Z101"/>
-    <mergeCell ref="AA99:AB101"/>
-    <mergeCell ref="AC99:AG101"/>
-    <mergeCell ref="AI119:AK119"/>
-    <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="AI115:AK115"/>
-    <mergeCell ref="AI116:AK116"/>
-    <mergeCell ref="AI117:AK117"/>
-    <mergeCell ref="AI118:AK118"/>
-    <mergeCell ref="AI111:AK111"/>
-    <mergeCell ref="AI112:AK112"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AI104:AK104"/>
-    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="P62:P67"/>
     <mergeCell ref="Q62:Q67"/>
-    <mergeCell ref="R62:R67"/>
     <mergeCell ref="S62:S67"/>
     <mergeCell ref="T62:T67"/>
-    <mergeCell ref="I57:K59"/>
-    <mergeCell ref="M64:O67"/>
-    <mergeCell ref="P99:Q101"/>
-    <mergeCell ref="N99:O101"/>
-    <mergeCell ref="L99:M101"/>
-    <mergeCell ref="B99:C101"/>
-    <mergeCell ref="I99:K101"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="R106:AG106"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="R107:AG107"/>
-    <mergeCell ref="AI107:AK107"/>
-    <mergeCell ref="R108:AG108"/>
-    <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="D99:F101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="AL114:AO114"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AI124:AK124"/>
+    <mergeCell ref="AY60:AY72"/>
+    <mergeCell ref="AX78:AY78"/>
+    <mergeCell ref="AY81:AY85"/>
+    <mergeCell ref="AY87:AY91"/>
+    <mergeCell ref="AQ78:AR81"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AQ61:AR64"/>
+    <mergeCell ref="AI120:AK120"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="204">
   <si>
     <t>LDI</t>
   </si>
@@ -595,6 +595,60 @@
   </si>
   <si>
     <t>0x01430000</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>0x780C2100</t>
+  </si>
+  <si>
+    <t>0x780C2900</t>
+  </si>
+  <si>
+    <t>0x780C3100</t>
+  </si>
+  <si>
+    <t>0x780C3900</t>
+  </si>
+  <si>
+    <t>0x780C4100</t>
+  </si>
+  <si>
+    <t>0x780C4900</t>
+  </si>
+  <si>
+    <t>0x780C5100</t>
+  </si>
+  <si>
+    <t>0x780C5900</t>
+  </si>
+  <si>
+    <t>0x780C6100</t>
+  </si>
+  <si>
+    <t>0x780C6900</t>
+  </si>
+  <si>
+    <t>0x780C7100</t>
+  </si>
+  <si>
+    <t>0x780C7900</t>
+  </si>
+  <si>
+    <t>0x780C8100</t>
+  </si>
+  <si>
+    <t>0x780C8900</t>
+  </si>
+  <si>
+    <t>0x780C9100</t>
+  </si>
+  <si>
+    <t>0x780C9900</t>
+  </si>
+  <si>
+    <t>0x780CA100</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1333,11 +1387,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1348,11 +1504,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,105 +1538,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4714,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI109" sqref="AI109:AK109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4904,16 +4973,16 @@
       <c r="AI2" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ2" s="95" t="s">
+      <c r="AJ2" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -4959,16 +5028,16 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="95" t="s">
+      <c r="AJ3" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
     </row>
     <row r="4" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
@@ -5020,16 +5089,16 @@
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="95" t="s">
+      <c r="AJ4" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -5069,16 +5138,16 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="109" t="s">
+      <c r="AJ5" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
@@ -5120,16 +5189,16 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="95" t="s">
+      <c r="AJ6" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
@@ -5175,16 +5244,16 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="95" t="s">
+      <c r="AJ7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
@@ -5230,16 +5299,16 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="95" t="s">
+      <c r="AJ8" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="96"/>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
@@ -5281,16 +5350,16 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="95" t="s">
+      <c r="AJ9" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
@@ -5332,16 +5401,16 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="95" t="s">
+      <c r="AJ10" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
@@ -5383,16 +5452,16 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="95" t="s">
+      <c r="AJ11" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
@@ -5434,16 +5503,16 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="95" t="s">
+      <c r="AJ12" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
@@ -5485,16 +5554,16 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="95" t="s">
+      <c r="AJ13" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
@@ -5536,14 +5605,14 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -5587,16 +5656,16 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="95" t="s">
+      <c r="AJ15" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -5640,16 +5709,16 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="95" t="s">
+      <c r="AJ16" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
+      <c r="AK16" s="107"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
@@ -5693,16 +5762,16 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="95" t="s">
+      <c r="AJ17" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
+      <c r="AK17" s="107"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
@@ -5746,16 +5815,16 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="95" t="s">
+      <c r="AJ18" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
@@ -5797,16 +5866,16 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="95" t="s">
+      <c r="AJ19" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
@@ -5854,16 +5923,16 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="95" t="s">
+      <c r="AJ20" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
@@ -5907,16 +5976,16 @@
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="95" t="s">
+      <c r="AJ21" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
@@ -5958,16 +6027,16 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="95" t="s">
+      <c r="AJ22" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="107"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="107"/>
     </row>
     <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:43" ht="30.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6144,16 +6213,16 @@
       <c r="AI28" s="5">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="95" t="s">
+      <c r="AJ28" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AK28" s="108"/>
-      <c r="AL28" s="108"/>
-      <c r="AM28" s="108"/>
-      <c r="AN28" s="108"/>
-      <c r="AO28" s="108"/>
-      <c r="AP28" s="108"/>
-      <c r="AQ28" s="108"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="104"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
     </row>
     <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
@@ -6199,16 +6268,16 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="95" t="s">
+      <c r="AJ29" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="108"/>
-      <c r="AM29" s="108"/>
-      <c r="AN29" s="108"/>
-      <c r="AO29" s="108"/>
-      <c r="AP29" s="108"/>
-      <c r="AQ29" s="108"/>
+      <c r="AK29" s="104"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="104"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="104"/>
     </row>
     <row r="30" spans="1:43" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
@@ -6260,16 +6329,16 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
-      <c r="AJ30" s="95" t="s">
+      <c r="AJ30" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="108"/>
-      <c r="AM30" s="108"/>
-      <c r="AN30" s="108"/>
-      <c r="AO30" s="108"/>
-      <c r="AP30" s="108"/>
-      <c r="AQ30" s="108"/>
+      <c r="AK30" s="104"/>
+      <c r="AL30" s="104"/>
+      <c r="AM30" s="104"/>
+      <c r="AN30" s="104"/>
+      <c r="AO30" s="104"/>
+      <c r="AP30" s="104"/>
+      <c r="AQ30" s="104"/>
     </row>
     <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
@@ -6311,16 +6380,16 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="95" t="s">
+      <c r="AJ31" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AK31" s="96"/>
-      <c r="AL31" s="96"/>
-      <c r="AM31" s="96"/>
-      <c r="AN31" s="96"/>
-      <c r="AO31" s="96"/>
-      <c r="AP31" s="96"/>
-      <c r="AQ31" s="96"/>
+      <c r="AK31" s="107"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="107"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="107"/>
     </row>
     <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
@@ -6366,16 +6435,16 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="95" t="s">
+      <c r="AJ32" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
+      <c r="AK32" s="104"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="104"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
     </row>
     <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
@@ -6417,16 +6486,16 @@
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="95" t="s">
+      <c r="AJ33" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="AK33" s="108"/>
-      <c r="AL33" s="108"/>
-      <c r="AM33" s="108"/>
-      <c r="AN33" s="108"/>
-      <c r="AO33" s="108"/>
-      <c r="AP33" s="108"/>
-      <c r="AQ33" s="108"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="104"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
     </row>
     <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
@@ -6468,16 +6537,16 @@
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="95" t="s">
+      <c r="AJ34" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AK34" s="108"/>
-      <c r="AL34" s="108"/>
-      <c r="AM34" s="108"/>
-      <c r="AN34" s="108"/>
-      <c r="AO34" s="108"/>
-      <c r="AP34" s="108"/>
-      <c r="AQ34" s="108"/>
+      <c r="AK34" s="104"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="104"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="104"/>
     </row>
     <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
@@ -6519,16 +6588,16 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="95" t="s">
+      <c r="AJ35" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="AK35" s="108"/>
-      <c r="AL35" s="108"/>
-      <c r="AM35" s="108"/>
-      <c r="AN35" s="108"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="108"/>
-      <c r="AQ35" s="108"/>
+      <c r="AK35" s="104"/>
+      <c r="AL35" s="104"/>
+      <c r="AM35" s="104"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="104"/>
+      <c r="AP35" s="104"/>
+      <c r="AQ35" s="104"/>
     </row>
     <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
@@ -6570,16 +6639,16 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="111" t="s">
+      <c r="AJ36" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="112"/>
-      <c r="AL36" s="112"/>
-      <c r="AM36" s="112"/>
-      <c r="AN36" s="112"/>
-      <c r="AO36" s="112"/>
-      <c r="AP36" s="112"/>
-      <c r="AQ36" s="112"/>
+      <c r="AK36" s="106"/>
+      <c r="AL36" s="106"/>
+      <c r="AM36" s="106"/>
+      <c r="AN36" s="106"/>
+      <c r="AO36" s="106"/>
+      <c r="AP36" s="106"/>
+      <c r="AQ36" s="106"/>
     </row>
     <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
@@ -6621,14 +6690,14 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="108"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="108"/>
-      <c r="AN37" s="108"/>
-      <c r="AO37" s="108"/>
-      <c r="AP37" s="108"/>
-      <c r="AQ37" s="108"/>
+      <c r="AJ37" s="103"/>
+      <c r="AK37" s="104"/>
+      <c r="AL37" s="104"/>
+      <c r="AM37" s="104"/>
+      <c r="AN37" s="104"/>
+      <c r="AO37" s="104"/>
+      <c r="AP37" s="104"/>
+      <c r="AQ37" s="104"/>
     </row>
     <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
@@ -6672,16 +6741,16 @@
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="95" t="s">
+      <c r="AJ38" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="AK38" s="108"/>
-      <c r="AL38" s="108"/>
-      <c r="AM38" s="108"/>
-      <c r="AN38" s="108"/>
-      <c r="AO38" s="108"/>
-      <c r="AP38" s="108"/>
-      <c r="AQ38" s="108"/>
+      <c r="AK38" s="104"/>
+      <c r="AL38" s="104"/>
+      <c r="AM38" s="104"/>
+      <c r="AN38" s="104"/>
+      <c r="AO38" s="104"/>
+      <c r="AP38" s="104"/>
+      <c r="AQ38" s="104"/>
     </row>
     <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
@@ -6725,16 +6794,16 @@
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="95" t="s">
+      <c r="AJ39" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AK39" s="108"/>
-      <c r="AL39" s="108"/>
-      <c r="AM39" s="108"/>
-      <c r="AN39" s="108"/>
-      <c r="AO39" s="108"/>
-      <c r="AP39" s="108"/>
-      <c r="AQ39" s="108"/>
+      <c r="AK39" s="104"/>
+      <c r="AL39" s="104"/>
+      <c r="AM39" s="104"/>
+      <c r="AN39" s="104"/>
+      <c r="AO39" s="104"/>
+      <c r="AP39" s="104"/>
+      <c r="AQ39" s="104"/>
     </row>
     <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
@@ -6778,16 +6847,16 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="95" t="s">
+      <c r="AJ40" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="108"/>
-      <c r="AN40" s="108"/>
-      <c r="AO40" s="108"/>
-      <c r="AP40" s="108"/>
-      <c r="AQ40" s="108"/>
+      <c r="AK40" s="104"/>
+      <c r="AL40" s="104"/>
+      <c r="AM40" s="104"/>
+      <c r="AN40" s="104"/>
+      <c r="AO40" s="104"/>
+      <c r="AP40" s="104"/>
+      <c r="AQ40" s="104"/>
     </row>
     <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
@@ -6829,16 +6898,16 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="111" t="s">
+      <c r="AJ41" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="112"/>
-      <c r="AL41" s="112"/>
-      <c r="AM41" s="112"/>
-      <c r="AN41" s="112"/>
-      <c r="AO41" s="112"/>
-      <c r="AP41" s="112"/>
-      <c r="AQ41" s="112"/>
+      <c r="AK41" s="106"/>
+      <c r="AL41" s="106"/>
+      <c r="AM41" s="106"/>
+      <c r="AN41" s="106"/>
+      <c r="AO41" s="106"/>
+      <c r="AP41" s="106"/>
+      <c r="AQ41" s="106"/>
     </row>
     <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
@@ -6886,16 +6955,16 @@
       <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="95" t="s">
+      <c r="AJ42" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="AK42" s="108"/>
-      <c r="AL42" s="108"/>
-      <c r="AM42" s="108"/>
-      <c r="AN42" s="108"/>
-      <c r="AO42" s="108"/>
-      <c r="AP42" s="108"/>
-      <c r="AQ42" s="108"/>
+      <c r="AK42" s="104"/>
+      <c r="AL42" s="104"/>
+      <c r="AM42" s="104"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="104"/>
+      <c r="AP42" s="104"/>
+      <c r="AQ42" s="104"/>
     </row>
     <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -6939,16 +7008,16 @@
       <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="95" t="s">
+      <c r="AJ43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AK43" s="108"/>
-      <c r="AL43" s="108"/>
-      <c r="AM43" s="108"/>
-      <c r="AN43" s="108"/>
-      <c r="AO43" s="108"/>
-      <c r="AP43" s="108"/>
-      <c r="AQ43" s="108"/>
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="104"/>
+      <c r="AQ43" s="104"/>
     </row>
     <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
@@ -6990,16 +7059,16 @@
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="95" t="s">
+      <c r="AJ44" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="108"/>
-      <c r="AM44" s="108"/>
-      <c r="AN44" s="108"/>
-      <c r="AO44" s="108"/>
-      <c r="AP44" s="108"/>
-      <c r="AQ44" s="108"/>
+      <c r="AK44" s="104"/>
+      <c r="AL44" s="104"/>
+      <c r="AM44" s="104"/>
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="104"/>
+      <c r="AP44" s="104"/>
+      <c r="AQ44" s="104"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.45">
       <c r="BB45" s="47"/>
@@ -7010,43 +7079,43 @@
       <c r="BC46" s="47"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="116"/>
-      <c r="V47" s="116"/>
-      <c r="W47" s="116"/>
-      <c r="X47" s="116"/>
-      <c r="Y47" s="116"/>
-      <c r="Z47" s="116"/>
-      <c r="AA47" s="116"/>
-      <c r="AB47" s="116"/>
-      <c r="AC47" s="116"/>
-      <c r="AD47" s="116"/>
-      <c r="AE47" s="116"/>
-      <c r="AF47" s="116"/>
-      <c r="AG47" s="116"/>
-      <c r="AH47" s="116"/>
-      <c r="AI47" s="116"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="96"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="96"/>
+      <c r="AD47" s="96"/>
+      <c r="AE47" s="96"/>
+      <c r="AF47" s="96"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="96"/>
+      <c r="AI47" s="96"/>
       <c r="BB47" s="47"/>
       <c r="BC47" s="47"/>
     </row>
@@ -7161,39 +7230,39 @@
       <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="76"/>
-      <c r="AE50" s="76"/>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="106"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="94"/>
+      <c r="Z50" s="94"/>
+      <c r="AA50" s="94"/>
+      <c r="AB50" s="94"/>
+      <c r="AC50" s="94"/>
+      <c r="AD50" s="94"/>
+      <c r="AE50" s="94"/>
+      <c r="AF50" s="94"/>
+      <c r="AG50" s="98"/>
       <c r="BB50" s="47"/>
       <c r="BC50" s="47"/>
     </row>
@@ -7229,38 +7298,38 @@
       <c r="BC51" s="47"/>
     </row>
     <row r="52" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="115" t="s">
+      <c r="C52" s="80"/>
+      <c r="D52" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115" t="s">
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="115" t="s">
+      <c r="H52" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="I52" s="90" t="s">
+      <c r="I52" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90" t="s">
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90" t="s">
+      <c r="M52" s="80"/>
+      <c r="N52" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90" t="s">
+      <c r="O52" s="80"/>
+      <c r="P52" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="90"/>
+      <c r="Q52" s="80"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -7281,22 +7350,22 @@
       <c r="BC52" s="47"/>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -7317,22 +7386,22 @@
       <c r="BC53" s="47"/>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.45">
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="91"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -7376,29 +7445,29 @@
       <c r="O55" s="24"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="105" t="s">
+      <c r="R55" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="76"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="76"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="76"/>
-      <c r="AD55" s="76"/>
-      <c r="AE55" s="76"/>
-      <c r="AF55" s="76"/>
-      <c r="AG55" s="106"/>
-      <c r="AJ55" s="108"/>
-      <c r="AK55" s="108"/>
-      <c r="AL55" s="108"/>
-      <c r="AM55" s="108"/>
-      <c r="AN55" s="108"/>
+      <c r="S55" s="94"/>
+      <c r="T55" s="94"/>
+      <c r="U55" s="94"/>
+      <c r="V55" s="94"/>
+      <c r="W55" s="94"/>
+      <c r="X55" s="94"/>
+      <c r="Y55" s="94"/>
+      <c r="Z55" s="94"/>
+      <c r="AA55" s="94"/>
+      <c r="AB55" s="94"/>
+      <c r="AC55" s="94"/>
+      <c r="AD55" s="94"/>
+      <c r="AE55" s="94"/>
+      <c r="AF55" s="94"/>
+      <c r="AG55" s="98"/>
+      <c r="AJ55" s="104"/>
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="104"/>
+      <c r="AM55" s="104"/>
+      <c r="AN55" s="104"/>
       <c r="AR55" s="38"/>
       <c r="AS55" s="38"/>
       <c r="BB55" s="47"/>
@@ -7442,60 +7511,60 @@
         <v>85</v>
       </c>
       <c r="C57" s="65"/>
-      <c r="D57" s="115" t="s">
+      <c r="D57" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115" t="s">
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="115" t="s">
+      <c r="H57" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="90" t="s">
+      <c r="I57" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90" t="s">
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90" t="s">
+      <c r="M57" s="80"/>
+      <c r="N57" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90" t="s">
+      <c r="O57" s="80"/>
+      <c r="P57" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90" t="s">
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90" t="s">
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90" t="s">
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="90" t="s">
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90" t="s">
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="90"/>
-      <c r="AG57" s="90"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
       <c r="AR57" s="38"/>
       <c r="AS57" s="38"/>
       <c r="BB57" s="47"/>
@@ -7504,36 +7573,36 @@
     <row r="58" spans="1:55" x14ac:dyDescent="0.45">
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="90"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="90"/>
-      <c r="Z58" s="90"/>
-      <c r="AA58" s="90"/>
-      <c r="AB58" s="90"/>
-      <c r="AC58" s="90"/>
-      <c r="AD58" s="90"/>
-      <c r="AE58" s="90"/>
-      <c r="AF58" s="90"/>
-      <c r="AG58" s="90"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
       <c r="AR58" s="38"/>
       <c r="AS58" s="38"/>
       <c r="BB58" s="47"/>
@@ -7542,36 +7611,36 @@
     <row r="59" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="91"/>
-      <c r="AA59" s="91"/>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
-      <c r="AD59" s="91"/>
-      <c r="AE59" s="91"/>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="90"/>
+      <c r="X59" s="90"/>
+      <c r="Y59" s="90"/>
+      <c r="Z59" s="90"/>
+      <c r="AA59" s="90"/>
+      <c r="AB59" s="90"/>
+      <c r="AC59" s="90"/>
+      <c r="AD59" s="90"/>
+      <c r="AE59" s="90"/>
+      <c r="AF59" s="90"/>
+      <c r="AG59" s="90"/>
       <c r="BB59" s="47"/>
       <c r="BC59" s="47"/>
     </row>
@@ -7615,11 +7684,11 @@
       <c r="AE60" s="26"/>
       <c r="AF60" s="26"/>
       <c r="AG60" s="27"/>
-      <c r="AN60" s="77" t="s">
+      <c r="AN60" s="111" t="s">
         <v>111</v>
       </c>
       <c r="AX60" s="30"/>
-      <c r="AY60" s="77" t="s">
+      <c r="AY60" s="111" t="s">
         <v>111</v>
       </c>
       <c r="AZ60" s="30"/>
@@ -7632,19 +7701,19 @@
       <c r="AM61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AN61" s="78"/>
+      <c r="AN61" s="112"/>
       <c r="AO61" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="AQ61" s="82" t="s">
+      <c r="AQ61" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="AR61" s="83"/>
+      <c r="AR61" s="121"/>
       <c r="AU61" s="30"/>
       <c r="AX61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AY61" s="78"/>
+      <c r="AY61" s="112"/>
       <c r="AZ61" s="39" t="s">
         <v>113</v>
       </c>
@@ -7652,22 +7721,22 @@
       <c r="BC61" s="47"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P62" s="115" t="s">
+      <c r="P62" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="Q62" s="115" t="s">
+      <c r="Q62" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="R62" s="115" t="s">
+      <c r="R62" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="S62" s="115" t="s">
+      <c r="S62" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="T62" s="115" t="s">
+      <c r="T62" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="U62" s="115" t="s">
+      <c r="U62" s="91" t="s">
         <v>161</v>
       </c>
       <c r="W62" s="21">
@@ -7688,28 +7757,28 @@
       <c r="AB62" s="19">
         <v>0</v>
       </c>
-      <c r="AC62" s="94" t="s">
+      <c r="AC62" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AD62" s="94"/>
-      <c r="AE62" s="94"/>
+      <c r="AD62" s="95"/>
+      <c r="AE62" s="95"/>
       <c r="AF62" s="6"/>
-      <c r="AN62" s="78"/>
-      <c r="AQ62" s="84"/>
-      <c r="AR62" s="85"/>
+      <c r="AN62" s="112"/>
+      <c r="AQ62" s="122"/>
+      <c r="AR62" s="123"/>
       <c r="AX62" s="30"/>
-      <c r="AY62" s="78"/>
+      <c r="AY62" s="112"/>
       <c r="AZ62" s="30"/>
       <c r="BB62" s="47"/>
       <c r="BC62" s="47"/>
     </row>
     <row r="63" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="115"/>
-      <c r="S63" s="115"/>
-      <c r="T63" s="115"/>
-      <c r="U63" s="115"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
       <c r="W63" s="21">
         <v>0</v>
       </c>
@@ -7728,62 +7797,62 @@
       <c r="AB63" s="19">
         <v>1</v>
       </c>
-      <c r="AC63" s="94" t="s">
+      <c r="AC63" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="AD63" s="94"/>
-      <c r="AE63" s="94"/>
+      <c r="AD63" s="95"/>
+      <c r="AE63" s="95"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
-      <c r="AN63" s="78"/>
-      <c r="AQ63" s="84"/>
-      <c r="AR63" s="85"/>
+      <c r="AN63" s="112"/>
+      <c r="AQ63" s="122"/>
+      <c r="AR63" s="123"/>
       <c r="AX63" s="30"/>
-      <c r="AY63" s="78"/>
+      <c r="AY63" s="112"/>
       <c r="AZ63" s="30"/>
       <c r="BB63" s="47"/>
       <c r="BC63" s="47"/>
     </row>
     <row r="64" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="118"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="103" t="s">
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="103" t="s">
+      <c r="F64" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="103" t="s">
+      <c r="G64" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="103" t="s">
+      <c r="H64" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="103" t="s">
+      <c r="I64" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="107" t="s">
+      <c r="J64" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="103" t="s">
+      <c r="K64" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="M64" s="97" t="s">
+      <c r="M64" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="N64" s="118"/>
-      <c r="O64" s="98"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="115"/>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
       <c r="W64" s="21">
         <v>0</v>
       </c>
@@ -7802,44 +7871,44 @@
       <c r="AB64" s="19">
         <v>2</v>
       </c>
-      <c r="AC64" s="93" t="s">
+      <c r="AC64" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="AD64" s="93"/>
-      <c r="AE64" s="93"/>
+      <c r="AD64" s="101"/>
+      <c r="AE64" s="101"/>
       <c r="AF64" s="6"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AN64" s="78"/>
-      <c r="AQ64" s="86"/>
-      <c r="AR64" s="87"/>
+      <c r="AN64" s="112"/>
+      <c r="AQ64" s="124"/>
+      <c r="AR64" s="125"/>
       <c r="AX64" s="30"/>
-      <c r="AY64" s="78"/>
+      <c r="AY64" s="112"/>
       <c r="AZ64" s="30"/>
       <c r="BB64" s="47"/>
       <c r="BC64" s="47"/>
     </row>
     <row r="65" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="99"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="103"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="100"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
-      <c r="U65" s="115"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="100"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="85"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
       <c r="W65" s="21">
         <v>0</v>
       </c>
@@ -7858,42 +7927,42 @@
       <c r="AB65" s="19">
         <v>3</v>
       </c>
-      <c r="AC65" s="93" t="s">
+      <c r="AC65" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="AD65" s="93"/>
-      <c r="AE65" s="93"/>
+      <c r="AD65" s="101"/>
+      <c r="AE65" s="101"/>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AN65" s="78"/>
+      <c r="AN65" s="112"/>
       <c r="AX65" s="30"/>
-      <c r="AY65" s="78"/>
+      <c r="AY65" s="112"/>
       <c r="AZ65" s="30"/>
       <c r="BB65" s="47"/>
       <c r="BC65" s="47"/>
     </row>
     <row r="66" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="99"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="103"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="100"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="115"/>
-      <c r="S66" s="115"/>
-      <c r="T66" s="115"/>
-      <c r="U66" s="115"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="100"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
       <c r="W66" s="21">
         <v>0</v>
       </c>
@@ -7912,44 +7981,42 @@
       <c r="AB66" s="19">
         <v>4</v>
       </c>
-      <c r="AC66" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD66" s="93"/>
-      <c r="AE66" s="93"/>
+      <c r="AC66" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD66" s="101"/>
+      <c r="AE66" s="101"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AN66" s="78"/>
+      <c r="AN66" s="112"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AX66" s="30"/>
-      <c r="AY66" s="78"/>
+      <c r="AY66" s="112"/>
       <c r="AZ66" s="30"/>
       <c r="BB66" s="47"/>
       <c r="BC66" s="47"/>
     </row>
     <row r="67" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="101"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="103"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="91"/>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="100"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="90"/>
       <c r="W67" s="21">
         <v>0</v>
       </c>
@@ -7968,18 +8035,16 @@
       <c r="AB67" s="19">
         <v>5</v>
       </c>
-      <c r="AC67" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD67" s="93"/>
-      <c r="AE67" s="93"/>
+      <c r="AC67" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD67" s="101"/>
+      <c r="AE67" s="101"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
-      <c r="AH67" s="6"/>
-      <c r="AI67" s="6"/>
-      <c r="AN67" s="78"/>
+      <c r="AN67" s="112"/>
       <c r="AX67" s="30"/>
-      <c r="AY67" s="78"/>
+      <c r="AY67" s="112"/>
       <c r="AZ67" s="30"/>
       <c r="BB67" s="47"/>
       <c r="BC67" s="47"/>
@@ -8037,18 +8102,16 @@
       <c r="AB68" s="19">
         <v>6</v>
       </c>
-      <c r="AC68" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD68" s="93"/>
-      <c r="AE68" s="93"/>
+      <c r="AC68" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD68" s="101"/>
+      <c r="AE68" s="101"/>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="6"/>
-      <c r="AN68" s="78"/>
+      <c r="AN68" s="112"/>
       <c r="AX68" s="30"/>
-      <c r="AY68" s="78"/>
+      <c r="AY68" s="112"/>
       <c r="AZ68" s="30"/>
       <c r="BB68" s="47"/>
       <c r="BC68" s="47"/>
@@ -8107,20 +8170,18 @@
       <c r="AB69" s="19">
         <v>7</v>
       </c>
-      <c r="AC69" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD69" s="93"/>
-      <c r="AE69" s="93"/>
+      <c r="AC69" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="101"/>
       <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
-      <c r="AH69" s="6"/>
-      <c r="AI69" s="6"/>
-      <c r="AN69" s="78"/>
+      <c r="AN69" s="112"/>
       <c r="AX69" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AY69" s="78"/>
+      <c r="AY69" s="112"/>
       <c r="AZ69" s="30"/>
       <c r="BB69" s="47"/>
       <c r="BC69" s="47"/>
@@ -8181,18 +8242,16 @@
       <c r="AB70" s="19">
         <v>8</v>
       </c>
-      <c r="AC70" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD70" s="93"/>
-      <c r="AE70" s="93"/>
+      <c r="AC70" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD70" s="101"/>
+      <c r="AE70" s="101"/>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AN70" s="78"/>
+      <c r="AN70" s="112"/>
       <c r="AX70" s="30"/>
-      <c r="AY70" s="78"/>
+      <c r="AY70" s="112"/>
       <c r="AZ70" s="30"/>
       <c r="BB70" s="47"/>
       <c r="BC70" s="47"/>
@@ -8258,34 +8317,32 @@
       <c r="AB71" s="19">
         <v>9</v>
       </c>
-      <c r="AC71" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD71" s="93"/>
-      <c r="AE71" s="93"/>
+      <c r="AC71" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD71" s="101"/>
+      <c r="AE71" s="101"/>
       <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
-      <c r="AH71" s="6"/>
-      <c r="AI71" s="6"/>
       <c r="AM71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AN71" s="78"/>
+      <c r="AN71" s="112"/>
       <c r="AO71" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AQ71" s="88" t="s">
+      <c r="AQ71" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="AR71" s="89"/>
-      <c r="AU71" s="88" t="s">
+      <c r="AR71" s="115"/>
+      <c r="AU71" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="AV71" s="89"/>
+      <c r="AV71" s="115"/>
       <c r="AX71" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AY71" s="78"/>
+      <c r="AY71" s="112"/>
       <c r="AZ71" s="39" t="s">
         <v>116</v>
       </c>
@@ -8348,18 +8405,16 @@
       <c r="AB72" s="19">
         <v>10</v>
       </c>
-      <c r="AC72" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD72" s="93"/>
-      <c r="AE72" s="93"/>
+      <c r="AC72" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD72" s="101"/>
+      <c r="AE72" s="101"/>
       <c r="AF72" s="6"/>
       <c r="AG72" s="6"/>
-      <c r="AH72" s="6"/>
-      <c r="AI72" s="6"/>
-      <c r="AN72" s="79"/>
+      <c r="AN72" s="113"/>
       <c r="AX72" s="30"/>
-      <c r="AY72" s="79"/>
+      <c r="AY72" s="113"/>
       <c r="AZ72" s="30"/>
       <c r="BB72" s="47"/>
       <c r="BC72" s="47"/>
@@ -8416,15 +8471,13 @@
       <c r="AB73" s="19">
         <v>11</v>
       </c>
-      <c r="AC73" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD73" s="93"/>
-      <c r="AE73" s="93"/>
+      <c r="AC73" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD73" s="101"/>
+      <c r="AE73" s="101"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="6"/>
-      <c r="AI73" s="6"/>
       <c r="AX73" s="30"/>
       <c r="AY73" s="30"/>
       <c r="AZ73" s="30"/>
@@ -8485,15 +8538,13 @@
       <c r="AB74" s="19">
         <v>12</v>
       </c>
-      <c r="AC74" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD74" s="93"/>
-      <c r="AE74" s="93"/>
+      <c r="AC74" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD74" s="101"/>
+      <c r="AE74" s="101"/>
       <c r="AF74" s="6"/>
       <c r="AG74" s="6"/>
-      <c r="AH74" s="6"/>
-      <c r="AI74" s="6"/>
       <c r="AN74" s="43" t="s">
         <v>127</v>
       </c>
@@ -8559,15 +8610,13 @@
       <c r="AB75" s="19">
         <v>13</v>
       </c>
-      <c r="AC75" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD75" s="93"/>
-      <c r="AE75" s="93"/>
+      <c r="AC75" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD75" s="101"/>
+      <c r="AE75" s="101"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
-      <c r="AH75" s="6"/>
-      <c r="AI75" s="6"/>
       <c r="AN75" s="43" t="s">
         <v>131</v>
       </c>
@@ -8603,15 +8652,13 @@
       <c r="AB76" s="19">
         <v>14</v>
       </c>
-      <c r="AC76" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD76" s="93"/>
-      <c r="AE76" s="93"/>
+      <c r="AC76" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD76" s="101"/>
+      <c r="AE76" s="101"/>
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
-      <c r="AI76" s="6"/>
       <c r="AN76" s="43" t="s">
         <v>122</v>
       </c>
@@ -8632,17 +8679,17 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="M77" s="97" t="s">
+      <c r="M77" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="N77" s="98"/>
-      <c r="O77" s="92" t="s">
+      <c r="N77" s="83"/>
+      <c r="O77" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="92" t="s">
+      <c r="P77" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="Q77" s="92" t="s">
+      <c r="Q77" s="102" t="s">
         <v>152</v>
       </c>
       <c r="R77" s="6"/>
@@ -8664,11 +8711,11 @@
       <c r="AB77" s="19">
         <v>15</v>
       </c>
-      <c r="AC77" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD77" s="93"/>
-      <c r="AE77" s="93"/>
+      <c r="AC77" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD77" s="101"/>
+      <c r="AE77" s="101"/>
       <c r="AF77" s="6"/>
       <c r="AQ77" s="30"/>
       <c r="AR77" s="30"/>
@@ -8684,11 +8731,11 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="100"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="86"/>
+      <c r="O78" s="102"/>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
       <c r="R78" s="6"/>
       <c r="W78" s="21">
         <v>1</v>
@@ -8708,51 +8755,50 @@
       <c r="AB78" s="19">
         <v>16</v>
       </c>
-      <c r="AC78" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD78" s="93"/>
-      <c r="AE78" s="93"/>
+      <c r="AC78" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD78" s="101"/>
+      <c r="AE78" s="101"/>
       <c r="AF78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AN78" s="80" t="s">
+      <c r="AN78" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="AO78" s="81"/>
-      <c r="AQ78" s="82" t="s">
+      <c r="AO78" s="117"/>
+      <c r="AQ78" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="AR78" s="83"/>
+      <c r="AR78" s="121"/>
       <c r="AT78" s="30"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
-      <c r="AX78" s="80" t="s">
+      <c r="AX78" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="AY78" s="81"/>
+      <c r="AY78" s="117"/>
       <c r="AZ78" s="30"/>
       <c r="BB78" s="47"/>
       <c r="BC78" s="47"/>
     </row>
     <row r="79" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="97" t="s">
+      <c r="B79" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="98"/>
-      <c r="D79" s="103" t="s">
+      <c r="C79" s="83"/>
+      <c r="D79" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="103" t="s">
+      <c r="E79" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="117" t="s">
+      <c r="F79" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="M79" s="99"/>
-      <c r="N79" s="100"/>
-      <c r="O79" s="92"/>
-      <c r="P79" s="92"/>
-      <c r="Q79" s="92"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="86"/>
+      <c r="O79" s="102"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
       <c r="R79" s="6"/>
       <c r="W79" s="21">
         <v>1</v>
@@ -8772,21 +8818,20 @@
       <c r="AB79" s="19">
         <v>17</v>
       </c>
-      <c r="AC79" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD79" s="93"/>
-      <c r="AE79" s="93"/>
+      <c r="AC79" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD79" s="101"/>
+      <c r="AE79" s="101"/>
       <c r="AF79" s="6"/>
-      <c r="AI79" s="6"/>
       <c r="AN79" s="40" t="s">
         <v>117</v>
       </c>
       <c r="AO79" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AQ79" s="84"/>
-      <c r="AR79" s="85"/>
+      <c r="AQ79" s="122"/>
+      <c r="AR79" s="123"/>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="40" t="s">
@@ -8800,16 +8845,16 @@
       <c r="BC79" s="47"/>
     </row>
     <row r="80" spans="1:55" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="99"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="117"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="100"/>
-      <c r="O80" s="92"/>
-      <c r="P80" s="92"/>
-      <c r="Q80" s="92"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="99"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="86"/>
+      <c r="O80" s="102"/>
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
       <c r="R80" s="6"/>
       <c r="W80" s="21">
         <v>1</v>
@@ -8829,15 +8874,14 @@
       <c r="AB80" s="19">
         <v>18</v>
       </c>
-      <c r="AC80" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD80" s="93"/>
-      <c r="AE80" s="93"/>
+      <c r="AC80" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD80" s="101"/>
+      <c r="AE80" s="101"/>
       <c r="AF80" s="6"/>
-      <c r="AI80" s="6"/>
-      <c r="AQ80" s="84"/>
-      <c r="AR80" s="85"/>
+      <c r="AQ80" s="122"/>
+      <c r="AR80" s="123"/>
       <c r="AV80" s="30"/>
       <c r="AX80" s="30"/>
       <c r="AY80" s="30"/>
@@ -8846,16 +8890,16 @@
       <c r="BC80" s="47"/>
     </row>
     <row r="81" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="101"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="117"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="100"/>
-      <c r="O81" s="92"/>
-      <c r="P81" s="92"/>
-      <c r="Q81" s="92"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="99"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="102"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
       <c r="R81" s="6"/>
       <c r="W81" s="21">
         <v>1</v>
@@ -8875,21 +8919,20 @@
       <c r="AB81" s="19">
         <v>19</v>
       </c>
-      <c r="AC81" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD81" s="93"/>
-      <c r="AE81" s="93"/>
+      <c r="AC81" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD81" s="101"/>
+      <c r="AE81" s="101"/>
       <c r="AF81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AN81" s="77" t="s">
+      <c r="AN81" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="AQ81" s="86"/>
-      <c r="AR81" s="87"/>
+      <c r="AQ81" s="124"/>
+      <c r="AR81" s="125"/>
       <c r="AV81" s="30"/>
       <c r="AX81" s="30"/>
-      <c r="AY81" s="77" t="s">
+      <c r="AY81" s="111" t="s">
         <v>125</v>
       </c>
       <c r="AZ81" s="30"/>
@@ -8904,11 +8947,11 @@
       <c r="D82" s="21"/>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
-      <c r="M82" s="101"/>
-      <c r="N82" s="102"/>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92"/>
+      <c r="M82" s="87"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="102"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
       <c r="R82" s="6"/>
       <c r="W82" s="21">
         <v>1</v>
@@ -8928,15 +8971,17 @@
       <c r="AB82" s="19">
         <v>20</v>
       </c>
-      <c r="AC82" s="94"/>
-      <c r="AD82" s="94"/>
-      <c r="AE82" s="94"/>
+      <c r="AC82" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD82" s="101"/>
+      <c r="AE82" s="101"/>
       <c r="AF82" s="6"/>
       <c r="AI82" s="6"/>
-      <c r="AN82" s="78"/>
+      <c r="AN82" s="112"/>
       <c r="AV82" s="30"/>
       <c r="AX82" s="30"/>
-      <c r="AY82" s="78"/>
+      <c r="AY82" s="112"/>
       <c r="AZ82" s="30"/>
     </row>
     <row r="83" spans="2:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8978,14 +9023,14 @@
       <c r="AB83" s="19">
         <v>21</v>
       </c>
-      <c r="AC83" s="94"/>
-      <c r="AD83" s="94"/>
-      <c r="AE83" s="94"/>
+      <c r="AC83" s="95"/>
+      <c r="AD83" s="95"/>
+      <c r="AE83" s="95"/>
       <c r="AF83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AN83" s="78"/>
+      <c r="AN83" s="112"/>
       <c r="AX83" s="30"/>
-      <c r="AY83" s="78"/>
+      <c r="AY83" s="112"/>
       <c r="AZ83" s="30"/>
     </row>
     <row r="84" spans="2:52" x14ac:dyDescent="0.45">
@@ -9030,13 +9075,13 @@
       <c r="AB84" s="19">
         <v>22</v>
       </c>
-      <c r="AC84" s="94"/>
-      <c r="AD84" s="94"/>
-      <c r="AE84" s="94"/>
+      <c r="AC84" s="95"/>
+      <c r="AD84" s="95"/>
+      <c r="AE84" s="95"/>
       <c r="AF84" s="6"/>
-      <c r="AN84" s="78"/>
+      <c r="AN84" s="112"/>
       <c r="AX84" s="30"/>
-      <c r="AY84" s="78"/>
+      <c r="AY84" s="112"/>
       <c r="AZ84" s="30"/>
     </row>
     <row r="85" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9083,13 +9128,13 @@
       <c r="AB85" s="19">
         <v>23</v>
       </c>
-      <c r="AC85" s="94"/>
-      <c r="AD85" s="94"/>
-      <c r="AE85" s="94"/>
+      <c r="AC85" s="95"/>
+      <c r="AD85" s="95"/>
+      <c r="AE85" s="95"/>
       <c r="AF85" s="6"/>
-      <c r="AN85" s="79"/>
+      <c r="AN85" s="113"/>
       <c r="AX85" s="30"/>
-      <c r="AY85" s="79"/>
+      <c r="AY85" s="113"/>
       <c r="AZ85" s="30"/>
     </row>
     <row r="86" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9128,9 +9173,9 @@
       <c r="AB86" s="19">
         <v>24</v>
       </c>
-      <c r="AC86" s="94"/>
-      <c r="AD86" s="94"/>
-      <c r="AE86" s="94"/>
+      <c r="AC86" s="95"/>
+      <c r="AD86" s="95"/>
+      <c r="AE86" s="95"/>
       <c r="AF86" s="6"/>
       <c r="AX86" s="30"/>
       <c r="AY86" s="30"/>
@@ -9158,15 +9203,15 @@
       <c r="AB87" s="19">
         <v>25</v>
       </c>
-      <c r="AC87" s="94"/>
-      <c r="AD87" s="94"/>
-      <c r="AE87" s="94"/>
+      <c r="AC87" s="95"/>
+      <c r="AD87" s="95"/>
+      <c r="AE87" s="95"/>
       <c r="AF87" s="6"/>
-      <c r="AN87" s="77" t="s">
+      <c r="AN87" s="111" t="s">
         <v>120</v>
       </c>
       <c r="AX87" s="30"/>
-      <c r="AY87" s="77" t="s">
+      <c r="AY87" s="111" t="s">
         <v>126</v>
       </c>
       <c r="AZ87" s="30"/>
@@ -9178,17 +9223,17 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="M88" s="97" t="s">
+      <c r="M88" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="N88" s="98"/>
-      <c r="O88" s="103" t="s">
+      <c r="N88" s="83"/>
+      <c r="O88" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="P88" s="103" t="s">
+      <c r="P88" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="Q88" s="104" t="s">
+      <c r="Q88" s="118" t="s">
         <v>101</v>
       </c>
       <c r="W88" s="21">
@@ -9209,13 +9254,13 @@
       <c r="AB88" s="19">
         <v>26</v>
       </c>
-      <c r="AC88" s="94"/>
-      <c r="AD88" s="94"/>
-      <c r="AE88" s="94"/>
+      <c r="AC88" s="95"/>
+      <c r="AD88" s="95"/>
+      <c r="AE88" s="95"/>
       <c r="AF88" s="6"/>
-      <c r="AN88" s="78"/>
+      <c r="AN88" s="112"/>
       <c r="AX88" s="30"/>
-      <c r="AY88" s="78"/>
+      <c r="AY88" s="112"/>
       <c r="AZ88" s="30"/>
     </row>
     <row r="89" spans="2:52" x14ac:dyDescent="0.45">
@@ -9225,11 +9270,11 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="100"/>
-      <c r="O89" s="103"/>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="104"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="86"/>
+      <c r="O89" s="100"/>
+      <c r="P89" s="100"/>
+      <c r="Q89" s="118"/>
       <c r="W89" s="21">
         <v>1</v>
       </c>
@@ -9248,13 +9293,13 @@
       <c r="AB89" s="19">
         <v>27</v>
       </c>
-      <c r="AC89" s="94"/>
-      <c r="AD89" s="94"/>
-      <c r="AE89" s="94"/>
+      <c r="AC89" s="95"/>
+      <c r="AD89" s="95"/>
+      <c r="AE89" s="95"/>
       <c r="AF89" s="6"/>
-      <c r="AN89" s="78"/>
+      <c r="AN89" s="112"/>
       <c r="AX89" s="30"/>
-      <c r="AY89" s="78"/>
+      <c r="AY89" s="112"/>
       <c r="AZ89" s="30"/>
     </row>
     <row r="90" spans="2:52" x14ac:dyDescent="0.45">
@@ -9264,11 +9309,11 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="M90" s="99"/>
-      <c r="N90" s="100"/>
-      <c r="O90" s="103"/>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="104"/>
+      <c r="M90" s="84"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="100"/>
+      <c r="P90" s="100"/>
+      <c r="Q90" s="118"/>
       <c r="W90" s="21">
         <v>1</v>
       </c>
@@ -9287,13 +9332,13 @@
       <c r="AB90" s="19">
         <v>28</v>
       </c>
-      <c r="AC90" s="94"/>
-      <c r="AD90" s="94"/>
-      <c r="AE90" s="94"/>
+      <c r="AC90" s="95"/>
+      <c r="AD90" s="95"/>
+      <c r="AE90" s="95"/>
       <c r="AF90" s="6"/>
-      <c r="AN90" s="78"/>
+      <c r="AN90" s="112"/>
       <c r="AX90" s="30"/>
-      <c r="AY90" s="78"/>
+      <c r="AY90" s="112"/>
       <c r="AZ90" s="30"/>
     </row>
     <row r="91" spans="2:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9303,11 +9348,11 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="102"/>
-      <c r="O91" s="103"/>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="104"/>
+      <c r="M91" s="87"/>
+      <c r="N91" s="89"/>
+      <c r="O91" s="100"/>
+      <c r="P91" s="100"/>
+      <c r="Q91" s="118"/>
       <c r="S91" s="6"/>
       <c r="W91" s="21">
         <v>1</v>
@@ -9327,13 +9372,13 @@
       <c r="AB91" s="19">
         <v>29</v>
       </c>
-      <c r="AC91" s="94"/>
-      <c r="AD91" s="94"/>
-      <c r="AE91" s="94"/>
+      <c r="AC91" s="95"/>
+      <c r="AD91" s="95"/>
+      <c r="AE91" s="95"/>
       <c r="AF91" s="6"/>
-      <c r="AN91" s="79"/>
+      <c r="AN91" s="113"/>
       <c r="AX91" s="30"/>
-      <c r="AY91" s="79"/>
+      <c r="AY91" s="113"/>
       <c r="AZ91" s="30"/>
     </row>
     <row r="92" spans="2:52" x14ac:dyDescent="0.45">
@@ -9366,9 +9411,9 @@
       <c r="AB92" s="19">
         <v>30</v>
       </c>
-      <c r="AC92" s="94"/>
-      <c r="AD92" s="94"/>
-      <c r="AE92" s="94"/>
+      <c r="AC92" s="95"/>
+      <c r="AD92" s="95"/>
+      <c r="AE92" s="95"/>
       <c r="AF92" s="6"/>
     </row>
     <row r="93" spans="2:52" x14ac:dyDescent="0.45">
@@ -9403,11 +9448,11 @@
       <c r="AB93" s="19">
         <v>31</v>
       </c>
-      <c r="AC93" s="94" t="s">
+      <c r="AC93" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AD93" s="94"/>
-      <c r="AE93" s="94"/>
+      <c r="AD93" s="95"/>
+      <c r="AE93" s="95"/>
       <c r="AF93" s="6"/>
     </row>
     <row r="94" spans="2:52" x14ac:dyDescent="0.45">
@@ -9447,10 +9492,10 @@
       <c r="D98" s="51"/>
       <c r="E98" s="51"/>
       <c r="F98" s="51"/>
-      <c r="G98" s="115" t="s">
+      <c r="G98" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="H98" s="115" t="s">
+      <c r="H98" s="91" t="s">
         <v>147</v>
       </c>
       <c r="J98" s="28"/>
@@ -9488,60 +9533,60 @@
     </row>
     <row r="99" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="59"/>
-      <c r="B99" s="90" t="s">
+      <c r="B99" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="90"/>
-      <c r="D99" s="115" t="s">
+      <c r="C99" s="80"/>
+      <c r="D99" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115" t="s">
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="90" t="s">
+      <c r="J99" s="91"/>
+      <c r="K99" s="91"/>
+      <c r="L99" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="M99" s="90"/>
-      <c r="N99" s="90" t="s">
+      <c r="M99" s="80"/>
+      <c r="N99" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="O99" s="90"/>
-      <c r="P99" s="90" t="s">
+      <c r="O99" s="80"/>
+      <c r="P99" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="Q99" s="90"/>
-      <c r="R99" s="90" t="s">
+      <c r="Q99" s="80"/>
+      <c r="R99" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S99" s="90"/>
-      <c r="T99" s="90"/>
-      <c r="U99" s="90"/>
-      <c r="V99" s="90"/>
-      <c r="W99" s="90" t="s">
+      <c r="S99" s="80"/>
+      <c r="T99" s="80"/>
+      <c r="U99" s="80"/>
+      <c r="V99" s="80"/>
+      <c r="W99" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="X99" s="90"/>
-      <c r="Y99" s="90" t="s">
+      <c r="X99" s="80"/>
+      <c r="Y99" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="Z99" s="90"/>
-      <c r="AA99" s="90" t="s">
+      <c r="Z99" s="80"/>
+      <c r="AA99" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="AB99" s="90"/>
-      <c r="AC99" s="90" t="s">
+      <c r="AB99" s="80"/>
+      <c r="AC99" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AD99" s="90"/>
-      <c r="AE99" s="90"/>
-      <c r="AF99" s="90"/>
-      <c r="AG99" s="90"/>
+      <c r="AD99" s="80"/>
+      <c r="AE99" s="80"/>
+      <c r="AF99" s="80"/>
+      <c r="AG99" s="80"/>
       <c r="AH99" s="51"/>
       <c r="AI99" s="51"/>
       <c r="AJ99" s="59"/>
@@ -9553,38 +9598,38 @@
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A100" s="59"/>
-      <c r="B100" s="90"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
-      <c r="F100" s="115"/>
-      <c r="G100" s="115"/>
-      <c r="H100" s="115"/>
-      <c r="I100" s="115"/>
-      <c r="J100" s="115"/>
-      <c r="K100" s="115"/>
-      <c r="L100" s="90"/>
-      <c r="M100" s="90"/>
-      <c r="N100" s="90"/>
-      <c r="O100" s="90"/>
-      <c r="P100" s="90"/>
-      <c r="Q100" s="90"/>
-      <c r="R100" s="90"/>
-      <c r="S100" s="90"/>
-      <c r="T100" s="90"/>
-      <c r="U100" s="90"/>
-      <c r="V100" s="90"/>
-      <c r="W100" s="90"/>
-      <c r="X100" s="90"/>
-      <c r="Y100" s="90"/>
-      <c r="Z100" s="90"/>
-      <c r="AA100" s="90"/>
-      <c r="AB100" s="90"/>
-      <c r="AC100" s="90"/>
-      <c r="AD100" s="90"/>
-      <c r="AE100" s="90"/>
-      <c r="AF100" s="90"/>
-      <c r="AG100" s="90"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
+      <c r="J100" s="91"/>
+      <c r="K100" s="91"/>
+      <c r="L100" s="80"/>
+      <c r="M100" s="80"/>
+      <c r="N100" s="80"/>
+      <c r="O100" s="80"/>
+      <c r="P100" s="80"/>
+      <c r="Q100" s="80"/>
+      <c r="R100" s="80"/>
+      <c r="S100" s="80"/>
+      <c r="T100" s="80"/>
+      <c r="U100" s="80"/>
+      <c r="V100" s="80"/>
+      <c r="W100" s="80"/>
+      <c r="X100" s="80"/>
+      <c r="Y100" s="80"/>
+      <c r="Z100" s="80"/>
+      <c r="AA100" s="80"/>
+      <c r="AB100" s="80"/>
+      <c r="AC100" s="80"/>
+      <c r="AD100" s="80"/>
+      <c r="AE100" s="80"/>
+      <c r="AF100" s="80"/>
+      <c r="AG100" s="80"/>
       <c r="AH100" s="51"/>
       <c r="AI100" s="51"/>
       <c r="AJ100" s="59"/>
@@ -9596,38 +9641,38 @@
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A101" s="59"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="91"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
-      <c r="J101" s="91"/>
-      <c r="K101" s="91"/>
-      <c r="L101" s="91"/>
-      <c r="M101" s="91"/>
-      <c r="N101" s="91"/>
-      <c r="O101" s="91"/>
-      <c r="P101" s="91"/>
-      <c r="Q101" s="91"/>
-      <c r="R101" s="91"/>
-      <c r="S101" s="91"/>
-      <c r="T101" s="91"/>
-      <c r="U101" s="91"/>
-      <c r="V101" s="91"/>
-      <c r="W101" s="91"/>
-      <c r="X101" s="91"/>
-      <c r="Y101" s="91"/>
-      <c r="Z101" s="91"/>
-      <c r="AA101" s="91"/>
-      <c r="AB101" s="91"/>
-      <c r="AC101" s="91"/>
-      <c r="AD101" s="91"/>
-      <c r="AE101" s="91"/>
-      <c r="AF101" s="91"/>
-      <c r="AG101" s="91"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="90"/>
+      <c r="K101" s="90"/>
+      <c r="L101" s="90"/>
+      <c r="M101" s="90"/>
+      <c r="N101" s="90"/>
+      <c r="O101" s="90"/>
+      <c r="P101" s="90"/>
+      <c r="Q101" s="90"/>
+      <c r="R101" s="90"/>
+      <c r="S101" s="90"/>
+      <c r="T101" s="90"/>
+      <c r="U101" s="90"/>
+      <c r="V101" s="90"/>
+      <c r="W101" s="90"/>
+      <c r="X101" s="90"/>
+      <c r="Y101" s="90"/>
+      <c r="Z101" s="90"/>
+      <c r="AA101" s="90"/>
+      <c r="AB101" s="90"/>
+      <c r="AC101" s="90"/>
+      <c r="AD101" s="90"/>
+      <c r="AE101" s="90"/>
+      <c r="AF101" s="90"/>
+      <c r="AG101" s="90"/>
       <c r="AH101" s="51"/>
       <c r="AI101" s="51"/>
       <c r="AJ101" s="59"/>
@@ -9742,45 +9787,45 @@
       <c r="B103" s="58">
         <v>1</v>
       </c>
-      <c r="C103" s="113" t="s">
+      <c r="C103" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="113"/>
-      <c r="I103" s="113"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
-      <c r="N103" s="113"/>
-      <c r="O103" s="113"/>
-      <c r="P103" s="113"/>
-      <c r="Q103" s="113"/>
-      <c r="R103" s="113"/>
-      <c r="S103" s="113"/>
-      <c r="T103" s="113"/>
-      <c r="U103" s="113"/>
-      <c r="V103" s="113"/>
-      <c r="W103" s="113"/>
-      <c r="X103" s="113"/>
-      <c r="Y103" s="113"/>
-      <c r="Z103" s="113"/>
-      <c r="AA103" s="113"/>
-      <c r="AB103" s="113"/>
-      <c r="AC103" s="113"/>
-      <c r="AD103" s="113"/>
-      <c r="AE103" s="113"/>
-      <c r="AF103" s="113"/>
-      <c r="AG103" s="114"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="92"/>
+      <c r="M103" s="92"/>
+      <c r="N103" s="92"/>
+      <c r="O103" s="92"/>
+      <c r="P103" s="92"/>
+      <c r="Q103" s="92"/>
+      <c r="R103" s="92"/>
+      <c r="S103" s="92"/>
+      <c r="T103" s="92"/>
+      <c r="U103" s="92"/>
+      <c r="V103" s="92"/>
+      <c r="W103" s="92"/>
+      <c r="X103" s="92"/>
+      <c r="Y103" s="92"/>
+      <c r="Z103" s="92"/>
+      <c r="AA103" s="92"/>
+      <c r="AB103" s="92"/>
+      <c r="AC103" s="92"/>
+      <c r="AD103" s="92"/>
+      <c r="AE103" s="92"/>
+      <c r="AF103" s="92"/>
+      <c r="AG103" s="93"/>
       <c r="AH103" s="70"/>
-      <c r="AI103" s="76" t="s">
+      <c r="AI103" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="76"/>
-      <c r="AK103" s="76"/>
+      <c r="AJ103" s="94"/>
+      <c r="AK103" s="94"/>
     </row>
     <row r="104" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="31" t="s">
@@ -9812,30 +9857,30 @@
       <c r="O104" s="32"/>
       <c r="P104" s="52"/>
       <c r="Q104" s="32"/>
-      <c r="R104" s="113" t="s">
+      <c r="R104" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="S104" s="113"/>
-      <c r="T104" s="113"/>
-      <c r="U104" s="113"/>
-      <c r="V104" s="113"/>
-      <c r="W104" s="113"/>
-      <c r="X104" s="113"/>
-      <c r="Y104" s="113"/>
-      <c r="Z104" s="113"/>
-      <c r="AA104" s="113"/>
-      <c r="AB104" s="113"/>
-      <c r="AC104" s="113"/>
-      <c r="AD104" s="113"/>
-      <c r="AE104" s="113"/>
-      <c r="AF104" s="113"/>
-      <c r="AG104" s="114"/>
+      <c r="S104" s="92"/>
+      <c r="T104" s="92"/>
+      <c r="U104" s="92"/>
+      <c r="V104" s="92"/>
+      <c r="W104" s="92"/>
+      <c r="X104" s="92"/>
+      <c r="Y104" s="92"/>
+      <c r="Z104" s="92"/>
+      <c r="AA104" s="92"/>
+      <c r="AB104" s="92"/>
+      <c r="AC104" s="92"/>
+      <c r="AD104" s="92"/>
+      <c r="AE104" s="92"/>
+      <c r="AF104" s="92"/>
+      <c r="AG104" s="93"/>
       <c r="AH104" s="55"/>
-      <c r="AI104" s="76" t="s">
+      <c r="AI104" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="AJ104" s="76"/>
-      <c r="AK104" s="76"/>
+      <c r="AJ104" s="94"/>
+      <c r="AK104" s="94"/>
     </row>
     <row r="105" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="31" t="s">
@@ -9867,30 +9912,30 @@
       <c r="O105" s="32"/>
       <c r="P105" s="52"/>
       <c r="Q105" s="32"/>
-      <c r="R105" s="113" t="s">
+      <c r="R105" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="S105" s="113"/>
-      <c r="T105" s="113"/>
-      <c r="U105" s="113"/>
-      <c r="V105" s="113"/>
-      <c r="W105" s="113"/>
-      <c r="X105" s="113"/>
-      <c r="Y105" s="113"/>
-      <c r="Z105" s="113"/>
-      <c r="AA105" s="113"/>
-      <c r="AB105" s="113"/>
-      <c r="AC105" s="113"/>
-      <c r="AD105" s="113"/>
-      <c r="AE105" s="113"/>
-      <c r="AF105" s="113"/>
-      <c r="AG105" s="114"/>
+      <c r="S105" s="92"/>
+      <c r="T105" s="92"/>
+      <c r="U105" s="92"/>
+      <c r="V105" s="92"/>
+      <c r="W105" s="92"/>
+      <c r="X105" s="92"/>
+      <c r="Y105" s="92"/>
+      <c r="Z105" s="92"/>
+      <c r="AA105" s="92"/>
+      <c r="AB105" s="92"/>
+      <c r="AC105" s="92"/>
+      <c r="AD105" s="92"/>
+      <c r="AE105" s="92"/>
+      <c r="AF105" s="92"/>
+      <c r="AG105" s="93"/>
       <c r="AH105" s="55"/>
-      <c r="AI105" s="76" t="s">
+      <c r="AI105" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="AJ105" s="76"/>
-      <c r="AK105" s="76"/>
+      <c r="AJ105" s="94"/>
+      <c r="AK105" s="94"/>
     </row>
     <row r="106" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="31" t="s">
@@ -9930,30 +9975,30 @@
       <c r="Q106" s="32">
         <v>1</v>
       </c>
-      <c r="R106" s="113" t="s">
+      <c r="R106" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="S106" s="113"/>
-      <c r="T106" s="113"/>
-      <c r="U106" s="113"/>
-      <c r="V106" s="113"/>
-      <c r="W106" s="113"/>
-      <c r="X106" s="113"/>
-      <c r="Y106" s="113"/>
-      <c r="Z106" s="113"/>
-      <c r="AA106" s="113"/>
-      <c r="AB106" s="113"/>
-      <c r="AC106" s="113"/>
-      <c r="AD106" s="113"/>
-      <c r="AE106" s="113"/>
-      <c r="AF106" s="113"/>
-      <c r="AG106" s="114"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="92"/>
+      <c r="U106" s="92"/>
+      <c r="V106" s="92"/>
+      <c r="W106" s="92"/>
+      <c r="X106" s="92"/>
+      <c r="Y106" s="92"/>
+      <c r="Z106" s="92"/>
+      <c r="AA106" s="92"/>
+      <c r="AB106" s="92"/>
+      <c r="AC106" s="92"/>
+      <c r="AD106" s="92"/>
+      <c r="AE106" s="92"/>
+      <c r="AF106" s="92"/>
+      <c r="AG106" s="93"/>
       <c r="AH106" s="55"/>
-      <c r="AI106" s="76" t="s">
+      <c r="AI106" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="AJ106" s="76"/>
-      <c r="AK106" s="76"/>
+      <c r="AJ106" s="94"/>
+      <c r="AK106" s="94"/>
     </row>
     <row r="107" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31" t="s">
@@ -9985,30 +10030,30 @@
       <c r="O107" s="32"/>
       <c r="P107" s="52"/>
       <c r="Q107" s="32"/>
-      <c r="R107" s="113" t="s">
+      <c r="R107" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="S107" s="113"/>
-      <c r="T107" s="113"/>
-      <c r="U107" s="113"/>
-      <c r="V107" s="113"/>
-      <c r="W107" s="113"/>
-      <c r="X107" s="113"/>
-      <c r="Y107" s="113"/>
-      <c r="Z107" s="113"/>
-      <c r="AA107" s="113"/>
-      <c r="AB107" s="113"/>
-      <c r="AC107" s="113"/>
-      <c r="AD107" s="113"/>
-      <c r="AE107" s="113"/>
-      <c r="AF107" s="113"/>
-      <c r="AG107" s="114"/>
+      <c r="S107" s="92"/>
+      <c r="T107" s="92"/>
+      <c r="U107" s="92"/>
+      <c r="V107" s="92"/>
+      <c r="W107" s="92"/>
+      <c r="X107" s="92"/>
+      <c r="Y107" s="92"/>
+      <c r="Z107" s="92"/>
+      <c r="AA107" s="92"/>
+      <c r="AB107" s="92"/>
+      <c r="AC107" s="92"/>
+      <c r="AD107" s="92"/>
+      <c r="AE107" s="92"/>
+      <c r="AF107" s="92"/>
+      <c r="AG107" s="93"/>
       <c r="AH107" s="55"/>
-      <c r="AI107" s="76" t="s">
+      <c r="AI107" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="AJ107" s="76"/>
-      <c r="AK107" s="76"/>
+      <c r="AJ107" s="94"/>
+      <c r="AK107" s="94"/>
     </row>
     <row r="108" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="31" t="s">
@@ -10044,30 +10089,30 @@
       <c r="Q108" s="32">
         <v>1</v>
       </c>
-      <c r="R108" s="113" t="s">
+      <c r="R108" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="S108" s="113"/>
-      <c r="T108" s="113"/>
-      <c r="U108" s="113"/>
-      <c r="V108" s="113"/>
-      <c r="W108" s="113"/>
-      <c r="X108" s="113"/>
-      <c r="Y108" s="113"/>
-      <c r="Z108" s="113"/>
-      <c r="AA108" s="113"/>
-      <c r="AB108" s="113"/>
-      <c r="AC108" s="113"/>
-      <c r="AD108" s="113"/>
-      <c r="AE108" s="113"/>
-      <c r="AF108" s="113"/>
-      <c r="AG108" s="114"/>
+      <c r="S108" s="92"/>
+      <c r="T108" s="92"/>
+      <c r="U108" s="92"/>
+      <c r="V108" s="92"/>
+      <c r="W108" s="92"/>
+      <c r="X108" s="92"/>
+      <c r="Y108" s="92"/>
+      <c r="Z108" s="92"/>
+      <c r="AA108" s="92"/>
+      <c r="AB108" s="92"/>
+      <c r="AC108" s="92"/>
+      <c r="AD108" s="92"/>
+      <c r="AE108" s="92"/>
+      <c r="AF108" s="92"/>
+      <c r="AG108" s="93"/>
       <c r="AH108" s="55"/>
-      <c r="AI108" s="76" t="s">
+      <c r="AI108" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="AJ108" s="76"/>
-      <c r="AK108" s="76"/>
+      <c r="AJ108" s="94"/>
+      <c r="AK108" s="94"/>
     </row>
     <row r="109" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="31" t="s">
@@ -10116,19 +10161,19 @@
       <c r="Z109" s="32"/>
       <c r="AA109" s="52"/>
       <c r="AB109" s="32"/>
-      <c r="AC109" s="113" t="s">
+      <c r="AC109" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AD109" s="113"/>
-      <c r="AE109" s="113"/>
-      <c r="AF109" s="113"/>
-      <c r="AG109" s="114"/>
+      <c r="AD109" s="92"/>
+      <c r="AE109" s="92"/>
+      <c r="AF109" s="92"/>
+      <c r="AG109" s="93"/>
       <c r="AH109" s="55"/>
-      <c r="AI109" s="76" t="s">
+      <c r="AI109" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="AJ109" s="76"/>
-      <c r="AK109" s="76"/>
+      <c r="AJ109" s="94"/>
+      <c r="AK109" s="94"/>
     </row>
     <row r="110" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="31" t="s">
@@ -10193,11 +10238,11 @@
       <c r="AF110" s="34"/>
       <c r="AG110" s="35"/>
       <c r="AH110" s="55"/>
-      <c r="AI110" s="76" t="s">
+      <c r="AI110" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="AJ110" s="76"/>
-      <c r="AK110" s="76"/>
+      <c r="AJ110" s="94"/>
+      <c r="AK110" s="94"/>
     </row>
     <row r="111" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="31" t="s">
@@ -10270,11 +10315,11 @@
       <c r="AF111" s="34"/>
       <c r="AG111" s="35"/>
       <c r="AH111" s="55"/>
-      <c r="AI111" s="76" t="s">
+      <c r="AI111" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="AJ111" s="76"/>
-      <c r="AK111" s="76"/>
+      <c r="AJ111" s="94"/>
+      <c r="AK111" s="94"/>
     </row>
     <row r="112" spans="1:41" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="31" t="s">
@@ -10323,11 +10368,11 @@
       <c r="AF112" s="34"/>
       <c r="AG112" s="35"/>
       <c r="AH112" s="55"/>
-      <c r="AI112" s="76" t="s">
+      <c r="AI112" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="AJ112" s="76"/>
-      <c r="AK112" s="76"/>
+      <c r="AJ112" s="94"/>
+      <c r="AK112" s="94"/>
     </row>
     <row r="113" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="31" t="s">
@@ -10392,11 +10437,11 @@
       <c r="AF113" s="34"/>
       <c r="AG113" s="35"/>
       <c r="AH113" s="55"/>
-      <c r="AI113" s="76" t="s">
+      <c r="AI113" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="AJ113" s="76"/>
-      <c r="AK113" s="76"/>
+      <c r="AJ113" s="94"/>
+      <c r="AK113" s="94"/>
     </row>
     <row r="114" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="31" t="s">
@@ -10471,15 +10516,15 @@
       <c r="AF114" s="34"/>
       <c r="AG114" s="35"/>
       <c r="AH114" s="55"/>
-      <c r="AI114" s="76" t="s">
+      <c r="AI114" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="AJ114" s="76"/>
-      <c r="AK114" s="76"/>
-      <c r="AL114" s="75"/>
-      <c r="AM114" s="75"/>
-      <c r="AN114" s="75"/>
-      <c r="AO114" s="75"/>
+      <c r="AJ114" s="94"/>
+      <c r="AK114" s="94"/>
+      <c r="AL114" s="119"/>
+      <c r="AM114" s="119"/>
+      <c r="AN114" s="119"/>
+      <c r="AO114" s="119"/>
     </row>
     <row r="115" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="31" t="s">
@@ -10548,11 +10593,11 @@
       <c r="AF115" s="34"/>
       <c r="AG115" s="35"/>
       <c r="AH115" s="55"/>
-      <c r="AI115" s="76" t="s">
+      <c r="AI115" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="AJ115" s="76"/>
-      <c r="AK115" s="76"/>
+      <c r="AJ115" s="94"/>
+      <c r="AK115" s="94"/>
     </row>
     <row r="116" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="31" t="s">
@@ -10603,11 +10648,11 @@
       <c r="AF116" s="34"/>
       <c r="AG116" s="35"/>
       <c r="AH116" s="55"/>
-      <c r="AI116" s="76" t="s">
+      <c r="AI116" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AJ116" s="76"/>
-      <c r="AK116" s="76"/>
+      <c r="AJ116" s="94"/>
+      <c r="AK116" s="94"/>
     </row>
     <row r="117" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="31" t="s">
@@ -10654,11 +10699,11 @@
       <c r="AF117" s="34"/>
       <c r="AG117" s="35"/>
       <c r="AH117" s="55"/>
-      <c r="AI117" s="76" t="s">
+      <c r="AI117" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="AJ117" s="76"/>
-      <c r="AK117" s="76"/>
+      <c r="AJ117" s="94"/>
+      <c r="AK117" s="94"/>
     </row>
     <row r="118" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="31" t="s">
@@ -10725,11 +10770,11 @@
       <c r="AF118" s="34"/>
       <c r="AG118" s="35"/>
       <c r="AH118" s="55"/>
-      <c r="AI118" s="76" t="s">
+      <c r="AI118" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="AJ118" s="76"/>
-      <c r="AK118" s="76"/>
+      <c r="AJ118" s="94"/>
+      <c r="AK118" s="94"/>
     </row>
     <row r="119" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="31" t="s">
@@ -10776,11 +10821,11 @@
       <c r="AF119" s="34"/>
       <c r="AG119" s="35"/>
       <c r="AH119" s="55"/>
-      <c r="AI119" s="76" t="s">
+      <c r="AI119" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="AJ119" s="76"/>
-      <c r="AK119" s="76"/>
+      <c r="AJ119" s="94"/>
+      <c r="AK119" s="94"/>
     </row>
     <row r="120" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="46" t="s">
@@ -10883,11 +10928,11 @@
         <v>1</v>
       </c>
       <c r="AH120" s="55"/>
-      <c r="AI120" s="76" t="s">
+      <c r="AI120" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="AJ120" s="76"/>
-      <c r="AK120" s="76"/>
+      <c r="AJ120" s="94"/>
+      <c r="AK120" s="94"/>
     </row>
     <row r="121" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B121" s="58"/>
@@ -11026,11 +11071,11 @@
       <c r="AF123" s="63"/>
       <c r="AG123" s="64"/>
       <c r="AH123" s="61"/>
-      <c r="AI123" s="76" t="s">
+      <c r="AI123" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="AJ123" s="76"/>
-      <c r="AK123" s="76"/>
+      <c r="AJ123" s="94"/>
+      <c r="AK123" s="94"/>
       <c r="AR123" s="47"/>
     </row>
     <row r="124" spans="1:44" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -11098,71 +11143,1227 @@
       <c r="AF124" s="63"/>
       <c r="AG124" s="64"/>
       <c r="AH124" s="61"/>
-      <c r="AI124" s="76" t="s">
+      <c r="AI124" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="AJ124" s="76"/>
-      <c r="AK124" s="76"/>
+      <c r="AJ124" s="94"/>
+      <c r="AK124" s="94"/>
       <c r="AR124" s="47"/>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A125" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="58">
+        <v>0</v>
+      </c>
+      <c r="C125" s="32">
+        <v>1</v>
+      </c>
+      <c r="D125" s="52">
+        <v>1</v>
+      </c>
+      <c r="E125" s="78">
+        <v>1</v>
+      </c>
+      <c r="F125" s="32">
+        <v>1</v>
+      </c>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="52"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="52">
+        <v>1</v>
+      </c>
+      <c r="O125" s="32">
+        <v>1</v>
+      </c>
+      <c r="P125" s="52"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="76">
+        <v>0</v>
+      </c>
+      <c r="S125" s="75">
+        <v>0</v>
+      </c>
+      <c r="T125" s="75">
+        <v>1</v>
+      </c>
+      <c r="U125" s="75">
+        <v>0</v>
+      </c>
+      <c r="V125" s="77">
+        <v>0</v>
+      </c>
+      <c r="W125" s="52"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="52"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="78"/>
+      <c r="AD125" s="78"/>
+      <c r="AE125" s="78"/>
+      <c r="AF125" s="78"/>
+      <c r="AG125" s="79"/>
+      <c r="AI125" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ125" s="94"/>
+      <c r="AK125" s="94"/>
       <c r="AR125" s="47"/>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="58">
+        <v>0</v>
+      </c>
+      <c r="C126" s="32">
+        <v>1</v>
+      </c>
+      <c r="D126" s="52">
+        <v>1</v>
+      </c>
+      <c r="E126" s="78">
+        <v>1</v>
+      </c>
+      <c r="F126" s="32">
+        <v>1</v>
+      </c>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="52"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="52">
+        <v>1</v>
+      </c>
+      <c r="O126" s="32">
+        <v>1</v>
+      </c>
+      <c r="P126" s="52"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="76">
+        <v>0</v>
+      </c>
+      <c r="S126" s="75">
+        <v>0</v>
+      </c>
+      <c r="T126" s="75">
+        <v>1</v>
+      </c>
+      <c r="U126" s="75">
+        <v>0</v>
+      </c>
+      <c r="V126" s="77">
+        <v>1</v>
+      </c>
+      <c r="W126" s="52"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z126" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="52"/>
+      <c r="AB126" s="32"/>
+      <c r="AC126" s="78"/>
+      <c r="AD126" s="78"/>
+      <c r="AE126" s="78"/>
+      <c r="AF126" s="78"/>
+      <c r="AG126" s="79"/>
+      <c r="AI126" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ126" s="94"/>
+      <c r="AK126" s="94"/>
       <c r="AR126" s="47"/>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="58">
+        <v>0</v>
+      </c>
+      <c r="C127" s="32">
+        <v>1</v>
+      </c>
+      <c r="D127" s="52">
+        <v>1</v>
+      </c>
+      <c r="E127" s="78">
+        <v>1</v>
+      </c>
+      <c r="F127" s="32">
+        <v>1</v>
+      </c>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="32"/>
+      <c r="N127" s="52">
+        <v>1</v>
+      </c>
+      <c r="O127" s="32">
+        <v>1</v>
+      </c>
+      <c r="P127" s="52"/>
+      <c r="Q127" s="32"/>
+      <c r="R127" s="76">
+        <v>0</v>
+      </c>
+      <c r="S127" s="75">
+        <v>0</v>
+      </c>
+      <c r="T127" s="75">
+        <v>1</v>
+      </c>
+      <c r="U127" s="75">
+        <v>1</v>
+      </c>
+      <c r="V127" s="77">
+        <v>0</v>
+      </c>
+      <c r="W127" s="52"/>
+      <c r="X127" s="32"/>
+      <c r="Y127" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="52"/>
+      <c r="AB127" s="32"/>
+      <c r="AC127" s="78"/>
+      <c r="AD127" s="78"/>
+      <c r="AE127" s="78"/>
+      <c r="AF127" s="78"/>
+      <c r="AG127" s="79"/>
+      <c r="AI127" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ127" s="94"/>
+      <c r="AK127" s="94"/>
       <c r="AR127" s="47"/>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="58">
+        <v>0</v>
+      </c>
+      <c r="C128" s="32">
+        <v>1</v>
+      </c>
+      <c r="D128" s="52">
+        <v>1</v>
+      </c>
+      <c r="E128" s="78">
+        <v>1</v>
+      </c>
+      <c r="F128" s="32">
+        <v>1</v>
+      </c>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="78"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="52">
+        <v>1</v>
+      </c>
+      <c r="O128" s="32">
+        <v>1</v>
+      </c>
+      <c r="P128" s="52"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="76">
+        <v>0</v>
+      </c>
+      <c r="S128" s="75">
+        <v>0</v>
+      </c>
+      <c r="T128" s="75">
+        <v>1</v>
+      </c>
+      <c r="U128" s="75">
+        <v>1</v>
+      </c>
+      <c r="V128" s="77">
+        <v>1</v>
+      </c>
+      <c r="W128" s="52"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z128" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="52"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="78"/>
+      <c r="AD128" s="78"/>
+      <c r="AE128" s="78"/>
+      <c r="AF128" s="78"/>
+      <c r="AG128" s="79"/>
+      <c r="AI128" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ128" s="94"/>
+      <c r="AK128" s="94"/>
       <c r="AR128" s="47"/>
     </row>
-    <row r="129" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A129" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="58">
+        <v>0</v>
+      </c>
+      <c r="C129" s="32">
+        <v>1</v>
+      </c>
+      <c r="D129" s="52">
+        <v>1</v>
+      </c>
+      <c r="E129" s="78">
+        <v>1</v>
+      </c>
+      <c r="F129" s="32">
+        <v>1</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="52"/>
+      <c r="J129" s="78"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="52"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="52">
+        <v>1</v>
+      </c>
+      <c r="O129" s="32">
+        <v>1</v>
+      </c>
+      <c r="P129" s="52"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="76">
+        <v>0</v>
+      </c>
+      <c r="S129" s="75">
+        <v>1</v>
+      </c>
+      <c r="T129" s="75">
+        <v>0</v>
+      </c>
+      <c r="U129" s="75">
+        <v>0</v>
+      </c>
+      <c r="V129" s="77">
+        <v>0</v>
+      </c>
+      <c r="W129" s="52"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z129" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="52"/>
+      <c r="AB129" s="32"/>
+      <c r="AC129" s="78"/>
+      <c r="AD129" s="78"/>
+      <c r="AE129" s="78"/>
+      <c r="AF129" s="78"/>
+      <c r="AG129" s="79"/>
+      <c r="AI129" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ129" s="94"/>
+      <c r="AK129" s="94"/>
       <c r="AR129" s="47"/>
     </row>
-    <row r="130" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A130" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="58">
+        <v>0</v>
+      </c>
+      <c r="C130" s="32">
+        <v>1</v>
+      </c>
+      <c r="D130" s="52">
+        <v>1</v>
+      </c>
+      <c r="E130" s="78">
+        <v>1</v>
+      </c>
+      <c r="F130" s="32">
+        <v>1</v>
+      </c>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="78"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="52">
+        <v>1</v>
+      </c>
+      <c r="O130" s="32">
+        <v>1</v>
+      </c>
+      <c r="P130" s="52"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="76">
+        <v>0</v>
+      </c>
+      <c r="S130" s="75">
+        <v>1</v>
+      </c>
+      <c r="T130" s="75">
+        <v>0</v>
+      </c>
+      <c r="U130" s="75">
+        <v>0</v>
+      </c>
+      <c r="V130" s="77">
+        <v>1</v>
+      </c>
+      <c r="W130" s="52"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="52"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="78"/>
+      <c r="AD130" s="78"/>
+      <c r="AE130" s="78"/>
+      <c r="AF130" s="78"/>
+      <c r="AG130" s="79"/>
+      <c r="AI130" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ130" s="94"/>
+      <c r="AK130" s="94"/>
       <c r="AR130" s="47"/>
     </row>
-    <row r="131" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="58">
+        <v>0</v>
+      </c>
+      <c r="C131" s="32">
+        <v>1</v>
+      </c>
+      <c r="D131" s="52">
+        <v>1</v>
+      </c>
+      <c r="E131" s="78">
+        <v>1</v>
+      </c>
+      <c r="F131" s="32">
+        <v>1</v>
+      </c>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="52"/>
+      <c r="J131" s="78"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="52">
+        <v>1</v>
+      </c>
+      <c r="O131" s="32">
+        <v>1</v>
+      </c>
+      <c r="P131" s="52"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="76">
+        <v>0</v>
+      </c>
+      <c r="S131" s="75">
+        <v>1</v>
+      </c>
+      <c r="T131" s="75">
+        <v>0</v>
+      </c>
+      <c r="U131" s="75">
+        <v>1</v>
+      </c>
+      <c r="V131" s="77">
+        <v>0</v>
+      </c>
+      <c r="W131" s="52"/>
+      <c r="X131" s="32"/>
+      <c r="Y131" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="52"/>
+      <c r="AB131" s="32"/>
+      <c r="AC131" s="78"/>
+      <c r="AD131" s="78"/>
+      <c r="AE131" s="78"/>
+      <c r="AF131" s="78"/>
+      <c r="AG131" s="79"/>
+      <c r="AI131" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ131" s="94"/>
+      <c r="AK131" s="94"/>
       <c r="AR131" s="47"/>
     </row>
-    <row r="132" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A132" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="58">
+        <v>0</v>
+      </c>
+      <c r="C132" s="32">
+        <v>1</v>
+      </c>
+      <c r="D132" s="52">
+        <v>1</v>
+      </c>
+      <c r="E132" s="78">
+        <v>1</v>
+      </c>
+      <c r="F132" s="32">
+        <v>1</v>
+      </c>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="52">
+        <v>1</v>
+      </c>
+      <c r="O132" s="32">
+        <v>1</v>
+      </c>
+      <c r="P132" s="52"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="76">
+        <v>0</v>
+      </c>
+      <c r="S132" s="75">
+        <v>1</v>
+      </c>
+      <c r="T132" s="75">
+        <v>0</v>
+      </c>
+      <c r="U132" s="75">
+        <v>1</v>
+      </c>
+      <c r="V132" s="77">
+        <v>1</v>
+      </c>
+      <c r="W132" s="52"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z132" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="52"/>
+      <c r="AB132" s="32"/>
+      <c r="AC132" s="78"/>
+      <c r="AD132" s="78"/>
+      <c r="AE132" s="78"/>
+      <c r="AF132" s="78"/>
+      <c r="AG132" s="79"/>
+      <c r="AI132" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ132" s="94"/>
+      <c r="AK132" s="94"/>
       <c r="AR132" s="47"/>
     </row>
-    <row r="133" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A133" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="58">
+        <v>0</v>
+      </c>
+      <c r="C133" s="32">
+        <v>1</v>
+      </c>
+      <c r="D133" s="52">
+        <v>1</v>
+      </c>
+      <c r="E133" s="78">
+        <v>1</v>
+      </c>
+      <c r="F133" s="32">
+        <v>1</v>
+      </c>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="52"/>
+      <c r="J133" s="78"/>
+      <c r="K133" s="32"/>
+      <c r="L133" s="52"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="52">
+        <v>1</v>
+      </c>
+      <c r="O133" s="32">
+        <v>1</v>
+      </c>
+      <c r="P133" s="52"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="76">
+        <v>0</v>
+      </c>
+      <c r="S133" s="75">
+        <v>1</v>
+      </c>
+      <c r="T133" s="75">
+        <v>1</v>
+      </c>
+      <c r="U133" s="75">
+        <v>0</v>
+      </c>
+      <c r="V133" s="77">
+        <v>0</v>
+      </c>
+      <c r="W133" s="52"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="52"/>
+      <c r="AB133" s="32"/>
+      <c r="AC133" s="78"/>
+      <c r="AD133" s="78"/>
+      <c r="AE133" s="78"/>
+      <c r="AF133" s="78"/>
+      <c r="AG133" s="79"/>
+      <c r="AI133" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ133" s="94"/>
+      <c r="AK133" s="94"/>
       <c r="AR133" s="47"/>
     </row>
-    <row r="134" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A134" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="58">
+        <v>0</v>
+      </c>
+      <c r="C134" s="32">
+        <v>1</v>
+      </c>
+      <c r="D134" s="52">
+        <v>1</v>
+      </c>
+      <c r="E134" s="78">
+        <v>1</v>
+      </c>
+      <c r="F134" s="32">
+        <v>1</v>
+      </c>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="52">
+        <v>1</v>
+      </c>
+      <c r="O134" s="32">
+        <v>1</v>
+      </c>
+      <c r="P134" s="52"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="76">
+        <v>0</v>
+      </c>
+      <c r="S134" s="75">
+        <v>1</v>
+      </c>
+      <c r="T134" s="75">
+        <v>1</v>
+      </c>
+      <c r="U134" s="75">
+        <v>0</v>
+      </c>
+      <c r="V134" s="77">
+        <v>1</v>
+      </c>
+      <c r="W134" s="52"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z134" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="52"/>
+      <c r="AB134" s="32"/>
+      <c r="AC134" s="78"/>
+      <c r="AD134" s="78"/>
+      <c r="AE134" s="78"/>
+      <c r="AF134" s="78"/>
+      <c r="AG134" s="79"/>
+      <c r="AI134" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ134" s="94"/>
+      <c r="AK134" s="94"/>
       <c r="AR134" s="47"/>
     </row>
-    <row r="135" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A135" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="58">
+        <v>0</v>
+      </c>
+      <c r="C135" s="32">
+        <v>1</v>
+      </c>
+      <c r="D135" s="52">
+        <v>1</v>
+      </c>
+      <c r="E135" s="78">
+        <v>1</v>
+      </c>
+      <c r="F135" s="32">
+        <v>1</v>
+      </c>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="52">
+        <v>1</v>
+      </c>
+      <c r="O135" s="32">
+        <v>1</v>
+      </c>
+      <c r="P135" s="52"/>
+      <c r="Q135" s="32"/>
+      <c r="R135" s="76">
+        <v>0</v>
+      </c>
+      <c r="S135" s="75">
+        <v>1</v>
+      </c>
+      <c r="T135" s="75">
+        <v>1</v>
+      </c>
+      <c r="U135" s="75">
+        <v>1</v>
+      </c>
+      <c r="V135" s="77">
+        <v>0</v>
+      </c>
+      <c r="W135" s="52"/>
+      <c r="X135" s="32"/>
+      <c r="Y135" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="52"/>
+      <c r="AB135" s="32"/>
+      <c r="AC135" s="78"/>
+      <c r="AD135" s="78"/>
+      <c r="AE135" s="78"/>
+      <c r="AF135" s="78"/>
+      <c r="AG135" s="79"/>
+      <c r="AI135" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ135" s="94"/>
+      <c r="AK135" s="94"/>
       <c r="AR135" s="47"/>
     </row>
-    <row r="136" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="58">
+        <v>0</v>
+      </c>
+      <c r="C136" s="32">
+        <v>1</v>
+      </c>
+      <c r="D136" s="52">
+        <v>1</v>
+      </c>
+      <c r="E136" s="78">
+        <v>1</v>
+      </c>
+      <c r="F136" s="32">
+        <v>1</v>
+      </c>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="78"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="52">
+        <v>1</v>
+      </c>
+      <c r="O136" s="32">
+        <v>1</v>
+      </c>
+      <c r="P136" s="52"/>
+      <c r="Q136" s="32"/>
+      <c r="R136" s="76">
+        <v>0</v>
+      </c>
+      <c r="S136" s="75">
+        <v>1</v>
+      </c>
+      <c r="T136" s="75">
+        <v>1</v>
+      </c>
+      <c r="U136" s="75">
+        <v>1</v>
+      </c>
+      <c r="V136" s="77">
+        <v>1</v>
+      </c>
+      <c r="W136" s="52"/>
+      <c r="X136" s="32"/>
+      <c r="Y136" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="52"/>
+      <c r="AB136" s="32"/>
+      <c r="AC136" s="78"/>
+      <c r="AD136" s="78"/>
+      <c r="AE136" s="78"/>
+      <c r="AF136" s="78"/>
+      <c r="AG136" s="79"/>
+      <c r="AI136" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ136" s="94"/>
+      <c r="AK136" s="94"/>
       <c r="AR136" s="47"/>
     </row>
-    <row r="137" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="58">
+        <v>0</v>
+      </c>
+      <c r="C137" s="32">
+        <v>1</v>
+      </c>
+      <c r="D137" s="52">
+        <v>1</v>
+      </c>
+      <c r="E137" s="78">
+        <v>1</v>
+      </c>
+      <c r="F137" s="32">
+        <v>1</v>
+      </c>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="52"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="52"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="52">
+        <v>1</v>
+      </c>
+      <c r="O137" s="32">
+        <v>1</v>
+      </c>
+      <c r="P137" s="52"/>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="76">
+        <v>1</v>
+      </c>
+      <c r="S137" s="75">
+        <v>0</v>
+      </c>
+      <c r="T137" s="75">
+        <v>0</v>
+      </c>
+      <c r="U137" s="75">
+        <v>0</v>
+      </c>
+      <c r="V137" s="77">
+        <v>0</v>
+      </c>
+      <c r="W137" s="52"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z137" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="52"/>
+      <c r="AB137" s="32"/>
+      <c r="AC137" s="78"/>
+      <c r="AD137" s="78"/>
+      <c r="AE137" s="78"/>
+      <c r="AF137" s="78"/>
+      <c r="AG137" s="79"/>
+      <c r="AI137" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ137" s="94"/>
+      <c r="AK137" s="94"/>
       <c r="AR137" s="47"/>
     </row>
-    <row r="138" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="58">
+        <v>0</v>
+      </c>
+      <c r="C138" s="32">
+        <v>1</v>
+      </c>
+      <c r="D138" s="52">
+        <v>1</v>
+      </c>
+      <c r="E138" s="78">
+        <v>1</v>
+      </c>
+      <c r="F138" s="32">
+        <v>1</v>
+      </c>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="52"/>
+      <c r="J138" s="78"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="52"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="52">
+        <v>1</v>
+      </c>
+      <c r="O138" s="32">
+        <v>1</v>
+      </c>
+      <c r="P138" s="52"/>
+      <c r="Q138" s="32"/>
+      <c r="R138" s="76">
+        <v>1</v>
+      </c>
+      <c r="S138" s="75">
+        <v>0</v>
+      </c>
+      <c r="T138" s="75">
+        <v>0</v>
+      </c>
+      <c r="U138" s="75">
+        <v>0</v>
+      </c>
+      <c r="V138" s="77">
+        <v>1</v>
+      </c>
+      <c r="W138" s="52"/>
+      <c r="X138" s="32"/>
+      <c r="Y138" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z138" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="52"/>
+      <c r="AB138" s="32"/>
+      <c r="AC138" s="78"/>
+      <c r="AD138" s="78"/>
+      <c r="AE138" s="78"/>
+      <c r="AF138" s="78"/>
+      <c r="AG138" s="79"/>
+      <c r="AI138" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ138" s="94"/>
+      <c r="AK138" s="94"/>
       <c r="AR138" s="47"/>
     </row>
-    <row r="139" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="58">
+        <v>0</v>
+      </c>
+      <c r="C139" s="32">
+        <v>1</v>
+      </c>
+      <c r="D139" s="52">
+        <v>1</v>
+      </c>
+      <c r="E139" s="78">
+        <v>1</v>
+      </c>
+      <c r="F139" s="32">
+        <v>1</v>
+      </c>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="52"/>
+      <c r="J139" s="78"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="52">
+        <v>1</v>
+      </c>
+      <c r="O139" s="32">
+        <v>1</v>
+      </c>
+      <c r="P139" s="52"/>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="76">
+        <v>1</v>
+      </c>
+      <c r="S139" s="75">
+        <v>0</v>
+      </c>
+      <c r="T139" s="75">
+        <v>0</v>
+      </c>
+      <c r="U139" s="75">
+        <v>1</v>
+      </c>
+      <c r="V139" s="77">
+        <v>0</v>
+      </c>
+      <c r="W139" s="52"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z139" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="52"/>
+      <c r="AB139" s="32"/>
+      <c r="AC139" s="78"/>
+      <c r="AD139" s="78"/>
+      <c r="AE139" s="78"/>
+      <c r="AF139" s="78"/>
+      <c r="AG139" s="79"/>
+      <c r="AI139" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ139" s="94"/>
+      <c r="AK139" s="94"/>
       <c r="AR139" s="47"/>
     </row>
-    <row r="140" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A140" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="58">
+        <v>0</v>
+      </c>
+      <c r="C140" s="32">
+        <v>1</v>
+      </c>
+      <c r="D140" s="52">
+        <v>1</v>
+      </c>
+      <c r="E140" s="78">
+        <v>1</v>
+      </c>
+      <c r="F140" s="32">
+        <v>1</v>
+      </c>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="52"/>
+      <c r="J140" s="78"/>
+      <c r="K140" s="32"/>
+      <c r="L140" s="52"/>
+      <c r="M140" s="32"/>
+      <c r="N140" s="52">
+        <v>1</v>
+      </c>
+      <c r="O140" s="32">
+        <v>1</v>
+      </c>
+      <c r="P140" s="52"/>
+      <c r="Q140" s="32"/>
+      <c r="R140" s="76">
+        <v>1</v>
+      </c>
+      <c r="S140" s="75">
+        <v>0</v>
+      </c>
+      <c r="T140" s="75">
+        <v>0</v>
+      </c>
+      <c r="U140" s="75">
+        <v>1</v>
+      </c>
+      <c r="V140" s="77">
+        <v>1</v>
+      </c>
+      <c r="W140" s="52"/>
+      <c r="X140" s="32"/>
+      <c r="Y140" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="52"/>
+      <c r="AB140" s="32"/>
+      <c r="AC140" s="78"/>
+      <c r="AD140" s="78"/>
+      <c r="AE140" s="78"/>
+      <c r="AF140" s="78"/>
+      <c r="AG140" s="79"/>
+      <c r="AI140" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ140" s="94"/>
+      <c r="AK140" s="94"/>
       <c r="AR140" s="47"/>
     </row>
-    <row r="141" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:44" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A141" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="58">
+        <v>0</v>
+      </c>
+      <c r="C141" s="32">
+        <v>1</v>
+      </c>
+      <c r="D141" s="52">
+        <v>1</v>
+      </c>
+      <c r="E141" s="78">
+        <v>1</v>
+      </c>
+      <c r="F141" s="32">
+        <v>1</v>
+      </c>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="52"/>
+      <c r="J141" s="78"/>
+      <c r="K141" s="32"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="32"/>
+      <c r="N141" s="52">
+        <v>1</v>
+      </c>
+      <c r="O141" s="32">
+        <v>1</v>
+      </c>
+      <c r="P141" s="52"/>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="76">
+        <v>1</v>
+      </c>
+      <c r="S141" s="75">
+        <v>0</v>
+      </c>
+      <c r="T141" s="75">
+        <v>1</v>
+      </c>
+      <c r="U141" s="75">
+        <v>0</v>
+      </c>
+      <c r="V141" s="77">
+        <v>0</v>
+      </c>
+      <c r="W141" s="52"/>
+      <c r="X141" s="32"/>
+      <c r="Y141" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z141" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="52"/>
+      <c r="AB141" s="32"/>
+      <c r="AC141" s="78"/>
+      <c r="AD141" s="78"/>
+      <c r="AE141" s="78"/>
+      <c r="AF141" s="78"/>
+      <c r="AG141" s="79"/>
+      <c r="AI141" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ141" s="94"/>
+      <c r="AK141" s="94"/>
       <c r="AR141" s="47"/>
     </row>
-    <row r="142" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR142" s="47"/>
     </row>
-    <row r="143" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR143" s="47"/>
     </row>
-    <row r="144" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.45">
       <c r="AR144" s="47"/>
     </row>
     <row r="145" spans="5:44" x14ac:dyDescent="0.45">
@@ -11276,41 +12477,41 @@
       <c r="I167" s="6"/>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A177" s="116" t="s">
+      <c r="A177" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B177" s="116"/>
-      <c r="C177" s="116"/>
-      <c r="D177" s="116"/>
-      <c r="E177" s="116"/>
-      <c r="F177" s="116"/>
-      <c r="G177" s="116"/>
-      <c r="H177" s="116"/>
-      <c r="I177" s="116"/>
-      <c r="J177" s="116"/>
-      <c r="K177" s="116"/>
-      <c r="L177" s="116"/>
-      <c r="M177" s="116"/>
-      <c r="N177" s="116"/>
-      <c r="O177" s="116"/>
-      <c r="P177" s="116"/>
-      <c r="Q177" s="116"/>
-      <c r="R177" s="116"/>
-      <c r="S177" s="116"/>
-      <c r="T177" s="116"/>
-      <c r="U177" s="116"/>
-      <c r="V177" s="116"/>
-      <c r="W177" s="116"/>
-      <c r="X177" s="116"/>
-      <c r="Y177" s="116"/>
-      <c r="Z177" s="116"/>
-      <c r="AA177" s="116"/>
-      <c r="AB177" s="116"/>
-      <c r="AC177" s="116"/>
-      <c r="AD177" s="116"/>
-      <c r="AE177" s="116"/>
-      <c r="AF177" s="116"/>
-      <c r="AG177" s="116"/>
+      <c r="B177" s="96"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="96"/>
+      <c r="G177" s="96"/>
+      <c r="H177" s="96"/>
+      <c r="I177" s="96"/>
+      <c r="J177" s="96"/>
+      <c r="K177" s="96"/>
+      <c r="L177" s="96"/>
+      <c r="M177" s="96"/>
+      <c r="N177" s="96"/>
+      <c r="O177" s="96"/>
+      <c r="P177" s="96"/>
+      <c r="Q177" s="96"/>
+      <c r="R177" s="96"/>
+      <c r="S177" s="96"/>
+      <c r="T177" s="96"/>
+      <c r="U177" s="96"/>
+      <c r="V177" s="96"/>
+      <c r="W177" s="96"/>
+      <c r="X177" s="96"/>
+      <c r="Y177" s="96"/>
+      <c r="Z177" s="96"/>
+      <c r="AA177" s="96"/>
+      <c r="AB177" s="96"/>
+      <c r="AC177" s="96"/>
+      <c r="AD177" s="96"/>
+      <c r="AE177" s="96"/>
+      <c r="AF177" s="96"/>
+      <c r="AG177" s="96"/>
       <c r="AH177" s="29"/>
       <c r="AI177" s="29"/>
     </row>
@@ -11416,146 +12617,173 @@
       <c r="A183" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B183" s="105" t="s">
+      <c r="B183" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C183" s="76"/>
-      <c r="D183" s="76"/>
-      <c r="E183" s="76"/>
-      <c r="F183" s="76"/>
-      <c r="G183" s="76"/>
-      <c r="H183" s="76"/>
-      <c r="I183" s="76"/>
-      <c r="J183" s="76"/>
-      <c r="K183" s="76"/>
-      <c r="L183" s="76"/>
-      <c r="M183" s="76"/>
-      <c r="N183" s="76"/>
-      <c r="O183" s="76"/>
-      <c r="P183" s="76"/>
-      <c r="Q183" s="76"/>
-      <c r="R183" s="76"/>
-      <c r="S183" s="76"/>
-      <c r="T183" s="76"/>
-      <c r="U183" s="76"/>
-      <c r="V183" s="76"/>
-      <c r="W183" s="76"/>
-      <c r="X183" s="76"/>
-      <c r="Y183" s="76"/>
-      <c r="Z183" s="76"/>
-      <c r="AA183" s="76"/>
-      <c r="AB183" s="76"/>
-      <c r="AC183" s="76"/>
-      <c r="AD183" s="76"/>
-      <c r="AE183" s="76"/>
-      <c r="AF183" s="76"/>
-      <c r="AG183" s="106"/>
+      <c r="C183" s="94"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="94"/>
+      <c r="F183" s="94"/>
+      <c r="G183" s="94"/>
+      <c r="H183" s="94"/>
+      <c r="I183" s="94"/>
+      <c r="J183" s="94"/>
+      <c r="K183" s="94"/>
+      <c r="L183" s="94"/>
+      <c r="M183" s="94"/>
+      <c r="N183" s="94"/>
+      <c r="O183" s="94"/>
+      <c r="P183" s="94"/>
+      <c r="Q183" s="94"/>
+      <c r="R183" s="94"/>
+      <c r="S183" s="94"/>
+      <c r="T183" s="94"/>
+      <c r="U183" s="94"/>
+      <c r="V183" s="94"/>
+      <c r="W183" s="94"/>
+      <c r="X183" s="94"/>
+      <c r="Y183" s="94"/>
+      <c r="Z183" s="94"/>
+      <c r="AA183" s="94"/>
+      <c r="AB183" s="94"/>
+      <c r="AC183" s="94"/>
+      <c r="AD183" s="94"/>
+      <c r="AE183" s="94"/>
+      <c r="AF183" s="94"/>
+      <c r="AG183" s="98"/>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A185" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B185" s="105" t="s">
+      <c r="B185" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C185" s="76"/>
-      <c r="D185" s="76"/>
-      <c r="E185" s="76"/>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
-      <c r="K185" s="76"/>
-      <c r="L185" s="76"/>
-      <c r="M185" s="76"/>
-      <c r="N185" s="76"/>
-      <c r="O185" s="76"/>
-      <c r="P185" s="76"/>
-      <c r="Q185" s="106"/>
-      <c r="R185" s="105" t="s">
+      <c r="C185" s="94"/>
+      <c r="D185" s="94"/>
+      <c r="E185" s="94"/>
+      <c r="F185" s="94"/>
+      <c r="G185" s="94"/>
+      <c r="H185" s="94"/>
+      <c r="I185" s="94"/>
+      <c r="J185" s="94"/>
+      <c r="K185" s="94"/>
+      <c r="L185" s="94"/>
+      <c r="M185" s="94"/>
+      <c r="N185" s="94"/>
+      <c r="O185" s="94"/>
+      <c r="P185" s="94"/>
+      <c r="Q185" s="98"/>
+      <c r="R185" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="S185" s="76"/>
-      <c r="T185" s="76"/>
-      <c r="U185" s="76"/>
-      <c r="V185" s="76"/>
-      <c r="W185" s="76"/>
-      <c r="X185" s="76"/>
-      <c r="Y185" s="76"/>
-      <c r="Z185" s="76"/>
-      <c r="AA185" s="76"/>
-      <c r="AB185" s="76"/>
-      <c r="AC185" s="76"/>
-      <c r="AD185" s="76"/>
-      <c r="AE185" s="76"/>
-      <c r="AF185" s="76"/>
-      <c r="AG185" s="106"/>
+      <c r="S185" s="94"/>
+      <c r="T185" s="94"/>
+      <c r="U185" s="94"/>
+      <c r="V185" s="94"/>
+      <c r="W185" s="94"/>
+      <c r="X185" s="94"/>
+      <c r="Y185" s="94"/>
+      <c r="Z185" s="94"/>
+      <c r="AA185" s="94"/>
+      <c r="AB185" s="94"/>
+      <c r="AC185" s="94"/>
+      <c r="AD185" s="94"/>
+      <c r="AE185" s="94"/>
+      <c r="AF185" s="94"/>
+      <c r="AG185" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
-    <mergeCell ref="I57:K59"/>
-    <mergeCell ref="M64:O67"/>
-    <mergeCell ref="P99:Q101"/>
-    <mergeCell ref="N99:O101"/>
-    <mergeCell ref="L99:M101"/>
-    <mergeCell ref="B99:C101"/>
-    <mergeCell ref="I99:K101"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="AI105:AK105"/>
-    <mergeCell ref="D99:F101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="R62:R67"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="R104:AG104"/>
-    <mergeCell ref="R99:V101"/>
-    <mergeCell ref="W99:X101"/>
-    <mergeCell ref="Y99:Z101"/>
-    <mergeCell ref="AA99:AB101"/>
-    <mergeCell ref="AC99:AG101"/>
-    <mergeCell ref="AI119:AK119"/>
-    <mergeCell ref="AI103:AK103"/>
-    <mergeCell ref="AI115:AK115"/>
-    <mergeCell ref="AI116:AK116"/>
-    <mergeCell ref="AI117:AK117"/>
-    <mergeCell ref="AI118:AK118"/>
-    <mergeCell ref="AI111:AK111"/>
-    <mergeCell ref="AI112:AK112"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AI104:AK104"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="R106:AG106"/>
-    <mergeCell ref="AI106:AK106"/>
-    <mergeCell ref="R107:AG107"/>
-    <mergeCell ref="AI107:AK107"/>
-    <mergeCell ref="R108:AG108"/>
-    <mergeCell ref="AI108:AK108"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="AI123:AK123"/>
-    <mergeCell ref="A177:AG177"/>
-    <mergeCell ref="B183:AG183"/>
-    <mergeCell ref="R185:AG185"/>
-    <mergeCell ref="B185:Q185"/>
-    <mergeCell ref="D52:F54"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="AC109:AG109"/>
-    <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="AC63:AE63"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="B64:D67"/>
-    <mergeCell ref="O77:O82"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="L57:M59"/>
-    <mergeCell ref="N57:O59"/>
-    <mergeCell ref="W57:X59"/>
-    <mergeCell ref="G64:G67"/>
+  <mergeCells count="195">
+    <mergeCell ref="AI134:AK134"/>
+    <mergeCell ref="AI135:AK135"/>
+    <mergeCell ref="AI136:AK136"/>
+    <mergeCell ref="AI137:AK137"/>
+    <mergeCell ref="AI138:AK138"/>
+    <mergeCell ref="AI139:AK139"/>
+    <mergeCell ref="AI140:AK140"/>
+    <mergeCell ref="AI141:AK141"/>
+    <mergeCell ref="AI125:AK125"/>
+    <mergeCell ref="AI126:AK126"/>
+    <mergeCell ref="AI127:AK127"/>
+    <mergeCell ref="AI128:AK128"/>
+    <mergeCell ref="AI129:AK129"/>
+    <mergeCell ref="AI130:AK130"/>
+    <mergeCell ref="AI131:AK131"/>
+    <mergeCell ref="AI132:AK132"/>
+    <mergeCell ref="AI133:AK133"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AL114:AO114"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AI124:AK124"/>
+    <mergeCell ref="AY60:AY72"/>
+    <mergeCell ref="AX78:AY78"/>
+    <mergeCell ref="AY81:AY85"/>
+    <mergeCell ref="AY87:AY91"/>
+    <mergeCell ref="AQ78:AR81"/>
+    <mergeCell ref="AU71:AV71"/>
+    <mergeCell ref="AQ61:AR64"/>
+    <mergeCell ref="AI120:AK120"/>
+    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="L52:M54"/>
+    <mergeCell ref="N52:O54"/>
+    <mergeCell ref="P52:Q54"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="I52:K54"/>
+    <mergeCell ref="AC88:AE88"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AC90:AE90"/>
+    <mergeCell ref="B79:C81"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="P88:P91"/>
+    <mergeCell ref="Q88:Q91"/>
+    <mergeCell ref="M88:N91"/>
+    <mergeCell ref="M77:N82"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="AC69:AE69"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="AC71:AE71"/>
+    <mergeCell ref="AC72:AE72"/>
+    <mergeCell ref="AC73:AE73"/>
+    <mergeCell ref="C50:AG50"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="AN87:AN91"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ28:AQ28"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AJ30:AQ30"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AJ32:AQ32"/>
+    <mergeCell ref="AJ33:AQ33"/>
+    <mergeCell ref="AJ41:AQ41"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="AJ43:AQ43"/>
+    <mergeCell ref="AN60:AN72"/>
+    <mergeCell ref="AN81:AN85"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AJ3:AQ3"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AJ13:AQ13"/>
     <mergeCell ref="AJ34:AQ34"/>
     <mergeCell ref="AJ35:AQ35"/>
     <mergeCell ref="AJ36:AQ36"/>
@@ -11579,99 +12807,89 @@
     <mergeCell ref="AJ38:AQ38"/>
     <mergeCell ref="AJ39:AQ39"/>
     <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AJ3:AQ3"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="AJ10:AQ10"/>
     <mergeCell ref="J64:J67"/>
+    <mergeCell ref="A177:AG177"/>
+    <mergeCell ref="B183:AG183"/>
+    <mergeCell ref="R185:AG185"/>
+    <mergeCell ref="B185:Q185"/>
+    <mergeCell ref="D52:F54"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="AC109:AG109"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AC63:AE63"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="B64:D67"/>
+    <mergeCell ref="O77:O82"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="L57:M59"/>
+    <mergeCell ref="N57:O59"/>
+    <mergeCell ref="W57:X59"/>
+    <mergeCell ref="G64:G67"/>
     <mergeCell ref="K64:K67"/>
-    <mergeCell ref="AN87:AN91"/>
-    <mergeCell ref="AQ71:AR71"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="AJ19:AQ19"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AJ22:AQ22"/>
-    <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AJ30:AQ30"/>
-    <mergeCell ref="AJ31:AQ31"/>
-    <mergeCell ref="AJ32:AQ32"/>
-    <mergeCell ref="AJ33:AQ33"/>
-    <mergeCell ref="AJ41:AQ41"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="AJ43:AQ43"/>
-    <mergeCell ref="A47:AI47"/>
-    <mergeCell ref="L52:M54"/>
-    <mergeCell ref="N52:O54"/>
-    <mergeCell ref="P52:Q54"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="I52:K54"/>
-    <mergeCell ref="AC88:AE88"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="AC90:AE90"/>
-    <mergeCell ref="AN60:AN72"/>
-    <mergeCell ref="AN81:AN85"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="B79:C81"/>
-    <mergeCell ref="O88:O91"/>
-    <mergeCell ref="P88:P91"/>
-    <mergeCell ref="Q88:Q91"/>
-    <mergeCell ref="M88:N91"/>
-    <mergeCell ref="M77:N82"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="AC68:AE68"/>
-    <mergeCell ref="AC69:AE69"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="AC71:AE71"/>
-    <mergeCell ref="AC72:AE72"/>
-    <mergeCell ref="C50:AG50"/>
-    <mergeCell ref="E64:E67"/>
     <mergeCell ref="F64:F67"/>
+    <mergeCell ref="R106:AG106"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="R107:AG107"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="R108:AG108"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="AI123:AK123"/>
     <mergeCell ref="P57:Q59"/>
     <mergeCell ref="Q77:Q82"/>
-    <mergeCell ref="AC78:AE78"/>
     <mergeCell ref="AC79:AE79"/>
     <mergeCell ref="AC80:AE80"/>
     <mergeCell ref="AC81:AE81"/>
     <mergeCell ref="AC82:AE82"/>
-    <mergeCell ref="AC73:AE73"/>
     <mergeCell ref="AC74:AE74"/>
     <mergeCell ref="AC75:AE75"/>
     <mergeCell ref="AC76:AE76"/>
     <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="AC78:AE78"/>
     <mergeCell ref="AC57:AG59"/>
     <mergeCell ref="Y57:Z59"/>
     <mergeCell ref="U62:U67"/>
+    <mergeCell ref="AI119:AK119"/>
+    <mergeCell ref="AI103:AK103"/>
+    <mergeCell ref="AI115:AK115"/>
+    <mergeCell ref="AI116:AK116"/>
+    <mergeCell ref="AI117:AK117"/>
+    <mergeCell ref="AI118:AK118"/>
+    <mergeCell ref="AI111:AK111"/>
+    <mergeCell ref="AI112:AK112"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AI104:AK104"/>
+    <mergeCell ref="AI114:AK114"/>
+    <mergeCell ref="I57:K59"/>
+    <mergeCell ref="M64:O67"/>
+    <mergeCell ref="P99:Q101"/>
+    <mergeCell ref="N99:O101"/>
+    <mergeCell ref="L99:M101"/>
+    <mergeCell ref="B99:C101"/>
+    <mergeCell ref="I99:K101"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="AI105:AK105"/>
+    <mergeCell ref="D99:F101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R99:V101"/>
+    <mergeCell ref="W99:X101"/>
+    <mergeCell ref="Y99:Z101"/>
+    <mergeCell ref="AA99:AB101"/>
+    <mergeCell ref="AC99:AG101"/>
     <mergeCell ref="P62:P67"/>
     <mergeCell ref="Q62:Q67"/>
     <mergeCell ref="S62:S67"/>
     <mergeCell ref="T62:T67"/>
-    <mergeCell ref="AL114:AO114"/>
-    <mergeCell ref="AI109:AK109"/>
-    <mergeCell ref="AI110:AK110"/>
-    <mergeCell ref="AI124:AK124"/>
-    <mergeCell ref="AY60:AY72"/>
-    <mergeCell ref="AX78:AY78"/>
-    <mergeCell ref="AY81:AY85"/>
-    <mergeCell ref="AY87:AY91"/>
-    <mergeCell ref="AQ78:AR81"/>
-    <mergeCell ref="AU71:AV71"/>
-    <mergeCell ref="AQ61:AR64"/>
-    <mergeCell ref="AI120:AK120"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
